--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Documents\Public Health\Diplomarbeit\Afra Nerpel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="312">
   <si>
     <t>source</t>
   </si>
@@ -44,72 +44,42 @@
     <t>SARS-CoV and intermediate hosts</t>
   </si>
   <si>
-    <t>17.02.2020</t>
-  </si>
-  <si>
     <t>advisory document from the World Small Animal Veterinary Association (WSAVA)</t>
   </si>
   <si>
     <t>20200218.7002276</t>
   </si>
   <si>
-    <t>18.02.2020</t>
-  </si>
-  <si>
     <t>20200220.7009213</t>
   </si>
   <si>
-    <t>20.02.2020</t>
-  </si>
-  <si>
     <t>wildlife trade and consumption ban in China</t>
   </si>
   <si>
     <t>20200225.7024245</t>
   </si>
   <si>
-    <t>25.02.2020</t>
-  </si>
-  <si>
     <t>20200323.7129951</t>
   </si>
   <si>
-    <t>23.03.2020</t>
-  </si>
-  <si>
     <t>20200403.7179945</t>
   </si>
   <si>
-    <t>03.04.2020</t>
-  </si>
-  <si>
     <t>20200406.7191480</t>
   </si>
   <si>
-    <t>06.04.2020</t>
-  </si>
-  <si>
     <t>20200407.7196506</t>
   </si>
   <si>
     <t>20200418.7240811</t>
   </si>
   <si>
-    <t>18.04.2020</t>
-  </si>
-  <si>
     <t>20200423.7259119</t>
   </si>
   <si>
-    <t>23.04.2020</t>
-  </si>
-  <si>
     <t>20200430.7281768</t>
   </si>
   <si>
-    <t>30.04.2020</t>
-  </si>
-  <si>
     <t>discussion about 20200428.7275765</t>
   </si>
   <si>
@@ -119,69 +89,42 @@
     <t>20200501.7286113</t>
   </si>
   <si>
-    <t>01.05.2020</t>
-  </si>
-  <si>
     <t>20200503.7294846</t>
   </si>
   <si>
-    <t>03.05.2020</t>
-  </si>
-  <si>
     <t>20200511.7323845</t>
   </si>
   <si>
-    <t>11.05.2020</t>
-  </si>
-  <si>
     <t>20200514.7337185</t>
   </si>
   <si>
     <t>20200520.7359976</t>
   </si>
   <si>
-    <t>20.05.2020</t>
-  </si>
-  <si>
     <t>20200527.7385049</t>
   </si>
   <si>
-    <t>27.05.2020</t>
-  </si>
-  <si>
     <t>20200601.7416648</t>
   </si>
   <si>
     <t>20200609.7446478</t>
   </si>
   <si>
-    <t>09.06.2020</t>
-  </si>
-  <si>
     <t>20200617.7480013</t>
   </si>
   <si>
-    <t>17.06.2020</t>
-  </si>
-  <si>
     <t>Single-cell screening of SARS-CoV-2 target cells in pets, livestock, poultry and wildlife</t>
   </si>
   <si>
     <t>20200623.7502805</t>
   </si>
   <si>
-    <t>23.06.2020</t>
-  </si>
-  <si>
     <t>negative results in pangolin research</t>
   </si>
   <si>
     <t>20200711.7565035</t>
   </si>
   <si>
-    <t>11.07.2020</t>
-  </si>
-  <si>
     <t>theories about SARS-CoV2 origin</t>
   </si>
   <si>
@@ -191,30 +134,18 @@
     <t>20200815.7681907</t>
   </si>
   <si>
-    <t>15.08.2020</t>
-  </si>
-  <si>
     <t>20200818.7689234</t>
   </si>
   <si>
-    <t>18.08.2020</t>
-  </si>
-  <si>
     <t>critical comments on testing methods</t>
   </si>
   <si>
     <t>20200825.7715862</t>
   </si>
   <si>
-    <t>25.08.2020</t>
-  </si>
-  <si>
     <t>20200827.7721923</t>
   </si>
   <si>
-    <t>27.08.2020</t>
-  </si>
-  <si>
     <t>discussion about ferrets being farmed and about ferrets being susceptible</t>
   </si>
   <si>
@@ -224,39 +155,21 @@
     <t>20200902.7740793</t>
   </si>
   <si>
-    <t>02.09.2020</t>
-  </si>
-  <si>
     <t>20201004.7835635</t>
   </si>
   <si>
-    <t>04.10.2020</t>
-  </si>
-  <si>
     <t>20201009.7847704</t>
   </si>
   <si>
-    <t>09.10.2020</t>
-  </si>
-  <si>
     <t>20201010.7851707</t>
   </si>
   <si>
-    <t>10.10.2020</t>
-  </si>
-  <si>
     <t>20201013.7858915</t>
   </si>
   <si>
-    <t>13.10.2020</t>
-  </si>
-  <si>
     <t>20201014.7861560</t>
   </si>
   <si>
-    <t>14.10.2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">news article about culled minks in Denmark </t>
   </si>
   <si>
@@ -269,99 +182,57 @@
     <t>20201101.7906484</t>
   </si>
   <si>
-    <t>01.11.2020</t>
-  </si>
-  <si>
     <t>20201103.7912846</t>
   </si>
   <si>
-    <t>03.11.2020</t>
-  </si>
-  <si>
     <t>20201104.7916300</t>
   </si>
   <si>
-    <t>04.11.2020</t>
-  </si>
-  <si>
     <t>20201105.7918210</t>
   </si>
   <si>
-    <t>05.11.2020</t>
-  </si>
-  <si>
     <t>20201106.7922587</t>
   </si>
   <si>
-    <t>06.11.2020</t>
-  </si>
-  <si>
     <t>20201108.7926649</t>
   </si>
   <si>
-    <t>08.11.2020</t>
-  </si>
-  <si>
     <t>OIE Guidance on working with farmed animals of species susceptible to infection with SARS-CoV-2</t>
   </si>
   <si>
     <t>20201109.7929573</t>
   </si>
   <si>
-    <t>09.11.2020</t>
-  </si>
-  <si>
     <t>20201112.7939110</t>
   </si>
   <si>
-    <t>12.11. 2020</t>
-  </si>
-  <si>
     <t>EDEC risk assessment for Cluster 5 in Denmark</t>
   </si>
   <si>
     <t>20201119.7954363</t>
   </si>
   <si>
-    <t>19.11.2020</t>
-  </si>
-  <si>
     <t>experiment about transmission bottleneck in cats</t>
   </si>
   <si>
     <t>20201120.7959431</t>
   </si>
   <si>
-    <t>20.11.2020</t>
-  </si>
-  <si>
     <t>20201122.7963766</t>
   </si>
   <si>
-    <t>22.11.2020</t>
-  </si>
-  <si>
     <t>article about minks in europe and the mutation in Denmark</t>
   </si>
   <si>
     <t>20201204.7994061</t>
   </si>
   <si>
-    <t>04.12.2020</t>
-  </si>
-  <si>
     <t>20201208.8002622</t>
   </si>
   <si>
-    <t>08.12.2020</t>
-  </si>
-  <si>
     <t>20201210.8009205</t>
   </si>
   <si>
-    <t>10.12.2020</t>
-  </si>
-  <si>
     <t>experimental infection of vaccinated minks</t>
   </si>
   <si>
@@ -371,15 +242,9 @@
     <t>20201222.8039549</t>
   </si>
   <si>
-    <t>22.12.2020</t>
-  </si>
-  <si>
     <t>20201225.8046582</t>
   </si>
   <si>
-    <t>25.12.2020</t>
-  </si>
-  <si>
     <t>half of the black-footed ferret at the National Black-footed Ferret Conservation Center outside Fort Collins, Colorado, were vaccinated</t>
   </si>
   <si>
@@ -389,15 +254,9 @@
     <t>20210106.8079009</t>
   </si>
   <si>
-    <t>06.01.2021</t>
-  </si>
-  <si>
     <t>20210114.8103327</t>
   </si>
   <si>
-    <t>14.01.2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">WHO experts arriving in Wuhan and their plans </t>
   </si>
   <si>
@@ -407,66 +266,42 @@
     <t>20210121.8124456</t>
   </si>
   <si>
-    <t>21.01.2021</t>
-  </si>
-  <si>
     <t>20210122.8126905</t>
   </si>
   <si>
     <t>20210130.8149337</t>
   </si>
   <si>
-    <t>30.01.2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">WHO experts visiting hospital where first covid patients were treated and meeting with chiniese officials </t>
   </si>
   <si>
     <t>20210201.8153415</t>
   </si>
   <si>
-    <t>01.02.2021</t>
-  </si>
-  <si>
     <t>WHO experts visiting two markets and Revision of China's Animal Epidemic Prevention Law (ASF and others)</t>
   </si>
   <si>
     <t>20210207.8173294</t>
   </si>
   <si>
-    <t>07.02.2021</t>
-  </si>
-  <si>
     <t>risk assessement for people working at mink farms</t>
   </si>
   <si>
     <t>20210210.8183343</t>
   </si>
   <si>
-    <t>10.02.2021</t>
-  </si>
-  <si>
     <t>20210211.8184900</t>
   </si>
   <si>
-    <t>11.02.2021</t>
-  </si>
-  <si>
     <t>20210214.8190188</t>
   </si>
   <si>
-    <t>14.02.2021</t>
-  </si>
-  <si>
     <t>WHO experts returning from Wuhan, Q&amp;A</t>
   </si>
   <si>
     <t>20210216.8195382</t>
   </si>
   <si>
-    <t>16.02.2021</t>
-  </si>
-  <si>
     <t>OIE expert group gives update on Covid-19 in animals</t>
   </si>
   <si>
@@ -476,33 +311,21 @@
     <t>20210218.8200008</t>
   </si>
   <si>
-    <t>18.02.2021</t>
-  </si>
-  <si>
     <t>20210315.8249619</t>
   </si>
   <si>
-    <t>15.03.2021</t>
-  </si>
-  <si>
     <t>ASF role in the Covid outbreak: pork meat shortage leading to alternative meat sources being hunted and sold at markets</t>
   </si>
   <si>
     <t>20210316.8251684</t>
   </si>
   <si>
-    <t>16.03.2021</t>
-  </si>
-  <si>
     <t>WHO: chinese wildlife farms as most likely source of Covid-19</t>
   </si>
   <si>
     <t>20210331.8279475</t>
   </si>
   <si>
-    <t>31.03.2021</t>
-  </si>
-  <si>
     <t>WHO: released report about visit to Wuhan: source hasn't been found yet</t>
   </si>
   <si>
@@ -512,120 +335,72 @@
     <t>20210515.8362876</t>
   </si>
   <si>
-    <t>15.05.2021</t>
-  </si>
-  <si>
     <t>20210529.8403852</t>
   </si>
   <si>
-    <t>29.05.2021</t>
-  </si>
-  <si>
     <t>animal vaccine in Russia: military dogs were vaccinated and they all developed antibodies; cats, dogs and minks also delveloped antibodies in tests; transmission from animals to humans as significant long time risk</t>
   </si>
   <si>
     <t>20210608.8433657</t>
   </si>
   <si>
-    <t>08.06.2021</t>
-  </si>
-  <si>
     <t>data that proves illegal wildlife trades at the Wuhan market before WHO experts visited</t>
   </si>
   <si>
     <t>20210705.8496776</t>
   </si>
   <si>
-    <t>05.07.2021</t>
-  </si>
-  <si>
     <t>20210807.8577771</t>
   </si>
   <si>
-    <t>07.08.2021</t>
-  </si>
-  <si>
     <t>20210811.8587558</t>
   </si>
   <si>
-    <t>11.08.2021</t>
-  </si>
-  <si>
     <t>20211011.8698981</t>
   </si>
   <si>
-    <t>11.10.2021</t>
-  </si>
-  <si>
     <t>Finland starts vaccinating minks</t>
   </si>
   <si>
     <t>20211013.8699020</t>
   </si>
   <si>
-    <t>13.10.2021</t>
-  </si>
-  <si>
     <t>20211121.8699806</t>
   </si>
   <si>
     <t>20211214.8700260</t>
   </si>
   <si>
-    <t>14.12.2021</t>
-  </si>
-  <si>
     <t>20220110.8700763</t>
   </si>
   <si>
-    <t>10.01.2022</t>
-  </si>
-  <si>
     <t>20220126.8701086</t>
   </si>
   <si>
-    <t>26.01.2022</t>
-  </si>
-  <si>
     <t>human cases connected to the hamsters in Hong Kong</t>
   </si>
   <si>
     <t>FUR_34796</t>
   </si>
   <si>
-    <t>29.06.2020</t>
-  </si>
-  <si>
     <t>update without any new information</t>
   </si>
   <si>
     <t>FUR_35583</t>
   </si>
   <si>
-    <t>03.09.2020</t>
-  </si>
-  <si>
     <t>FUR_37029</t>
   </si>
   <si>
-    <t>11.12.2020</t>
-  </si>
-  <si>
     <t>FUR_37344</t>
   </si>
   <si>
-    <t>29.12.2020</t>
-  </si>
-  <si>
     <t>FUR_37455</t>
   </si>
   <si>
     <t>FUR_37468</t>
   </si>
   <si>
-    <t>07.01.2021</t>
-  </si>
-  <si>
     <t>FUR_37592</t>
   </si>
   <si>
@@ -635,411 +410,216 @@
     <t>FUR_37894</t>
   </si>
   <si>
-    <t>29.01.2021</t>
-  </si>
-  <si>
     <t>FUR_38267</t>
   </si>
   <si>
-    <t>17.02.2021</t>
-  </si>
-  <si>
     <t>FUR_149144</t>
   </si>
   <si>
-    <t>18.03.2021</t>
-  </si>
-  <si>
     <t>FUR_149292</t>
   </si>
   <si>
-    <t>26.03.2021</t>
-  </si>
-  <si>
     <t>FUR_149306</t>
   </si>
   <si>
-    <t>29.03.2021</t>
-  </si>
-  <si>
     <t>FUR_149157</t>
   </si>
   <si>
     <t>FUR_149442</t>
   </si>
   <si>
-    <t>07.04.2021</t>
-  </si>
-  <si>
     <t>FUR_149554</t>
   </si>
   <si>
-    <t>16.04.2021</t>
-  </si>
-  <si>
     <t>FUR_149561</t>
   </si>
   <si>
     <t>FUR_149648</t>
   </si>
   <si>
-    <t>23.04.2021</t>
-  </si>
-  <si>
     <t>FUR_149834</t>
   </si>
   <si>
-    <t>07.05.2021</t>
-  </si>
-  <si>
     <t>FUR_149901</t>
   </si>
   <si>
-    <t>13.05.2021</t>
-  </si>
-  <si>
     <t>FUR_149988</t>
   </si>
   <si>
-    <t>19.05.2021</t>
-  </si>
-  <si>
     <t>FUR_150050</t>
   </si>
   <si>
-    <t>25.05.2021</t>
-  </si>
-  <si>
     <t>FUR_150130</t>
   </si>
   <si>
-    <t>31.05.2021</t>
-  </si>
-  <si>
     <t>FUR_150133</t>
   </si>
   <si>
-    <t>01.06.2021</t>
-  </si>
-  <si>
     <t>FUR_150201</t>
   </si>
   <si>
-    <t>07.06.2021</t>
-  </si>
-  <si>
     <t>FUR_150216</t>
   </si>
   <si>
     <t>FUR_150293</t>
   </si>
   <si>
-    <t>14.06.2021</t>
-  </si>
-  <si>
     <t>FUR_150393</t>
   </si>
   <si>
-    <t>21.06.2021</t>
-  </si>
-  <si>
     <t>FUR_150474</t>
   </si>
   <si>
-    <t>28.06.2021</t>
-  </si>
-  <si>
     <t>FUR_150509</t>
   </si>
   <si>
-    <t>30.06.2021</t>
-  </si>
-  <si>
     <t>FUR_150579</t>
   </si>
   <si>
-    <t>06.07.2021</t>
-  </si>
-  <si>
     <t>FUR_150693</t>
   </si>
   <si>
-    <t>13.07.2021</t>
-  </si>
-  <si>
     <t>FUR_150717</t>
   </si>
   <si>
-    <t>19.07.2021</t>
-  </si>
-  <si>
     <t>FUR_150783</t>
   </si>
   <si>
-    <t>20.07.2022</t>
-  </si>
-  <si>
     <t>FUR_150888</t>
   </si>
   <si>
-    <t>27.07.2021</t>
-  </si>
-  <si>
     <t>FUR_150980</t>
   </si>
   <si>
-    <t>03.08.2021</t>
-  </si>
-  <si>
     <t>FUR_151000</t>
   </si>
   <si>
-    <t>04.08.2021</t>
-  </si>
-  <si>
     <t>FUR_151069</t>
   </si>
   <si>
-    <t>10.08.2021</t>
-  </si>
-  <si>
     <t>FUR_151207</t>
   </si>
   <si>
-    <t>17.08.2021</t>
-  </si>
-  <si>
     <t>FUR_151337</t>
   </si>
   <si>
-    <t>24.08.2021</t>
-  </si>
-  <si>
     <t>FUR_151441</t>
   </si>
   <si>
-    <t>31.08.2021</t>
-  </si>
-  <si>
     <t>FUR_151484</t>
   </si>
   <si>
-    <t>03.09.2021</t>
-  </si>
-  <si>
     <t>FUR_151545</t>
   </si>
   <si>
-    <t>07.09.2021</t>
-  </si>
-  <si>
     <t>FUR_151613</t>
   </si>
   <si>
-    <t>10.09.2021</t>
-  </si>
-  <si>
     <t>FUR_151657</t>
   </si>
   <si>
-    <t>14.09.2021</t>
-  </si>
-  <si>
     <t>FUR_151684</t>
   </si>
   <si>
-    <t>15.09.2021</t>
-  </si>
-  <si>
     <t>FUR_151754</t>
   </si>
   <si>
-    <t>21.09.2021</t>
-  </si>
-  <si>
     <t>FUR_151852</t>
   </si>
   <si>
-    <t>29.09.2021</t>
-  </si>
-  <si>
     <t>FUR_151924</t>
   </si>
   <si>
-    <t>05.10.2021</t>
-  </si>
-  <si>
     <t>FUR_151460</t>
   </si>
   <si>
-    <t>12.10.2021</t>
-  </si>
-  <si>
     <t>FUR_152030</t>
   </si>
   <si>
     <t>FUR_152112</t>
   </si>
   <si>
-    <t>19.10.2021</t>
-  </si>
-  <si>
     <t>FUR_152200</t>
   </si>
   <si>
-    <t>26.10.2021</t>
-  </si>
-  <si>
     <t>FUR_152283</t>
   </si>
   <si>
-    <t>02.11.2021</t>
-  </si>
-  <si>
     <t>FUR_152384</t>
   </si>
   <si>
-    <t>09.11.2021</t>
-  </si>
-  <si>
     <t>FUR_152471</t>
   </si>
   <si>
-    <t>16.11.2021</t>
-  </si>
-  <si>
     <t>FUR_152564</t>
   </si>
   <si>
-    <t>23.11.2021</t>
-  </si>
-  <si>
     <t>FUR_152663</t>
   </si>
   <si>
-    <t>30.11.2021</t>
-  </si>
-  <si>
     <t>FUR_152683</t>
   </si>
   <si>
-    <t>01.12.2021</t>
-  </si>
-  <si>
     <t>FUR_152722</t>
   </si>
   <si>
-    <t>02.12.2021</t>
-  </si>
-  <si>
     <t>FUR_152726</t>
   </si>
   <si>
-    <t>03.12.2021</t>
-  </si>
-  <si>
     <t>FUR_152819</t>
   </si>
   <si>
-    <t>07.12.2021</t>
-  </si>
-  <si>
     <t>FUR_152841</t>
   </si>
   <si>
-    <t>08.12.2021</t>
-  </si>
-  <si>
     <t>FUR_152871</t>
   </si>
   <si>
-    <t>10.12.2021</t>
-  </si>
-  <si>
     <t>FUR_152934</t>
   </si>
   <si>
     <t>FUR_153057</t>
   </si>
   <si>
-    <t>21.12.2021</t>
-  </si>
-  <si>
     <t>FUR_153190</t>
   </si>
   <si>
-    <t>28.12.2021</t>
-  </si>
-  <si>
     <t>FUR_153243</t>
   </si>
   <si>
-    <t>31.12.2021</t>
-  </si>
-  <si>
     <t>FUR_153419</t>
   </si>
   <si>
-    <t>11.01.2022</t>
-  </si>
-  <si>
     <t>FUR_153548</t>
   </si>
   <si>
-    <t>18.01.2022</t>
-  </si>
-  <si>
     <t>FUR_153685</t>
   </si>
   <si>
-    <t>25.01.2022</t>
-  </si>
-  <si>
     <t>FUR_153270</t>
   </si>
   <si>
-    <t>27.01.2022</t>
-  </si>
-  <si>
     <t>FUR_153801</t>
   </si>
   <si>
-    <t>01.02.2022</t>
-  </si>
-  <si>
     <t>FUR_153887</t>
   </si>
   <si>
-    <t>07.02.2022</t>
-  </si>
-  <si>
     <t>FUR_153949</t>
   </si>
   <si>
-    <t>08.02.2022</t>
-  </si>
-  <si>
     <t>FUR_154082</t>
   </si>
   <si>
     <t>FUR_154029</t>
   </si>
   <si>
-    <t>14.02.2022</t>
-  </si>
-  <si>
     <t>FUR_154111</t>
   </si>
   <si>
-    <t>15.02.2022</t>
-  </si>
-  <si>
     <t>FUR_154224</t>
   </si>
   <si>
-    <t>22.02.2022</t>
-  </si>
-  <si>
     <t>date_published</t>
   </si>
   <si>
@@ -1049,27 +629,15 @@
     <t>20220227.8701690</t>
   </si>
   <si>
-    <t>27.02.2022</t>
-  </si>
-  <si>
     <t>article about the origin of the pandemic, only environmental samples tested positive</t>
   </si>
   <si>
     <t>FUR_154365</t>
   </si>
   <si>
-    <t>01.03.2022</t>
-  </si>
-  <si>
-    <t>13.12.2020</t>
-  </si>
-  <si>
     <t>FUR_154443</t>
   </si>
   <si>
-    <t>08.03.2022</t>
-  </si>
-  <si>
     <t>FUR_154457</t>
   </si>
   <si>
@@ -1196,87 +764,51 @@
     <t>OIE statement about Omicron: the variant is most likely no spillback from animals but urgent need for more sequencing in animals because the database for animals is too small compared to humans</t>
   </si>
   <si>
-    <t>07.04.2020</t>
-  </si>
-  <si>
     <t>experimental infection in fruit bats and ferrets</t>
   </si>
   <si>
-    <t>14.05.2020</t>
-  </si>
-  <si>
     <t>experimental infection in cats</t>
   </si>
   <si>
-    <t>01.06.2020</t>
-  </si>
-  <si>
     <t>experimental infection in cats and dogs</t>
   </si>
   <si>
     <t>main topic of the report</t>
   </si>
   <si>
-    <t>05.08.2020</t>
-  </si>
-  <si>
-    <t>28.08.2020</t>
-  </si>
-  <si>
     <t>experimental infection in rabbits</t>
   </si>
   <si>
-    <t>22.10.2020</t>
-  </si>
-  <si>
     <t>experimental infection in racoon dogs</t>
   </si>
   <si>
     <t>experimental infection in cattle</t>
   </si>
   <si>
-    <t>23.12.2021</t>
-  </si>
-  <si>
     <t>experimental infection in pigs</t>
   </si>
   <si>
-    <t>16.01.2021</t>
-  </si>
-  <si>
     <t>experimental infection in white-tailed deer</t>
   </si>
   <si>
-    <t>22.01.2021</t>
-  </si>
-  <si>
     <t>experimental infection in deer mouse, bushy-tailed woodrat and striped skunk</t>
   </si>
   <si>
     <t>experimental infection in sheep</t>
   </si>
   <si>
-    <t>21.11.2021</t>
-  </si>
-  <si>
     <t>epidemiological situation in Latvia remains unchanged since the last report</t>
   </si>
   <si>
     <t>epidemiological situation in Greece remains unchanged since the last report</t>
   </si>
   <si>
-    <t>15.03.2022</t>
-  </si>
-  <si>
     <t>FUR_154535</t>
   </si>
   <si>
     <t>FUR_154561</t>
   </si>
   <si>
-    <t>17.03.2022</t>
-  </si>
-  <si>
     <t>FUR_154496</t>
   </si>
   <si>
@@ -1337,15 +869,9 @@
     <t>20220325.8702212</t>
   </si>
   <si>
-    <t>25.03.2022</t>
-  </si>
-  <si>
     <t>FUR_154642</t>
   </si>
   <si>
-    <t>22.03.2022</t>
-  </si>
-  <si>
     <t>event status for the case of the cat in Russia is resolved</t>
   </si>
   <si>
@@ -1433,13 +959,16 @@
     <t>FUR_154758</t>
   </si>
   <si>
-    <t>29.03.2022</t>
+    <t>FUR_154873</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1494,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1504,6 +1033,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1823,17 +1355,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" style="7" customWidth="1"/>
     <col min="4" max="4" width="36.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.453125" customWidth="1"/>
   </cols>
@@ -1845,14 +1377,14 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>338</v>
+      <c r="C1" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>418</v>
+        <v>262</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>396</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1860,13 +1392,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>74</v>
+      </c>
+      <c r="C2" s="8">
+        <v>43878</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
@@ -1874,886 +1406,886 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>74</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43879</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>74</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43881</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>349</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43886</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>74</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43913</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>424</v>
+        <v>268</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>354</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>74</v>
+      </c>
+      <c r="C7" s="8">
+        <v>43924</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>424</v>
+        <v>268</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>355</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="C8" s="8">
+        <v>43927</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>424</v>
+        <v>268</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>356</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>390</v>
+        <v>74</v>
+      </c>
+      <c r="C9" s="8">
+        <v>43928</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>391</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43939</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>425</v>
+        <v>269</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>350</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
+      </c>
+      <c r="C11" s="8">
+        <v>43944</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>424</v>
+        <v>268</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>357</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
+      </c>
+      <c r="C12" s="8">
+        <v>43951</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
+      </c>
+      <c r="C13" s="8">
+        <v>43951</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>351</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
+      </c>
+      <c r="C14" s="8">
+        <v>43952</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>352</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>74</v>
+      </c>
+      <c r="C15" s="8">
+        <v>43954</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>353</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>74</v>
+      </c>
+      <c r="C16" s="8">
+        <v>43962</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>358</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>392</v>
+        <v>74</v>
+      </c>
+      <c r="C17" s="8">
+        <v>43965</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>393</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
+      </c>
+      <c r="C18" s="8">
+        <v>43971</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>359</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>74</v>
+      </c>
+      <c r="C19" s="8">
+        <v>43978</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>360</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>394</v>
+        <v>74</v>
+      </c>
+      <c r="C20" s="8">
+        <v>43983</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>395</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
+      </c>
+      <c r="C21" s="8">
+        <v>43991</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>361</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
+      </c>
+      <c r="C22" s="8">
+        <v>43999</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>427</v>
+        <v>271</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="C23" s="8">
+        <v>44005</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>427</v>
+        <v>271</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
+      </c>
+      <c r="C24" s="8">
+        <v>44023</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>397</v>
+        <v>74</v>
+      </c>
+      <c r="C25" s="8">
+        <v>44048</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>393</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
+      </c>
+      <c r="C26" s="8">
+        <v>44058</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>362</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="C27" s="8">
+        <v>44061</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="C28" s="8">
+        <v>44068</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>363</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
+      </c>
+      <c r="C29" s="8">
+        <v>44070</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>427</v>
+        <v>271</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>398</v>
+        <v>74</v>
+      </c>
+      <c r="C30" s="8">
+        <v>44071</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>399</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="C31" s="8">
+        <v>44076</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>364</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="C32" s="8">
+        <v>44108</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>365</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="C33" s="8">
+        <v>44113</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>366</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="C34" s="8">
+        <v>44114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>367</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>74</v>
+        <v>74</v>
+      </c>
+      <c r="C35" s="8">
+        <v>44117</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>368</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C36" s="8">
+        <v>44118</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>400</v>
+        <v>74</v>
+      </c>
+      <c r="C37" s="8">
+        <v>44126</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>401</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>400</v>
+        <v>74</v>
+      </c>
+      <c r="C38" s="8">
+        <v>44126</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>402</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="C39" s="8">
+        <v>44136</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>369</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="C40" s="8">
+        <v>44138</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>370</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="C41" s="8">
+        <v>44139</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>371</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
+      </c>
+      <c r="C42" s="8">
+        <v>44140</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>372</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
+      </c>
+      <c r="C43" s="8">
+        <v>44141</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>373</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
+      </c>
+      <c r="C44" s="8">
+        <v>44143</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
+      </c>
+      <c r="C45" s="8">
+        <v>44144</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>374</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
+      </c>
+      <c r="C46" s="8">
+        <v>44147</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
+      </c>
+      <c r="C47" s="8">
+        <v>44154</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
+      </c>
+      <c r="C48" s="8">
+        <v>44155</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>428</v>
+        <v>272</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>375</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
+      </c>
+      <c r="C49" s="8">
+        <v>44157</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
+      </c>
+      <c r="C50" s="8">
+        <v>44169</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>429</v>
+        <v>273</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>376</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>109</v>
+        <v>74</v>
+      </c>
+      <c r="C51" s="8">
+        <v>44173</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>429</v>
+        <v>273</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>377</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>111</v>
+        <v>74</v>
+      </c>
+      <c r="C52" s="8">
+        <v>44175</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>345</v>
+        <v>74</v>
+      </c>
+      <c r="C53" s="8">
+        <v>44178</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>430</v>
+        <v>274</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>378</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
+      </c>
+      <c r="C54" s="8">
+        <v>44187</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>379</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -2761,2041 +2293,2058 @@
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>403</v>
+        <v>74</v>
+      </c>
+      <c r="C55" s="8">
+        <v>44553</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>404</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>117</v>
+        <v>74</v>
+      </c>
+      <c r="C56" s="8">
+        <v>44190</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
+      </c>
+      <c r="C57" s="8">
+        <v>44202</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>431</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>123</v>
+        <v>74</v>
+      </c>
+      <c r="C58" s="8">
+        <v>44210</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>405</v>
+        <v>74</v>
+      </c>
+      <c r="C59" s="8">
+        <v>44212</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>406</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>127</v>
+        <v>74</v>
+      </c>
+      <c r="C60" s="8">
+        <v>44217</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>380</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>407</v>
+        <v>74</v>
+      </c>
+      <c r="C61" s="8">
+        <v>44218</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>408</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>130</v>
+        <v>74</v>
+      </c>
+      <c r="C62" s="8">
+        <v>44226</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>133</v>
+        <v>74</v>
+      </c>
+      <c r="C63" s="8">
+        <v>44228</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>136</v>
+        <v>74</v>
+      </c>
+      <c r="C64" s="8">
+        <v>44234</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>139</v>
+        <v>74</v>
+      </c>
+      <c r="C65" s="8">
+        <v>44237</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>381</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>141</v>
+        <v>74</v>
+      </c>
+      <c r="C66" s="8">
+        <v>44238</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>432</v>
+        <v>276</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>382</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>143</v>
+        <v>74</v>
+      </c>
+      <c r="C67" s="8">
+        <v>44241</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>146</v>
+        <v>74</v>
+      </c>
+      <c r="C68" s="8">
+        <v>44243</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>150</v>
+        <v>74</v>
+      </c>
+      <c r="C69" s="8">
+        <v>44245</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>152</v>
+        <v>74</v>
+      </c>
+      <c r="C70" s="8">
+        <v>44270</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>155</v>
+        <v>74</v>
+      </c>
+      <c r="C71" s="8">
+        <v>44271</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>158</v>
+        <v>74</v>
+      </c>
+      <c r="C72" s="8">
+        <v>44286</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>158</v>
+        <v>74</v>
+      </c>
+      <c r="C73" s="8">
+        <v>44286</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>383</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>162</v>
+        <v>74</v>
+      </c>
+      <c r="C74" s="8">
+        <v>44331</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>433</v>
+        <v>277</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>384</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>164</v>
+        <v>74</v>
+      </c>
+      <c r="C75" s="8">
+        <v>44345</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>167</v>
+        <v>74</v>
+      </c>
+      <c r="C76" s="8">
+        <v>44355</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>170</v>
+        <v>74</v>
+      </c>
+      <c r="C77" s="8">
+        <v>44382</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>385</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>172</v>
+        <v>74</v>
+      </c>
+      <c r="C78" s="8">
+        <v>44415</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>386</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>174</v>
+        <v>74</v>
+      </c>
+      <c r="C79" s="8">
+        <v>44419</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>424</v>
+        <v>268</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>387</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>176</v>
+        <v>74</v>
+      </c>
+      <c r="C80" s="8">
+        <v>44480</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>179</v>
+        <v>74</v>
+      </c>
+      <c r="C81" s="8">
+        <v>44482</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>434</v>
+        <v>278</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>339</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>410</v>
+        <v>74</v>
+      </c>
+      <c r="C82" s="8">
+        <v>44521</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>409</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>182</v>
+        <v>74</v>
+      </c>
+      <c r="C83" s="8">
+        <v>44544</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>388</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>184</v>
+        <v>74</v>
+      </c>
+      <c r="C84" s="8">
+        <v>44571</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>389</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>186</v>
+        <v>74</v>
+      </c>
+      <c r="C85" s="8">
+        <v>44587</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>435</v>
+        <v>279</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>341</v>
+        <v>74</v>
+      </c>
+      <c r="C86" s="8">
+        <v>44619</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>342</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>436</v>
+        <v>280</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>437</v>
+        <v>74</v>
+      </c>
+      <c r="C87" s="8">
+        <v>44645</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>406</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>189</v>
+      <c r="C88" s="8">
+        <v>44011</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>440</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>192</v>
+      <c r="C89" s="8">
+        <v>44077</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>441</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>194</v>
+      <c r="C90" s="8">
+        <v>44176</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>442</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>196</v>
+      <c r="C91" s="8">
+        <v>44194</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>445</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>121</v>
+      <c r="C92" s="8">
+        <v>44202</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>443</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>199</v>
+      <c r="C93" s="8">
+        <v>44203</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>444</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>123</v>
+      <c r="C94" s="8">
+        <v>44210</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>445</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>127</v>
+      <c r="C95" s="8">
+        <v>44217</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>445</v>
+        <v>287</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>203</v>
+      <c r="C96" s="8">
+        <v>44225</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>441</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>205</v>
+      <c r="C97" s="8">
+        <v>44244</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>447</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>207</v>
+      <c r="C98" s="8">
+        <v>44273</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>446</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>209</v>
+      <c r="C99" s="8">
+        <v>44281</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>448</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>211</v>
+      <c r="C100" s="8">
+        <v>44284</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>456</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>158</v>
+      <c r="C101" s="8">
+        <v>44286</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>449</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>214</v>
+      <c r="C102" s="8">
+        <v>44293</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>450</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>216</v>
+      <c r="C103" s="8">
+        <v>44302</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>451</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>216</v>
+      <c r="C104" s="8">
+        <v>44302</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>451</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>219</v>
+      <c r="C105" s="8">
+        <v>44309</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>450</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>221</v>
+      <c r="C106" s="8">
+        <v>44323</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>223</v>
+      <c r="C107" s="8">
+        <v>44329</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>225</v>
+      <c r="C108" s="8">
+        <v>44335</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>227</v>
+      <c r="C109" s="8">
+        <v>44341</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>229</v>
+      <c r="C110" s="8">
+        <v>44347</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>452</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>231</v>
+      <c r="C111" s="8">
+        <v>44348</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>233</v>
+      <c r="C112" s="8">
+        <v>44354</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>233</v>
+      <c r="C113" s="8">
+        <v>44354</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>453</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>236</v>
+      <c r="C114" s="8">
+        <v>44361</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>454</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>238</v>
+      <c r="C115" s="8">
+        <v>44368</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>454</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>240</v>
+      <c r="C116" s="8">
+        <v>44375</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>454</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>242</v>
+      <c r="C117" s="8">
+        <v>44377</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>455</v>
+        <v>297</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>244</v>
+      <c r="C118" s="8">
+        <v>44383</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>246</v>
+      <c r="C119" s="8">
+        <v>44390</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>247</v>
+        <v>151</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>248</v>
+      <c r="C120" s="8">
+        <v>44396</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>457</v>
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>250</v>
+      <c r="C121" s="8">
+        <v>44762</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>251</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>252</v>
+      <c r="C122" s="8">
+        <v>44404</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>254</v>
+      <c r="C123" s="8">
+        <v>44411</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>256</v>
+      <c r="C124" s="8">
+        <v>44412</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>458</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>258</v>
+      <c r="C125" s="8">
+        <v>44418</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>260</v>
+      <c r="C126" s="8">
+        <v>44425</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>261</v>
+        <v>158</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>262</v>
+      <c r="C127" s="8">
+        <v>44432</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>263</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>264</v>
+      <c r="C128" s="8">
+        <v>44439</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>265</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>266</v>
+      <c r="C129" s="8">
+        <v>44442</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>459</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>268</v>
+      <c r="C130" s="8">
+        <v>44446</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>270</v>
+      <c r="C131" s="8">
+        <v>44449</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>460</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>272</v>
+      <c r="C132" s="8">
+        <v>44453</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>273</v>
+        <v>164</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>274</v>
+      <c r="C133" s="8">
+        <v>44454</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>460</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>276</v>
+      <c r="C134" s="8">
+        <v>44460</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>278</v>
+      <c r="C135" s="8">
+        <v>44468</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>279</v>
+        <v>167</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>280</v>
+      <c r="C136" s="8">
+        <v>44474</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>281</v>
+        <v>168</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>282</v>
+      <c r="C137" s="8">
+        <v>44481</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>461</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>282</v>
+      <c r="C138" s="8">
+        <v>44481</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>285</v>
+      <c r="C139" s="8">
+        <v>44488</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>287</v>
+      <c r="C140" s="8">
+        <v>44495</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>289</v>
+      <c r="C141" s="8">
+        <v>44502</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>290</v>
+        <v>173</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>291</v>
+      <c r="C142" s="8">
+        <v>44509</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>292</v>
+        <v>174</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>293</v>
+      <c r="C143" s="8">
+        <v>44516</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>294</v>
+        <v>175</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>295</v>
+      <c r="C144" s="8">
+        <v>44523</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>296</v>
+        <v>176</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>297</v>
+      <c r="C145" s="8">
+        <v>44530</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>298</v>
+        <v>177</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>299</v>
+      <c r="C146" s="8">
+        <v>44531</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>412</v>
+        <v>258</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>300</v>
+        <v>178</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>301</v>
+      <c r="C147" s="8">
+        <v>44532</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>462</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>302</v>
+        <v>179</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>303</v>
+      <c r="C148" s="8">
+        <v>44533</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>463</v>
+        <v>305</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>304</v>
+        <v>180</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>305</v>
+      <c r="C149" s="8">
+        <v>44537</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="8">
+        <v>44538</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>308</v>
+        <v>182</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>309</v>
+      <c r="C151" s="8">
+        <v>44540</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>412</v>
+        <v>258</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>310</v>
+        <v>183</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>182</v>
+      <c r="C152" s="8">
+        <v>44544</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>311</v>
+        <v>184</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>312</v>
+      <c r="C153" s="8">
+        <v>44551</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>313</v>
+        <v>185</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>314</v>
+      <c r="C154" s="8">
+        <v>44558</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>315</v>
+        <v>186</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>316</v>
+      <c r="C155" s="8">
+        <v>44561</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>465</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>318</v>
+      <c r="C156" s="8">
+        <v>44572</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>319</v>
+        <v>188</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>320</v>
+      <c r="C157" s="8">
+        <v>44579</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>322</v>
+      <c r="C158" s="8">
+        <v>44586</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>323</v>
+        <v>190</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>324</v>
+      <c r="C159" s="8">
+        <v>44588</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>466</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>325</v>
+        <v>191</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>326</v>
+      <c r="C160" s="8">
+        <v>44593</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>328</v>
+      <c r="C161" s="8">
+        <v>44599</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>467</v>
+        <v>309</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>329</v>
+        <v>193</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>330</v>
+      <c r="C162" s="8">
+        <v>44600</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>333</v>
+      <c r="C163" s="8">
+        <v>44606</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>467</v>
+        <v>309</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>332</v>
+        <v>195</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>333</v>
+      <c r="C164" s="8">
+        <v>44606</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>421</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>334</v>
+        <v>196</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>335</v>
+      <c r="C165" s="8">
+        <v>44607</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>336</v>
+        <v>197</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>337</v>
+      <c r="C166" s="8">
+        <v>44614</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>343</v>
+        <v>202</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>344</v>
+      <c r="C167" s="8">
+        <v>44621</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>346</v>
+        <v>203</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>347</v>
+      <c r="C168" s="8">
+        <v>44628</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>412</v>
+        <v>258</v>
       </c>
       <c r="F168" s="1"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>348</v>
+        <v>204</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>347</v>
+      <c r="C169" s="8">
+        <v>44628</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
       <c r="F169" s="1"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>414</v>
+        <v>259</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>413</v>
+      <c r="C170" s="8">
+        <v>44635</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>415</v>
+        <v>260</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>416</v>
+      <c r="C171" s="8">
+        <v>44637</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>458</v>
+        <v>300</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>417</v>
+        <v>261</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>416</v>
+      <c r="C172" s="8">
+        <v>44637</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>422</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>438</v>
+        <v>281</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>439</v>
+      <c r="C173" s="7">
+        <v>44642</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>468</v>
+        <v>310</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>469</v>
+      <c r="C174" s="7">
+        <v>44649</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" s="7">
+        <v>44656</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="316">
   <si>
     <t>source</t>
   </si>
@@ -960,6 +960,18 @@
   </si>
   <si>
     <t>FUR_154873</t>
+  </si>
+  <si>
+    <t>FUR_154980</t>
+  </si>
+  <si>
+    <t>FUR_155000</t>
+  </si>
+  <si>
+    <t>epidemiological situation in Lithuania remains unchanged since the last report</t>
+  </si>
+  <si>
+    <t>FUR_155048</t>
   </si>
 </sst>
 </file>
@@ -1355,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4347,6 +4359,57 @@
         <v>257</v>
       </c>
     </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" s="7">
+        <v>44663</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="7">
+        <v>44664</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="7">
+        <v>44670</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="318">
   <si>
     <t>source</t>
   </si>
@@ -972,6 +972,12 @@
   </si>
   <si>
     <t>FUR_155048</t>
+  </si>
+  <si>
+    <t>FUR_155041</t>
+  </si>
+  <si>
+    <t>tests at the farm were negative, outbreak is resolved</t>
   </si>
 </sst>
 </file>
@@ -1367,22 +1373,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1416,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1535,7 +1541,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1603,7 +1609,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1671,7 +1677,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1705,7 +1711,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1722,7 +1728,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -1909,7 +1915,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>49</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>50</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
@@ -2045,7 +2051,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>56</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>61</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>63</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>64</v>
       </c>
@@ -2215,7 +2221,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -2232,7 +2238,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>67</v>
       </c>
@@ -2249,7 +2255,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>68</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>70</v>
       </c>
@@ -2283,7 +2289,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>71</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>72</v>
       </c>
@@ -2334,7 +2340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>75</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>76</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>78</v>
       </c>
@@ -2385,7 +2391,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>79</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>80</v>
       </c>
@@ -2419,7 +2425,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>81</v>
       </c>
@@ -2436,7 +2442,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>83</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>85</v>
       </c>
@@ -2470,7 +2476,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>87</v>
       </c>
@@ -2487,7 +2493,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>88</v>
       </c>
@@ -2504,7 +2510,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>89</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>91</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -2555,7 +2561,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>97</v>
       </c>
@@ -2589,7 +2595,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>99</v>
       </c>
@@ -2606,7 +2612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>101</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>102</v>
       </c>
@@ -2640,7 +2646,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>103</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>105</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>107</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>108</v>
       </c>
@@ -2708,7 +2714,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>109</v>
       </c>
@@ -2725,7 +2731,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>110</v>
       </c>
@@ -2742,7 +2748,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>112</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>113</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>114</v>
       </c>
@@ -2793,7 +2799,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>115</v>
       </c>
@@ -2810,7 +2816,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>116</v>
       </c>
@@ -2827,7 +2833,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>200</v>
       </c>
@@ -2844,7 +2850,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>280</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>118</v>
       </c>
@@ -2878,7 +2884,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>120</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>121</v>
       </c>
@@ -2912,7 +2918,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>122</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>123</v>
       </c>
@@ -2946,7 +2952,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>124</v>
       </c>
@@ -2963,7 +2969,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>125</v>
       </c>
@@ -2980,7 +2986,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>126</v>
       </c>
@@ -2997,7 +3003,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>127</v>
       </c>
@@ -3014,7 +3020,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>128</v>
       </c>
@@ -3031,7 +3037,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>129</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>130</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>131</v>
       </c>
@@ -3082,7 +3088,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>132</v>
       </c>
@@ -3099,7 +3105,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>133</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>134</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>135</v>
       </c>
@@ -3150,7 +3156,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>136</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>137</v>
       </c>
@@ -3184,7 +3190,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>138</v>
       </c>
@@ -3201,7 +3207,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>139</v>
       </c>
@@ -3218,7 +3224,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>140</v>
       </c>
@@ -3235,7 +3241,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>141</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>142</v>
       </c>
@@ -3269,7 +3275,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>143</v>
       </c>
@@ -3286,7 +3292,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>144</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>145</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>146</v>
       </c>
@@ -3337,7 +3343,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>147</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>148</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>149</v>
       </c>
@@ -3388,7 +3394,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>150</v>
       </c>
@@ -3405,7 +3411,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>151</v>
       </c>
@@ -3422,7 +3428,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>152</v>
       </c>
@@ -3439,7 +3445,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>153</v>
       </c>
@@ -3456,7 +3462,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>154</v>
       </c>
@@ -3473,7 +3479,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>155</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>156</v>
       </c>
@@ -3507,7 +3513,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>157</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>158</v>
       </c>
@@ -3541,7 +3547,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>159</v>
       </c>
@@ -3558,7 +3564,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>160</v>
       </c>
@@ -3575,7 +3581,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>161</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>162</v>
       </c>
@@ -3609,7 +3615,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>163</v>
       </c>
@@ -3626,7 +3632,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>164</v>
       </c>
@@ -3643,7 +3649,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>165</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>166</v>
       </c>
@@ -3677,7 +3683,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>167</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>168</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>169</v>
       </c>
@@ -3728,7 +3734,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>170</v>
       </c>
@@ -3745,7 +3751,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>171</v>
       </c>
@@ -3762,7 +3768,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>172</v>
       </c>
@@ -3779,7 +3785,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>173</v>
       </c>
@@ -3796,7 +3802,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>174</v>
       </c>
@@ -3813,7 +3819,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>175</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>176</v>
       </c>
@@ -3847,7 +3853,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>177</v>
       </c>
@@ -3864,7 +3870,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>178</v>
       </c>
@@ -3881,7 +3887,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>179</v>
       </c>
@@ -3898,7 +3904,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>180</v>
       </c>
@@ -3915,7 +3921,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>181</v>
       </c>
@@ -3932,7 +3938,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>182</v>
       </c>
@@ -3949,7 +3955,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>183</v>
       </c>
@@ -3966,7 +3972,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>184</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>185</v>
       </c>
@@ -4000,7 +4006,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>186</v>
       </c>
@@ -4017,7 +4023,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>187</v>
       </c>
@@ -4034,7 +4040,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>188</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>189</v>
       </c>
@@ -4068,7 +4074,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>190</v>
       </c>
@@ -4085,7 +4091,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>191</v>
       </c>
@@ -4102,7 +4108,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>192</v>
       </c>
@@ -4119,7 +4125,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>193</v>
       </c>
@@ -4136,7 +4142,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>194</v>
       </c>
@@ -4153,7 +4159,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>195</v>
       </c>
@@ -4170,7 +4176,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>196</v>
       </c>
@@ -4187,7 +4193,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>197</v>
       </c>
@@ -4204,7 +4210,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>202</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>203</v>
       </c>
@@ -4239,7 +4245,7 @@
       </c>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>204</v>
       </c>
@@ -4257,7 +4263,7 @@
       </c>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>259</v>
       </c>
@@ -4274,7 +4280,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>260</v>
       </c>
@@ -4291,7 +4297,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>261</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>281</v>
       </c>
@@ -4325,7 +4331,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>310</v>
       </c>
@@ -4342,7 +4348,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>311</v>
       </c>
@@ -4359,7 +4365,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>312</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>313</v>
       </c>
@@ -4393,7 +4399,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>315</v>
       </c>
@@ -4408,6 +4414,23 @@
       </c>
       <c r="E178" s="2" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="7">
+        <v>44669</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="319">
   <si>
     <t>source</t>
   </si>
@@ -978,6 +978,9 @@
   </si>
   <si>
     <t>tests at the farm were negative, outbreak is resolved</t>
+  </si>
+  <si>
+    <t>FUR_155123</t>
   </si>
 </sst>
 </file>
@@ -1373,13 +1376,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
@@ -4433,6 +4436,23 @@
         <v>317</v>
       </c>
     </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="7">
+        <v>44677</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="322">
   <si>
     <t>source</t>
   </si>
@@ -981,6 +981,15 @@
   </si>
   <si>
     <t>FUR_155123</t>
+  </si>
+  <si>
+    <t>FUR_155203</t>
+  </si>
+  <si>
+    <t>the outbreak in Lithuania is resolved</t>
+  </si>
+  <si>
+    <t>FUR_155212</t>
   </si>
 </sst>
 </file>
@@ -1376,22 +1385,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1408,7 +1417,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1442,7 +1451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1459,7 +1468,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1476,7 +1485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1493,7 +1502,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1527,7 +1536,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1544,7 +1553,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1561,7 +1570,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1578,7 +1587,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1595,7 +1604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1612,7 +1621,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1629,7 +1638,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1663,7 +1672,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1680,7 +1689,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1697,7 +1706,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1714,7 +1723,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1731,7 +1740,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1748,7 +1757,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1765,7 +1774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1782,7 +1791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1816,7 +1825,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -1833,7 +1842,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1867,7 +1876,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1884,7 +1893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -1901,7 +1910,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -1918,7 +1927,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -1935,7 +1944,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1952,7 +1961,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -1969,7 +1978,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -1986,7 +1995,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
@@ -2003,7 +2012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>49</v>
       </c>
@@ -2020,7 +2029,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>50</v>
       </c>
@@ -2037,7 +2046,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
@@ -2054,7 +2063,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -2071,7 +2080,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -2088,7 +2097,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
@@ -2105,7 +2114,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2122,7 +2131,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>56</v>
       </c>
@@ -2139,7 +2148,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -2156,7 +2165,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>61</v>
       </c>
@@ -2190,7 +2199,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>63</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>64</v>
       </c>
@@ -2224,7 +2233,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -2241,7 +2250,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>67</v>
       </c>
@@ -2258,7 +2267,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>68</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>70</v>
       </c>
@@ -2292,7 +2301,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>71</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
@@ -2326,7 +2335,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>72</v>
       </c>
@@ -2343,7 +2352,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>75</v>
       </c>
@@ -2360,7 +2369,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>76</v>
       </c>
@@ -2377,7 +2386,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>78</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>79</v>
       </c>
@@ -2411,7 +2420,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>80</v>
       </c>
@@ -2428,7 +2437,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>81</v>
       </c>
@@ -2445,7 +2454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>83</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>85</v>
       </c>
@@ -2479,7 +2488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>87</v>
       </c>
@@ -2496,7 +2505,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>88</v>
       </c>
@@ -2513,7 +2522,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>89</v>
       </c>
@@ -2530,7 +2539,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>91</v>
       </c>
@@ -2547,7 +2556,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -2564,7 +2573,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -2581,7 +2590,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>97</v>
       </c>
@@ -2598,7 +2607,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>99</v>
       </c>
@@ -2615,7 +2624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>101</v>
       </c>
@@ -2632,7 +2641,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>102</v>
       </c>
@@ -2649,7 +2658,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>103</v>
       </c>
@@ -2666,7 +2675,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>105</v>
       </c>
@@ -2683,7 +2692,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>107</v>
       </c>
@@ -2700,7 +2709,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>108</v>
       </c>
@@ -2717,7 +2726,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>109</v>
       </c>
@@ -2734,7 +2743,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>110</v>
       </c>
@@ -2751,7 +2760,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>112</v>
       </c>
@@ -2768,7 +2777,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>113</v>
       </c>
@@ -2785,7 +2794,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>114</v>
       </c>
@@ -2802,7 +2811,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>115</v>
       </c>
@@ -2819,7 +2828,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>116</v>
       </c>
@@ -2836,7 +2845,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>200</v>
       </c>
@@ -2853,7 +2862,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>280</v>
       </c>
@@ -2870,7 +2879,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>118</v>
       </c>
@@ -2887,7 +2896,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>120</v>
       </c>
@@ -2904,7 +2913,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>121</v>
       </c>
@@ -2921,7 +2930,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>122</v>
       </c>
@@ -2938,7 +2947,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>123</v>
       </c>
@@ -2955,7 +2964,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>124</v>
       </c>
@@ -2972,7 +2981,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>125</v>
       </c>
@@ -2989,7 +2998,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>126</v>
       </c>
@@ -3006,7 +3015,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>127</v>
       </c>
@@ -3023,7 +3032,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>128</v>
       </c>
@@ -3040,7 +3049,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>129</v>
       </c>
@@ -3057,7 +3066,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>130</v>
       </c>
@@ -3074,7 +3083,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>131</v>
       </c>
@@ -3091,7 +3100,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>132</v>
       </c>
@@ -3108,7 +3117,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>133</v>
       </c>
@@ -3125,7 +3134,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>134</v>
       </c>
@@ -3142,7 +3151,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>135</v>
       </c>
@@ -3159,7 +3168,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>136</v>
       </c>
@@ -3176,7 +3185,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>137</v>
       </c>
@@ -3193,7 +3202,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>138</v>
       </c>
@@ -3210,7 +3219,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>139</v>
       </c>
@@ -3227,7 +3236,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>140</v>
       </c>
@@ -3244,7 +3253,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>141</v>
       </c>
@@ -3261,7 +3270,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>142</v>
       </c>
@@ -3278,7 +3287,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>143</v>
       </c>
@@ -3295,7 +3304,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>144</v>
       </c>
@@ -3312,7 +3321,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>145</v>
       </c>
@@ -3329,7 +3338,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>146</v>
       </c>
@@ -3346,7 +3355,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>147</v>
       </c>
@@ -3363,7 +3372,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>148</v>
       </c>
@@ -3380,7 +3389,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>149</v>
       </c>
@@ -3397,7 +3406,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>150</v>
       </c>
@@ -3414,7 +3423,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>151</v>
       </c>
@@ -3431,7 +3440,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>152</v>
       </c>
@@ -3448,7 +3457,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>153</v>
       </c>
@@ -3465,7 +3474,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>154</v>
       </c>
@@ -3482,7 +3491,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>155</v>
       </c>
@@ -3499,7 +3508,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>156</v>
       </c>
@@ -3516,7 +3525,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>157</v>
       </c>
@@ -3533,7 +3542,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>158</v>
       </c>
@@ -3550,7 +3559,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>159</v>
       </c>
@@ -3567,7 +3576,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>160</v>
       </c>
@@ -3584,7 +3593,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>161</v>
       </c>
@@ -3601,7 +3610,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>162</v>
       </c>
@@ -3618,7 +3627,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>163</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>164</v>
       </c>
@@ -3652,7 +3661,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>165</v>
       </c>
@@ -3669,7 +3678,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>166</v>
       </c>
@@ -3686,7 +3695,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>167</v>
       </c>
@@ -3703,7 +3712,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>168</v>
       </c>
@@ -3720,7 +3729,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>169</v>
       </c>
@@ -3737,7 +3746,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>170</v>
       </c>
@@ -3754,7 +3763,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>171</v>
       </c>
@@ -3771,7 +3780,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>172</v>
       </c>
@@ -3788,7 +3797,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>173</v>
       </c>
@@ -3805,7 +3814,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>174</v>
       </c>
@@ -3822,7 +3831,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>175</v>
       </c>
@@ -3839,7 +3848,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>176</v>
       </c>
@@ -3856,7 +3865,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>177</v>
       </c>
@@ -3873,7 +3882,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>178</v>
       </c>
@@ -3890,7 +3899,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>179</v>
       </c>
@@ -3907,7 +3916,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>180</v>
       </c>
@@ -3924,7 +3933,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>181</v>
       </c>
@@ -3941,7 +3950,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>182</v>
       </c>
@@ -3958,7 +3967,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>183</v>
       </c>
@@ -3975,7 +3984,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>184</v>
       </c>
@@ -3992,7 +4001,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>185</v>
       </c>
@@ -4009,7 +4018,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>186</v>
       </c>
@@ -4026,7 +4035,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>187</v>
       </c>
@@ -4043,7 +4052,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>188</v>
       </c>
@@ -4060,7 +4069,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>189</v>
       </c>
@@ -4077,7 +4086,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>190</v>
       </c>
@@ -4094,7 +4103,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>191</v>
       </c>
@@ -4111,7 +4120,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>192</v>
       </c>
@@ -4128,7 +4137,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>193</v>
       </c>
@@ -4145,7 +4154,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>194</v>
       </c>
@@ -4162,7 +4171,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>195</v>
       </c>
@@ -4179,7 +4188,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>196</v>
       </c>
@@ -4196,7 +4205,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>197</v>
       </c>
@@ -4213,7 +4222,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>202</v>
       </c>
@@ -4230,7 +4239,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>203</v>
       </c>
@@ -4248,7 +4257,7 @@
       </c>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>204</v>
       </c>
@@ -4266,7 +4275,7 @@
       </c>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>259</v>
       </c>
@@ -4283,7 +4292,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>260</v>
       </c>
@@ -4300,7 +4309,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>261</v>
       </c>
@@ -4317,7 +4326,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>281</v>
       </c>
@@ -4334,7 +4343,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>310</v>
       </c>
@@ -4351,7 +4360,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>311</v>
       </c>
@@ -4368,7 +4377,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>312</v>
       </c>
@@ -4385,7 +4394,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>313</v>
       </c>
@@ -4402,7 +4411,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>315</v>
       </c>
@@ -4419,7 +4428,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>316</v>
       </c>
@@ -4436,7 +4445,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>318</v>
       </c>
@@ -4450,6 +4459,40 @@
         <v>264</v>
       </c>
       <c r="E180" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" s="7">
+        <v>44684</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="7">
+        <v>44684</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>257</v>
       </c>
     </row>

--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Documents\Public Health\Diplomarbeit\Afra Nerpel\Backup_SARSANI\archives_20220616\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,6 @@
     <t>20201223.8041877</t>
   </si>
   <si>
-    <t>OIE-WAHIS</t>
-  </si>
-  <si>
     <t>archive_event_number</t>
   </si>
   <si>
@@ -990,6 +987,9 @@
   </si>
   <si>
     <t>FUR_155212</t>
+  </si>
+  <si>
+    <t>WAHIS</t>
   </si>
 </sst>
 </file>
@@ -999,8 +999,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1020,6 +1028,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1032,16 +1047,301 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1049,26 +1349,229 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="21" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="24" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="27" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="30" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="33" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="22" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="25" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="43" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="36"/>
+    <cellStyle name="60% - Accent2" xfId="44" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2 2" xfId="37"/>
+    <cellStyle name="60% - Accent3" xfId="45" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3 2" xfId="38"/>
+    <cellStyle name="60% - Accent4" xfId="46" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4 2" xfId="39"/>
+    <cellStyle name="60% - Accent5" xfId="47" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5 2" xfId="40"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6 2" xfId="41"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="26" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="29" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="32" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="10" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="12" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="42" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1388,934 +1891,934 @@
   <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="7" customWidth="1"/>
     <col min="4" max="4" width="36.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="8">
         <v>43878</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="8">
         <v>43879</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="8">
         <v>43881</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="8">
         <v>43886</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="8">
         <v>43913</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="8">
         <v>43924</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="8">
         <v>43927</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="8">
         <v>43928</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="8">
         <v>43939</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8">
         <v>43944</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="8">
         <v>43951</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="8">
         <v>43951</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="8">
         <v>43952</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="8">
         <v>43954</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="8">
         <v>43962</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="8">
         <v>43965</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="8">
         <v>43971</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="8">
         <v>43978</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="8">
         <v>43983</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="8">
         <v>43991</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="8">
         <v>43999</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="8">
         <v>44005</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="8">
         <v>44023</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="8">
         <v>44048</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="8">
         <v>44058</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="8">
         <v>44061</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="8">
         <v>44068</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="8">
         <v>44070</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="8">
         <v>44071</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="8">
         <v>44076</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="8">
         <v>44108</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="8">
         <v>44113</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="8">
         <v>44114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="8">
         <v>44117</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="8">
         <v>44118</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="8">
         <v>44126</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="8">
         <v>44126</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="8">
         <v>44136</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="8">
         <v>44138</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="8">
         <v>44139</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="8">
         <v>44140</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="8">
         <v>44141</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="8">
         <v>44143</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="8">
         <v>44144</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="8">
         <v>44147</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="8">
         <v>44154</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="8">
         <v>44155</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="8">
         <v>44157</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="8">
         <v>44169</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="8">
         <v>44173</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="8">
         <v>44175</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="8">
         <v>44178</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="8">
         <v>44187</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -2323,2181 +2826,2181 @@
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="8">
         <v>44553</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="8">
         <v>44190</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" s="8">
         <v>44202</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" s="8">
         <v>44210</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" s="8">
         <v>44212</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="8">
         <v>44217</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="8">
         <v>44218</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" s="8">
         <v>44226</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" s="8">
         <v>44228</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="8">
         <v>44234</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="8">
         <v>44237</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="8">
         <v>44238</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="8">
         <v>44241</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" s="8">
         <v>44243</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="8">
         <v>44245</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="8">
         <v>44270</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="8">
         <v>44271</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" s="8">
         <v>44286</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73" s="8">
         <v>44286</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" s="8">
         <v>44331</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" s="8">
         <v>44345</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="8">
         <v>44355</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="8">
         <v>44382</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="8">
         <v>44415</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="8">
         <v>44419</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="8">
         <v>44480</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" s="8">
         <v>44482</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" s="8">
         <v>44521</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83" s="8">
         <v>44544</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C84" s="8">
         <v>44571</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C85" s="8">
         <v>44587</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C86" s="8">
         <v>44619</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87" s="8">
         <v>44645</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C88" s="8">
         <v>44011</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C89" s="8">
         <v>44077</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C90" s="8">
         <v>44176</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C91" s="8">
         <v>44194</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C92" s="8">
         <v>44202</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C93" s="8">
         <v>44203</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C94" s="8">
         <v>44210</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C95" s="8">
         <v>44217</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C96" s="8">
         <v>44225</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C97" s="8">
         <v>44244</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C98" s="8">
         <v>44273</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C99" s="8">
         <v>44281</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C100" s="8">
         <v>44284</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C101" s="8">
         <v>44286</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C102" s="8">
         <v>44293</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C103" s="8">
         <v>44302</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C104" s="8">
         <v>44302</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C105" s="8">
         <v>44309</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C106" s="8">
         <v>44323</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C107" s="8">
         <v>44329</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C108" s="8">
         <v>44335</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C109" s="8">
         <v>44341</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C110" s="8">
         <v>44347</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C111" s="8">
         <v>44348</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C112" s="8">
         <v>44354</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C113" s="8">
         <v>44354</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C114" s="8">
         <v>44361</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C115" s="8">
         <v>44368</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C116" s="8">
         <v>44375</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C117" s="8">
         <v>44377</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C118" s="8">
         <v>44383</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C119" s="8">
         <v>44390</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C120" s="8">
         <v>44396</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C121" s="8">
         <v>44762</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C122" s="8">
         <v>44404</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C123" s="8">
         <v>44411</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C124" s="8">
         <v>44412</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C125" s="8">
         <v>44418</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C126" s="8">
         <v>44425</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C127" s="8">
         <v>44432</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C128" s="8">
         <v>44439</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C129" s="8">
         <v>44442</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C130" s="8">
         <v>44446</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C131" s="8">
         <v>44449</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C132" s="8">
         <v>44453</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C133" s="8">
         <v>44454</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C134" s="8">
         <v>44460</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C135" s="8">
         <v>44468</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C136" s="8">
         <v>44474</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C137" s="8">
         <v>44481</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C138" s="8">
         <v>44481</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C139" s="8">
         <v>44488</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C140" s="8">
         <v>44495</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C141" s="8">
         <v>44502</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C142" s="8">
         <v>44509</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C143" s="8">
         <v>44516</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C144" s="8">
         <v>44523</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C145" s="8">
         <v>44530</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C146" s="8">
         <v>44531</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C147" s="8">
         <v>44532</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C148" s="8">
         <v>44533</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C149" s="8">
         <v>44537</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C150" s="8">
         <v>44538</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C151" s="8">
         <v>44540</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C152" s="8">
         <v>44544</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C153" s="8">
         <v>44551</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C154" s="8">
         <v>44558</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C155" s="8">
         <v>44561</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C156" s="8">
         <v>44572</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C157" s="8">
         <v>44579</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C158" s="8">
         <v>44586</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C159" s="8">
         <v>44588</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C160" s="8">
         <v>44593</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C161" s="8">
         <v>44599</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C162" s="8">
         <v>44600</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C163" s="8">
         <v>44606</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C164" s="8">
         <v>44606</v>
       </c>
       <c r="D164" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C165" s="8">
         <v>44607</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C166" s="8">
         <v>44614</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C167" s="8">
         <v>44621</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C168" s="8">
         <v>44628</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F168" s="1"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C169" s="8">
         <v>44628</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F169" s="1"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C170" s="8">
         <v>44635</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C171" s="8">
         <v>44637</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C172" s="8">
         <v>44637</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>2</v>
+        <v>280</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C173" s="7">
         <v>44642</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>2</v>
+        <v>309</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C174" s="7">
         <v>44649</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>2</v>
+        <v>310</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C175" s="7">
         <v>44656</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>2</v>
+        <v>311</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C176" s="7">
         <v>44663</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>2</v>
+        <v>312</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C177" s="7">
         <v>44664</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>2</v>
+        <v>314</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C178" s="7">
         <v>44670</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>2</v>
+        <v>315</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C179" s="7">
         <v>44669</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>2</v>
+        <v>317</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C180" s="7">
         <v>44677</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>2</v>
+        <v>318</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C181" s="7">
         <v>44684</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>2</v>
+        <v>320</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C182" s="7">
         <v>44684</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Documents\Public Health\Diplomarbeit\Afra Nerpel\Backup_SARSANI\archives_20220616\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -1894,16 +1894,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>67</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>69</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>70</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>77</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>82</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>84</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>86</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>87</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>90</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>98</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>106</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>107</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>108</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>109</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>111</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>112</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>113</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>114</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>115</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>199</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>279</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>117</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>119</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>120</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>121</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>122</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>123</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>124</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>125</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>126</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>127</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>128</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>129</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>130</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>131</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>132</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>133</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>134</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>135</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>136</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>137</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>138</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>139</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>140</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>141</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>142</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>143</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>144</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>145</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>146</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>147</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>150</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>151</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>152</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>153</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>154</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>155</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>156</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>157</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>158</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>159</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>160</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>161</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>162</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>163</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>164</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>165</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>166</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>167</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>168</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>169</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>170</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>171</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>172</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>173</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>174</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>175</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>176</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>177</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>178</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>179</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>180</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>181</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>182</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>183</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>184</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>185</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>186</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>187</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>188</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>189</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>190</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>191</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>192</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>193</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>194</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>195</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>196</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>201</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>202</v>
       </c>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>203</v>
       </c>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>258</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>259</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>260</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>280</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>309</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>310</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>311</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>312</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>314</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>315</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>317</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>318</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>320</v>
       </c>

--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -1894,16 +1894,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>67</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>69</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>70</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>77</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>82</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>84</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>86</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>87</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>90</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>98</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>106</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>107</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>108</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>109</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>111</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>112</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>113</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>114</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>115</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>199</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>279</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>117</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>119</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>120</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>121</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>122</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>123</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>124</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>125</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>126</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>127</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>128</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>129</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>130</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>131</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>132</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>133</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>134</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>135</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>136</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>137</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>138</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>139</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>140</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>141</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>142</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>143</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>144</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>145</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>146</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>147</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>150</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>151</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>152</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>153</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>154</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>155</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>156</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>157</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>158</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>159</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>160</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>161</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>162</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>163</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>164</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>165</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>166</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>167</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>168</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>169</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>170</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>171</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>172</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>173</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>174</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>175</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>176</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>177</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>178</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>179</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>180</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>181</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>182</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>183</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>184</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>185</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>186</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>187</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>188</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>189</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>190</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>191</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>192</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>193</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>194</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>195</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>196</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>201</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>202</v>
       </c>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>203</v>
       </c>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>258</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>259</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>260</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>280</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>309</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>310</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>311</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>312</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>314</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>315</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>317</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>318</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>320</v>
       </c>

--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -1894,16 +1894,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>67</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>69</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>70</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>77</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>82</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>84</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>86</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>87</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>90</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>98</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>106</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>107</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>108</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>109</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>111</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>112</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>113</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>114</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>115</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>199</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>279</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>117</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>119</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>120</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>121</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>122</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>123</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>124</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>125</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>126</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>127</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>128</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>129</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>130</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>131</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>132</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>133</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>134</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>135</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>136</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>137</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>138</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>139</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>140</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>141</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>142</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>143</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>144</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>145</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>146</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>147</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>150</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>151</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>152</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>153</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>154</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>155</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>156</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>157</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>158</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>159</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>160</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>161</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>162</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>163</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>164</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>165</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>166</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>167</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>168</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>169</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>170</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>171</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>172</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>173</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>174</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>175</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>176</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>177</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>178</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>179</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>180</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>181</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>182</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>183</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>184</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>185</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>186</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>187</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>188</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>189</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>190</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>191</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>192</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>193</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>194</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>195</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>196</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>201</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>202</v>
       </c>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>203</v>
       </c>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>258</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>259</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>260</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>280</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>309</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>310</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>311</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>312</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>314</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>315</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>317</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>318</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>320</v>
       </c>

--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="324">
   <si>
     <t>source</t>
   </si>
@@ -990,6 +990,12 @@
   </si>
   <si>
     <t>WAHIS</t>
+  </si>
+  <si>
+    <t>FUR_156963</t>
+  </si>
+  <si>
+    <t>final report from Italy that the event at the mink farm is resolved</t>
   </si>
 </sst>
 </file>
@@ -1888,22 +1894,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1920,7 +1926,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +1977,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2039,7 +2045,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2056,7 +2062,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2294,7 +2300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -2345,7 +2351,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -2362,7 +2368,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -2379,7 +2385,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -2430,7 +2436,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -2447,7 +2453,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -2481,7 +2487,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -2583,7 +2589,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2617,7 +2623,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -2651,7 +2657,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -2685,7 +2691,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
@@ -2753,7 +2759,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>67</v>
       </c>
@@ -2787,7 +2793,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>69</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>70</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
@@ -2838,7 +2844,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>77</v>
       </c>
@@ -2906,7 +2912,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
@@ -2923,7 +2929,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>82</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>84</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>86</v>
       </c>
@@ -3008,7 +3014,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>87</v>
       </c>
@@ -3025,7 +3031,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
@@ -3042,7 +3048,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>90</v>
       </c>
@@ -3059,7 +3065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -3093,7 +3099,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>98</v>
       </c>
@@ -3127,7 +3133,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
@@ -3161,7 +3167,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
@@ -3195,7 +3201,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>106</v>
       </c>
@@ -3212,7 +3218,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>107</v>
       </c>
@@ -3229,7 +3235,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>108</v>
       </c>
@@ -3246,7 +3252,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>109</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>111</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>112</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>113</v>
       </c>
@@ -3314,7 +3320,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>114</v>
       </c>
@@ -3331,7 +3337,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>115</v>
       </c>
@@ -3348,7 +3354,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>199</v>
       </c>
@@ -3365,7 +3371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>279</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>117</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>119</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>120</v>
       </c>
@@ -3433,7 +3439,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>121</v>
       </c>
@@ -3450,7 +3456,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>122</v>
       </c>
@@ -3467,7 +3473,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>123</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>124</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>125</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>126</v>
       </c>
@@ -3535,7 +3541,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>127</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>128</v>
       </c>
@@ -3569,7 +3575,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>129</v>
       </c>
@@ -3586,7 +3592,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>130</v>
       </c>
@@ -3603,7 +3609,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>131</v>
       </c>
@@ -3620,7 +3626,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>132</v>
       </c>
@@ -3637,7 +3643,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>133</v>
       </c>
@@ -3654,7 +3660,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>134</v>
       </c>
@@ -3671,7 +3677,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>135</v>
       </c>
@@ -3688,7 +3694,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>136</v>
       </c>
@@ -3705,7 +3711,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>137</v>
       </c>
@@ -3722,7 +3728,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>138</v>
       </c>
@@ -3739,7 +3745,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>139</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>140</v>
       </c>
@@ -3773,7 +3779,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>141</v>
       </c>
@@ -3790,7 +3796,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>142</v>
       </c>
@@ -3807,7 +3813,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>143</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>144</v>
       </c>
@@ -3841,7 +3847,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>145</v>
       </c>
@@ -3858,7 +3864,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>146</v>
       </c>
@@ -3875,7 +3881,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>147</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -3909,7 +3915,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -3926,7 +3932,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>150</v>
       </c>
@@ -3943,7 +3949,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>151</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>152</v>
       </c>
@@ -3977,7 +3983,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>153</v>
       </c>
@@ -3994,7 +4000,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>154</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>155</v>
       </c>
@@ -4028,7 +4034,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>156</v>
       </c>
@@ -4045,7 +4051,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>157</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>158</v>
       </c>
@@ -4079,7 +4085,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>159</v>
       </c>
@@ -4096,7 +4102,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>160</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>161</v>
       </c>
@@ -4130,7 +4136,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>162</v>
       </c>
@@ -4147,7 +4153,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>163</v>
       </c>
@@ -4164,7 +4170,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>164</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>165</v>
       </c>
@@ -4198,7 +4204,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>166</v>
       </c>
@@ -4215,7 +4221,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>167</v>
       </c>
@@ -4232,7 +4238,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>168</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>169</v>
       </c>
@@ -4266,7 +4272,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>170</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>171</v>
       </c>
@@ -4300,7 +4306,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>172</v>
       </c>
@@ -4317,7 +4323,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>173</v>
       </c>
@@ -4334,7 +4340,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>174</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>175</v>
       </c>
@@ -4368,7 +4374,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>176</v>
       </c>
@@ -4385,7 +4391,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>177</v>
       </c>
@@ -4402,7 +4408,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>178</v>
       </c>
@@ -4419,7 +4425,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>179</v>
       </c>
@@ -4436,7 +4442,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>180</v>
       </c>
@@ -4453,7 +4459,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>181</v>
       </c>
@@ -4470,7 +4476,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>182</v>
       </c>
@@ -4487,7 +4493,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>183</v>
       </c>
@@ -4504,7 +4510,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>184</v>
       </c>
@@ -4521,7 +4527,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>185</v>
       </c>
@@ -4538,7 +4544,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>186</v>
       </c>
@@ -4555,7 +4561,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>187</v>
       </c>
@@ -4572,7 +4578,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>188</v>
       </c>
@@ -4589,7 +4595,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>189</v>
       </c>
@@ -4606,7 +4612,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>190</v>
       </c>
@@ -4623,7 +4629,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>191</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>192</v>
       </c>
@@ -4657,7 +4663,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>193</v>
       </c>
@@ -4674,7 +4680,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>194</v>
       </c>
@@ -4691,7 +4697,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>195</v>
       </c>
@@ -4708,7 +4714,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>196</v>
       </c>
@@ -4725,7 +4731,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>201</v>
       </c>
@@ -4742,7 +4748,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>202</v>
       </c>
@@ -4760,7 +4766,7 @@
       </c>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>203</v>
       </c>
@@ -4778,7 +4784,7 @@
       </c>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>258</v>
       </c>
@@ -4795,7 +4801,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>259</v>
       </c>
@@ -4812,7 +4818,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>260</v>
       </c>
@@ -4829,7 +4835,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>280</v>
       </c>
@@ -4846,7 +4852,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>309</v>
       </c>
@@ -4863,7 +4869,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>310</v>
       </c>
@@ -4880,7 +4886,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>311</v>
       </c>
@@ -4897,7 +4903,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>312</v>
       </c>
@@ -4914,7 +4920,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>314</v>
       </c>
@@ -4931,7 +4937,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>315</v>
       </c>
@@ -4948,7 +4954,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>317</v>
       </c>
@@ -4965,7 +4971,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>318</v>
       </c>
@@ -4982,7 +4988,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>320</v>
       </c>
@@ -4997,6 +5003,23 @@
       </c>
       <c r="E182" s="2" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C183" s="7">
+        <v>44813</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -1900,16 +1900,16 @@
       <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>67</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>69</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>70</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>77</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>82</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>84</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>86</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>87</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>90</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>98</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>106</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>107</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>108</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>109</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>111</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>112</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>113</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>114</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>115</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>199</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>279</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>117</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>119</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>120</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>121</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>122</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>123</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>124</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>125</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>126</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>127</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>128</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>129</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>130</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>131</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>132</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>133</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>134</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>135</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>136</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>137</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>138</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>139</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>140</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>141</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>142</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>143</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>144</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>145</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>146</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>147</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>150</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>151</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>152</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>153</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>154</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>155</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>156</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>157</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>158</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>159</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>160</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>161</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>162</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>163</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>164</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>165</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>166</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>167</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>168</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>169</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>170</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>171</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>172</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>173</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>174</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>175</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>176</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>177</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>178</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>179</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>180</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>181</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>182</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>183</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>184</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>185</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>186</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>187</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>188</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>189</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>190</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>191</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>192</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>193</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>194</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>195</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>196</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>201</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>202</v>
       </c>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>203</v>
       </c>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>258</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>259</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>260</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>280</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>309</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>310</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>311</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>312</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>314</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>315</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>317</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>318</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>320</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>322</v>
       </c>

--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -1896,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>

--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -1896,20 +1896,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>67</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>69</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>70</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>77</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>82</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>84</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>86</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>87</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>90</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>98</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>106</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>107</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>108</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>109</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>111</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>112</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>113</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>114</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>115</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>199</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>279</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>117</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>119</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>120</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>121</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>122</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>123</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>124</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>125</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>126</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>127</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>128</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>129</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>130</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>131</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>132</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>133</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>134</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>135</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>136</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>137</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>138</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>139</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>140</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>141</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>142</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>143</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>144</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>145</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>146</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>147</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>150</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>151</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>152</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>153</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>154</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>155</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>156</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>157</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>158</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>159</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>160</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>161</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>162</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>163</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>164</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>165</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>166</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>167</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>168</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>169</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>170</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>171</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>172</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>173</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>174</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>175</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>176</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>177</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>178</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>179</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>180</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>181</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>182</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>183</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>184</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>185</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>186</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>187</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>188</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>189</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>190</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>191</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>192</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>193</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>194</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>195</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>196</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>201</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>202</v>
       </c>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>203</v>
       </c>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>258</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>259</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>260</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>280</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>309</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>310</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>311</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>312</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>314</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>315</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>317</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>318</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>320</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>322</v>
       </c>

--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="513">
   <si>
     <t>source</t>
   </si>
@@ -947,9 +947,6 @@
     <t>update without from Latvia any new information</t>
   </si>
   <si>
-    <t>final report from sweden that the event at the mink farm is resolved</t>
-  </si>
-  <si>
     <t>update from Hong Kong without any new information</t>
   </si>
   <si>
@@ -996,6 +993,576 @@
   </si>
   <si>
     <t>final report from Italy that the event at the mink farm is resolved</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3558?reportId=149144&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3350?reportId=19480&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3402?reportId=19474&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3441?reportId=152683&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3441?reportId=152871&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3441?reportId=154443&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3613?reportId=149442&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3613?reportId=149648&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_154092</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3613?reportId=154092&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>the event status for the cat in Italy is resolved</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3420?reportId=151000&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3420?reportId=154561&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3420?reportId=155000&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3420?reportId=155203&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3445?reportId=150130&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3539?reportId=149292&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3539?reportId=152722&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3777?reportId=152841&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3201?reportId=17860&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4058?reportId=152726&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3833?reportId=151484&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3500?reportId=149554&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3515?reportId=149561&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3876?reportId=155041&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4024?reportId=154496&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=151613&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=151684&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=153270&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>final report from Sweden that the event at the mink farm is resolved</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=149306&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3708?reportId=150717&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3716?reportId=150216&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_19471</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3430?reportId=19471&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3430?reportId=149157&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>update from Canada without any new cases</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3430?reportId=150509&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3430?reportId=151460&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3253?reportId=18342&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3403?reportId=19210&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3403?reportId=19402&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3403?reportId=19548&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3403?reportId=19663&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3403?reportId=19739&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3537?reportId=19986&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4265?reportId=153887&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4265?reportId=154029&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4299?reportId=154082&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=149834&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=149901&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=149988&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=150050&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=150133&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=150201&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=150579&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=150693&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=150783&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=150888&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=150980&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=151069&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=151207&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=151337&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=151441&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=151545&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=150293&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=150393&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=150474&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3687?reportId=151657&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=151754&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=151852&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=151924&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=152030&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=152112&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=152283&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=152384&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=152471&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=152564&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=152663&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=15220=&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=152819&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=152934&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=153057&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=153190&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=153419&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=153548&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=153685&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=153243&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=153801&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=153949&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=154111&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=154224&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=154365&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=154457&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=154535&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=154642&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=154758&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=154873&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=154980&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=155048&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=155123&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3899?reportId=155212&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3664?reportId=156963&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=6997782</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7002276</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7009213</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7024245</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7129951</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7179945</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7191480</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7196506</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7240811</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7259119</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7281768</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7284183</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7286113</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7294846</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7323845</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7337185</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7359976</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7385049</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7416648</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7446478</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7480013</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7502805</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7565035</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7648370</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7681907</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7689234</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7715862</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7721923</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7726781</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7740793</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7835635</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7847704</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7851707</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7858915</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7861560</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7880283</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7883213</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7906484</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7912846</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7916300</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7918210</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7922587</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7926649</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7929573</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7939110</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7954363</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7959431</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7963766</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=7994061</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8002622</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8009205</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8015149</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8039549</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8041877</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8046582</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8079009</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8103327</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8108967</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8124456</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8126905</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8149337</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8153415</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8173294</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8183343</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8184900</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8190188</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8195382</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8200008</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8249619</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8251684</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8279475</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8281241</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8362876</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8403852</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8433657</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8496776</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8577771</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8587558</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8698981</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8699020</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8699806</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8700260</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8700763</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8701086</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8701690</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8702212</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1572,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,6 +1584,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1463,121 +2038,128 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="21" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="24" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="27" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="30" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="33" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="22" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="25" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="43" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1 2" xfId="36"/>
-    <cellStyle name="60% - Accent2" xfId="44" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2 2" xfId="37"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3 2" xfId="38"/>
-    <cellStyle name="60% - Accent4" xfId="46" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4 2" xfId="39"/>
-    <cellStyle name="60% - Accent5" xfId="47" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5 2" xfId="40"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6 2" xfId="41"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="26" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="29" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="32" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="10" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="12" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="42" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="35"/>
+  <cellStyles count="50">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="25" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="28" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="31" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="34" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="26" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="29" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="32" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="35" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="44" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="37"/>
+    <cellStyle name="60% - Accent2" xfId="45" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2 2" xfId="38"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3 2" xfId="39"/>
+    <cellStyle name="60% - Accent4" xfId="47" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4 2" xfId="40"/>
+    <cellStyle name="60% - Accent5" xfId="48" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5 2" xfId="41"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6 2" xfId="42"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="24" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="27" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="30" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="33" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="43" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="36"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1894,3137 +2476,3912 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="1" max="2" width="17.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="8">
         <v>43878</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="8">
         <v>43879</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="8">
         <v>43881</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="8">
         <v>43886</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="8">
         <v>43913</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="8">
         <v>43924</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="8">
         <v>43927</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="8">
         <v>43928</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="8">
         <v>43939</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="8">
         <v>43944</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="8">
         <v>43951</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B13" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="8">
         <v>43951</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="8">
         <v>43952</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="8">
         <v>43954</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="8">
         <v>43962</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="B17" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="8">
         <v>43965</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B18" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="8">
         <v>43971</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B19" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="8">
         <v>43978</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B20" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="8">
         <v>43983</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B21" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="8">
         <v>43991</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="B22" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="8">
         <v>43999</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="B23" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="8">
         <v>44005</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="B24" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8">
         <v>44023</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="B25" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8">
         <v>44048</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="B26" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="8">
         <v>44058</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="B27" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="8">
         <v>44061</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B28" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="8">
         <v>44068</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="8">
+      <c r="B29" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="8">
         <v>44070</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="B30" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="8">
         <v>44071</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="8">
+      <c r="B31" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="8">
         <v>44076</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="8">
+      <c r="B32" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="8">
         <v>44108</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="8">
+      <c r="B33" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="8">
         <v>44113</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="8">
+      <c r="B34" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="8">
         <v>44114</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="8">
+      <c r="B35" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="8">
         <v>44117</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="8">
+      <c r="B36" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="8">
         <v>44118</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="8">
+      <c r="B37" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="8">
         <v>44126</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="8">
+      <c r="B38" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="8">
         <v>44126</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="B39" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="8">
         <v>44136</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="B40" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="8">
         <v>44138</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="8">
+      <c r="B41" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="8">
         <v>44139</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="8">
+      <c r="B42" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="8">
         <v>44140</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="B43" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="8">
         <v>44141</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="B44" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="8">
         <v>44143</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="8">
+      <c r="B45" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="8">
         <v>44144</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="8">
+      <c r="B46" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="8">
         <v>44147</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="8">
+      <c r="B47" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="8">
         <v>44154</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="8">
+      <c r="B48" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="8">
         <v>44155</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="8">
+      <c r="B49" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="8">
         <v>44157</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="8">
+      <c r="B50" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="8">
         <v>44169</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="8">
+      <c r="B51" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="8">
         <v>44173</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="8">
+      <c r="B52" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="8">
         <v>44175</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="8">
+      <c r="B53" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="8">
         <v>44178</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="8">
+      <c r="B54" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="8">
         <v>44187</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="8">
+      <c r="B55" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="8">
         <v>44553</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="8">
+      <c r="B56" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="8">
         <v>44190</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="8">
+      <c r="B57" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="8">
         <v>44202</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="8">
+      <c r="B58" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="8">
         <v>44210</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="8">
+      <c r="B59" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="8">
         <v>44212</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="8">
+      <c r="B60" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="8">
         <v>44217</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="8">
+      <c r="B61" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="8">
         <v>44218</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="8">
+      <c r="B62" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="8">
         <v>44226</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="8">
+      <c r="B63" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="8">
         <v>44228</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="8">
+      <c r="B64" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="8">
         <v>44234</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="8">
+      <c r="B65" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="8">
         <v>44237</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="8">
+      <c r="B66" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="8">
         <v>44238</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="8">
+      <c r="B67" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="8">
         <v>44241</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="8">
+      <c r="B68" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="8">
         <v>44243</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="8">
+      <c r="B69" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="8">
         <v>44245</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" s="8">
+      <c r="B70" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="8">
         <v>44270</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="8">
+      <c r="B71" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="8">
         <v>44271</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="8">
+      <c r="B72" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="8">
         <v>44286</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="8">
+      <c r="B73" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="8">
         <v>44286</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="8">
+      <c r="B74" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="8">
         <v>44331</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="8">
+      <c r="B75" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="8">
         <v>44345</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="8">
+      <c r="B76" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="8">
         <v>44355</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="8">
+      <c r="B77" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="8">
         <v>44382</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="8">
+      <c r="B78" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="8">
         <v>44415</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="8">
+      <c r="B79" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="8">
         <v>44419</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80" s="8">
+      <c r="B80" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="8">
         <v>44480</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="8">
+      <c r="B81" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="8">
         <v>44482</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" s="8">
+      <c r="B82" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82" s="8">
         <v>44521</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" s="8">
+      <c r="B83" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" s="8">
         <v>44544</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84" s="8">
+      <c r="B84" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="8">
         <v>44571</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85" s="8">
+      <c r="B85" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="8">
         <v>44587</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C86" s="8">
+      <c r="B86" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="8">
         <v>44619</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C87" s="8">
+      <c r="B87" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" s="8">
         <v>44645</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D88" s="8">
+        <v>44011</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D89" s="8">
+        <v>44077</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D90" s="8">
+        <v>44176</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D91" s="8">
+        <v>44194</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D92" s="8">
+        <v>44202</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D93" s="8">
+        <v>44203</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D94" s="8">
+        <v>44204</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D95" s="8">
+        <v>44210</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D96" s="8">
+        <v>44217</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D97" s="8">
+        <v>44225</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D98" s="8">
+        <v>44244</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D99" s="8">
+        <v>44273</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D100" s="8">
+        <v>44281</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D101" s="8">
+        <v>44284</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D102" s="8">
+        <v>44286</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D103" s="8">
+        <v>44293</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D104" s="8">
+        <v>44302</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D105" s="8">
+        <v>44302</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D106" s="8">
+        <v>44309</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D107" s="8">
+        <v>44323</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D108" s="8">
+        <v>44329</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D109" s="8">
+        <v>44335</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D110" s="8">
+        <v>44341</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D111" s="8">
+        <v>44347</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D112" s="8">
+        <v>44348</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D113" s="8">
+        <v>44354</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D114" s="8">
+        <v>44354</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D115" s="8">
+        <v>44361</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D116" s="8">
+        <v>44368</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D117" s="8">
+        <v>44375</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D118" s="8">
+        <v>44377</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D119" s="8">
+        <v>44383</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D120" s="8">
+        <v>44390</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D121" s="8">
+        <v>44396</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D122" s="8">
+        <v>44762</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D123" s="8">
+        <v>44404</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D124" s="8">
+        <v>44411</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D125" s="8">
+        <v>44412</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D126" s="8">
+        <v>44418</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D127" s="8">
+        <v>44425</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D128" s="8">
+        <v>44432</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D129" s="8">
+        <v>44439</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D130" s="8">
+        <v>44442</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D131" s="8">
+        <v>44446</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D132" s="8">
+        <v>44449</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D133" s="8">
+        <v>44453</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D134" s="8">
+        <v>44454</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" s="8">
+        <v>44460</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D136" s="8">
+        <v>44468</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D137" s="8">
+        <v>44474</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D138" s="8">
+        <v>44481</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D139" s="8">
+        <v>44481</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D140" s="8">
+        <v>44488</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D141" s="8">
+        <v>44495</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D142" s="8">
+        <v>44502</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D143" s="8">
+        <v>44509</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D144" s="8">
+        <v>44516</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D145" s="8">
+        <v>44523</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D146" s="8">
+        <v>44530</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D147" s="8">
+        <v>44531</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D148" s="8">
+        <v>44532</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D149" s="8">
+        <v>44533</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D150" s="8">
+        <v>44537</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D151" s="8">
+        <v>44538</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D152" s="8">
+        <v>44540</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D153" s="8">
+        <v>44544</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D154" s="8">
+        <v>44551</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D155" s="8">
+        <v>44558</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D156" s="8">
+        <v>44561</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D157" s="8">
+        <v>44572</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D158" s="8">
+        <v>44579</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D159" s="8">
+        <v>44586</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D160" s="8">
+        <v>44588</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D161" s="8">
+        <v>44593</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D162" s="8">
+        <v>44599</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D163" s="8">
+        <v>44600</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D164" s="8">
+        <v>44606</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D165" s="8">
+        <v>44606</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D166" s="8">
+        <v>44606</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D167" s="8">
+        <v>44607</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D168" s="8">
+        <v>44614</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D169" s="8">
+        <v>44621</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D170" s="8">
+        <v>44628</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D171" s="8">
+        <v>44628</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D172" s="8">
+        <v>44635</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D173" s="8">
+        <v>44637</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D174" s="8">
+        <v>44638</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D175" s="7">
+        <v>44642</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D176" s="7">
+        <v>44649</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D177" s="7">
+        <v>44656</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D178" s="7">
+        <v>44663</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D179" s="7">
+        <v>44664</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D180" s="7">
+        <v>44670</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D181" s="7">
+        <v>44669</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D182" s="7">
+        <v>44677</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D183" s="7">
+        <v>44684</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D184" s="7">
+        <v>44684</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C88" s="8">
-        <v>44011</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C89" s="8">
-        <v>44077</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C90" s="8">
-        <v>44176</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C91" s="8">
-        <v>44194</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C92" s="8">
-        <v>44202</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C93" s="8">
-        <v>44203</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C94" s="8">
-        <v>44210</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C95" s="8">
-        <v>44217</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C96" s="8">
-        <v>44225</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C97" s="8">
-        <v>44244</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C98" s="8">
-        <v>44273</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C99" s="8">
-        <v>44281</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C100" s="8">
-        <v>44284</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C101" s="8">
-        <v>44286</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C102" s="8">
-        <v>44293</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C103" s="8">
-        <v>44302</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C104" s="8">
-        <v>44302</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C105" s="8">
-        <v>44309</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C106" s="8">
-        <v>44323</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C107" s="8">
-        <v>44329</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C108" s="8">
-        <v>44335</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C109" s="8">
-        <v>44341</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C110" s="8">
-        <v>44347</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C111" s="8">
-        <v>44348</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C112" s="8">
-        <v>44354</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C113" s="8">
-        <v>44354</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C114" s="8">
-        <v>44361</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C115" s="8">
-        <v>44368</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C116" s="8">
-        <v>44375</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C117" s="8">
-        <v>44377</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C118" s="8">
-        <v>44383</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C119" s="8">
-        <v>44390</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C120" s="8">
-        <v>44396</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C121" s="8">
-        <v>44762</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C122" s="8">
-        <v>44404</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C123" s="8">
-        <v>44411</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C124" s="8">
-        <v>44412</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C125" s="8">
-        <v>44418</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C126" s="8">
-        <v>44425</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C127" s="8">
-        <v>44432</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C128" s="8">
-        <v>44439</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C129" s="8">
-        <v>44442</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C130" s="8">
-        <v>44446</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C131" s="8">
-        <v>44449</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C132" s="8">
-        <v>44453</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C133" s="8">
-        <v>44454</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C134" s="8">
-        <v>44460</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C135" s="8">
-        <v>44468</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C136" s="8">
-        <v>44474</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C137" s="8">
-        <v>44481</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C138" s="8">
-        <v>44481</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C139" s="8">
-        <v>44488</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C140" s="8">
-        <v>44495</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C141" s="8">
-        <v>44502</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C142" s="8">
-        <v>44509</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C143" s="8">
-        <v>44516</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C144" s="8">
-        <v>44523</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C145" s="8">
-        <v>44530</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C146" s="8">
-        <v>44531</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C147" s="8">
-        <v>44532</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C148" s="8">
-        <v>44533</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C149" s="8">
-        <v>44537</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C150" s="8">
-        <v>44538</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C151" s="8">
-        <v>44540</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C152" s="8">
-        <v>44544</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C153" s="8">
-        <v>44551</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C154" s="8">
-        <v>44558</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C155" s="8">
-        <v>44561</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C156" s="8">
-        <v>44572</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C157" s="8">
-        <v>44579</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C158" s="8">
-        <v>44586</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C159" s="8">
-        <v>44588</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C160" s="8">
-        <v>44593</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C161" s="8">
-        <v>44599</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C162" s="8">
-        <v>44600</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C163" s="8">
-        <v>44606</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C164" s="8">
-        <v>44606</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C165" s="8">
-        <v>44607</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C166" s="8">
-        <v>44614</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C167" s="8">
-        <v>44621</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C168" s="8">
-        <v>44628</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C169" s="8">
-        <v>44628</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A170" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C170" s="8">
-        <v>44635</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C171" s="8">
-        <v>44637</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C172" s="8">
-        <v>44637</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C173" s="7">
-        <v>44642</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C174" s="7">
-        <v>44649</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C175" s="7">
-        <v>44656</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C176" s="7">
-        <v>44663</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A177" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C177" s="7">
-        <v>44664</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C178" s="7">
-        <v>44670</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C179" s="7">
-        <v>44669</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A180" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C180" s="7">
-        <v>44677</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A181" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C181" s="7">
-        <v>44684</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A182" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C182" s="7">
-        <v>44684</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" s="1" t="s">
+      <c r="B185" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D185" s="7">
+        <v>44813</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F185" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C183" s="7">
-        <v>44813</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>323</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B99" r:id="rId1" location="/in-review/3558?reportId=149144&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B93" r:id="rId2" location="/in-review/3350?reportId=19480&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B92" r:id="rId3" location="/in-review/3402?reportId=19474&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B147" r:id="rId4" location="/in-review/3441?reportId=152683&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B152" r:id="rId5" location="/in-review/3441?reportId=152871&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B170" r:id="rId6" location="/in-review/3441?reportId=154443&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B103" r:id="rId7" location="/in-review/3613?reportId=149442&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B106" r:id="rId8" location="/in-review/3613?reportId=149648&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B166" r:id="rId9" location="/in-review/3613?reportId=154092&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B125" r:id="rId10" location="/in-review/3420?reportId=151000&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B173" r:id="rId11" location="/in-review/3420?reportId=154561&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B179" r:id="rId12" location="/in-review/3420?reportId=155000&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B183" r:id="rId13" location="/in-review/3420?reportId=155203&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B111" r:id="rId14" location="/in-review/3445?reportId=150130&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B100" r:id="rId15" location="/in-review/3539?reportId=149292&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B148" r:id="rId16" location="/in-review/3539?reportId=152722&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B151" r:id="rId17" location="/in-review/3777?reportId=152841&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B88" r:id="rId18" location="/in-review/3201?reportId=17860&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B149" r:id="rId19" location="/in-review/4058?reportId=152726&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B130" r:id="rId20" location="/in-review/3833?reportId=151484&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B104" r:id="rId21" location="/in-review/3500?reportId=149554&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B105" r:id="rId22" location="/in-review/3515?reportId=149561&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B181" r:id="rId23" location="/in-review/3876?reportId=155041&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B174" r:id="rId24" location="/in-review/4024?reportId=154496&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B132" r:id="rId25" location="/in-review/3899?reportId=151613&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B134" r:id="rId26" location="/in-review/3899?reportId=151684&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B160" r:id="rId27" location="/in-review/3899?reportId=153270&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B101" r:id="rId28" location="/in-review/3521?reportId=149306&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B121" r:id="rId29" location="/in-review/3708?reportId=150717&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B114" r:id="rId30" location="/in-review/3716?reportId=150216&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B94" r:id="rId31" location="/in-review/3430?reportId=19471&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B102" r:id="rId32" location="/in-review/3430?reportId=149157&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B118" r:id="rId33" location="/in-review/3430?reportId=150509&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B138" r:id="rId34" location="/in-review/3430?reportId=151460&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B89" r:id="rId35" location="/in-review/3253?reportId=18342&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B90" r:id="rId36" location="/in-review/3403?reportId=19210&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B91" r:id="rId37" location="/in-review/3403?reportId=19402&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B95" r:id="rId38" location="/in-review/3403?reportId=19548&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B96" r:id="rId39" location="/in-review/3403?reportId=19663&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B97" r:id="rId40" location="/in-review/3403?reportId=19739&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B98" r:id="rId41" location="/in-review/3537?reportId=19986&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B162" r:id="rId42" location="/in-review/4265?reportId=153887&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B165" r:id="rId43" location="/in-review/4265?reportId=154029&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B164" r:id="rId44" location="/in-review/4299?reportId=154082&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B107" r:id="rId45" location="/in-review/3687?reportId=149834&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B108" r:id="rId46" location="/in-review/3687?reportId=149901&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B109" r:id="rId47" location="/in-review/3687?reportId=149988&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B110" r:id="rId48" location="/in-review/3687?reportId=150050&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B112" r:id="rId49" location="/in-review/3687?reportId=150133&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B113" r:id="rId50" location="/in-review/3687?reportId=150201&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B115" r:id="rId51" location="/in-review/3687?reportId=150293&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B116" r:id="rId52" location="/in-review/3687?reportId=150393&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B117" r:id="rId53" location="/in-review/3687?reportId=150474&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B119" r:id="rId54" location="/in-review/3687?reportId=150579&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B120" r:id="rId55" location="/in-review/3687?reportId=150693&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B122" r:id="rId56" location="/in-review/3687?reportId=150783&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B123" r:id="rId57" location="/in-review/3687?reportId=150888&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B124" r:id="rId58" location="/in-review/3687?reportId=150980&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B126" r:id="rId59" location="/in-review/3687?reportId=151069&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B127" r:id="rId60" location="/in-review/3687?reportId=151207&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B128" r:id="rId61" location="/in-review/3687?reportId=151337&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B129" r:id="rId62" location="/in-review/3687?reportId=151441&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B131" r:id="rId63" location="/in-review/3687?reportId=151545&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B133" r:id="rId64" location="/in-review/3687?reportId=151657&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B135" r:id="rId65" location="/in-review/3899?reportId=151754&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B136" r:id="rId66" location="/in-review/3899?reportId=151852&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B137" r:id="rId67" location="/in-review/3899?reportId=151924&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B139" r:id="rId68" location="/in-review/3899?reportId=152030&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B140" r:id="rId69" location="/in-review/3899?reportId=152112&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B141" r:id="rId70" location="/in-review/3899?reportId=15220=&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B142" r:id="rId71" location="/in-review/3899?reportId=152283&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B143" r:id="rId72" location="/in-review/3899?reportId=152384&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B144" r:id="rId73" location="/in-review/3899?reportId=152471&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B145" r:id="rId74" location="/in-review/3899?reportId=152564&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B146" r:id="rId75" location="/in-review/3899?reportId=152663&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B150" r:id="rId76" location="/in-review/3899?reportId=152819&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B153" r:id="rId77" location="/in-review/3899?reportId=152934&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B154" r:id="rId78" location="/in-review/3899?reportId=153057&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B155" r:id="rId79" location="/in-review/3899?reportId=153190&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B156" r:id="rId80" location="/in-review/3899?reportId=153243&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B157" r:id="rId81" location="/in-review/3899?reportId=153419&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B158" r:id="rId82" location="/in-review/3899?reportId=153548&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B159" r:id="rId83" location="/in-review/3899?reportId=153685&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B161" r:id="rId84" location="/in-review/3899?reportId=153801&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B163" r:id="rId85" location="/in-review/3899?reportId=153949&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B167" r:id="rId86" location="/in-review/3899?reportId=154111&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B168" r:id="rId87" location="/in-review/3899?reportId=154224&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B169" r:id="rId88" location="/in-review/3899?reportId=154365&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B171" r:id="rId89" location="/in-review/3899?reportId=154457&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B172" r:id="rId90" location="/in-review/3899?reportId=154535&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B175" r:id="rId91" location="/in-review/3899?reportId=154642&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B176" r:id="rId92" location="/in-review/3899?reportId=154758&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B177" r:id="rId93" location="/in-review/3899?reportId=154873&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B178" r:id="rId94" location="/in-review/3899?reportId=154980&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B180" r:id="rId95" location="/in-review/3899?reportId=155048&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B182" r:id="rId96" location="/in-review/3899?reportId=155123&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B184" r:id="rId97" location="/in-review/3899?reportId=155212&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B185" r:id="rId98" location="/in-review/3664?reportId=156963&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B2" r:id="rId99"/>
+    <hyperlink ref="B3" r:id="rId100"/>
+    <hyperlink ref="B4" r:id="rId101"/>
+    <hyperlink ref="B5" r:id="rId102"/>
+    <hyperlink ref="B6" r:id="rId103"/>
+    <hyperlink ref="B7" r:id="rId104"/>
+    <hyperlink ref="B8" r:id="rId105"/>
+    <hyperlink ref="B9" r:id="rId106"/>
+    <hyperlink ref="B10" r:id="rId107"/>
+    <hyperlink ref="B11" r:id="rId108"/>
+    <hyperlink ref="B12" r:id="rId109"/>
+    <hyperlink ref="B13" r:id="rId110"/>
+    <hyperlink ref="B14" r:id="rId111"/>
+    <hyperlink ref="B15" r:id="rId112"/>
+    <hyperlink ref="B16" r:id="rId113"/>
+    <hyperlink ref="B17" r:id="rId114"/>
+    <hyperlink ref="B18" r:id="rId115"/>
+    <hyperlink ref="B19" r:id="rId116"/>
+    <hyperlink ref="B20" r:id="rId117"/>
+    <hyperlink ref="B21" r:id="rId118"/>
+    <hyperlink ref="B22" r:id="rId119"/>
+    <hyperlink ref="B23" r:id="rId120"/>
+    <hyperlink ref="B24" r:id="rId121"/>
+    <hyperlink ref="B25" r:id="rId122"/>
+    <hyperlink ref="B26" r:id="rId123"/>
+    <hyperlink ref="B27" r:id="rId124"/>
+    <hyperlink ref="B28" r:id="rId125"/>
+    <hyperlink ref="B29" r:id="rId126"/>
+    <hyperlink ref="B30" r:id="rId127"/>
+    <hyperlink ref="B31" r:id="rId128"/>
+    <hyperlink ref="B32" r:id="rId129"/>
+    <hyperlink ref="B33" r:id="rId130"/>
+    <hyperlink ref="B34" r:id="rId131"/>
+    <hyperlink ref="B35" r:id="rId132"/>
+    <hyperlink ref="B36" r:id="rId133"/>
+    <hyperlink ref="B37" r:id="rId134"/>
+    <hyperlink ref="B38" r:id="rId135"/>
+    <hyperlink ref="B39" r:id="rId136"/>
+    <hyperlink ref="B40" r:id="rId137"/>
+    <hyperlink ref="B41" r:id="rId138"/>
+    <hyperlink ref="B42" r:id="rId139"/>
+    <hyperlink ref="B43" r:id="rId140"/>
+    <hyperlink ref="B44" r:id="rId141"/>
+    <hyperlink ref="B45" r:id="rId142"/>
+    <hyperlink ref="B46" r:id="rId143"/>
+    <hyperlink ref="B47" r:id="rId144"/>
+    <hyperlink ref="B48" r:id="rId145"/>
+    <hyperlink ref="B49" r:id="rId146"/>
+    <hyperlink ref="B50" r:id="rId147"/>
+    <hyperlink ref="B51" r:id="rId148"/>
+    <hyperlink ref="B52" r:id="rId149"/>
+    <hyperlink ref="B53" r:id="rId150"/>
+    <hyperlink ref="B54" r:id="rId151"/>
+    <hyperlink ref="B55" r:id="rId152"/>
+    <hyperlink ref="B56" r:id="rId153"/>
+    <hyperlink ref="B57" r:id="rId154"/>
+    <hyperlink ref="B58" r:id="rId155"/>
+    <hyperlink ref="B59" r:id="rId156"/>
+    <hyperlink ref="B60" r:id="rId157"/>
+    <hyperlink ref="B61" r:id="rId158"/>
+    <hyperlink ref="B62" r:id="rId159"/>
+    <hyperlink ref="B63" r:id="rId160"/>
+    <hyperlink ref="B64" r:id="rId161"/>
+    <hyperlink ref="B65" r:id="rId162"/>
+    <hyperlink ref="B66" r:id="rId163"/>
+    <hyperlink ref="B67" r:id="rId164"/>
+    <hyperlink ref="B68" r:id="rId165"/>
+    <hyperlink ref="B69" r:id="rId166"/>
+    <hyperlink ref="B70" r:id="rId167"/>
+    <hyperlink ref="B71" r:id="rId168"/>
+    <hyperlink ref="B72" r:id="rId169"/>
+    <hyperlink ref="B73" r:id="rId170"/>
+    <hyperlink ref="B74" r:id="rId171"/>
+    <hyperlink ref="B75" r:id="rId172"/>
+    <hyperlink ref="B76" r:id="rId173"/>
+    <hyperlink ref="B77" r:id="rId174"/>
+    <hyperlink ref="B78" r:id="rId175"/>
+    <hyperlink ref="B79" r:id="rId176"/>
+    <hyperlink ref="B80" r:id="rId177"/>
+    <hyperlink ref="B81" r:id="rId178"/>
+    <hyperlink ref="B82" r:id="rId179"/>
+    <hyperlink ref="B83" r:id="rId180"/>
+    <hyperlink ref="B84" r:id="rId181"/>
+    <hyperlink ref="B85" r:id="rId182"/>
+    <hyperlink ref="B86" r:id="rId183"/>
+    <hyperlink ref="B87" r:id="rId184"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId185"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="516">
   <si>
     <t>source</t>
   </si>
@@ -1563,6 +1563,15 @@
   </si>
   <si>
     <t>https://promedmail.org/promed-post/?id=8702212</t>
+  </si>
+  <si>
+    <t>FUR_157958</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=157958&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>epidemiological situation in Switzerland remains unchanged since the last report</t>
   </si>
 </sst>
 </file>
@@ -2090,7 +2099,7 @@
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2105,9 +2114,12 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2476,23 +2488,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2511,8 +2524,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2531,8 +2544,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -2551,8 +2564,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -2571,8 +2584,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2591,8 +2604,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -2611,8 +2624,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2631,8 +2644,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2651,8 +2664,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -2671,8 +2684,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -2691,8 +2704,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2711,8 +2724,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -2731,8 +2744,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -2751,8 +2764,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -2771,8 +2784,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -2791,8 +2804,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -2811,8 +2824,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -2831,8 +2844,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -2851,8 +2864,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -2871,8 +2884,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -2891,8 +2904,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -2911,8 +2924,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -2931,8 +2944,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -2951,8 +2964,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -2971,8 +2984,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -2991,8 +3004,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3011,8 +3024,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -3031,8 +3044,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -3051,8 +3064,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -3071,8 +3084,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -3091,8 +3104,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -3111,8 +3124,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -3131,8 +3144,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -3151,8 +3164,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -3171,8 +3184,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -3191,8 +3204,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -3211,8 +3224,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -3231,8 +3244,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -3251,8 +3264,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -3271,8 +3284,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -3291,8 +3304,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -3311,8 +3324,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -3331,8 +3344,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -3351,8 +3364,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -3371,8 +3384,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -3391,8 +3404,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -3411,8 +3424,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -3431,8 +3444,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -3451,8 +3464,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -3471,8 +3484,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -3491,8 +3504,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -3511,8 +3524,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B52" s="11" t="s">
@@ -3531,8 +3544,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -3551,8 +3564,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -3571,8 +3584,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -3591,8 +3604,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B56" s="11" t="s">
@@ -3611,8 +3624,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -3631,8 +3644,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B58" s="11" t="s">
@@ -3651,8 +3664,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B59" s="11" t="s">
@@ -3671,8 +3684,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="11" t="s">
@@ -3691,8 +3704,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -3711,8 +3724,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -3731,8 +3744,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B63" s="11" t="s">
@@ -3751,8 +3764,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B64" s="11" t="s">
@@ -3771,8 +3784,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -3791,8 +3804,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -3811,8 +3824,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="11" t="s">
@@ -3831,8 +3844,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B68" s="11" t="s">
@@ -3851,8 +3864,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B69" s="11" t="s">
@@ -3871,8 +3884,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B70" s="11" t="s">
@@ -3891,8 +3904,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B71" s="11" t="s">
@@ -3911,8 +3924,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B72" s="11" t="s">
@@ -3931,8 +3944,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B73" s="11" t="s">
@@ -3951,8 +3964,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="11" t="s">
@@ -3971,8 +3984,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B75" s="11" t="s">
@@ -3991,8 +4004,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B76" s="11" t="s">
@@ -4011,8 +4024,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B77" s="11" t="s">
@@ -4031,8 +4044,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B78" s="11" t="s">
@@ -4051,8 +4064,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B79" s="11" t="s">
@@ -4071,8 +4084,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B80" s="11" t="s">
@@ -4091,8 +4104,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B81" s="11" t="s">
@@ -4111,8 +4124,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B82" s="11" t="s">
@@ -4131,8 +4144,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B83" s="11" t="s">
@@ -4151,8 +4164,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B84" s="11" t="s">
@@ -4171,8 +4184,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
         <v>115</v>
       </c>
       <c r="B85" s="11" t="s">
@@ -4191,8 +4204,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
         <v>199</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -4211,8 +4224,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
         <v>279</v>
       </c>
       <c r="B87" s="11" t="s">
@@ -4231,8 +4244,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="12" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
         <v>117</v>
       </c>
       <c r="B88" s="11" t="s">
@@ -4251,8 +4264,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="12" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
         <v>119</v>
       </c>
       <c r="B89" s="11" t="s">
@@ -4271,8 +4284,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="12" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
         <v>120</v>
       </c>
       <c r="B90" s="11" t="s">
@@ -4291,8 +4304,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="12" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -4311,8 +4324,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B92" s="11" t="s">
@@ -4331,8 +4344,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="12" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
         <v>123</v>
       </c>
       <c r="B93" s="11" t="s">
@@ -4351,8 +4364,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
         <v>357</v>
       </c>
       <c r="B94" s="11" t="s">
@@ -4371,11 +4384,11 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="14" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="12" t="s">
         <v>366</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -4391,8 +4404,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="12" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
         <v>125</v>
       </c>
       <c r="B96" s="11" t="s">
@@ -4411,8 +4424,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="12" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
         <v>126</v>
       </c>
       <c r="B97" s="11" t="s">
@@ -4431,8 +4444,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
         <v>127</v>
       </c>
       <c r="B98" s="11" t="s">
@@ -4451,8 +4464,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B99" s="11" t="s">
@@ -4471,8 +4484,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
         <v>129</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -4491,8 +4504,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
         <v>130</v>
       </c>
       <c r="B101" s="11" t="s">
@@ -4511,8 +4524,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
         <v>131</v>
       </c>
       <c r="B102" s="11" t="s">
@@ -4531,8 +4544,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
         <v>132</v>
       </c>
       <c r="B103" s="11" t="s">
@@ -4551,8 +4564,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -4571,8 +4584,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
         <v>134</v>
       </c>
       <c r="B105" s="11" t="s">
@@ -4591,8 +4604,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B106" s="11" t="s">
@@ -4611,8 +4624,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
         <v>136</v>
       </c>
       <c r="B107" s="11" t="s">
@@ -4631,8 +4644,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
         <v>137</v>
       </c>
       <c r="B108" s="11" t="s">
@@ -4651,8 +4664,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
         <v>138</v>
       </c>
       <c r="B109" s="11" t="s">
@@ -4671,8 +4684,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
         <v>139</v>
       </c>
       <c r="B110" s="11" t="s">
@@ -4691,8 +4704,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4711,8 +4724,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
         <v>141</v>
       </c>
       <c r="B112" s="11" t="s">
@@ -4731,8 +4744,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
         <v>142</v>
       </c>
       <c r="B113" s="11" t="s">
@@ -4751,8 +4764,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
         <v>143</v>
       </c>
       <c r="B114" s="11" t="s">
@@ -4771,8 +4784,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
         <v>144</v>
       </c>
       <c r="B115" s="11" t="s">
@@ -4791,8 +4804,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B116" s="11" t="s">
@@ -4811,8 +4824,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
         <v>146</v>
       </c>
       <c r="B117" s="11" t="s">
@@ -4831,8 +4844,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
         <v>147</v>
       </c>
       <c r="B118" s="11" t="s">
@@ -4851,8 +4864,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
         <v>148</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -4871,8 +4884,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
         <v>149</v>
       </c>
       <c r="B120" s="11" t="s">
@@ -4891,8 +4904,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B121" s="11" t="s">
@@ -4911,8 +4924,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
         <v>151</v>
       </c>
       <c r="B122" s="11" t="s">
@@ -4931,8 +4944,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B123" s="11" t="s">
@@ -4951,8 +4964,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
         <v>153</v>
       </c>
       <c r="B124" s="11" t="s">
@@ -4971,8 +4984,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B125" s="11" t="s">
@@ -4991,8 +5004,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B126" s="11" t="s">
@@ -5011,8 +5024,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
         <v>156</v>
       </c>
       <c r="B127" s="11" t="s">
@@ -5031,8 +5044,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B128" s="11" t="s">
@@ -5051,8 +5064,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="2" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B129" s="11" t="s">
@@ -5071,8 +5084,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B130" s="11" t="s">
@@ -5091,8 +5104,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" s="2" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B131" s="11" t="s">
@@ -5111,8 +5124,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="2" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B132" s="11" t="s">
@@ -5131,8 +5144,8 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" s="2" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B133" s="11" t="s">
@@ -5151,8 +5164,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
         <v>163</v>
       </c>
       <c r="B134" s="11" t="s">
@@ -5171,8 +5184,8 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="2" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B135" s="11" t="s">
@@ -5191,8 +5204,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B136" s="11" t="s">
@@ -5211,8 +5224,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="2" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B137" s="11" t="s">
@@ -5231,8 +5244,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B138" s="11" t="s">
@@ -5251,8 +5264,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" s="2" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
         <v>168</v>
       </c>
       <c r="B139" s="11" t="s">
@@ -5271,8 +5284,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
         <v>169</v>
       </c>
       <c r="B140" s="11" t="s">
@@ -5291,8 +5304,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="2" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="14" t="s">
         <v>170</v>
       </c>
       <c r="B141" s="11" t="s">
@@ -5311,8 +5324,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
         <v>171</v>
       </c>
       <c r="B142" s="11" t="s">
@@ -5331,8 +5344,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" s="2" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B143" s="11" t="s">
@@ -5351,8 +5364,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="14" t="s">
         <v>173</v>
       </c>
       <c r="B144" s="11" t="s">
@@ -5371,8 +5384,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" s="2" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
         <v>174</v>
       </c>
       <c r="B145" s="11" t="s">
@@ -5391,8 +5404,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
         <v>175</v>
       </c>
       <c r="B146" s="11" t="s">
@@ -5411,8 +5424,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" s="2" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
         <v>176</v>
       </c>
       <c r="B147" s="11" t="s">
@@ -5431,8 +5444,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="s">
         <v>177</v>
       </c>
       <c r="B148" s="11" t="s">
@@ -5451,8 +5464,8 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" s="2" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
         <v>178</v>
       </c>
       <c r="B149" s="11" t="s">
@@ -5471,8 +5484,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" s="2" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="14" t="s">
         <v>179</v>
       </c>
       <c r="B150" s="11" t="s">
@@ -5491,8 +5504,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="2" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="14" t="s">
         <v>180</v>
       </c>
       <c r="B151" s="11" t="s">
@@ -5511,8 +5524,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" s="2" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
         <v>181</v>
       </c>
       <c r="B152" s="11" t="s">
@@ -5531,8 +5544,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" s="2" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
         <v>182</v>
       </c>
       <c r="B153" s="11" t="s">
@@ -5551,8 +5564,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="2" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="s">
         <v>183</v>
       </c>
       <c r="B154" s="11" t="s">
@@ -5571,8 +5584,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="2" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="s">
         <v>184</v>
       </c>
       <c r="B155" s="11" t="s">
@@ -5591,8 +5604,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="2" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="s">
         <v>185</v>
       </c>
       <c r="B156" s="11" t="s">
@@ -5611,8 +5624,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" s="2" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
         <v>186</v>
       </c>
       <c r="B157" s="11" t="s">
@@ -5631,8 +5644,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" s="2" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="14" t="s">
         <v>187</v>
       </c>
       <c r="B158" s="11" t="s">
@@ -5651,8 +5664,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="2" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
         <v>188</v>
       </c>
       <c r="B159" s="11" t="s">
@@ -5671,8 +5684,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="2" t="s">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="14" t="s">
         <v>189</v>
       </c>
       <c r="B160" s="11" t="s">
@@ -5691,8 +5704,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="2" t="s">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="s">
         <v>190</v>
       </c>
       <c r="B161" s="11" t="s">
@@ -5711,8 +5724,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="2" t="s">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="14" t="s">
         <v>191</v>
       </c>
       <c r="B162" s="11" t="s">
@@ -5731,8 +5744,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="2" t="s">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B163" s="11" t="s">
@@ -5751,8 +5764,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="2" t="s">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="14" t="s">
         <v>193</v>
       </c>
       <c r="B164" s="11" t="s">
@@ -5771,8 +5784,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="2" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B165" s="11" t="s">
@@ -5791,8 +5804,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="2" t="s">
+    <row r="166" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="14" t="s">
         <v>332</v>
       </c>
       <c r="B166" s="11" t="s">
@@ -5811,8 +5824,8 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="2" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="14" t="s">
         <v>195</v>
       </c>
       <c r="B167" s="11" t="s">
@@ -5831,8 +5844,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" s="2" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="14" t="s">
         <v>196</v>
       </c>
       <c r="B168" s="11" t="s">
@@ -5851,8 +5864,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="2" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="14" t="s">
         <v>201</v>
       </c>
       <c r="B169" s="11" t="s">
@@ -5871,8 +5884,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="2" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="14" t="s">
         <v>202</v>
       </c>
       <c r="B170" s="11" t="s">
@@ -5892,8 +5905,8 @@
       </c>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="2" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="14" t="s">
         <v>203</v>
       </c>
       <c r="B171" s="11" t="s">
@@ -5913,8 +5926,8 @@
       </c>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="2" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="14" t="s">
         <v>258</v>
       </c>
       <c r="B172" s="11" t="s">
@@ -5933,8 +5946,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="2" t="s">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="14" t="s">
         <v>259</v>
       </c>
       <c r="B173" s="11" t="s">
@@ -5953,8 +5966,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="2" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="14" t="s">
         <v>260</v>
       </c>
       <c r="B174" s="11" t="s">
@@ -5973,8 +5986,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="1" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="14" t="s">
         <v>280</v>
       </c>
       <c r="B175" s="11" t="s">
@@ -5993,8 +6006,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="1" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="14" t="s">
         <v>308</v>
       </c>
       <c r="B176" s="11" t="s">
@@ -6013,8 +6026,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="1" t="s">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B177" s="11" t="s">
@@ -6033,8 +6046,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="1" t="s">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="14" t="s">
         <v>310</v>
       </c>
       <c r="B178" s="11" t="s">
@@ -6053,8 +6066,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" s="1" t="s">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B179" s="11" t="s">
@@ -6073,8 +6086,8 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180" s="1" t="s">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B180" s="11" t="s">
@@ -6093,8 +6106,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="14" t="s">
         <v>314</v>
       </c>
       <c r="B181" s="11" t="s">
@@ -6113,8 +6126,8 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" s="1" t="s">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B182" s="11" t="s">
@@ -6133,8 +6146,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="1" t="s">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="14" t="s">
         <v>317</v>
       </c>
       <c r="B183" s="11" t="s">
@@ -6153,8 +6166,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" s="1" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="14" t="s">
         <v>319</v>
       </c>
       <c r="B184" s="11" t="s">
@@ -6173,8 +6186,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="1" t="s">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="14" t="s">
         <v>321</v>
       </c>
       <c r="B185" s="11" t="s">
@@ -6191,6 +6204,26 @@
       </c>
       <c r="F185" s="3" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D186" s="7">
+        <v>44887</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -6380,8 +6413,9 @@
     <hyperlink ref="B85" r:id="rId182"/>
     <hyperlink ref="B86" r:id="rId183"/>
     <hyperlink ref="B87" r:id="rId184"/>
+    <hyperlink ref="B186" r:id="rId185" location="/in-review/3521?reportId=157958&amp;fromPage=event-dashboard-url"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId185"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId186"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="518">
   <si>
     <t>source</t>
   </si>
@@ -1572,6 +1572,12 @@
   </si>
   <si>
     <t>epidemiological situation in Switzerland remains unchanged since the last report</t>
+  </si>
+  <si>
+    <t>FUR_158111</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2105,7 @@
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2114,12 +2120,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2488,16 +2491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" style="1" customWidth="1"/>
@@ -2505,7 +2507,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2525,7 +2527,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2545,7 +2547,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -2565,7 +2567,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -2585,7 +2587,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2605,7 +2607,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -2625,7 +2627,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2645,7 +2647,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2665,7 +2667,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -2685,7 +2687,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -2705,7 +2707,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2725,7 +2727,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -2745,7 +2747,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -2765,7 +2767,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -2785,7 +2787,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -2805,7 +2807,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -2825,7 +2827,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -2845,7 +2847,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -2865,7 +2867,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -2885,7 +2887,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -2905,7 +2907,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -2925,7 +2927,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -2945,7 +2947,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -2965,7 +2967,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -2985,7 +2987,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -3005,7 +3007,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3025,7 +3027,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -3045,7 +3047,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -3065,7 +3067,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -3085,7 +3087,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -3105,7 +3107,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -3125,7 +3127,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -3145,7 +3147,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -3165,7 +3167,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -3185,7 +3187,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -3205,7 +3207,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -3225,7 +3227,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -3245,7 +3247,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -3265,7 +3267,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -3285,7 +3287,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -3305,7 +3307,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -3325,7 +3327,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -3345,7 +3347,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -3365,7 +3367,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -3385,7 +3387,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -3405,7 +3407,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -3425,7 +3427,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -3445,7 +3447,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -3465,7 +3467,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -3485,7 +3487,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -3505,7 +3507,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -3525,7 +3527,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B52" s="11" t="s">
@@ -3545,7 +3547,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -3565,7 +3567,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -3585,7 +3587,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -3605,7 +3607,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B56" s="11" t="s">
@@ -3625,7 +3627,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -3645,7 +3647,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B58" s="11" t="s">
@@ -3665,7 +3667,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B59" s="11" t="s">
@@ -3685,7 +3687,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="11" t="s">
@@ -3705,7 +3707,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -3725,7 +3727,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -3745,7 +3747,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B63" s="11" t="s">
@@ -3765,7 +3767,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B64" s="11" t="s">
@@ -3785,7 +3787,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -3805,7 +3807,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -3825,7 +3827,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="11" t="s">
@@ -3845,7 +3847,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B68" s="11" t="s">
@@ -3865,7 +3867,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B69" s="11" t="s">
@@ -3885,7 +3887,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B70" s="11" t="s">
@@ -3905,7 +3907,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B71" s="11" t="s">
@@ -3925,7 +3927,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B72" s="11" t="s">
@@ -3945,7 +3947,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B73" s="11" t="s">
@@ -3965,7 +3967,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="11" t="s">
@@ -3985,7 +3987,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B75" s="11" t="s">
@@ -4005,7 +4007,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B76" s="11" t="s">
@@ -4025,7 +4027,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B77" s="11" t="s">
@@ -4045,7 +4047,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B78" s="11" t="s">
@@ -4065,7 +4067,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B79" s="11" t="s">
@@ -4085,7 +4087,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B80" s="11" t="s">
@@ -4105,7 +4107,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B81" s="11" t="s">
@@ -4125,7 +4127,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B82" s="11" t="s">
@@ -4145,7 +4147,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B83" s="11" t="s">
@@ -4165,7 +4167,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B84" s="11" t="s">
@@ -4185,7 +4187,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B85" s="11" t="s">
@@ -4205,7 +4207,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -4225,7 +4227,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B87" s="11" t="s">
@@ -4245,7 +4247,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B88" s="11" t="s">
@@ -4265,7 +4267,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B89" s="11" t="s">
@@ -4285,7 +4287,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="12" t="s">
         <v>120</v>
       </c>
       <c r="B90" s="11" t="s">
@@ -4305,7 +4307,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="12" t="s">
         <v>121</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -4325,7 +4327,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B92" s="11" t="s">
@@ -4345,7 +4347,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="12" t="s">
         <v>123</v>
       </c>
       <c r="B93" s="11" t="s">
@@ -4365,7 +4367,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B94" s="11" t="s">
@@ -4385,10 +4387,10 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="13" t="s">
         <v>366</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -4405,7 +4407,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="12" t="s">
         <v>125</v>
       </c>
       <c r="B96" s="11" t="s">
@@ -4425,7 +4427,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B97" s="11" t="s">
@@ -4445,7 +4447,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B98" s="11" t="s">
@@ -4465,7 +4467,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B99" s="11" t="s">
@@ -4485,7 +4487,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -4505,7 +4507,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B101" s="11" t="s">
@@ -4525,7 +4527,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B102" s="11" t="s">
@@ -4545,7 +4547,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B103" s="11" t="s">
@@ -4565,7 +4567,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -4585,7 +4587,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B105" s="11" t="s">
@@ -4605,7 +4607,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B106" s="11" t="s">
@@ -4625,7 +4627,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B107" s="11" t="s">
@@ -4645,7 +4647,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B108" s="11" t="s">
@@ -4665,7 +4667,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B109" s="11" t="s">
@@ -4685,7 +4687,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B110" s="11" t="s">
@@ -4705,7 +4707,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4725,7 +4727,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B112" s="11" t="s">
@@ -4745,7 +4747,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B113" s="11" t="s">
@@ -4765,7 +4767,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B114" s="11" t="s">
@@ -4785,7 +4787,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B115" s="11" t="s">
@@ -4805,7 +4807,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B116" s="11" t="s">
@@ -4825,7 +4827,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B117" s="11" t="s">
@@ -4845,7 +4847,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B118" s="11" t="s">
@@ -4865,7 +4867,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -4885,7 +4887,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B120" s="11" t="s">
@@ -4905,7 +4907,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B121" s="11" t="s">
@@ -4925,7 +4927,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B122" s="11" t="s">
@@ -4945,7 +4947,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B123" s="11" t="s">
@@ -4965,7 +4967,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B124" s="11" t="s">
@@ -4985,7 +4987,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B125" s="11" t="s">
@@ -5005,7 +5007,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B126" s="11" t="s">
@@ -5025,7 +5027,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B127" s="11" t="s">
@@ -5045,7 +5047,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B128" s="11" t="s">
@@ -5065,7 +5067,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B129" s="11" t="s">
@@ -5085,7 +5087,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B130" s="11" t="s">
@@ -5105,7 +5107,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B131" s="11" t="s">
@@ -5125,7 +5127,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B132" s="11" t="s">
@@ -5145,7 +5147,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B133" s="11" t="s">
@@ -5165,7 +5167,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B134" s="11" t="s">
@@ -5185,7 +5187,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B135" s="11" t="s">
@@ -5205,7 +5207,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B136" s="11" t="s">
@@ -5225,7 +5227,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B137" s="11" t="s">
@@ -5245,7 +5247,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B138" s="11" t="s">
@@ -5265,7 +5267,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B139" s="11" t="s">
@@ -5285,7 +5287,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B140" s="11" t="s">
@@ -5305,7 +5307,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B141" s="11" t="s">
@@ -5325,7 +5327,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B142" s="11" t="s">
@@ -5345,7 +5347,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B143" s="11" t="s">
@@ -5365,7 +5367,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B144" s="11" t="s">
@@ -5385,7 +5387,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B145" s="11" t="s">
@@ -5405,7 +5407,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B146" s="11" t="s">
@@ -5425,7 +5427,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B147" s="11" t="s">
@@ -5445,7 +5447,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B148" s="11" t="s">
@@ -5465,7 +5467,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B149" s="11" t="s">
@@ -5485,7 +5487,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="14" t="s">
+      <c r="A150" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B150" s="11" t="s">
@@ -5505,7 +5507,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B151" s="11" t="s">
@@ -5525,7 +5527,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B152" s="11" t="s">
@@ -5545,7 +5547,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B153" s="11" t="s">
@@ -5565,7 +5567,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B154" s="11" t="s">
@@ -5585,7 +5587,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B155" s="11" t="s">
@@ -5605,7 +5607,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B156" s="11" t="s">
@@ -5625,7 +5627,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B157" s="11" t="s">
@@ -5645,7 +5647,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B158" s="11" t="s">
@@ -5665,7 +5667,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B159" s="11" t="s">
@@ -5685,7 +5687,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B160" s="11" t="s">
@@ -5705,7 +5707,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B161" s="11" t="s">
@@ -5725,7 +5727,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B162" s="11" t="s">
@@ -5745,7 +5747,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B163" s="11" t="s">
@@ -5765,7 +5767,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B164" s="11" t="s">
@@ -5785,7 +5787,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B165" s="11" t="s">
@@ -5805,7 +5807,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="14" t="s">
+      <c r="A166" s="2" t="s">
         <v>332</v>
       </c>
       <c r="B166" s="11" t="s">
@@ -5825,7 +5827,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="14" t="s">
+      <c r="A167" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B167" s="11" t="s">
@@ -5845,7 +5847,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B168" s="11" t="s">
@@ -5865,7 +5867,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="14" t="s">
+      <c r="A169" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B169" s="11" t="s">
@@ -5885,7 +5887,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="14" t="s">
+      <c r="A170" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B170" s="11" t="s">
@@ -5906,7 +5908,7 @@
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="14" t="s">
+      <c r="A171" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B171" s="11" t="s">
@@ -5927,7 +5929,7 @@
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="14" t="s">
+      <c r="A172" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B172" s="11" t="s">
@@ -5947,7 +5949,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="14" t="s">
+      <c r="A173" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B173" s="11" t="s">
@@ -5967,7 +5969,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="14" t="s">
+      <c r="A174" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B174" s="11" t="s">
@@ -5987,7 +5989,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B175" s="11" t="s">
@@ -6007,7 +6009,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="14" t="s">
+      <c r="A176" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B176" s="11" t="s">
@@ -6027,7 +6029,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="14" t="s">
+      <c r="A177" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B177" s="11" t="s">
@@ -6047,7 +6049,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="14" t="s">
+      <c r="A178" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B178" s="11" t="s">
@@ -6067,7 +6069,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="14" t="s">
+      <c r="A179" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B179" s="11" t="s">
@@ -6087,7 +6089,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="14" t="s">
+      <c r="A180" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B180" s="11" t="s">
@@ -6107,7 +6109,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="14" t="s">
+      <c r="A181" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B181" s="11" t="s">
@@ -6127,7 +6129,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="14" t="s">
+      <c r="A182" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B182" s="11" t="s">
@@ -6147,7 +6149,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="14" t="s">
+      <c r="A183" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B183" s="11" t="s">
@@ -6167,7 +6169,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="14" t="s">
+      <c r="A184" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B184" s="11" t="s">
@@ -6187,7 +6189,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="14" t="s">
+      <c r="A185" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B185" s="11" t="s">
@@ -6207,7 +6209,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="14" t="s">
+      <c r="A186" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B186" s="11" t="s">
@@ -6223,6 +6225,26 @@
         <v>118</v>
       </c>
       <c r="F186" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D187" s="7">
+        <v>44897</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>515</v>
       </c>
     </row>
@@ -6414,8 +6436,9 @@
     <hyperlink ref="B86" r:id="rId183"/>
     <hyperlink ref="B87" r:id="rId184"/>
     <hyperlink ref="B186" r:id="rId185" location="/in-review/3521?reportId=157958&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B187" r:id="rId186" location="/in-review/3521?fromPage=event-dashboard-url"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId186"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId187"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="521">
   <si>
     <t>source</t>
   </si>
@@ -1577,7 +1577,16 @@
     <t>FUR_158111</t>
   </si>
   <si>
-    <t>https://wahis.woah.org/#/in-review/3521?fromPage=event-dashboard-url</t>
+    <t>FUR_158187</t>
+  </si>
+  <si>
+    <t>epidemiological situation in Italy remains unchanged since the last report</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=158187&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=158134&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2105,7 +2114,7 @@
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2118,7 +2127,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2491,22 +2499,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="1" max="2" width="17.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2526,11 +2534,11 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>427</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2546,11 +2554,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>428</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2566,11 +2574,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>429</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2586,11 +2594,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>430</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2606,11 +2614,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>431</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2626,11 +2634,11 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>432</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2646,11 +2654,11 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>433</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2666,11 +2674,11 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>434</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2686,11 +2694,11 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>435</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2706,11 +2714,11 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>436</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2726,11 +2734,11 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>437</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2746,11 +2754,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>438</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2766,11 +2774,11 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>439</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2786,11 +2794,11 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>440</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2806,11 +2814,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>441</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2826,11 +2834,11 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>442</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2846,11 +2854,11 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>443</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2866,11 +2874,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>444</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2886,11 +2894,11 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>445</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2906,11 +2914,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>446</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2926,11 +2934,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>447</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2946,11 +2954,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>448</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2966,11 +2974,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>449</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2986,11 +2994,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>450</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3006,11 +3014,11 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>451</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3026,11 +3034,11 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>452</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -3046,11 +3054,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>453</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -3066,11 +3074,11 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>454</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3086,11 +3094,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>455</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3106,11 +3114,11 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>456</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -3126,11 +3134,11 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>457</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3146,11 +3154,11 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>458</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -3166,11 +3174,11 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>459</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -3186,11 +3194,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>460</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -3206,11 +3214,11 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>461</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -3226,11 +3234,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>462</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -3246,11 +3254,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>463</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3266,11 +3274,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>464</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -3286,11 +3294,11 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>465</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3306,11 +3314,11 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>466</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -3326,11 +3334,11 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>467</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -3346,11 +3354,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>468</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -3366,11 +3374,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>469</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -3386,11 +3394,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>470</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -3406,11 +3414,11 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>471</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3426,11 +3434,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>472</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -3446,11 +3454,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>473</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3466,11 +3474,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>474</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -3486,11 +3494,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>475</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3506,11 +3514,11 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>476</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3526,11 +3534,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>477</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -3546,11 +3554,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>478</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -3566,11 +3574,11 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>479</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3586,11 +3594,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>480</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -3606,11 +3614,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>481</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -3626,11 +3634,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>482</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -3646,11 +3654,11 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>483</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -3666,11 +3674,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>484</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3686,11 +3694,11 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>485</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3706,11 +3714,11 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>486</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -3726,11 +3734,11 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>487</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3746,11 +3754,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>488</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3766,11 +3774,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>489</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -3786,11 +3794,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>490</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -3806,11 +3814,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>491</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -3826,11 +3834,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>492</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -3846,11 +3854,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>493</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3866,11 +3874,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>494</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -3886,11 +3894,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="10" t="s">
         <v>495</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3906,11 +3914,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>496</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -3926,11 +3934,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="10" t="s">
         <v>497</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -3946,11 +3954,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>498</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -3966,11 +3974,11 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>499</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -3986,11 +3994,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>500</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -4006,11 +4014,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="10" t="s">
         <v>501</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -4026,11 +4034,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -4046,11 +4054,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="10" t="s">
         <v>503</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -4066,11 +4074,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="10" t="s">
         <v>504</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -4086,11 +4094,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="10" t="s">
         <v>505</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -4106,11 +4114,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="10" t="s">
         <v>506</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -4126,11 +4134,11 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="10" t="s">
         <v>507</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -4146,11 +4154,11 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>508</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -4166,11 +4174,11 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="10" t="s">
         <v>509</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -4186,11 +4194,11 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>510</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -4206,11 +4214,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -4226,11 +4234,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>512</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -4246,11 +4254,11 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>343</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -4266,11 +4274,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>363</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -4286,11 +4294,11 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="10" t="s">
         <v>364</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -4306,11 +4314,11 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>365</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -4326,11 +4334,11 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="10" t="s">
         <v>326</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -4346,11 +4354,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="10" t="s">
         <v>325</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -4366,11 +4374,11 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="10" t="s">
         <v>358</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -4386,11 +4394,11 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="12" t="s">
         <v>366</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -4406,11 +4414,11 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="10" t="s">
         <v>367</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -4426,11 +4434,11 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="10" t="s">
         <v>368</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -4446,11 +4454,11 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="10" t="s">
         <v>369</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -4466,11 +4474,11 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="10" t="s">
         <v>324</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -4486,11 +4494,11 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="10" t="s">
         <v>340</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -4506,11 +4514,11 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>354</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -4526,11 +4534,11 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="10" t="s">
         <v>359</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -4546,11 +4554,11 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>330</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -4566,11 +4574,11 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>346</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -4586,11 +4594,11 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>347</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -4606,11 +4614,11 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>331</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -4626,11 +4634,11 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>373</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -4646,11 +4654,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>374</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -4666,11 +4674,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="10" t="s">
         <v>375</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -4686,11 +4694,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="10" t="s">
         <v>376</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -4706,11 +4714,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="10" t="s">
         <v>339</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -4726,11 +4734,11 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -4746,11 +4754,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="10" t="s">
         <v>378</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -4766,11 +4774,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="10" t="s">
         <v>356</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -4786,11 +4794,11 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="10" t="s">
         <v>389</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -4806,11 +4814,11 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -4826,11 +4834,11 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="10" t="s">
         <v>391</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -4846,11 +4854,11 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="10" t="s">
         <v>361</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -4866,11 +4874,11 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="10" t="s">
         <v>379</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -4886,11 +4894,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="10" t="s">
         <v>380</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -4906,11 +4914,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="10" t="s">
         <v>355</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -4926,11 +4934,11 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="10" t="s">
         <v>381</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -4946,11 +4954,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="10" t="s">
         <v>382</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -4966,11 +4974,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="10" t="s">
         <v>383</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -4986,11 +4994,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>335</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -5006,11 +5014,11 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="10" t="s">
         <v>384</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -5026,11 +5034,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="10" t="s">
         <v>385</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -5046,11 +5054,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="10" t="s">
         <v>386</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -5066,11 +5074,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="10" t="s">
         <v>387</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -5086,11 +5094,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="10" t="s">
         <v>345</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -5106,11 +5114,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="10" t="s">
         <v>388</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -5126,11 +5134,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="10" t="s">
         <v>350</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -5146,11 +5154,11 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="10" t="s">
         <v>392</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -5166,11 +5174,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="10" t="s">
         <v>351</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -5186,11 +5194,11 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -5206,11 +5214,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="10" t="s">
         <v>394</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -5226,11 +5234,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="10" t="s">
         <v>395</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -5246,11 +5254,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="10" t="s">
         <v>362</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -5266,11 +5274,11 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="10" t="s">
         <v>396</v>
       </c>
       <c r="C139" s="2" t="s">
@@ -5286,11 +5294,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="10" t="s">
         <v>397</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -5306,11 +5314,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="10" t="s">
         <v>403</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -5326,11 +5334,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -5346,11 +5354,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="10" t="s">
         <v>399</v>
       </c>
       <c r="C143" s="2" t="s">
@@ -5366,11 +5374,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>400</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -5386,11 +5394,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="10" t="s">
         <v>401</v>
       </c>
       <c r="C145" s="2" t="s">
@@ -5406,11 +5414,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="10" t="s">
         <v>402</v>
       </c>
       <c r="C146" s="2" t="s">
@@ -5426,11 +5434,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="10" t="s">
         <v>327</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -5446,11 +5454,11 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="10" t="s">
         <v>341</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -5466,11 +5474,11 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="10" t="s">
         <v>344</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -5486,11 +5494,11 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="10" t="s">
         <v>404</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -5506,11 +5514,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="10" t="s">
         <v>342</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -5526,11 +5534,11 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="10" t="s">
         <v>328</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -5546,11 +5554,11 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="10" t="s">
         <v>405</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -5566,11 +5574,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="10" t="s">
         <v>406</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -5586,11 +5594,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="10" t="s">
         <v>407</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -5606,11 +5614,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="10" t="s">
         <v>411</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -5626,11 +5634,11 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="10" t="s">
         <v>408</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -5646,11 +5654,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="10" t="s">
         <v>409</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -5666,11 +5674,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="10" t="s">
         <v>410</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -5686,11 +5694,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="10" t="s">
         <v>352</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -5706,11 +5714,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="10" t="s">
         <v>412</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -5726,11 +5734,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="10" t="s">
         <v>370</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -5746,11 +5754,11 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="10" t="s">
         <v>413</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -5766,11 +5774,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="10" t="s">
         <v>372</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -5786,11 +5794,11 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C165" s="2" t="s">
@@ -5806,11 +5814,11 @@
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="10" t="s">
         <v>333</v>
       </c>
       <c r="C166" s="2" t="s">
@@ -5826,11 +5834,11 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="10" t="s">
         <v>414</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -5846,11 +5854,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="10" t="s">
         <v>415</v>
       </c>
       <c r="C168" s="2" t="s">
@@ -5866,11 +5874,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="10" t="s">
         <v>416</v>
       </c>
       <c r="C169" s="2" t="s">
@@ -5886,11 +5894,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="10" t="s">
         <v>329</v>
       </c>
       <c r="C170" s="2" t="s">
@@ -5907,11 +5915,11 @@
       </c>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="10" t="s">
         <v>417</v>
       </c>
       <c r="C171" s="2" t="s">
@@ -5928,11 +5936,11 @@
       </c>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="10" t="s">
         <v>418</v>
       </c>
       <c r="C172" s="2" t="s">
@@ -5948,11 +5956,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="10" t="s">
         <v>336</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -5968,11 +5976,11 @@
         <v>299</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="10" t="s">
         <v>349</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -5988,11 +5996,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="10" t="s">
         <v>419</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -6008,11 +6016,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="10" t="s">
         <v>420</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -6028,11 +6036,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="10" t="s">
         <v>421</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -6048,11 +6056,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="10" t="s">
         <v>422</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -6068,11 +6076,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="10" t="s">
         <v>337</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -6088,11 +6096,11 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="10" t="s">
         <v>423</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -6108,11 +6116,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="10" t="s">
         <v>348</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -6128,11 +6136,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="10" t="s">
         <v>424</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -6148,11 +6156,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="10" t="s">
         <v>338</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -6168,11 +6176,11 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="10" t="s">
         <v>425</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -6188,11 +6196,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="10" t="s">
         <v>426</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -6208,11 +6216,11 @@
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="10" t="s">
         <v>514</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -6228,12 +6236,12 @@
         <v>515</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B187" s="11" t="s">
-        <v>517</v>
+      <c r="B187" s="10" t="s">
+        <v>520</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>320</v>
@@ -6246,6 +6254,26 @@
       </c>
       <c r="F187" s="2" t="s">
         <v>515</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D188" s="7">
+        <v>44902</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -6436,9 +6464,10 @@
     <hyperlink ref="B86" r:id="rId183"/>
     <hyperlink ref="B87" r:id="rId184"/>
     <hyperlink ref="B186" r:id="rId185" location="/in-review/3521?reportId=157958&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B187" r:id="rId186" location="/in-review/3521?fromPage=event-dashboard-url"/>
+    <hyperlink ref="B188" r:id="rId186" location="/in-review/4746?reportId=158187&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B187" r:id="rId187" location="/in-review/3521?reportId=158134&amp;fromPage=event-dashboard-url"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId187"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId188"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="526">
   <si>
     <t>source</t>
   </si>
@@ -1587,6 +1587,21 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/3521?reportId=158134&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_158243</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3586?reportId=158243&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>20210310.8239589_1 in Estonia is resolved</t>
+  </si>
+  <si>
+    <t>FUR_158267</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=158267&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2119,18 +2134,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2499,38 +2520,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="17.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.81640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2538,13 +2559,13 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>427</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="5">
         <v>43878</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2558,13 +2579,13 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>428</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>43879</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2578,13 +2599,13 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>429</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>43881</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -2598,13 +2619,13 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>430</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>43886</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -2618,13 +2639,13 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>431</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>43913</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2638,13 +2659,13 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>432</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>43924</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -2658,13 +2679,13 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>433</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>43927</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2678,13 +2699,13 @@
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>434</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>43928</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2698,13 +2719,13 @@
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>435</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>43939</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2718,13 +2739,13 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>436</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>43944</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2738,13 +2759,13 @@
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>437</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>43951</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2758,13 +2779,13 @@
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>438</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>43951</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2778,13 +2799,13 @@
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>439</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <v>43952</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2798,13 +2819,13 @@
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>440</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>43954</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2818,13 +2839,13 @@
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>441</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <v>43962</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -2838,13 +2859,13 @@
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>442</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>43965</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2858,13 +2879,13 @@
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>443</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="5">
         <v>43971</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2878,13 +2899,13 @@
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>444</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>43978</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -2898,13 +2919,13 @@
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>445</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <v>43983</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2918,13 +2939,13 @@
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>446</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <v>43991</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2938,13 +2959,13 @@
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>447</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="5">
         <v>43999</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -2958,13 +2979,13 @@
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>448</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="5">
         <v>44005</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2978,13 +2999,13 @@
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>449</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="5">
         <v>44023</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -2998,13 +3019,13 @@
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>450</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="5">
         <v>44048</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -3018,13 +3039,13 @@
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="6" t="s">
         <v>451</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="5">
         <v>44058</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -3038,13 +3059,13 @@
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>452</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <v>44061</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -3058,13 +3079,13 @@
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="6" t="s">
         <v>453</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="5">
         <v>44068</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -3078,13 +3099,13 @@
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="6" t="s">
         <v>454</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="5">
         <v>44070</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -3098,13 +3119,13 @@
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="6" t="s">
         <v>455</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="5">
         <v>44071</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -3118,13 +3139,13 @@
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="6" t="s">
         <v>456</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="5">
         <v>44076</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -3138,13 +3159,13 @@
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="6" t="s">
         <v>457</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="5">
         <v>44108</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -3158,13 +3179,13 @@
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="6" t="s">
         <v>458</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="5">
         <v>44113</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -3178,13 +3199,13 @@
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="6" t="s">
         <v>459</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="5">
         <v>44114</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -3198,13 +3219,13 @@
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="6" t="s">
         <v>460</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="5">
         <v>44117</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -3218,13 +3239,13 @@
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="6" t="s">
         <v>461</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="5">
         <v>44118</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -3238,13 +3259,13 @@
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="6" t="s">
         <v>462</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="5">
         <v>44126</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -3258,13 +3279,13 @@
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="6" t="s">
         <v>463</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="5">
         <v>44126</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -3278,13 +3299,13 @@
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="6" t="s">
         <v>464</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="5">
         <v>44136</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -3298,13 +3319,13 @@
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="6" t="s">
         <v>465</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="5">
         <v>44138</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -3318,13 +3339,13 @@
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="6" t="s">
         <v>466</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="5">
         <v>44139</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -3338,13 +3359,13 @@
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="6" t="s">
         <v>467</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="5">
         <v>44140</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -3358,13 +3379,13 @@
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="6" t="s">
         <v>468</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="5">
         <v>44141</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -3378,13 +3399,13 @@
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="6" t="s">
         <v>469</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="5">
         <v>44143</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -3398,13 +3419,13 @@
       <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="6" t="s">
         <v>470</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="5">
         <v>44144</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -3418,13 +3439,13 @@
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="6" t="s">
         <v>471</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="5">
         <v>44147</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -3438,13 +3459,13 @@
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="6" t="s">
         <v>472</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="5">
         <v>44154</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -3458,13 +3479,13 @@
       <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="6" t="s">
         <v>473</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="5">
         <v>44155</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -3478,13 +3499,13 @@
       <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="6" t="s">
         <v>474</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="5">
         <v>44157</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -3498,13 +3519,13 @@
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="6" t="s">
         <v>475</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="5">
         <v>44169</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -3518,13 +3539,13 @@
       <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="6" t="s">
         <v>476</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="5">
         <v>44173</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -3538,13 +3559,13 @@
       <c r="A52" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="6" t="s">
         <v>477</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="5">
         <v>44175</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -3558,13 +3579,13 @@
       <c r="A53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="6" t="s">
         <v>478</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="5">
         <v>44178</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -3578,13 +3599,13 @@
       <c r="A54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="6" t="s">
         <v>479</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="5">
         <v>44187</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -3598,13 +3619,13 @@
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="6" t="s">
         <v>480</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="5">
         <v>44553</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -3618,13 +3639,13 @@
       <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="6" t="s">
         <v>481</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="5">
         <v>44190</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -3638,13 +3659,13 @@
       <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="6" t="s">
         <v>482</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="5">
         <v>44202</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -3658,13 +3679,13 @@
       <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="6" t="s">
         <v>483</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="5">
         <v>44210</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -3678,13 +3699,13 @@
       <c r="A59" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="6" t="s">
         <v>484</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="5">
         <v>44212</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -3698,13 +3719,13 @@
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="6" t="s">
         <v>485</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="5">
         <v>44217</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -3718,13 +3739,13 @@
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="6" t="s">
         <v>486</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="5">
         <v>44218</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -3738,13 +3759,13 @@
       <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="6" t="s">
         <v>487</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="5">
         <v>44226</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -3758,13 +3779,13 @@
       <c r="A63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="6" t="s">
         <v>488</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="5">
         <v>44228</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -3778,13 +3799,13 @@
       <c r="A64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="6" t="s">
         <v>489</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="5">
         <v>44234</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -3798,13 +3819,13 @@
       <c r="A65" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="6" t="s">
         <v>490</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="5">
         <v>44237</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -3818,13 +3839,13 @@
       <c r="A66" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="6" t="s">
         <v>491</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="5">
         <v>44238</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -3838,13 +3859,13 @@
       <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="6" t="s">
         <v>492</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="5">
         <v>44241</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -3858,13 +3879,13 @@
       <c r="A68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="6" t="s">
         <v>493</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="5">
         <v>44243</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -3878,13 +3899,13 @@
       <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="6" t="s">
         <v>494</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="5">
         <v>44245</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -3898,13 +3919,13 @@
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="6" t="s">
         <v>495</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="5">
         <v>44270</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -3918,13 +3939,13 @@
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="6" t="s">
         <v>496</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="5">
         <v>44271</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -3938,13 +3959,13 @@
       <c r="A72" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="6" t="s">
         <v>497</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="5">
         <v>44286</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -3958,13 +3979,13 @@
       <c r="A73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="6" t="s">
         <v>498</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="5">
         <v>44286</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -3978,13 +3999,13 @@
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="6" t="s">
         <v>499</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="5">
         <v>44331</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -3998,13 +4019,13 @@
       <c r="A75" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="6" t="s">
         <v>500</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="5">
         <v>44345</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -4018,13 +4039,13 @@
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="6" t="s">
         <v>501</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="5">
         <v>44355</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -4038,13 +4059,13 @@
       <c r="A77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="6" t="s">
         <v>502</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="5">
         <v>44382</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -4058,13 +4079,13 @@
       <c r="A78" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="6" t="s">
         <v>503</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="5">
         <v>44415</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -4078,13 +4099,13 @@
       <c r="A79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="6" t="s">
         <v>504</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="5">
         <v>44419</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -4098,13 +4119,13 @@
       <c r="A80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="6" t="s">
         <v>505</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="5">
         <v>44480</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -4118,13 +4139,13 @@
       <c r="A81" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="6" t="s">
         <v>506</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="5">
         <v>44482</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -4138,13 +4159,13 @@
       <c r="A82" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="6" t="s">
         <v>507</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="5">
         <v>44521</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -4158,13 +4179,13 @@
       <c r="A83" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="6" t="s">
         <v>508</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="5">
         <v>44544</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -4178,13 +4199,13 @@
       <c r="A84" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="6" t="s">
         <v>509</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="5">
         <v>44571</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -4198,13 +4219,13 @@
       <c r="A85" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="6" t="s">
         <v>510</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="5">
         <v>44587</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -4218,13 +4239,13 @@
       <c r="A86" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="6" t="s">
         <v>511</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="5">
         <v>44619</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -4238,13 +4259,13 @@
       <c r="A87" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="6" t="s">
         <v>512</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="5">
         <v>44645</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -4255,16 +4276,16 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="6" t="s">
         <v>343</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="5">
         <v>44011</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -4275,16 +4296,16 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="6" t="s">
         <v>363</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="5">
         <v>44077</v>
       </c>
       <c r="E89" s="3" t="s">
@@ -4295,16 +4316,16 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="6" t="s">
         <v>364</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="5">
         <v>44176</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -4315,16 +4336,16 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="6" t="s">
         <v>365</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="5">
         <v>44194</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -4335,16 +4356,16 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="6" t="s">
         <v>326</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="5">
         <v>44202</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -4355,16 +4376,16 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="6" t="s">
         <v>325</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="5">
         <v>44203</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -4378,13 +4399,13 @@
       <c r="A94" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="6" t="s">
         <v>358</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="5">
         <v>44204</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -4395,16 +4416,16 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="8" t="s">
         <v>366</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="5">
         <v>44210</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -4415,16 +4436,16 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="6" t="s">
         <v>367</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="5">
         <v>44217</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -4435,16 +4456,16 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="6" t="s">
         <v>368</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="5">
         <v>44225</v>
       </c>
       <c r="E97" s="3" t="s">
@@ -4455,16 +4476,16 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="5">
         <v>44244</v>
       </c>
       <c r="E98" s="3" t="s">
@@ -4478,13 +4499,13 @@
       <c r="A99" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="5">
         <v>44273</v>
       </c>
       <c r="E99" s="3" t="s">
@@ -4498,13 +4519,13 @@
       <c r="A100" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="6" t="s">
         <v>340</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="5">
         <v>44281</v>
       </c>
       <c r="E100" s="3" t="s">
@@ -4518,13 +4539,13 @@
       <c r="A101" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="6" t="s">
         <v>354</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="5">
         <v>44284</v>
       </c>
       <c r="E101" s="3" t="s">
@@ -4538,13 +4559,13 @@
       <c r="A102" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="6" t="s">
         <v>359</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="5">
         <v>44286</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -4558,13 +4579,13 @@
       <c r="A103" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="6" t="s">
         <v>330</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="5">
         <v>44293</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -4578,13 +4599,13 @@
       <c r="A104" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="6" t="s">
         <v>346</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="5">
         <v>44302</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -4598,13 +4619,13 @@
       <c r="A105" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="6" t="s">
         <v>347</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="5">
         <v>44302</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -4618,13 +4639,13 @@
       <c r="A106" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="6" t="s">
         <v>331</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="5">
         <v>44309</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -4638,13 +4659,13 @@
       <c r="A107" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="6" t="s">
         <v>373</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="5">
         <v>44323</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -4658,13 +4679,13 @@
       <c r="A108" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="6" t="s">
         <v>374</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="5">
         <v>44329</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -4678,13 +4699,13 @@
       <c r="A109" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="6" t="s">
         <v>375</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="5">
         <v>44335</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -4698,13 +4719,13 @@
       <c r="A110" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="5">
         <v>44341</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -4718,13 +4739,13 @@
       <c r="A111" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="5">
         <v>44347</v>
       </c>
       <c r="E111" s="3" t="s">
@@ -4738,13 +4759,13 @@
       <c r="A112" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="6" t="s">
         <v>377</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="5">
         <v>44348</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -4758,13 +4779,13 @@
       <c r="A113" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="6" t="s">
         <v>378</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="5">
         <v>44354</v>
       </c>
       <c r="E113" s="3" t="s">
@@ -4778,13 +4799,13 @@
       <c r="A114" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="6" t="s">
         <v>356</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="5">
         <v>44354</v>
       </c>
       <c r="E114" s="3" t="s">
@@ -4798,13 +4819,13 @@
       <c r="A115" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="6" t="s">
         <v>389</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="5">
         <v>44361</v>
       </c>
       <c r="E115" s="3" t="s">
@@ -4818,13 +4839,13 @@
       <c r="A116" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="6" t="s">
         <v>390</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D116" s="5">
         <v>44368</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -4838,13 +4859,13 @@
       <c r="A117" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="6" t="s">
         <v>391</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D117" s="5">
         <v>44375</v>
       </c>
       <c r="E117" s="3" t="s">
@@ -4858,13 +4879,13 @@
       <c r="A118" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="6" t="s">
         <v>361</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D118" s="8">
+      <c r="D118" s="5">
         <v>44377</v>
       </c>
       <c r="E118" s="3" t="s">
@@ -4878,13 +4899,13 @@
       <c r="A119" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="6" t="s">
         <v>379</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D119" s="8">
+      <c r="D119" s="5">
         <v>44383</v>
       </c>
       <c r="E119" s="3" t="s">
@@ -4898,13 +4919,13 @@
       <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="6" t="s">
         <v>380</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D120" s="5">
         <v>44390</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -4918,13 +4939,13 @@
       <c r="A121" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="6" t="s">
         <v>355</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D121" s="5">
         <v>44396</v>
       </c>
       <c r="E121" s="3" t="s">
@@ -4938,13 +4959,13 @@
       <c r="A122" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="6" t="s">
         <v>381</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D122" s="8">
+      <c r="D122" s="5">
         <v>44762</v>
       </c>
       <c r="E122" s="3" t="s">
@@ -4958,13 +4979,13 @@
       <c r="A123" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="6" t="s">
         <v>382</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D123" s="8">
+      <c r="D123" s="5">
         <v>44404</v>
       </c>
       <c r="E123" s="3" t="s">
@@ -4978,13 +4999,13 @@
       <c r="A124" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="6" t="s">
         <v>383</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D124" s="5">
         <v>44411</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -4998,13 +5019,13 @@
       <c r="A125" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="6" t="s">
         <v>335</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D125" s="8">
+      <c r="D125" s="5">
         <v>44412</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -5018,13 +5039,13 @@
       <c r="A126" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="6" t="s">
         <v>384</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D126" s="5">
         <v>44418</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -5038,13 +5059,13 @@
       <c r="A127" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="6" t="s">
         <v>385</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D127" s="8">
+      <c r="D127" s="5">
         <v>44425</v>
       </c>
       <c r="E127" s="3" t="s">
@@ -5058,13 +5079,13 @@
       <c r="A128" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="6" t="s">
         <v>386</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D128" s="8">
+      <c r="D128" s="5">
         <v>44432</v>
       </c>
       <c r="E128" s="3" t="s">
@@ -5078,13 +5099,13 @@
       <c r="A129" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="6" t="s">
         <v>387</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D129" s="8">
+      <c r="D129" s="5">
         <v>44439</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -5098,13 +5119,13 @@
       <c r="A130" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="6" t="s">
         <v>345</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D130" s="8">
+      <c r="D130" s="5">
         <v>44442</v>
       </c>
       <c r="E130" s="3" t="s">
@@ -5118,13 +5139,13 @@
       <c r="A131" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="6" t="s">
         <v>388</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D131" s="8">
+      <c r="D131" s="5">
         <v>44446</v>
       </c>
       <c r="E131" s="3" t="s">
@@ -5138,13 +5159,13 @@
       <c r="A132" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="6" t="s">
         <v>350</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D132" s="8">
+      <c r="D132" s="5">
         <v>44449</v>
       </c>
       <c r="E132" s="3" t="s">
@@ -5158,13 +5179,13 @@
       <c r="A133" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="6" t="s">
         <v>392</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D133" s="8">
+      <c r="D133" s="5">
         <v>44453</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -5178,13 +5199,13 @@
       <c r="A134" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="6" t="s">
         <v>351</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="5">
         <v>44454</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -5198,13 +5219,13 @@
       <c r="A135" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="6" t="s">
         <v>393</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D135" s="8">
+      <c r="D135" s="5">
         <v>44460</v>
       </c>
       <c r="E135" s="3" t="s">
@@ -5218,13 +5239,13 @@
       <c r="A136" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="6" t="s">
         <v>394</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D136" s="8">
+      <c r="D136" s="5">
         <v>44468</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -5238,13 +5259,13 @@
       <c r="A137" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="6" t="s">
         <v>395</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D137" s="8">
+      <c r="D137" s="5">
         <v>44474</v>
       </c>
       <c r="E137" s="3" t="s">
@@ -5258,13 +5279,13 @@
       <c r="A138" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="6" t="s">
         <v>362</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D138" s="8">
+      <c r="D138" s="5">
         <v>44481</v>
       </c>
       <c r="E138" s="3" t="s">
@@ -5278,13 +5299,13 @@
       <c r="A139" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="6" t="s">
         <v>396</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D139" s="8">
+      <c r="D139" s="5">
         <v>44481</v>
       </c>
       <c r="E139" s="3" t="s">
@@ -5298,13 +5319,13 @@
       <c r="A140" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="6" t="s">
         <v>397</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D140" s="8">
+      <c r="D140" s="5">
         <v>44488</v>
       </c>
       <c r="E140" s="3" t="s">
@@ -5318,13 +5339,13 @@
       <c r="A141" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="6" t="s">
         <v>403</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D141" s="8">
+      <c r="D141" s="5">
         <v>44495</v>
       </c>
       <c r="E141" s="3" t="s">
@@ -5338,13 +5359,13 @@
       <c r="A142" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="6" t="s">
         <v>398</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D142" s="8">
+      <c r="D142" s="5">
         <v>44502</v>
       </c>
       <c r="E142" s="3" t="s">
@@ -5358,13 +5379,13 @@
       <c r="A143" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="6" t="s">
         <v>399</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D143" s="8">
+      <c r="D143" s="5">
         <v>44509</v>
       </c>
       <c r="E143" s="3" t="s">
@@ -5378,13 +5399,13 @@
       <c r="A144" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="6" t="s">
         <v>400</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D144" s="8">
+      <c r="D144" s="5">
         <v>44516</v>
       </c>
       <c r="E144" s="3" t="s">
@@ -5398,13 +5419,13 @@
       <c r="A145" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="6" t="s">
         <v>401</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D145" s="8">
+      <c r="D145" s="5">
         <v>44523</v>
       </c>
       <c r="E145" s="3" t="s">
@@ -5418,13 +5439,13 @@
       <c r="A146" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="6" t="s">
         <v>402</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D146" s="8">
+      <c r="D146" s="5">
         <v>44530</v>
       </c>
       <c r="E146" s="3" t="s">
@@ -5438,13 +5459,13 @@
       <c r="A147" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="6" t="s">
         <v>327</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D147" s="8">
+      <c r="D147" s="5">
         <v>44531</v>
       </c>
       <c r="E147" s="3" t="s">
@@ -5458,13 +5479,13 @@
       <c r="A148" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="6" t="s">
         <v>341</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D148" s="8">
+      <c r="D148" s="5">
         <v>44532</v>
       </c>
       <c r="E148" s="3" t="s">
@@ -5478,13 +5499,13 @@
       <c r="A149" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="6" t="s">
         <v>344</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D149" s="8">
+      <c r="D149" s="5">
         <v>44533</v>
       </c>
       <c r="E149" s="3" t="s">
@@ -5498,13 +5519,13 @@
       <c r="A150" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="6" t="s">
         <v>404</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D150" s="8">
+      <c r="D150" s="5">
         <v>44537</v>
       </c>
       <c r="E150" s="3" t="s">
@@ -5518,13 +5539,13 @@
       <c r="A151" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D151" s="8">
+      <c r="D151" s="5">
         <v>44538</v>
       </c>
       <c r="E151" s="3" t="s">
@@ -5538,13 +5559,13 @@
       <c r="A152" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="6" t="s">
         <v>328</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D152" s="8">
+      <c r="D152" s="5">
         <v>44540</v>
       </c>
       <c r="E152" s="3" t="s">
@@ -5558,13 +5579,13 @@
       <c r="A153" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="6" t="s">
         <v>405</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D153" s="8">
+      <c r="D153" s="5">
         <v>44544</v>
       </c>
       <c r="E153" s="3" t="s">
@@ -5578,13 +5599,13 @@
       <c r="A154" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="6" t="s">
         <v>406</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D154" s="8">
+      <c r="D154" s="5">
         <v>44551</v>
       </c>
       <c r="E154" s="3" t="s">
@@ -5598,13 +5619,13 @@
       <c r="A155" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="6" t="s">
         <v>407</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D155" s="8">
+      <c r="D155" s="5">
         <v>44558</v>
       </c>
       <c r="E155" s="3" t="s">
@@ -5618,13 +5639,13 @@
       <c r="A156" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D156" s="8">
+      <c r="D156" s="5">
         <v>44561</v>
       </c>
       <c r="E156" s="3" t="s">
@@ -5638,13 +5659,13 @@
       <c r="A157" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="6" t="s">
         <v>408</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D157" s="8">
+      <c r="D157" s="5">
         <v>44572</v>
       </c>
       <c r="E157" s="3" t="s">
@@ -5658,13 +5679,13 @@
       <c r="A158" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="6" t="s">
         <v>409</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D158" s="8">
+      <c r="D158" s="5">
         <v>44579</v>
       </c>
       <c r="E158" s="3" t="s">
@@ -5678,13 +5699,13 @@
       <c r="A159" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="6" t="s">
         <v>410</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D159" s="8">
+      <c r="D159" s="5">
         <v>44586</v>
       </c>
       <c r="E159" s="3" t="s">
@@ -5698,13 +5719,13 @@
       <c r="A160" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="6" t="s">
         <v>352</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D160" s="8">
+      <c r="D160" s="5">
         <v>44588</v>
       </c>
       <c r="E160" s="3" t="s">
@@ -5718,13 +5739,13 @@
       <c r="A161" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="6" t="s">
         <v>412</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D161" s="8">
+      <c r="D161" s="5">
         <v>44593</v>
       </c>
       <c r="E161" s="3" t="s">
@@ -5738,13 +5759,13 @@
       <c r="A162" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="6" t="s">
         <v>370</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D162" s="8">
+      <c r="D162" s="5">
         <v>44599</v>
       </c>
       <c r="E162" s="3" t="s">
@@ -5758,13 +5779,13 @@
       <c r="A163" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="6" t="s">
         <v>413</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D163" s="8">
+      <c r="D163" s="5">
         <v>44600</v>
       </c>
       <c r="E163" s="3" t="s">
@@ -5778,13 +5799,13 @@
       <c r="A164" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="6" t="s">
         <v>372</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D164" s="8">
+      <c r="D164" s="5">
         <v>44606</v>
       </c>
       <c r="E164" s="3" t="s">
@@ -5798,13 +5819,13 @@
       <c r="A165" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="6" t="s">
         <v>371</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D165" s="8">
+      <c r="D165" s="5">
         <v>44606</v>
       </c>
       <c r="E165" s="3" t="s">
@@ -5818,13 +5839,13 @@
       <c r="A166" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="6" t="s">
         <v>333</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D166" s="8">
+      <c r="D166" s="5">
         <v>44606</v>
       </c>
       <c r="E166" s="3" t="s">
@@ -5838,13 +5859,13 @@
       <c r="A167" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="6" t="s">
         <v>414</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D167" s="8">
+      <c r="D167" s="5">
         <v>44607</v>
       </c>
       <c r="E167" s="3" t="s">
@@ -5858,13 +5879,13 @@
       <c r="A168" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="6" t="s">
         <v>415</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D168" s="8">
+      <c r="D168" s="5">
         <v>44614</v>
       </c>
       <c r="E168" s="3" t="s">
@@ -5878,13 +5899,13 @@
       <c r="A169" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="6" t="s">
         <v>416</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D169" s="8">
+      <c r="D169" s="5">
         <v>44621</v>
       </c>
       <c r="E169" s="3" t="s">
@@ -5898,13 +5919,13 @@
       <c r="A170" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="6" t="s">
         <v>329</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D170" s="8">
+      <c r="D170" s="5">
         <v>44628</v>
       </c>
       <c r="E170" s="3" t="s">
@@ -5919,13 +5940,13 @@
       <c r="A171" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="6" t="s">
         <v>417</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D171" s="8">
+      <c r="D171" s="5">
         <v>44628</v>
       </c>
       <c r="E171" s="3" t="s">
@@ -5940,13 +5961,13 @@
       <c r="A172" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="6" t="s">
         <v>418</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D172" s="8">
+      <c r="D172" s="5">
         <v>44635</v>
       </c>
       <c r="E172" s="3" t="s">
@@ -5960,13 +5981,13 @@
       <c r="A173" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="6" t="s">
         <v>336</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D173" s="8">
+      <c r="D173" s="5">
         <v>44637</v>
       </c>
       <c r="E173" s="3" t="s">
@@ -5980,13 +6001,13 @@
       <c r="A174" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="6" t="s">
         <v>349</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D174" s="8">
+      <c r="D174" s="5">
         <v>44638</v>
       </c>
       <c r="E174" s="3" t="s">
@@ -6000,13 +6021,13 @@
       <c r="A175" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D175" s="7">
+      <c r="D175" s="4">
         <v>44642</v>
       </c>
       <c r="E175" s="3" t="s">
@@ -6020,13 +6041,13 @@
       <c r="A176" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="6" t="s">
         <v>420</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D176" s="7">
+      <c r="D176" s="4">
         <v>44649</v>
       </c>
       <c r="E176" s="3" t="s">
@@ -6040,13 +6061,13 @@
       <c r="A177" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="6" t="s">
         <v>421</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D177" s="7">
+      <c r="D177" s="4">
         <v>44656</v>
       </c>
       <c r="E177" s="3" t="s">
@@ -6060,13 +6081,13 @@
       <c r="A178" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="6" t="s">
         <v>422</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D178" s="7">
+      <c r="D178" s="4">
         <v>44663</v>
       </c>
       <c r="E178" s="3" t="s">
@@ -6080,13 +6101,13 @@
       <c r="A179" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="6" t="s">
         <v>337</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D179" s="7">
+      <c r="D179" s="4">
         <v>44664</v>
       </c>
       <c r="E179" s="3" t="s">
@@ -6100,13 +6121,13 @@
       <c r="A180" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="6" t="s">
         <v>423</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D180" s="7">
+      <c r="D180" s="4">
         <v>44670</v>
       </c>
       <c r="E180" s="3" t="s">
@@ -6120,13 +6141,13 @@
       <c r="A181" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="6" t="s">
         <v>348</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D181" s="7">
+      <c r="D181" s="4">
         <v>44669</v>
       </c>
       <c r="E181" s="3" t="s">
@@ -6140,13 +6161,13 @@
       <c r="A182" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="6" t="s">
         <v>424</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D182" s="7">
+      <c r="D182" s="4">
         <v>44677</v>
       </c>
       <c r="E182" s="3" t="s">
@@ -6160,13 +6181,13 @@
       <c r="A183" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="6" t="s">
         <v>338</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D183" s="7">
+      <c r="D183" s="4">
         <v>44684</v>
       </c>
       <c r="E183" s="3" t="s">
@@ -6180,13 +6201,13 @@
       <c r="A184" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="6" t="s">
         <v>425</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D184" s="7">
+      <c r="D184" s="4">
         <v>44684</v>
       </c>
       <c r="E184" s="3" t="s">
@@ -6200,13 +6221,13 @@
       <c r="A185" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="6" t="s">
         <v>426</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D185" s="7">
+      <c r="D185" s="4">
         <v>44813</v>
       </c>
       <c r="E185" s="3" t="s">
@@ -6220,13 +6241,13 @@
       <c r="A186" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="6" t="s">
         <v>514</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D186" s="7">
+      <c r="D186" s="4">
         <v>44887</v>
       </c>
       <c r="E186" s="3" t="s">
@@ -6240,13 +6261,13 @@
       <c r="A187" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="6" t="s">
         <v>520</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D187" s="7">
+      <c r="D187" s="4">
         <v>44897</v>
       </c>
       <c r="E187" s="3" t="s">
@@ -6260,19 +6281,59 @@
       <c r="A188" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="6" t="s">
         <v>519</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D188" s="7">
+      <c r="D188" s="4">
         <v>44902</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F188" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D189" s="4">
+        <v>44907</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D190" s="4">
+        <v>44909</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F190" s="2" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6466,8 +6527,10 @@
     <hyperlink ref="B186" r:id="rId185" location="/in-review/3521?reportId=157958&amp;fromPage=event-dashboard-url"/>
     <hyperlink ref="B188" r:id="rId186" location="/in-review/4746?reportId=158187&amp;fromPage=event-dashboard-url"/>
     <hyperlink ref="B187" r:id="rId187" location="/in-review/3521?reportId=158134&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B189" r:id="rId188" location="/in-review/3586?reportId=158243&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B190" r:id="rId189" location="/in-review/4746?reportId=158267&amp;fromPage=event-dashboard-url"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId188"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId190"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="528">
   <si>
     <t>source</t>
   </si>
@@ -1602,6 +1602,12 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/4746?reportId=158267&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_158378</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=158378&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2129,17 +2135,38 @@
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2520,3820 +2547,3841 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.36328125" customWidth="1"/>
+    <col min="1" max="2" width="17.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="8">
         <v>43878</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="8">
         <v>43879</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="8">
         <v>43881</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="8">
         <v>43886</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="8">
         <v>43913</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="8">
         <v>43924</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="8">
         <v>43927</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="8">
         <v>43928</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="8">
         <v>43939</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="8">
         <v>43944</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="8">
         <v>43951</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="8">
         <v>43951</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="8">
         <v>43952</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="8">
         <v>43954</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="8">
         <v>43962</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="8">
         <v>43965</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="8">
         <v>43971</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="8">
         <v>43978</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="8">
         <v>43983</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="8">
         <v>43991</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="8">
         <v>43999</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="8">
         <v>44005</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8">
         <v>44023</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8">
         <v>44048</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="8">
         <v>44058</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="8">
         <v>44061</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="8">
         <v>44068</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="8">
         <v>44070</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="8">
         <v>44071</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="C31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="8">
         <v>44076</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="8">
         <v>44108</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="8">
         <v>44113</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="8">
         <v>44114</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="8">
         <v>44117</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="8">
         <v>44118</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="8">
         <v>44126</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="8">
         <v>44126</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="C39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="8">
         <v>44136</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="C40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="8">
         <v>44138</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="8">
         <v>44139</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="8">
         <v>44140</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="8">
         <v>44141</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C44" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="8">
         <v>44143</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="8">
         <v>44144</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C46" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="8">
         <v>44147</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="C47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="8">
         <v>44154</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="C48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="8">
         <v>44155</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="5">
+      <c r="C49" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="8">
         <v>44157</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="C50" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="8">
         <v>44169</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="C51" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="8">
         <v>44173</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="C52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="8">
         <v>44175</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="5">
+      <c r="C53" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="8">
         <v>44178</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C54" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="8">
         <v>44187</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="5">
+      <c r="C55" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="8">
         <v>44553</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="C56" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="8">
         <v>44190</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="5">
+      <c r="C57" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="8">
         <v>44202</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="2" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" s="5">
+      <c r="C58" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="8">
         <v>44210</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="C59" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="8">
         <v>44212</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="5">
+      <c r="C60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="8">
         <v>44217</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="5">
+      <c r="C61" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="8">
         <v>44218</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="C62" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="8">
         <v>44226</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="5">
+      <c r="C63" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="8">
         <v>44228</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" s="5">
+      <c r="C64" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="8">
         <v>44234</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="5">
+      <c r="C65" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="8">
         <v>44237</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" s="5">
+      <c r="C66" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="8">
         <v>44238</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="C67" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="8">
         <v>44241</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="5">
+      <c r="C68" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="8">
         <v>44243</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" s="5">
+      <c r="C69" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="8">
         <v>44245</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" s="5">
+      <c r="C70" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="8">
         <v>44270</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" s="5">
+      <c r="C71" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="8">
         <v>44271</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="5">
+      <c r="C72" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="8">
         <v>44286</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="5">
+      <c r="C73" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="8">
         <v>44286</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="5">
+      <c r="C74" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="8">
         <v>44331</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="5">
+      <c r="C75" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="8">
         <v>44345</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D76" s="5">
+      <c r="C76" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="8">
         <v>44355</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="5">
+      <c r="C77" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="8">
         <v>44382</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D78" s="5">
+      <c r="C78" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="8">
         <v>44415</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" s="5">
+      <c r="C79" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="8">
         <v>44419</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" s="5">
+      <c r="C80" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="8">
         <v>44480</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" s="5">
+      <c r="C81" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="8">
         <v>44482</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82" s="5">
+      <c r="C82" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82" s="8">
         <v>44521</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D83" s="5">
+      <c r="C83" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" s="8">
         <v>44544</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="5">
+      <c r="C84" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="8">
         <v>44571</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D85" s="5">
+      <c r="C85" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="8">
         <v>44587</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D86" s="5">
+      <c r="C86" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="8">
         <v>44619</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D87" s="5">
+      <c r="C87" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" s="8">
         <v>44645</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D88" s="5">
+      <c r="C88" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D88" s="8">
         <v>44011</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F88" s="3" t="s">
+      <c r="E88" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D89" s="5">
+      <c r="C89" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D89" s="8">
         <v>44077</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F89" s="3" t="s">
+      <c r="E89" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D90" s="5">
+      <c r="C90" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D90" s="8">
         <v>44176</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F90" s="3" t="s">
+      <c r="E90" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D91" s="5">
+      <c r="C91" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D91" s="8">
         <v>44194</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F91" s="2" t="s">
+      <c r="E91" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D92" s="5">
+      <c r="C92" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D92" s="8">
         <v>44202</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F92" s="3" t="s">
+      <c r="E92" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D93" s="5">
+      <c r="C93" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D93" s="8">
         <v>44203</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F93" s="3" t="s">
+      <c r="E93" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D94" s="5">
+      <c r="C94" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D94" s="8">
         <v>44204</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F94" s="3" t="s">
+      <c r="E94" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D95" s="5">
+      <c r="C95" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D95" s="8">
         <v>44210</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F95" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F95" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D96" s="5">
+      <c r="C96" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D96" s="8">
         <v>44217</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F96" s="2" t="s">
+      <c r="E96" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F96" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D97" s="5">
+      <c r="C97" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D97" s="8">
         <v>44225</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F97" s="3" t="s">
+      <c r="E97" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D98" s="5">
+      <c r="C98" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D98" s="8">
         <v>44244</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="E98" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D99" s="5">
+      <c r="C99" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D99" s="8">
         <v>44273</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F99" s="3" t="s">
+      <c r="E99" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D100" s="5">
+      <c r="C100" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D100" s="8">
         <v>44281</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D101" s="5">
+      <c r="C101" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D101" s="8">
         <v>44284</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D102" s="5">
+      <c r="C102" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D102" s="8">
         <v>44286</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F102" s="3" t="s">
+      <c r="E102" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D103" s="5">
+      <c r="C103" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D103" s="8">
         <v>44293</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F103" s="3" t="s">
+      <c r="E103" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D104" s="5">
+      <c r="C104" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D104" s="8">
         <v>44302</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F104" s="3" t="s">
+      <c r="E104" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D105" s="5">
+      <c r="C105" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D105" s="8">
         <v>44302</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F105" s="3" t="s">
+      <c r="E105" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D106" s="5">
+      <c r="C106" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D106" s="8">
         <v>44309</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F106" s="3" t="s">
+      <c r="E106" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D107" s="5">
+      <c r="C107" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D107" s="8">
         <v>44323</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F107" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F107" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D108" s="5">
+      <c r="C108" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D108" s="8">
         <v>44329</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F108" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F108" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D109" s="5">
+      <c r="C109" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D109" s="8">
         <v>44335</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F109" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F109" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D110" s="5">
+      <c r="C110" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D110" s="8">
         <v>44341</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F110" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F110" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D111" s="5">
+      <c r="C111" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D111" s="8">
         <v>44347</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F111" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D112" s="5">
+      <c r="C112" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D112" s="8">
         <v>44348</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F112" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F112" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D113" s="5">
+      <c r="C113" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D113" s="8">
         <v>44354</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F113" s="2" t="s">
+      <c r="E113" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D114" s="5">
+      <c r="C114" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D114" s="8">
         <v>44354</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F114" s="3" t="s">
+      <c r="E114" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D115" s="5">
+      <c r="C115" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D115" s="8">
         <v>44361</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F115" s="3" t="s">
+      <c r="E115" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D116" s="5">
+      <c r="C116" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D116" s="8">
         <v>44368</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F116" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D117" s="5">
+      <c r="C117" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D117" s="8">
         <v>44375</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F117" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D118" s="5">
+      <c r="C118" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D118" s="8">
         <v>44377</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F118" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F118" s="7" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D119" s="5">
+      <c r="C119" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D119" s="8">
         <v>44383</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F119" s="2" t="s">
+      <c r="E119" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F119" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D120" s="5">
+      <c r="C120" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D120" s="8">
         <v>44390</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F120" s="2" t="s">
+      <c r="E120" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F120" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D121" s="5">
+      <c r="C121" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D121" s="8">
         <v>44396</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F121" s="3" t="s">
+      <c r="E121" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D122" s="5">
+      <c r="C122" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D122" s="8">
         <v>44762</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F122" s="2" t="s">
+      <c r="E122" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F122" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D123" s="5">
+      <c r="C123" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D123" s="8">
         <v>44404</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F123" s="2" t="s">
+      <c r="E123" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F123" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D124" s="5">
+      <c r="C124" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D124" s="8">
         <v>44411</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F124" s="2" t="s">
+      <c r="E124" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F124" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D125" s="5">
+      <c r="C125" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D125" s="8">
         <v>44412</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F125" s="3" t="s">
+      <c r="E125" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D126" s="5">
+      <c r="C126" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D126" s="8">
         <v>44418</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F126" s="2" t="s">
+      <c r="E126" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F126" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D127" s="5">
+      <c r="C127" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D127" s="8">
         <v>44425</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F127" s="2" t="s">
+      <c r="E127" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F127" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D128" s="5">
+      <c r="C128" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D128" s="8">
         <v>44432</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F128" s="2" t="s">
+      <c r="E128" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F128" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D129" s="5">
+      <c r="C129" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D129" s="8">
         <v>44439</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F129" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F129" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D130" s="5">
+      <c r="C130" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D130" s="8">
         <v>44442</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F130" s="3" t="s">
+      <c r="E130" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D131" s="5">
+      <c r="C131" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D131" s="8">
         <v>44446</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F131" s="2" t="s">
+      <c r="E131" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F131" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D132" s="5">
+      <c r="C132" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D132" s="8">
         <v>44449</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="F132" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D133" s="5">
+      <c r="C133" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D133" s="8">
         <v>44453</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F133" s="2" t="s">
+      <c r="E133" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F133" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D134" s="5">
+      <c r="C134" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D134" s="8">
         <v>44454</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F134" s="3" t="s">
+      <c r="E134" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D135" s="5">
+      <c r="C135" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" s="8">
         <v>44460</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F135" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F135" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D136" s="5">
+      <c r="C136" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D136" s="8">
         <v>44468</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F136" s="2" t="s">
+      <c r="E136" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F136" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D137" s="5">
+      <c r="C137" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D137" s="8">
         <v>44474</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F137" s="2" t="s">
+      <c r="E137" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F137" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D138" s="5">
+      <c r="C138" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D138" s="8">
         <v>44481</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F138" s="3" t="s">
+      <c r="E138" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D139" s="5">
+      <c r="C139" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D139" s="8">
         <v>44481</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F139" s="2" t="s">
+      <c r="E139" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F139" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D140" s="5">
+      <c r="C140" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D140" s="8">
         <v>44488</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F140" s="2" t="s">
+      <c r="E140" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F140" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D141" s="5">
+      <c r="C141" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D141" s="8">
         <v>44495</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F141" s="2" t="s">
+      <c r="E141" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F141" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D142" s="5">
+      <c r="C142" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D142" s="8">
         <v>44502</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F142" s="2" t="s">
+      <c r="E142" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F142" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D143" s="5">
+      <c r="C143" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D143" s="8">
         <v>44509</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F143" s="2" t="s">
+      <c r="E143" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F143" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D144" s="5">
+      <c r="C144" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D144" s="8">
         <v>44516</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F144" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D145" s="5">
+      <c r="C145" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D145" s="8">
         <v>44523</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F145" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F145" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D146" s="5">
+      <c r="C146" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D146" s="8">
         <v>44530</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F146" s="2" t="s">
+      <c r="E146" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F146" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D147" s="5">
+      <c r="C147" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D147" s="8">
         <v>44531</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F147" s="2" t="s">
+      <c r="E147" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F147" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D148" s="5">
+      <c r="C148" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D148" s="8">
         <v>44532</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F148" s="3" t="s">
+      <c r="E148" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D149" s="5">
+      <c r="C149" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D149" s="8">
         <v>44533</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F149" s="3" t="s">
+      <c r="E149" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D150" s="5">
+      <c r="C150" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D150" s="8">
         <v>44537</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F150" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D151" s="5">
+      <c r="C151" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D151" s="8">
         <v>44538</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F151" s="2" t="s">
+      <c r="E151" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F151" s="7" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D152" s="5">
+      <c r="C152" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D152" s="8">
         <v>44540</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F152" s="2" t="s">
+      <c r="E152" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F152" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D153" s="5">
+      <c r="C153" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D153" s="8">
         <v>44544</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F153" s="2" t="s">
+      <c r="E153" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F153" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D154" s="5">
+      <c r="C154" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D154" s="8">
         <v>44551</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F154" s="2" t="s">
+      <c r="E154" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F154" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D155" s="5">
+      <c r="C155" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D155" s="8">
         <v>44558</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F155" s="2" t="s">
+      <c r="E155" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F155" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D156" s="5">
+      <c r="C156" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D156" s="8">
         <v>44561</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F156" s="3" t="s">
+      <c r="E156" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D157" s="5">
+      <c r="C157" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D157" s="8">
         <v>44572</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F157" s="2" t="s">
+      <c r="E157" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F157" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D158" s="5">
+      <c r="C158" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D158" s="8">
         <v>44579</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F158" s="2" t="s">
+      <c r="E158" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F158" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D159" s="5">
+      <c r="C159" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D159" s="8">
         <v>44586</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F159" s="2" t="s">
+      <c r="E159" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F159" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D160" s="5">
+      <c r="C160" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D160" s="8">
         <v>44588</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F160" s="3" t="s">
+      <c r="E160" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D161" s="5">
+      <c r="C161" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D161" s="8">
         <v>44593</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F161" s="2" t="s">
+      <c r="E161" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F161" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D162" s="5">
+      <c r="C162" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D162" s="8">
         <v>44599</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F162" s="7" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D163" s="5">
+      <c r="C163" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D163" s="8">
         <v>44600</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F163" s="2" t="s">
+      <c r="E163" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F163" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D164" s="5">
+      <c r="C164" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D164" s="8">
         <v>44606</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F164" s="3" t="s">
+      <c r="F164" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D165" s="5">
+      <c r="C165" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D165" s="8">
         <v>44606</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F165" s="3" t="s">
+      <c r="E165" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D166" s="5">
+      <c r="C166" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D166" s="8">
         <v>44606</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F166" s="3" t="s">
+      <c r="E166" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D167" s="5">
+      <c r="C167" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D167" s="8">
         <v>44607</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F167" s="2" t="s">
+      <c r="E167" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F167" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D168" s="5">
+      <c r="C168" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D168" s="8">
         <v>44614</v>
       </c>
-      <c r="E168" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F168" s="2" t="s">
+      <c r="E168" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F168" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D169" s="5">
+      <c r="C169" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D169" s="8">
         <v>44621</v>
       </c>
-      <c r="E169" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F169" s="2" t="s">
+      <c r="E169" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F169" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D170" s="5">
+      <c r="C170" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D170" s="8">
         <v>44628</v>
       </c>
-      <c r="E170" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F170" s="2" t="s">
+      <c r="E170" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F170" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G170" s="1"/>
+      <c r="G170" s="3"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D171" s="5">
+      <c r="C171" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D171" s="8">
         <v>44628</v>
       </c>
-      <c r="E171" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F171" s="2" t="s">
+      <c r="E171" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F171" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G171" s="1"/>
+      <c r="G171" s="3"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D172" s="5">
+      <c r="C172" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D172" s="8">
         <v>44635</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F172" s="2" t="s">
+      <c r="E172" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F172" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D173" s="5">
+      <c r="C173" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D173" s="8">
         <v>44637</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E173" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F173" s="2" t="s">
+      <c r="F173" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D174" s="5">
+      <c r="C174" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D174" s="8">
         <v>44638</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F174" s="2" t="s">
+      <c r="E174" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F174" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D175" s="4">
+      <c r="C175" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D175" s="5">
         <v>44642</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F175" s="2" t="s">
+      <c r="E175" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F175" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D176" s="4">
+      <c r="C176" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D176" s="5">
         <v>44649</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F176" s="2" t="s">
+      <c r="E176" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F176" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D177" s="4">
+      <c r="C177" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D177" s="5">
         <v>44656</v>
       </c>
-      <c r="E177" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F177" s="2" t="s">
+      <c r="E177" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F177" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D178" s="4">
+      <c r="C178" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D178" s="5">
         <v>44663</v>
       </c>
-      <c r="E178" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F178" s="2" t="s">
+      <c r="E178" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F178" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D179" s="4">
+      <c r="C179" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D179" s="5">
         <v>44664</v>
       </c>
-      <c r="E179" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F179" s="2" t="s">
+      <c r="E179" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F179" s="7" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D180" s="4">
+      <c r="C180" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D180" s="5">
         <v>44670</v>
       </c>
-      <c r="E180" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F180" s="2" t="s">
+      <c r="E180" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F180" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D181" s="4">
+      <c r="C181" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D181" s="5">
         <v>44669</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F181" s="2" t="s">
+      <c r="E181" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F181" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D182" s="4">
+      <c r="C182" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D182" s="5">
         <v>44677</v>
       </c>
-      <c r="E182" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F182" s="2" t="s">
+      <c r="E182" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F182" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D183" s="4">
+      <c r="C183" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D183" s="5">
         <v>44684</v>
       </c>
-      <c r="E183" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F183" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D184" s="4">
+      <c r="C184" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D184" s="5">
         <v>44684</v>
       </c>
-      <c r="E184" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F184" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F184" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D185" s="4">
+      <c r="C185" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D185" s="5">
         <v>44813</v>
       </c>
-      <c r="E185" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F185" s="3" t="s">
+      <c r="E185" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F185" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D186" s="4">
+      <c r="C186" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D186" s="5">
         <v>44887</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F186" s="2" t="s">
+      <c r="F186" s="7" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D187" s="4">
+      <c r="C187" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D187" s="5">
         <v>44897</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F187" s="2" t="s">
+      <c r="F187" s="7" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D188" s="4">
+      <c r="C188" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D188" s="5">
         <v>44902</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="E188" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F188" s="2" t="s">
+      <c r="F188" s="7" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D189" s="4">
+      <c r="C189" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D189" s="5">
         <v>44907</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="E189" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F189" s="2" t="s">
+      <c r="F189" s="7" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D190" s="4">
+      <c r="C190" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D190" s="5">
         <v>44909</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="E190" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F190" s="2" t="s">
+      <c r="F190" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D191" s="5">
+        <v>44916</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F191" s="7" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6529,8 +6577,9 @@
     <hyperlink ref="B187" r:id="rId187" location="/in-review/3521?reportId=158134&amp;fromPage=event-dashboard-url"/>
     <hyperlink ref="B189" r:id="rId188" location="/in-review/3586?reportId=158243&amp;fromPage=event-dashboard-url"/>
     <hyperlink ref="B190" r:id="rId189" location="/in-review/4746?reportId=158267&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B191" r:id="rId190" location="/in-review/4746?reportId=158378&amp;fromPage=event-dashboard-url"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId190"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId191"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="530">
   <si>
     <t>source</t>
   </si>
@@ -1608,6 +1608,12 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/4746?reportId=158378&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_158456</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=158456&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2547,10 +2553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6382,6 +6388,26 @@
         <v>118</v>
       </c>
       <c r="F191" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D192" s="5">
+        <v>44923</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F192" s="7" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6578,8 +6604,9 @@
     <hyperlink ref="B189" r:id="rId188" location="/in-review/3586?reportId=158243&amp;fromPage=event-dashboard-url"/>
     <hyperlink ref="B190" r:id="rId189" location="/in-review/4746?reportId=158267&amp;fromPage=event-dashboard-url"/>
     <hyperlink ref="B191" r:id="rId190" location="/in-review/4746?reportId=158378&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B192" r:id="rId191" location="/in-review/4746?reportId=158456&amp;fromPage=event-dashboard-url"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId191"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId192"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="536">
   <si>
     <t>source</t>
   </si>
@@ -1614,6 +1614,24 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/4746?reportId=158456&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_158580</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=158580&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_158513</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=158513&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_158622</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=158622&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2553,23 +2571,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.36328125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2589,7 +2607,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2609,7 +2627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2629,7 +2647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2649,7 +2667,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -2669,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2689,7 +2707,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2709,7 +2727,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2729,7 +2747,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2749,7 +2767,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2769,7 +2787,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2789,7 +2807,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2809,7 +2827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -2829,7 +2847,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2849,7 +2867,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2869,7 +2887,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -2889,7 +2907,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -2909,7 +2927,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -2929,7 +2947,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -2949,7 +2967,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -2969,7 +2987,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -2989,7 +3007,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -3009,7 +3027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -3029,7 +3047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -3049,7 +3067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -3069,7 +3087,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -3089,7 +3107,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -3109,7 +3127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -3129,7 +3147,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3149,7 +3167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -3169,7 +3187,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
@@ -3189,7 +3207,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
@@ -3209,7 +3227,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -3229,7 +3247,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -3249,7 +3267,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
@@ -3269,7 +3287,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
@@ -3289,7 +3307,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -3309,7 +3327,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -3329,7 +3347,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -3349,7 +3367,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -3369,7 +3387,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -3389,7 +3407,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
@@ -3409,7 +3427,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -3429,7 +3447,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
@@ -3449,7 +3467,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -3469,7 +3487,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -3489,7 +3507,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -3509,7 +3527,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -3529,7 +3547,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -3549,7 +3567,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
@@ -3569,7 +3587,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
@@ -3589,7 +3607,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3609,7 +3627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3629,7 +3647,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>70</v>
       </c>
@@ -3649,7 +3667,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
@@ -3669,7 +3687,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
@@ -3689,7 +3707,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -3709,7 +3727,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -3729,7 +3747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
@@ -3749,7 +3767,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>78</v>
       </c>
@@ -3769,7 +3787,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
@@ -3789,7 +3807,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>80</v>
       </c>
@@ -3809,7 +3827,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
@@ -3829,7 +3847,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -3849,7 +3867,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>86</v>
       </c>
@@ -3869,7 +3887,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>87</v>
       </c>
@@ -3889,7 +3907,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>88</v>
       </c>
@@ -3909,7 +3927,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>90</v>
       </c>
@@ -3929,7 +3947,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>93</v>
       </c>
@@ -3949,7 +3967,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
@@ -3969,7 +3987,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>96</v>
       </c>
@@ -3989,7 +4007,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
@@ -4009,7 +4027,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
@@ -4029,7 +4047,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>101</v>
       </c>
@@ -4049,7 +4067,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
@@ -4069,7 +4087,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>104</v>
       </c>
@@ -4089,7 +4107,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
@@ -4109,7 +4127,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
@@ -4129,7 +4147,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
@@ -4149,7 +4167,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -4169,7 +4187,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
@@ -4189,7 +4207,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -4209,7 +4227,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -4229,7 +4247,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
@@ -4249,7 +4267,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
@@ -4269,7 +4287,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>199</v>
       </c>
@@ -4289,7 +4307,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>279</v>
       </c>
@@ -4309,7 +4327,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>117</v>
       </c>
@@ -4329,7 +4347,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -4349,7 +4367,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -4369,7 +4387,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>121</v>
       </c>
@@ -4389,7 +4407,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>122</v>
       </c>
@@ -4409,7 +4427,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>123</v>
       </c>
@@ -4429,7 +4447,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>357</v>
       </c>
@@ -4449,7 +4467,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
@@ -4469,7 +4487,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>125</v>
       </c>
@@ -4489,7 +4507,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>126</v>
       </c>
@@ -4509,7 +4527,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>127</v>
       </c>
@@ -4529,7 +4547,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>128</v>
       </c>
@@ -4549,7 +4567,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>129</v>
       </c>
@@ -4569,7 +4587,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>130</v>
       </c>
@@ -4589,7 +4607,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>131</v>
       </c>
@@ -4609,7 +4627,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>132</v>
       </c>
@@ -4629,7 +4647,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>133</v>
       </c>
@@ -4649,7 +4667,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>134</v>
       </c>
@@ -4669,7 +4687,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>135</v>
       </c>
@@ -4689,7 +4707,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>136</v>
       </c>
@@ -4709,7 +4727,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>137</v>
       </c>
@@ -4729,7 +4747,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>138</v>
       </c>
@@ -4749,7 +4767,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>139</v>
       </c>
@@ -4769,7 +4787,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
@@ -4789,7 +4807,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>141</v>
       </c>
@@ -4809,7 +4827,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>142</v>
       </c>
@@ -4829,7 +4847,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>143</v>
       </c>
@@ -4849,7 +4867,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>144</v>
       </c>
@@ -4869,7 +4887,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>145</v>
       </c>
@@ -4889,7 +4907,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>146</v>
       </c>
@@ -4909,7 +4927,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>147</v>
       </c>
@@ -4929,7 +4947,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>148</v>
       </c>
@@ -4949,7 +4967,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>149</v>
       </c>
@@ -4969,7 +4987,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>150</v>
       </c>
@@ -4989,7 +5007,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>151</v>
       </c>
@@ -5009,7 +5027,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>152</v>
       </c>
@@ -5029,7 +5047,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>153</v>
       </c>
@@ -5049,7 +5067,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>154</v>
       </c>
@@ -5069,7 +5087,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>155</v>
       </c>
@@ -5089,7 +5107,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>156</v>
       </c>
@@ -5109,7 +5127,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>157</v>
       </c>
@@ -5129,7 +5147,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>158</v>
       </c>
@@ -5149,7 +5167,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>159</v>
       </c>
@@ -5169,7 +5187,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>160</v>
       </c>
@@ -5189,7 +5207,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>161</v>
       </c>
@@ -5209,7 +5227,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>162</v>
       </c>
@@ -5229,7 +5247,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>163</v>
       </c>
@@ -5249,7 +5267,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>164</v>
       </c>
@@ -5269,7 +5287,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>165</v>
       </c>
@@ -5289,7 +5307,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>166</v>
       </c>
@@ -5309,7 +5327,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>167</v>
       </c>
@@ -5329,7 +5347,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>168</v>
       </c>
@@ -5349,7 +5367,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>169</v>
       </c>
@@ -5369,7 +5387,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>170</v>
       </c>
@@ -5389,7 +5407,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>171</v>
       </c>
@@ -5409,7 +5427,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>172</v>
       </c>
@@ -5429,7 +5447,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -5449,7 +5467,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>174</v>
       </c>
@@ -5469,7 +5487,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>175</v>
       </c>
@@ -5489,7 +5507,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>176</v>
       </c>
@@ -5509,7 +5527,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>177</v>
       </c>
@@ -5529,7 +5547,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>178</v>
       </c>
@@ -5549,7 +5567,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>179</v>
       </c>
@@ -5569,7 +5587,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>180</v>
       </c>
@@ -5589,7 +5607,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>181</v>
       </c>
@@ -5609,7 +5627,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>182</v>
       </c>
@@ -5629,7 +5647,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>183</v>
       </c>
@@ -5649,7 +5667,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>184</v>
       </c>
@@ -5669,7 +5687,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>185</v>
       </c>
@@ -5689,7 +5707,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>186</v>
       </c>
@@ -5709,7 +5727,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>187</v>
       </c>
@@ -5729,7 +5747,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>188</v>
       </c>
@@ -5749,7 +5767,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>189</v>
       </c>
@@ -5769,7 +5787,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -5789,7 +5807,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>191</v>
       </c>
@@ -5809,7 +5827,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>192</v>
       </c>
@@ -5829,7 +5847,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>193</v>
       </c>
@@ -5849,7 +5867,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>194</v>
       </c>
@@ -5869,7 +5887,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>332</v>
       </c>
@@ -5889,7 +5907,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>195</v>
       </c>
@@ -5909,7 +5927,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>196</v>
       </c>
@@ -5929,7 +5947,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>201</v>
       </c>
@@ -5949,7 +5967,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>202</v>
       </c>
@@ -5970,7 +5988,7 @@
       </c>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>203</v>
       </c>
@@ -5991,7 +6009,7 @@
       </c>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>258</v>
       </c>
@@ -6011,7 +6029,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>259</v>
       </c>
@@ -6031,7 +6049,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>260</v>
       </c>
@@ -6051,7 +6069,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>280</v>
       </c>
@@ -6071,7 +6089,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>308</v>
       </c>
@@ -6091,7 +6109,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>309</v>
       </c>
@@ -6111,7 +6129,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>310</v>
       </c>
@@ -6131,7 +6149,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>311</v>
       </c>
@@ -6151,7 +6169,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>313</v>
       </c>
@@ -6171,7 +6189,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>314</v>
       </c>
@@ -6191,7 +6209,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>316</v>
       </c>
@@ -6211,7 +6229,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>317</v>
       </c>
@@ -6231,7 +6249,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6251,7 +6269,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>321</v>
       </c>
@@ -6271,7 +6289,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>513</v>
       </c>
@@ -6291,7 +6309,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>516</v>
       </c>
@@ -6311,7 +6329,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>517</v>
       </c>
@@ -6331,7 +6349,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>521</v>
       </c>
@@ -6351,7 +6369,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>524</v>
       </c>
@@ -6371,7 +6389,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>526</v>
       </c>
@@ -6391,7 +6409,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>528</v>
       </c>
@@ -6409,6 +6427,66 @@
       </c>
       <c r="F192" s="7" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D193" s="5">
+        <v>44925</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D194" s="5">
+        <v>44930</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D195" s="5">
+        <v>44932</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F195" s="7" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -6605,8 +6683,11 @@
     <hyperlink ref="B190" r:id="rId189" location="/in-review/4746?reportId=158267&amp;fromPage=event-dashboard-url"/>
     <hyperlink ref="B191" r:id="rId190" location="/in-review/4746?reportId=158378&amp;fromPage=event-dashboard-url"/>
     <hyperlink ref="B192" r:id="rId191" location="/in-review/4746?reportId=158456&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B194" r:id="rId192" location="/in-review/4746?reportId=158580&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B193" r:id="rId193" location="/in-review/3521?reportId=158513&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B195" r:id="rId194" location="/in-review/3521?reportId=158622&amp;fromPage=event-dashboard-url"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId192"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId195"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="540">
   <si>
     <t>source</t>
   </si>
@@ -1632,6 +1632,18 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/3521?reportId=158622&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_158700</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=158700&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_158741</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=158741&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2571,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6486,6 +6498,46 @@
         <v>118</v>
       </c>
       <c r="F195" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D196" s="5">
+        <v>44937</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F196" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D197" s="5">
+        <v>44939</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F197" s="7" t="s">
         <v>515</v>
       </c>
     </row>
@@ -6686,8 +6738,10 @@
     <hyperlink ref="B194" r:id="rId192" location="/in-review/4746?reportId=158580&amp;fromPage=event-dashboard-url"/>
     <hyperlink ref="B193" r:id="rId193" location="/in-review/3521?reportId=158513&amp;fromPage=event-dashboard-url"/>
     <hyperlink ref="B195" r:id="rId194" location="/in-review/3521?reportId=158622&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B196" r:id="rId195" location="/in-review/4746?reportId=158700&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B197" r:id="rId196" location="/in-review/3521?reportId=158741&amp;fromPage=event-dashboard-url"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId195"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId197"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24355A87-A154-4464-9BB9-FE2BC03ADAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="542">
   <si>
     <t>source</t>
   </si>
@@ -1644,12 +1645,18 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/3521?reportId=158741&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_158802</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=158802&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -2230,17 +2237,17 @@
     <cellStyle name="40% - Accent5" xfId="32" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="35" builtinId="51" customBuiltin="1"/>
     <cellStyle name="60% - Accent1" xfId="44" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1 2" xfId="37"/>
+    <cellStyle name="60% - Accent1 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="60% - Accent2" xfId="45" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2 2" xfId="38"/>
+    <cellStyle name="60% - Accent2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="60% - Accent3" xfId="46" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3 2" xfId="39"/>
+    <cellStyle name="60% - Accent3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="60% - Accent4" xfId="47" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4 2" xfId="40"/>
+    <cellStyle name="60% - Accent4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="60% - Accent5" xfId="48" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5 2" xfId="41"/>
+    <cellStyle name="60% - Accent5 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="60% - Accent6" xfId="49" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6 2" xfId="42"/>
+    <cellStyle name="60% - Accent6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="24" builtinId="37" customBuiltin="1"/>
@@ -2260,7 +2267,7 @@
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="43" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="36"/>
+    <cellStyle name="Neutral 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -2582,24 +2589,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2619,7 +2626,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2639,7 +2646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2659,7 +2666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2679,7 +2686,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -2699,7 +2706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2719,7 +2726,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2739,7 +2746,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2759,7 +2766,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2779,7 +2786,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2799,7 +2806,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2819,7 +2826,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2839,7 +2846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -2859,7 +2866,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2879,7 +2886,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2899,7 +2906,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -2919,7 +2926,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -2939,7 +2946,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -2959,7 +2966,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -2979,7 +2986,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -2999,7 +3006,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -3019,7 +3026,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -3039,7 +3046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -3059,7 +3066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -3079,7 +3086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -3099,7 +3106,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -3119,7 +3126,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -3139,7 +3146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -3159,7 +3166,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3179,7 +3186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -3199,7 +3206,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
@@ -3219,7 +3226,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
@@ -3239,7 +3246,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -3259,7 +3266,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -3279,7 +3286,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
@@ -3299,7 +3306,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
@@ -3319,7 +3326,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -3339,7 +3346,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -3359,7 +3366,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -3379,7 +3386,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -3399,7 +3406,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -3419,7 +3426,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
@@ -3439,7 +3446,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -3459,7 +3466,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
@@ -3479,7 +3486,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -3499,7 +3506,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -3519,7 +3526,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -3539,7 +3546,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -3559,7 +3566,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -3579,7 +3586,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
@@ -3599,7 +3606,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
@@ -3619,7 +3626,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3639,7 +3646,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3659,7 +3666,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>70</v>
       </c>
@@ -3679,7 +3686,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
@@ -3699,7 +3706,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
@@ -3719,7 +3726,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -3739,7 +3746,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -3759,7 +3766,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
@@ -3779,7 +3786,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>78</v>
       </c>
@@ -3799,7 +3806,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
@@ -3819,7 +3826,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>80</v>
       </c>
@@ -3839,7 +3846,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
@@ -3859,7 +3866,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -3879,7 +3886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>86</v>
       </c>
@@ -3899,7 +3906,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>87</v>
       </c>
@@ -3919,7 +3926,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>88</v>
       </c>
@@ -3939,7 +3946,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>90</v>
       </c>
@@ -3959,7 +3966,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>93</v>
       </c>
@@ -3979,7 +3986,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
@@ -3999,7 +4006,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>96</v>
       </c>
@@ -4019,7 +4026,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
@@ -4039,7 +4046,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
@@ -4059,7 +4066,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>101</v>
       </c>
@@ -4079,7 +4086,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
@@ -4099,7 +4106,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>104</v>
       </c>
@@ -4119,7 +4126,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
@@ -4139,7 +4146,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
@@ -4159,7 +4166,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
@@ -4179,7 +4186,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -4199,7 +4206,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
@@ -4219,7 +4226,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -4239,7 +4246,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -4259,7 +4266,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
@@ -4279,7 +4286,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
@@ -4299,7 +4306,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>199</v>
       </c>
@@ -4319,7 +4326,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>279</v>
       </c>
@@ -4339,7 +4346,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>117</v>
       </c>
@@ -4359,7 +4366,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -4379,7 +4386,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -4399,7 +4406,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>121</v>
       </c>
@@ -4419,7 +4426,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>122</v>
       </c>
@@ -4439,7 +4446,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>123</v>
       </c>
@@ -4459,7 +4466,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>357</v>
       </c>
@@ -4479,7 +4486,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
@@ -4499,7 +4506,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>125</v>
       </c>
@@ -4519,7 +4526,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>126</v>
       </c>
@@ -4539,7 +4546,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>127</v>
       </c>
@@ -4559,7 +4566,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>128</v>
       </c>
@@ -4579,7 +4586,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>129</v>
       </c>
@@ -4599,7 +4606,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>130</v>
       </c>
@@ -4619,7 +4626,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>131</v>
       </c>
@@ -4639,7 +4646,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>132</v>
       </c>
@@ -4659,7 +4666,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>133</v>
       </c>
@@ -4679,7 +4686,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>134</v>
       </c>
@@ -4699,7 +4706,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>135</v>
       </c>
@@ -4719,7 +4726,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>136</v>
       </c>
@@ -4739,7 +4746,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>137</v>
       </c>
@@ -4759,7 +4766,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>138</v>
       </c>
@@ -4779,7 +4786,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>139</v>
       </c>
@@ -4799,7 +4806,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
@@ -4819,7 +4826,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>141</v>
       </c>
@@ -4839,7 +4846,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>142</v>
       </c>
@@ -4859,7 +4866,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>143</v>
       </c>
@@ -4879,7 +4886,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>144</v>
       </c>
@@ -4899,7 +4906,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>145</v>
       </c>
@@ -4919,7 +4926,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>146</v>
       </c>
@@ -4939,7 +4946,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>147</v>
       </c>
@@ -4959,7 +4966,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>148</v>
       </c>
@@ -4979,7 +4986,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>149</v>
       </c>
@@ -4999,7 +5006,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>150</v>
       </c>
@@ -5019,7 +5026,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>151</v>
       </c>
@@ -5039,7 +5046,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>152</v>
       </c>
@@ -5059,7 +5066,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>153</v>
       </c>
@@ -5079,7 +5086,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>154</v>
       </c>
@@ -5099,7 +5106,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>155</v>
       </c>
@@ -5119,7 +5126,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>156</v>
       </c>
@@ -5139,7 +5146,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>157</v>
       </c>
@@ -5159,7 +5166,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>158</v>
       </c>
@@ -5179,7 +5186,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>159</v>
       </c>
@@ -5199,7 +5206,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>160</v>
       </c>
@@ -5219,7 +5226,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>161</v>
       </c>
@@ -5239,7 +5246,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>162</v>
       </c>
@@ -5259,7 +5266,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>163</v>
       </c>
@@ -5279,7 +5286,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>164</v>
       </c>
@@ -5299,7 +5306,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>165</v>
       </c>
@@ -5319,7 +5326,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>166</v>
       </c>
@@ -5339,7 +5346,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>167</v>
       </c>
@@ -5359,7 +5366,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>168</v>
       </c>
@@ -5379,7 +5386,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>169</v>
       </c>
@@ -5399,7 +5406,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>170</v>
       </c>
@@ -5419,7 +5426,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>171</v>
       </c>
@@ -5439,7 +5446,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>172</v>
       </c>
@@ -5459,7 +5466,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -5479,7 +5486,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>174</v>
       </c>
@@ -5499,7 +5506,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>175</v>
       </c>
@@ -5519,7 +5526,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>176</v>
       </c>
@@ -5539,7 +5546,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>177</v>
       </c>
@@ -5559,7 +5566,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>178</v>
       </c>
@@ -5579,7 +5586,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>179</v>
       </c>
@@ -5599,7 +5606,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>180</v>
       </c>
@@ -5619,7 +5626,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>181</v>
       </c>
@@ -5639,7 +5646,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>182</v>
       </c>
@@ -5659,7 +5666,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>183</v>
       </c>
@@ -5679,7 +5686,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>184</v>
       </c>
@@ -5699,7 +5706,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>185</v>
       </c>
@@ -5719,7 +5726,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>186</v>
       </c>
@@ -5739,7 +5746,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
         <v>187</v>
       </c>
@@ -5759,7 +5766,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>188</v>
       </c>
@@ -5779,7 +5786,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>189</v>
       </c>
@@ -5799,7 +5806,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -5819,7 +5826,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>191</v>
       </c>
@@ -5839,7 +5846,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>192</v>
       </c>
@@ -5859,7 +5866,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>193</v>
       </c>
@@ -5879,7 +5886,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
         <v>194</v>
       </c>
@@ -5899,7 +5906,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>332</v>
       </c>
@@ -5919,7 +5926,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>195</v>
       </c>
@@ -5939,7 +5946,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>196</v>
       </c>
@@ -5959,7 +5966,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>201</v>
       </c>
@@ -5979,7 +5986,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>202</v>
       </c>
@@ -6000,7 +6007,7 @@
       </c>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>203</v>
       </c>
@@ -6021,7 +6028,7 @@
       </c>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>258</v>
       </c>
@@ -6041,7 +6048,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>259</v>
       </c>
@@ -6061,7 +6068,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>260</v>
       </c>
@@ -6081,7 +6088,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>280</v>
       </c>
@@ -6101,7 +6108,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>308</v>
       </c>
@@ -6121,7 +6128,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>309</v>
       </c>
@@ -6141,7 +6148,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>310</v>
       </c>
@@ -6161,7 +6168,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>311</v>
       </c>
@@ -6181,7 +6188,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>313</v>
       </c>
@@ -6201,7 +6208,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>314</v>
       </c>
@@ -6221,7 +6228,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>316</v>
       </c>
@@ -6241,7 +6248,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>317</v>
       </c>
@@ -6261,7 +6268,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6281,7 +6288,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>321</v>
       </c>
@@ -6301,7 +6308,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>513</v>
       </c>
@@ -6321,7 +6328,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>516</v>
       </c>
@@ -6341,7 +6348,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>517</v>
       </c>
@@ -6361,7 +6368,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>521</v>
       </c>
@@ -6381,7 +6388,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>524</v>
       </c>
@@ -6401,7 +6408,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>526</v>
       </c>
@@ -6421,7 +6428,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>528</v>
       </c>
@@ -6441,7 +6448,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>532</v>
       </c>
@@ -6461,7 +6468,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>530</v>
       </c>
@@ -6481,7 +6488,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>534</v>
       </c>
@@ -6501,7 +6508,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>536</v>
       </c>
@@ -6521,7 +6528,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>538</v>
       </c>
@@ -6539,209 +6546,230 @@
       </c>
       <c r="F197" s="7" t="s">
         <v>515</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D198" s="5">
+        <v>44944</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B99" r:id="rId1" location="/in-review/3558?reportId=149144&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B93" r:id="rId2" location="/in-review/3350?reportId=19480&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B92" r:id="rId3" location="/in-review/3402?reportId=19474&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B147" r:id="rId4" location="/in-review/3441?reportId=152683&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B152" r:id="rId5" location="/in-review/3441?reportId=152871&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B170" r:id="rId6" location="/in-review/3441?reportId=154443&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B103" r:id="rId7" location="/in-review/3613?reportId=149442&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B106" r:id="rId8" location="/in-review/3613?reportId=149648&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B166" r:id="rId9" location="/in-review/3613?reportId=154092&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B125" r:id="rId10" location="/in-review/3420?reportId=151000&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B173" r:id="rId11" location="/in-review/3420?reportId=154561&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B179" r:id="rId12" location="/in-review/3420?reportId=155000&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B183" r:id="rId13" location="/in-review/3420?reportId=155203&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B111" r:id="rId14" location="/in-review/3445?reportId=150130&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B100" r:id="rId15" location="/in-review/3539?reportId=149292&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B148" r:id="rId16" location="/in-review/3539?reportId=152722&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B151" r:id="rId17" location="/in-review/3777?reportId=152841&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B88" r:id="rId18" location="/in-review/3201?reportId=17860&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B149" r:id="rId19" location="/in-review/4058?reportId=152726&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B130" r:id="rId20" location="/in-review/3833?reportId=151484&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B104" r:id="rId21" location="/in-review/3500?reportId=149554&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B105" r:id="rId22" location="/in-review/3515?reportId=149561&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B181" r:id="rId23" location="/in-review/3876?reportId=155041&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B174" r:id="rId24" location="/in-review/4024?reportId=154496&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B132" r:id="rId25" location="/in-review/3899?reportId=151613&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B134" r:id="rId26" location="/in-review/3899?reportId=151684&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B160" r:id="rId27" location="/in-review/3899?reportId=153270&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B101" r:id="rId28" location="/in-review/3521?reportId=149306&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B121" r:id="rId29" location="/in-review/3708?reportId=150717&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B114" r:id="rId30" location="/in-review/3716?reportId=150216&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B94" r:id="rId31" location="/in-review/3430?reportId=19471&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B102" r:id="rId32" location="/in-review/3430?reportId=149157&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B118" r:id="rId33" location="/in-review/3430?reportId=150509&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B138" r:id="rId34" location="/in-review/3430?reportId=151460&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B89" r:id="rId35" location="/in-review/3253?reportId=18342&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B90" r:id="rId36" location="/in-review/3403?reportId=19210&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B91" r:id="rId37" location="/in-review/3403?reportId=19402&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B95" r:id="rId38" location="/in-review/3403?reportId=19548&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B96" r:id="rId39" location="/in-review/3403?reportId=19663&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B97" r:id="rId40" location="/in-review/3403?reportId=19739&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B98" r:id="rId41" location="/in-review/3537?reportId=19986&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B162" r:id="rId42" location="/in-review/4265?reportId=153887&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B165" r:id="rId43" location="/in-review/4265?reportId=154029&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B164" r:id="rId44" location="/in-review/4299?reportId=154082&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B107" r:id="rId45" location="/in-review/3687?reportId=149834&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B108" r:id="rId46" location="/in-review/3687?reportId=149901&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B109" r:id="rId47" location="/in-review/3687?reportId=149988&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B110" r:id="rId48" location="/in-review/3687?reportId=150050&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B112" r:id="rId49" location="/in-review/3687?reportId=150133&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B113" r:id="rId50" location="/in-review/3687?reportId=150201&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B115" r:id="rId51" location="/in-review/3687?reportId=150293&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B116" r:id="rId52" location="/in-review/3687?reportId=150393&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B117" r:id="rId53" location="/in-review/3687?reportId=150474&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B119" r:id="rId54" location="/in-review/3687?reportId=150579&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B120" r:id="rId55" location="/in-review/3687?reportId=150693&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B122" r:id="rId56" location="/in-review/3687?reportId=150783&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B123" r:id="rId57" location="/in-review/3687?reportId=150888&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B124" r:id="rId58" location="/in-review/3687?reportId=150980&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B126" r:id="rId59" location="/in-review/3687?reportId=151069&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B127" r:id="rId60" location="/in-review/3687?reportId=151207&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B128" r:id="rId61" location="/in-review/3687?reportId=151337&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B129" r:id="rId62" location="/in-review/3687?reportId=151441&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B131" r:id="rId63" location="/in-review/3687?reportId=151545&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B133" r:id="rId64" location="/in-review/3687?reportId=151657&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B135" r:id="rId65" location="/in-review/3899?reportId=151754&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B136" r:id="rId66" location="/in-review/3899?reportId=151852&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B137" r:id="rId67" location="/in-review/3899?reportId=151924&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B139" r:id="rId68" location="/in-review/3899?reportId=152030&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B140" r:id="rId69" location="/in-review/3899?reportId=152112&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B141" r:id="rId70" location="/in-review/3899?reportId=15220=&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B142" r:id="rId71" location="/in-review/3899?reportId=152283&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B143" r:id="rId72" location="/in-review/3899?reportId=152384&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B144" r:id="rId73" location="/in-review/3899?reportId=152471&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B145" r:id="rId74" location="/in-review/3899?reportId=152564&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B146" r:id="rId75" location="/in-review/3899?reportId=152663&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B150" r:id="rId76" location="/in-review/3899?reportId=152819&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B153" r:id="rId77" location="/in-review/3899?reportId=152934&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B154" r:id="rId78" location="/in-review/3899?reportId=153057&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B155" r:id="rId79" location="/in-review/3899?reportId=153190&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B156" r:id="rId80" location="/in-review/3899?reportId=153243&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B157" r:id="rId81" location="/in-review/3899?reportId=153419&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B158" r:id="rId82" location="/in-review/3899?reportId=153548&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B159" r:id="rId83" location="/in-review/3899?reportId=153685&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B161" r:id="rId84" location="/in-review/3899?reportId=153801&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B163" r:id="rId85" location="/in-review/3899?reportId=153949&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B167" r:id="rId86" location="/in-review/3899?reportId=154111&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B168" r:id="rId87" location="/in-review/3899?reportId=154224&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B169" r:id="rId88" location="/in-review/3899?reportId=154365&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B171" r:id="rId89" location="/in-review/3899?reportId=154457&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B172" r:id="rId90" location="/in-review/3899?reportId=154535&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B175" r:id="rId91" location="/in-review/3899?reportId=154642&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B176" r:id="rId92" location="/in-review/3899?reportId=154758&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B177" r:id="rId93" location="/in-review/3899?reportId=154873&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B178" r:id="rId94" location="/in-review/3899?reportId=154980&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B180" r:id="rId95" location="/in-review/3899?reportId=155048&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B182" r:id="rId96" location="/in-review/3899?reportId=155123&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B184" r:id="rId97" location="/in-review/3899?reportId=155212&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B185" r:id="rId98" location="/in-review/3664?reportId=156963&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B2" r:id="rId99"/>
-    <hyperlink ref="B3" r:id="rId100"/>
-    <hyperlink ref="B4" r:id="rId101"/>
-    <hyperlink ref="B5" r:id="rId102"/>
-    <hyperlink ref="B6" r:id="rId103"/>
-    <hyperlink ref="B7" r:id="rId104"/>
-    <hyperlink ref="B8" r:id="rId105"/>
-    <hyperlink ref="B9" r:id="rId106"/>
-    <hyperlink ref="B10" r:id="rId107"/>
-    <hyperlink ref="B11" r:id="rId108"/>
-    <hyperlink ref="B12" r:id="rId109"/>
-    <hyperlink ref="B13" r:id="rId110"/>
-    <hyperlink ref="B14" r:id="rId111"/>
-    <hyperlink ref="B15" r:id="rId112"/>
-    <hyperlink ref="B16" r:id="rId113"/>
-    <hyperlink ref="B17" r:id="rId114"/>
-    <hyperlink ref="B18" r:id="rId115"/>
-    <hyperlink ref="B19" r:id="rId116"/>
-    <hyperlink ref="B20" r:id="rId117"/>
-    <hyperlink ref="B21" r:id="rId118"/>
-    <hyperlink ref="B22" r:id="rId119"/>
-    <hyperlink ref="B23" r:id="rId120"/>
-    <hyperlink ref="B24" r:id="rId121"/>
-    <hyperlink ref="B25" r:id="rId122"/>
-    <hyperlink ref="B26" r:id="rId123"/>
-    <hyperlink ref="B27" r:id="rId124"/>
-    <hyperlink ref="B28" r:id="rId125"/>
-    <hyperlink ref="B29" r:id="rId126"/>
-    <hyperlink ref="B30" r:id="rId127"/>
-    <hyperlink ref="B31" r:id="rId128"/>
-    <hyperlink ref="B32" r:id="rId129"/>
-    <hyperlink ref="B33" r:id="rId130"/>
-    <hyperlink ref="B34" r:id="rId131"/>
-    <hyperlink ref="B35" r:id="rId132"/>
-    <hyperlink ref="B36" r:id="rId133"/>
-    <hyperlink ref="B37" r:id="rId134"/>
-    <hyperlink ref="B38" r:id="rId135"/>
-    <hyperlink ref="B39" r:id="rId136"/>
-    <hyperlink ref="B40" r:id="rId137"/>
-    <hyperlink ref="B41" r:id="rId138"/>
-    <hyperlink ref="B42" r:id="rId139"/>
-    <hyperlink ref="B43" r:id="rId140"/>
-    <hyperlink ref="B44" r:id="rId141"/>
-    <hyperlink ref="B45" r:id="rId142"/>
-    <hyperlink ref="B46" r:id="rId143"/>
-    <hyperlink ref="B47" r:id="rId144"/>
-    <hyperlink ref="B48" r:id="rId145"/>
-    <hyperlink ref="B49" r:id="rId146"/>
-    <hyperlink ref="B50" r:id="rId147"/>
-    <hyperlink ref="B51" r:id="rId148"/>
-    <hyperlink ref="B52" r:id="rId149"/>
-    <hyperlink ref="B53" r:id="rId150"/>
-    <hyperlink ref="B54" r:id="rId151"/>
-    <hyperlink ref="B55" r:id="rId152"/>
-    <hyperlink ref="B56" r:id="rId153"/>
-    <hyperlink ref="B57" r:id="rId154"/>
-    <hyperlink ref="B58" r:id="rId155"/>
-    <hyperlink ref="B59" r:id="rId156"/>
-    <hyperlink ref="B60" r:id="rId157"/>
-    <hyperlink ref="B61" r:id="rId158"/>
-    <hyperlink ref="B62" r:id="rId159"/>
-    <hyperlink ref="B63" r:id="rId160"/>
-    <hyperlink ref="B64" r:id="rId161"/>
-    <hyperlink ref="B65" r:id="rId162"/>
-    <hyperlink ref="B66" r:id="rId163"/>
-    <hyperlink ref="B67" r:id="rId164"/>
-    <hyperlink ref="B68" r:id="rId165"/>
-    <hyperlink ref="B69" r:id="rId166"/>
-    <hyperlink ref="B70" r:id="rId167"/>
-    <hyperlink ref="B71" r:id="rId168"/>
-    <hyperlink ref="B72" r:id="rId169"/>
-    <hyperlink ref="B73" r:id="rId170"/>
-    <hyperlink ref="B74" r:id="rId171"/>
-    <hyperlink ref="B75" r:id="rId172"/>
-    <hyperlink ref="B76" r:id="rId173"/>
-    <hyperlink ref="B77" r:id="rId174"/>
-    <hyperlink ref="B78" r:id="rId175"/>
-    <hyperlink ref="B79" r:id="rId176"/>
-    <hyperlink ref="B80" r:id="rId177"/>
-    <hyperlink ref="B81" r:id="rId178"/>
-    <hyperlink ref="B82" r:id="rId179"/>
-    <hyperlink ref="B83" r:id="rId180"/>
-    <hyperlink ref="B84" r:id="rId181"/>
-    <hyperlink ref="B85" r:id="rId182"/>
-    <hyperlink ref="B86" r:id="rId183"/>
-    <hyperlink ref="B87" r:id="rId184"/>
-    <hyperlink ref="B186" r:id="rId185" location="/in-review/3521?reportId=157958&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B188" r:id="rId186" location="/in-review/4746?reportId=158187&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B187" r:id="rId187" location="/in-review/3521?reportId=158134&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B189" r:id="rId188" location="/in-review/3586?reportId=158243&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B190" r:id="rId189" location="/in-review/4746?reportId=158267&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B191" r:id="rId190" location="/in-review/4746?reportId=158378&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B192" r:id="rId191" location="/in-review/4746?reportId=158456&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B194" r:id="rId192" location="/in-review/4746?reportId=158580&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B193" r:id="rId193" location="/in-review/3521?reportId=158513&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B195" r:id="rId194" location="/in-review/3521?reportId=158622&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B196" r:id="rId195" location="/in-review/4746?reportId=158700&amp;fromPage=event-dashboard-url"/>
-    <hyperlink ref="B197" r:id="rId196" location="/in-review/3521?reportId=158741&amp;fromPage=event-dashboard-url"/>
+    <hyperlink ref="B99" r:id="rId1" location="/in-review/3558?reportId=149144&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B93" r:id="rId2" location="/in-review/3350?reportId=19480&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B92" r:id="rId3" location="/in-review/3402?reportId=19474&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B147" r:id="rId4" location="/in-review/3441?reportId=152683&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B152" r:id="rId5" location="/in-review/3441?reportId=152871&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B170" r:id="rId6" location="/in-review/3441?reportId=154443&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B103" r:id="rId7" location="/in-review/3613?reportId=149442&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B106" r:id="rId8" location="/in-review/3613?reportId=149648&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B166" r:id="rId9" location="/in-review/3613?reportId=154092&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B125" r:id="rId10" location="/in-review/3420?reportId=151000&amp;fromPage=event-dashboard-url" xr:uid="{94318574-0D85-4958-A7A1-FAE348CAFF78}"/>
+    <hyperlink ref="B173" r:id="rId11" location="/in-review/3420?reportId=154561&amp;fromPage=event-dashboard-url" xr:uid="{3944B8E2-F8F2-474C-8FD9-202CEBFA97ED}"/>
+    <hyperlink ref="B179" r:id="rId12" location="/in-review/3420?reportId=155000&amp;fromPage=event-dashboard-url" xr:uid="{CAA079EF-A722-4592-A104-1B82DBBEB1E1}"/>
+    <hyperlink ref="B183" r:id="rId13" location="/in-review/3420?reportId=155203&amp;fromPage=event-dashboard-url" xr:uid="{C8145102-C1B1-43DC-8C87-BAFBCBA96B7E}"/>
+    <hyperlink ref="B111" r:id="rId14" location="/in-review/3445?reportId=150130&amp;fromPage=event-dashboard-url" xr:uid="{77A76893-B1C3-445F-A573-622678BEE456}"/>
+    <hyperlink ref="B100" r:id="rId15" location="/in-review/3539?reportId=149292&amp;fromPage=event-dashboard-url" xr:uid="{3882CB78-7F1B-4AF1-9927-D24D1843451C}"/>
+    <hyperlink ref="B148" r:id="rId16" location="/in-review/3539?reportId=152722&amp;fromPage=event-dashboard-url" xr:uid="{CB2194F2-8241-4C68-ADBB-A66BF2FC7357}"/>
+    <hyperlink ref="B151" r:id="rId17" location="/in-review/3777?reportId=152841&amp;fromPage=event-dashboard-url" xr:uid="{183F6BED-2546-4792-8A27-31265A381FF7}"/>
+    <hyperlink ref="B88" r:id="rId18" location="/in-review/3201?reportId=17860&amp;fromPage=event-dashboard-url" xr:uid="{4E0F1071-ABD8-4267-87C6-ED10E501B717}"/>
+    <hyperlink ref="B149" r:id="rId19" location="/in-review/4058?reportId=152726&amp;fromPage=event-dashboard-url" xr:uid="{6268B64E-CE58-4D8E-99AD-27A5F8ED9310}"/>
+    <hyperlink ref="B130" r:id="rId20" location="/in-review/3833?reportId=151484&amp;fromPage=event-dashboard-url" xr:uid="{E17AE071-7225-4326-B72C-8BBB789C0665}"/>
+    <hyperlink ref="B104" r:id="rId21" location="/in-review/3500?reportId=149554&amp;fromPage=event-dashboard-url" xr:uid="{973C442F-233E-4809-A459-9E5A85DDA8F0}"/>
+    <hyperlink ref="B105" r:id="rId22" location="/in-review/3515?reportId=149561&amp;fromPage=event-dashboard-url" xr:uid="{7E67A437-1440-4480-884A-730AB6CCFB05}"/>
+    <hyperlink ref="B181" r:id="rId23" location="/in-review/3876?reportId=155041&amp;fromPage=event-dashboard-url" xr:uid="{33789346-0639-4343-ADBE-AFE674DCF7EC}"/>
+    <hyperlink ref="B174" r:id="rId24" location="/in-review/4024?reportId=154496&amp;fromPage=event-dashboard-url" xr:uid="{C4A18F54-326B-480C-8859-3230A52B8650}"/>
+    <hyperlink ref="B132" r:id="rId25" location="/in-review/3899?reportId=151613&amp;fromPage=event-dashboard-url" xr:uid="{6803547D-06FF-41FC-8C79-8347EDBAF624}"/>
+    <hyperlink ref="B134" r:id="rId26" location="/in-review/3899?reportId=151684&amp;fromPage=event-dashboard-url" xr:uid="{34989DB5-0DB1-4E16-82F4-D3D747D69274}"/>
+    <hyperlink ref="B160" r:id="rId27" location="/in-review/3899?reportId=153270&amp;fromPage=event-dashboard-url" xr:uid="{CC5806DF-913B-4BF9-A226-8A57236C3C31}"/>
+    <hyperlink ref="B101" r:id="rId28" location="/in-review/3521?reportId=149306&amp;fromPage=event-dashboard-url" xr:uid="{48C6DFEB-7AC9-46B2-8B14-E73BA75C6EBA}"/>
+    <hyperlink ref="B121" r:id="rId29" location="/in-review/3708?reportId=150717&amp;fromPage=event-dashboard-url" xr:uid="{936145AD-23E6-486B-9483-4B04356A473E}"/>
+    <hyperlink ref="B114" r:id="rId30" location="/in-review/3716?reportId=150216&amp;fromPage=event-dashboard-url" xr:uid="{2D204E2E-03BC-425C-B07B-16723A9EB026}"/>
+    <hyperlink ref="B94" r:id="rId31" location="/in-review/3430?reportId=19471&amp;fromPage=event-dashboard-url" xr:uid="{8DF92D5E-33C2-45E5-B253-1C902E765FFC}"/>
+    <hyperlink ref="B102" r:id="rId32" location="/in-review/3430?reportId=149157&amp;fromPage=event-dashboard-url" xr:uid="{E34F6C9B-32A8-4311-8F0B-48DB0395427C}"/>
+    <hyperlink ref="B118" r:id="rId33" location="/in-review/3430?reportId=150509&amp;fromPage=event-dashboard-url" xr:uid="{0D8A6E39-DFFB-4395-A33B-2BF74FFC37CF}"/>
+    <hyperlink ref="B138" r:id="rId34" location="/in-review/3430?reportId=151460&amp;fromPage=event-dashboard-url" xr:uid="{39CF8E22-6CB1-4537-B432-622766C1A6E1}"/>
+    <hyperlink ref="B89" r:id="rId35" location="/in-review/3253?reportId=18342&amp;fromPage=event-dashboard-url" xr:uid="{164D6C37-4F22-4293-89CF-BBD0D9E86F83}"/>
+    <hyperlink ref="B90" r:id="rId36" location="/in-review/3403?reportId=19210&amp;fromPage=event-dashboard-url" xr:uid="{90C02F58-5E74-4DAF-B88A-4404F7C8CA3D}"/>
+    <hyperlink ref="B91" r:id="rId37" location="/in-review/3403?reportId=19402&amp;fromPage=event-dashboard-url" xr:uid="{8CD9F056-B91D-4714-81F7-855438EB368D}"/>
+    <hyperlink ref="B95" r:id="rId38" location="/in-review/3403?reportId=19548&amp;fromPage=event-dashboard-url" xr:uid="{1D52E8D0-CC96-4166-A5F8-0E1F7F0E7EDB}"/>
+    <hyperlink ref="B96" r:id="rId39" location="/in-review/3403?reportId=19663&amp;fromPage=event-dashboard-url" xr:uid="{C00098AE-A7B6-4376-8BA1-4A43E8DB039C}"/>
+    <hyperlink ref="B97" r:id="rId40" location="/in-review/3403?reportId=19739&amp;fromPage=event-dashboard-url" xr:uid="{96BE46C2-7F00-46A3-9F16-19E399042CD2}"/>
+    <hyperlink ref="B98" r:id="rId41" location="/in-review/3537?reportId=19986&amp;fromPage=event-dashboard-url" xr:uid="{E2BE8811-E6BF-46A4-8E32-4934051CD45F}"/>
+    <hyperlink ref="B162" r:id="rId42" location="/in-review/4265?reportId=153887&amp;fromPage=event-dashboard-url" xr:uid="{37A4341E-CD5A-4EC5-B390-6F57CCEFA275}"/>
+    <hyperlink ref="B165" r:id="rId43" location="/in-review/4265?reportId=154029&amp;fromPage=event-dashboard-url" xr:uid="{1048D2D8-EE69-4CBF-9F2B-01E548B7B067}"/>
+    <hyperlink ref="B164" r:id="rId44" location="/in-review/4299?reportId=154082&amp;fromPage=event-dashboard-url" xr:uid="{EB461368-589B-4C15-AAD9-5F66ECD0152E}"/>
+    <hyperlink ref="B107" r:id="rId45" location="/in-review/3687?reportId=149834&amp;fromPage=event-dashboard-url" xr:uid="{244D25DD-CF35-4242-976F-E9A2B3F400AE}"/>
+    <hyperlink ref="B108" r:id="rId46" location="/in-review/3687?reportId=149901&amp;fromPage=event-dashboard-url" xr:uid="{01FF73B4-3C1A-465D-9430-AF474C90E8AA}"/>
+    <hyperlink ref="B109" r:id="rId47" location="/in-review/3687?reportId=149988&amp;fromPage=event-dashboard-url" xr:uid="{3B161940-9B28-4A73-9730-7D4286F6D0EF}"/>
+    <hyperlink ref="B110" r:id="rId48" location="/in-review/3687?reportId=150050&amp;fromPage=event-dashboard-url" xr:uid="{BD231A98-077F-408B-96C7-F243C8157858}"/>
+    <hyperlink ref="B112" r:id="rId49" location="/in-review/3687?reportId=150133&amp;fromPage=event-dashboard-url" xr:uid="{2307DF82-CB1A-471F-ADD3-4CB35C87190E}"/>
+    <hyperlink ref="B113" r:id="rId50" location="/in-review/3687?reportId=150201&amp;fromPage=event-dashboard-url" xr:uid="{12C0D087-622D-46CE-A38E-99661252D099}"/>
+    <hyperlink ref="B115" r:id="rId51" location="/in-review/3687?reportId=150293&amp;fromPage=event-dashboard-url" xr:uid="{F613633F-0105-4B0B-A98A-BBFEFFA8187F}"/>
+    <hyperlink ref="B116" r:id="rId52" location="/in-review/3687?reportId=150393&amp;fromPage=event-dashboard-url" xr:uid="{9E2D40B0-EAF6-474C-A904-C4CACBE763AB}"/>
+    <hyperlink ref="B117" r:id="rId53" location="/in-review/3687?reportId=150474&amp;fromPage=event-dashboard-url" xr:uid="{2BCA6427-115E-4360-9F90-5DF8AC9776B4}"/>
+    <hyperlink ref="B119" r:id="rId54" location="/in-review/3687?reportId=150579&amp;fromPage=event-dashboard-url" xr:uid="{7BBE37F1-1CA7-4204-A5B0-46A87CF39DA9}"/>
+    <hyperlink ref="B120" r:id="rId55" location="/in-review/3687?reportId=150693&amp;fromPage=event-dashboard-url" xr:uid="{79EB1E4D-7414-413E-BA87-ED3BD67FD0E9}"/>
+    <hyperlink ref="B122" r:id="rId56" location="/in-review/3687?reportId=150783&amp;fromPage=event-dashboard-url" xr:uid="{016D6F36-5A12-45F9-907B-079B7DB0AA1B}"/>
+    <hyperlink ref="B123" r:id="rId57" location="/in-review/3687?reportId=150888&amp;fromPage=event-dashboard-url" xr:uid="{AD50DEFF-A466-4A84-BE12-60C5AA1A35B4}"/>
+    <hyperlink ref="B124" r:id="rId58" location="/in-review/3687?reportId=150980&amp;fromPage=event-dashboard-url" xr:uid="{05179D6B-6BB4-4CC5-B3EA-91A1C224A3B8}"/>
+    <hyperlink ref="B126" r:id="rId59" location="/in-review/3687?reportId=151069&amp;fromPage=event-dashboard-url" xr:uid="{F90F3781-D094-4585-9E29-AA29D027AA20}"/>
+    <hyperlink ref="B127" r:id="rId60" location="/in-review/3687?reportId=151207&amp;fromPage=event-dashboard-url" xr:uid="{3B159711-598E-4205-A788-4F12AF028399}"/>
+    <hyperlink ref="B128" r:id="rId61" location="/in-review/3687?reportId=151337&amp;fromPage=event-dashboard-url" xr:uid="{364F0447-B0CE-40CC-8242-1C05FAB80FE9}"/>
+    <hyperlink ref="B129" r:id="rId62" location="/in-review/3687?reportId=151441&amp;fromPage=event-dashboard-url" xr:uid="{432FB8D8-9733-4567-B878-277EE9F2CA93}"/>
+    <hyperlink ref="B131" r:id="rId63" location="/in-review/3687?reportId=151545&amp;fromPage=event-dashboard-url" xr:uid="{845390EB-26C5-425A-BA3A-8E51E38D8DEB}"/>
+    <hyperlink ref="B133" r:id="rId64" location="/in-review/3687?reportId=151657&amp;fromPage=event-dashboard-url" xr:uid="{D5D1E235-37AF-4564-A2B9-7A68AD168C18}"/>
+    <hyperlink ref="B135" r:id="rId65" location="/in-review/3899?reportId=151754&amp;fromPage=event-dashboard-url" xr:uid="{4A3174BA-2844-40AB-9C5B-714F740B2F3B}"/>
+    <hyperlink ref="B136" r:id="rId66" location="/in-review/3899?reportId=151852&amp;fromPage=event-dashboard-url" xr:uid="{31F073A0-8F83-4FF1-B221-2ECC2E035AA8}"/>
+    <hyperlink ref="B137" r:id="rId67" location="/in-review/3899?reportId=151924&amp;fromPage=event-dashboard-url" xr:uid="{7DEED426-CFFA-4755-9B03-15E6D8F950F6}"/>
+    <hyperlink ref="B139" r:id="rId68" location="/in-review/3899?reportId=152030&amp;fromPage=event-dashboard-url" xr:uid="{893BB74E-8D31-4675-BBB1-0BC52A92F8B1}"/>
+    <hyperlink ref="B140" r:id="rId69" location="/in-review/3899?reportId=152112&amp;fromPage=event-dashboard-url" xr:uid="{2E073DC1-188C-4375-9A7B-56BEC2B1EB23}"/>
+    <hyperlink ref="B141" r:id="rId70" location="/in-review/3899?reportId=15220=&amp;fromPage=event-dashboard-url" xr:uid="{BBEB91BD-17C0-4248-86F9-CC4E8935776E}"/>
+    <hyperlink ref="B142" r:id="rId71" location="/in-review/3899?reportId=152283&amp;fromPage=event-dashboard-url" xr:uid="{2212D8D0-A266-4369-AB43-7B140DD99B3F}"/>
+    <hyperlink ref="B143" r:id="rId72" location="/in-review/3899?reportId=152384&amp;fromPage=event-dashboard-url" xr:uid="{F81A4A77-5FB7-4AD0-8507-B6348C855B58}"/>
+    <hyperlink ref="B144" r:id="rId73" location="/in-review/3899?reportId=152471&amp;fromPage=event-dashboard-url" xr:uid="{02D094E0-18D2-41A3-B92C-6417A3FF6A63}"/>
+    <hyperlink ref="B145" r:id="rId74" location="/in-review/3899?reportId=152564&amp;fromPage=event-dashboard-url" xr:uid="{6FC4CB38-AD70-40A4-BC86-0708FFC9DDB4}"/>
+    <hyperlink ref="B146" r:id="rId75" location="/in-review/3899?reportId=152663&amp;fromPage=event-dashboard-url" xr:uid="{2BB6D7BC-6522-4618-ADEB-D245739A6C40}"/>
+    <hyperlink ref="B150" r:id="rId76" location="/in-review/3899?reportId=152819&amp;fromPage=event-dashboard-url" xr:uid="{EF947F60-5CB8-400D-889C-736A9B5BFA68}"/>
+    <hyperlink ref="B153" r:id="rId77" location="/in-review/3899?reportId=152934&amp;fromPage=event-dashboard-url" xr:uid="{AF8DF8DC-FEE6-44A0-9C5F-4ED4AD2EBC1B}"/>
+    <hyperlink ref="B154" r:id="rId78" location="/in-review/3899?reportId=153057&amp;fromPage=event-dashboard-url" xr:uid="{FF14D995-DB25-4152-881A-8EB1A3633917}"/>
+    <hyperlink ref="B155" r:id="rId79" location="/in-review/3899?reportId=153190&amp;fromPage=event-dashboard-url" xr:uid="{F1533060-FED6-495D-A0AA-68F2A879D991}"/>
+    <hyperlink ref="B156" r:id="rId80" location="/in-review/3899?reportId=153243&amp;fromPage=event-dashboard-url" xr:uid="{B8338866-A16A-44DA-81CF-924A24CD20B6}"/>
+    <hyperlink ref="B157" r:id="rId81" location="/in-review/3899?reportId=153419&amp;fromPage=event-dashboard-url" xr:uid="{10F20633-CBD6-49CF-A992-C7FCF51230E9}"/>
+    <hyperlink ref="B158" r:id="rId82" location="/in-review/3899?reportId=153548&amp;fromPage=event-dashboard-url" xr:uid="{47B9AD9C-C66D-4609-B09A-703114B1A23B}"/>
+    <hyperlink ref="B159" r:id="rId83" location="/in-review/3899?reportId=153685&amp;fromPage=event-dashboard-url" xr:uid="{021AD9D2-DB2F-4090-95E2-B39151BD99E7}"/>
+    <hyperlink ref="B161" r:id="rId84" location="/in-review/3899?reportId=153801&amp;fromPage=event-dashboard-url" xr:uid="{CBB22508-787F-4B34-8EF6-33D3B6A979F4}"/>
+    <hyperlink ref="B163" r:id="rId85" location="/in-review/3899?reportId=153949&amp;fromPage=event-dashboard-url" xr:uid="{60BA0320-B746-44A3-96EE-53590DA7F62F}"/>
+    <hyperlink ref="B167" r:id="rId86" location="/in-review/3899?reportId=154111&amp;fromPage=event-dashboard-url" xr:uid="{EC863E1B-A72B-4EC9-9141-70EC015D30EC}"/>
+    <hyperlink ref="B168" r:id="rId87" location="/in-review/3899?reportId=154224&amp;fromPage=event-dashboard-url" xr:uid="{A407761F-B8A1-46F8-AA32-2AE9F0370282}"/>
+    <hyperlink ref="B169" r:id="rId88" location="/in-review/3899?reportId=154365&amp;fromPage=event-dashboard-url" xr:uid="{7D3FA463-6569-40FF-86C5-139BD07CE79B}"/>
+    <hyperlink ref="B171" r:id="rId89" location="/in-review/3899?reportId=154457&amp;fromPage=event-dashboard-url" xr:uid="{835123CA-745E-4979-8E4F-4666BE3AE2E6}"/>
+    <hyperlink ref="B172" r:id="rId90" location="/in-review/3899?reportId=154535&amp;fromPage=event-dashboard-url" xr:uid="{FEDBD389-8B13-4CB7-B6F7-76DADDC12E40}"/>
+    <hyperlink ref="B175" r:id="rId91" location="/in-review/3899?reportId=154642&amp;fromPage=event-dashboard-url" xr:uid="{C450AC90-6478-46E9-85C8-8A1B6FFA993A}"/>
+    <hyperlink ref="B176" r:id="rId92" location="/in-review/3899?reportId=154758&amp;fromPage=event-dashboard-url" xr:uid="{589CED32-6286-4A5F-89AC-22BBB5D6ACC0}"/>
+    <hyperlink ref="B177" r:id="rId93" location="/in-review/3899?reportId=154873&amp;fromPage=event-dashboard-url" xr:uid="{1FDE3951-5E79-4D55-AC3B-017C9457EC4A}"/>
+    <hyperlink ref="B178" r:id="rId94" location="/in-review/3899?reportId=154980&amp;fromPage=event-dashboard-url" xr:uid="{BA251DAC-E465-42AF-B9CA-F009F30C572D}"/>
+    <hyperlink ref="B180" r:id="rId95" location="/in-review/3899?reportId=155048&amp;fromPage=event-dashboard-url" xr:uid="{619E744D-F6A0-44B4-8CA3-DB40FF1D00AF}"/>
+    <hyperlink ref="B182" r:id="rId96" location="/in-review/3899?reportId=155123&amp;fromPage=event-dashboard-url" xr:uid="{272DEC0A-3DF5-416E-AD9C-9D28E39E80B4}"/>
+    <hyperlink ref="B184" r:id="rId97" location="/in-review/3899?reportId=155212&amp;fromPage=event-dashboard-url" xr:uid="{38FAFD5A-3E20-465E-AF97-33D50EDB977F}"/>
+    <hyperlink ref="B185" r:id="rId98" location="/in-review/3664?reportId=156963&amp;fromPage=event-dashboard-url" xr:uid="{E1442CC0-D1EF-4F9D-862B-4D451F967055}"/>
+    <hyperlink ref="B2" r:id="rId99" xr:uid="{4B94CA87-F688-4213-BE66-75055FB940A5}"/>
+    <hyperlink ref="B3" r:id="rId100" xr:uid="{81C99B77-09A1-4AAA-8C1E-91C82F7BC49F}"/>
+    <hyperlink ref="B4" r:id="rId101" xr:uid="{8490ACF5-B0D7-455D-AD0C-6A818A0C4B27}"/>
+    <hyperlink ref="B5" r:id="rId102" xr:uid="{92B7E52B-1543-473A-B824-9640C2C8009F}"/>
+    <hyperlink ref="B6" r:id="rId103" xr:uid="{7C164B6D-C90C-49CC-8DB9-97EC84068E88}"/>
+    <hyperlink ref="B7" r:id="rId104" xr:uid="{C9716511-64B5-4F19-BBF1-6EE1AECC490E}"/>
+    <hyperlink ref="B8" r:id="rId105" xr:uid="{30F8A050-D262-4E9E-98A7-E666F6E90814}"/>
+    <hyperlink ref="B9" r:id="rId106" xr:uid="{5249F174-70A9-478C-9C1E-7BCBCF03BB6A}"/>
+    <hyperlink ref="B10" r:id="rId107" xr:uid="{900365B1-78E7-478A-B373-30DED894FCAE}"/>
+    <hyperlink ref="B11" r:id="rId108" xr:uid="{40E3E80D-9DDB-4A99-8C7C-93469A586B1B}"/>
+    <hyperlink ref="B12" r:id="rId109" xr:uid="{EAE76E29-C58C-43C9-A8B6-022A6735ABA7}"/>
+    <hyperlink ref="B13" r:id="rId110" xr:uid="{914A9E79-B215-4C73-8505-064F685650CE}"/>
+    <hyperlink ref="B14" r:id="rId111" xr:uid="{5ABB1A96-351C-4CBD-B019-97F04E6EDDA4}"/>
+    <hyperlink ref="B15" r:id="rId112" xr:uid="{6F7311C9-618B-4D7E-8505-EE77B04F3962}"/>
+    <hyperlink ref="B16" r:id="rId113" xr:uid="{E3AC84E0-5993-4F96-9763-8C95480DBA7A}"/>
+    <hyperlink ref="B17" r:id="rId114" xr:uid="{D4FEFB6F-0A89-4A20-B872-EAC79D6186AA}"/>
+    <hyperlink ref="B18" r:id="rId115" xr:uid="{32B8ED9C-E197-4347-BD53-4D4BDD1E4D40}"/>
+    <hyperlink ref="B19" r:id="rId116" xr:uid="{4E6DF419-4E20-433B-A4AF-30E4A1402D02}"/>
+    <hyperlink ref="B20" r:id="rId117" xr:uid="{5D0180D1-FCB7-49E1-B372-576173B4FBB9}"/>
+    <hyperlink ref="B21" r:id="rId118" xr:uid="{8AE1D924-93CF-4923-87CC-8D749166C05A}"/>
+    <hyperlink ref="B22" r:id="rId119" xr:uid="{0FB058DE-94B1-4EE1-8CAC-2075841BFF1D}"/>
+    <hyperlink ref="B23" r:id="rId120" xr:uid="{C0E90612-0FFE-4CC3-A895-1EA7772AB808}"/>
+    <hyperlink ref="B24" r:id="rId121" xr:uid="{7B195BCE-2F62-4E6E-8081-26EF6404C146}"/>
+    <hyperlink ref="B25" r:id="rId122" xr:uid="{FD5EC05E-5768-46B2-8F16-E645BDB09FA5}"/>
+    <hyperlink ref="B26" r:id="rId123" xr:uid="{C70B09F2-B60D-4187-94CA-975146E55F10}"/>
+    <hyperlink ref="B27" r:id="rId124" xr:uid="{85DC1276-03AB-4B39-A1CC-81DB37DD61CD}"/>
+    <hyperlink ref="B28" r:id="rId125" xr:uid="{CE153777-ED9C-4F8C-80CB-AE7370029C7A}"/>
+    <hyperlink ref="B29" r:id="rId126" xr:uid="{3C676A29-B06C-4C2C-8626-1692CFE42AA3}"/>
+    <hyperlink ref="B30" r:id="rId127" xr:uid="{9CDB25C6-FE13-46AA-8030-F316D50CC4C1}"/>
+    <hyperlink ref="B31" r:id="rId128" xr:uid="{82EA5A60-DEDE-472F-8996-7DC535BEF4CC}"/>
+    <hyperlink ref="B32" r:id="rId129" xr:uid="{C74154B3-F3E4-45D0-B0DE-54391E22E3BA}"/>
+    <hyperlink ref="B33" r:id="rId130" xr:uid="{0C762BA3-C69A-4B8E-9AD7-9DD72223FC62}"/>
+    <hyperlink ref="B34" r:id="rId131" xr:uid="{A7A8BA4E-ED8E-43E2-BC31-830C30C5CD44}"/>
+    <hyperlink ref="B35" r:id="rId132" xr:uid="{DE83B9F6-9B81-4B79-878E-C056C0481DFD}"/>
+    <hyperlink ref="B36" r:id="rId133" xr:uid="{A1003C47-834E-4EE9-9C02-A303791C6059}"/>
+    <hyperlink ref="B37" r:id="rId134" xr:uid="{4C86B630-5EC9-4016-9680-4EFD1843058A}"/>
+    <hyperlink ref="B38" r:id="rId135" xr:uid="{76CC6CFE-6849-4AA3-92EC-DA2B056DD759}"/>
+    <hyperlink ref="B39" r:id="rId136" xr:uid="{96699B3C-2CB9-40BC-B004-BA914C366BB8}"/>
+    <hyperlink ref="B40" r:id="rId137" xr:uid="{7759DF4E-4148-433A-BDBB-91F97E18CF5F}"/>
+    <hyperlink ref="B41" r:id="rId138" xr:uid="{1F7C5F3B-C4D1-432B-A09D-EE2473314460}"/>
+    <hyperlink ref="B42" r:id="rId139" xr:uid="{62C55F1C-BE1B-4B35-AB6F-FBCEF3F1178E}"/>
+    <hyperlink ref="B43" r:id="rId140" xr:uid="{60D027CC-76D1-4835-B19B-EEB35EC8DE22}"/>
+    <hyperlink ref="B44" r:id="rId141" xr:uid="{A859B8E4-DAB2-4756-AEAC-5DB1A3CD7D38}"/>
+    <hyperlink ref="B45" r:id="rId142" xr:uid="{CF60CB76-65AC-4B20-B266-F2C213483E4C}"/>
+    <hyperlink ref="B46" r:id="rId143" xr:uid="{924923FB-519A-42C4-8A45-1006769954CD}"/>
+    <hyperlink ref="B47" r:id="rId144" xr:uid="{E1F2D50A-8CB3-425A-A6BA-D39A49AA6DA3}"/>
+    <hyperlink ref="B48" r:id="rId145" xr:uid="{E4A1F53E-DE5A-4D40-A9E5-1652564593BA}"/>
+    <hyperlink ref="B49" r:id="rId146" xr:uid="{F8EDFA45-C3A0-49D7-9FB4-07CBCE1507F6}"/>
+    <hyperlink ref="B50" r:id="rId147" xr:uid="{4EFD2B53-CE91-4AA8-90C2-8D2454CABFE0}"/>
+    <hyperlink ref="B51" r:id="rId148" xr:uid="{8945547B-532F-4872-8294-4E6125A1BECF}"/>
+    <hyperlink ref="B52" r:id="rId149" xr:uid="{50456D5E-C349-4AFC-B1FD-26BDEA52FC15}"/>
+    <hyperlink ref="B53" r:id="rId150" xr:uid="{5ADEF286-9CC8-465C-9349-6F27DED0EA78}"/>
+    <hyperlink ref="B54" r:id="rId151" xr:uid="{5BD791C2-138D-4537-9C5E-7852797E7CAD}"/>
+    <hyperlink ref="B55" r:id="rId152" xr:uid="{F83410DA-3A08-49BA-A21A-B85D2F455E64}"/>
+    <hyperlink ref="B56" r:id="rId153" xr:uid="{A9D93FBD-92A2-4AE7-A061-6CF48B920E76}"/>
+    <hyperlink ref="B57" r:id="rId154" xr:uid="{FDB1DF48-FBD6-4C26-AB37-C10870D324F3}"/>
+    <hyperlink ref="B58" r:id="rId155" xr:uid="{BF0B46C1-6BBF-4DCF-B2D9-54E47E343AB0}"/>
+    <hyperlink ref="B59" r:id="rId156" xr:uid="{22862BBC-BFBC-412D-BB46-E03898419FED}"/>
+    <hyperlink ref="B60" r:id="rId157" xr:uid="{F79E173C-5103-48F1-8E29-483BF00DEBAA}"/>
+    <hyperlink ref="B61" r:id="rId158" xr:uid="{0FED1602-0254-4BB2-AF37-E1D8C1500D0A}"/>
+    <hyperlink ref="B62" r:id="rId159" xr:uid="{CBA57564-206B-44EC-B2E0-7FB16FEB3BB4}"/>
+    <hyperlink ref="B63" r:id="rId160" xr:uid="{42E6BC17-FBD3-4EEE-BB07-923A04DA6C11}"/>
+    <hyperlink ref="B64" r:id="rId161" xr:uid="{A0025AFF-49A2-447F-9970-368A2ECE0645}"/>
+    <hyperlink ref="B65" r:id="rId162" xr:uid="{AB6A51BE-BC9A-4531-ACB3-30233FAA66D2}"/>
+    <hyperlink ref="B66" r:id="rId163" xr:uid="{B489544F-4514-4B90-914C-464FDF82ED8E}"/>
+    <hyperlink ref="B67" r:id="rId164" xr:uid="{C9B385A8-580F-4244-A22C-A4D716E99C05}"/>
+    <hyperlink ref="B68" r:id="rId165" xr:uid="{848FD946-078E-4E7C-B840-6EF18377B9A5}"/>
+    <hyperlink ref="B69" r:id="rId166" xr:uid="{04761EC9-5B95-46FC-AED7-80BACDB6B6C3}"/>
+    <hyperlink ref="B70" r:id="rId167" xr:uid="{C6349B51-D2C1-4FD6-9D87-2150EAC946EC}"/>
+    <hyperlink ref="B71" r:id="rId168" xr:uid="{6B22BB3A-8F8E-463A-A081-86DC7D2E9AAE}"/>
+    <hyperlink ref="B72" r:id="rId169" xr:uid="{56FB15BB-C8F2-41F6-94FB-35A763927C7B}"/>
+    <hyperlink ref="B73" r:id="rId170" xr:uid="{0FD3252B-19E2-4B43-B49E-2998D58FD287}"/>
+    <hyperlink ref="B74" r:id="rId171" xr:uid="{0E2E51EC-672A-4419-ADF5-FFD973B07E50}"/>
+    <hyperlink ref="B75" r:id="rId172" xr:uid="{993752C5-A37A-42D6-BA17-AC10605B7A4F}"/>
+    <hyperlink ref="B76" r:id="rId173" xr:uid="{CA3013D5-EE12-428E-AE7C-062486AF233D}"/>
+    <hyperlink ref="B77" r:id="rId174" xr:uid="{B2E2DCCB-29A3-4A6E-8945-4522B685DC2C}"/>
+    <hyperlink ref="B78" r:id="rId175" xr:uid="{D8CD4D11-B59B-402E-8851-03966FC96D61}"/>
+    <hyperlink ref="B79" r:id="rId176" xr:uid="{8433F1D6-DD64-4B80-83F3-0ABDE256040D}"/>
+    <hyperlink ref="B80" r:id="rId177" xr:uid="{25630D71-B077-4B15-9BA4-387186F9ECE4}"/>
+    <hyperlink ref="B81" r:id="rId178" xr:uid="{A2678D4F-DAE8-4AB1-A618-086F952AC422}"/>
+    <hyperlink ref="B82" r:id="rId179" xr:uid="{F815E78B-8F76-4CE8-8C09-C5673D0A877E}"/>
+    <hyperlink ref="B83" r:id="rId180" xr:uid="{145FD8AD-13B8-4321-8A9E-78D95B4617E7}"/>
+    <hyperlink ref="B84" r:id="rId181" xr:uid="{4CE5C007-AF14-43A0-87E1-0A89F3892841}"/>
+    <hyperlink ref="B85" r:id="rId182" xr:uid="{736FFAA4-BE38-4DAE-98FA-3999A358B1E9}"/>
+    <hyperlink ref="B86" r:id="rId183" xr:uid="{0D34927E-6B0A-4A26-9171-9E1880AB8143}"/>
+    <hyperlink ref="B87" r:id="rId184" xr:uid="{A397A851-2DAF-4DB1-A7AA-143A9AF40B93}"/>
+    <hyperlink ref="B186" r:id="rId185" location="/in-review/3521?reportId=157958&amp;fromPage=event-dashboard-url" xr:uid="{5C12E835-A696-4810-858C-614894B296D9}"/>
+    <hyperlink ref="B188" r:id="rId186" location="/in-review/4746?reportId=158187&amp;fromPage=event-dashboard-url" xr:uid="{90F98A14-48FF-49CA-B0B7-460B163C54B5}"/>
+    <hyperlink ref="B187" r:id="rId187" location="/in-review/3521?reportId=158134&amp;fromPage=event-dashboard-url" xr:uid="{7871D89E-7447-472A-B645-61B8EDAF47F3}"/>
+    <hyperlink ref="B189" r:id="rId188" location="/in-review/3586?reportId=158243&amp;fromPage=event-dashboard-url" xr:uid="{855388DB-D328-41B5-8E91-E428873F2C37}"/>
+    <hyperlink ref="B190" r:id="rId189" location="/in-review/4746?reportId=158267&amp;fromPage=event-dashboard-url" xr:uid="{B5242A48-DD9F-4521-B88C-8DD987DD9DB9}"/>
+    <hyperlink ref="B191" r:id="rId190" location="/in-review/4746?reportId=158378&amp;fromPage=event-dashboard-url" xr:uid="{FFE4F7FD-BBD3-49C8-B552-502AC5F6C7B7}"/>
+    <hyperlink ref="B192" r:id="rId191" location="/in-review/4746?reportId=158456&amp;fromPage=event-dashboard-url" xr:uid="{483F7028-727E-4635-9863-454CB81CEE32}"/>
+    <hyperlink ref="B194" r:id="rId192" location="/in-review/4746?reportId=158580&amp;fromPage=event-dashboard-url" xr:uid="{F7B19C22-5921-48D3-B766-C8257B0FCC83}"/>
+    <hyperlink ref="B193" r:id="rId193" location="/in-review/3521?reportId=158513&amp;fromPage=event-dashboard-url" xr:uid="{F95DFF1A-DC6F-4028-8B97-BB26BA25B230}"/>
+    <hyperlink ref="B195" r:id="rId194" location="/in-review/3521?reportId=158622&amp;fromPage=event-dashboard-url" xr:uid="{7716F31A-42E8-458C-B5F8-625001BE6214}"/>
+    <hyperlink ref="B196" r:id="rId195" location="/in-review/4746?reportId=158700&amp;fromPage=event-dashboard-url" xr:uid="{E5DCE41E-24A4-4BC0-AE46-606FE35169ED}"/>
+    <hyperlink ref="B197" r:id="rId196" location="/in-review/3521?reportId=158741&amp;fromPage=event-dashboard-url" xr:uid="{3B57E87C-F4F3-4D88-A4ED-41189A4BD912}"/>
+    <hyperlink ref="B198" r:id="rId197" location="/in-review/4746?reportId=158802&amp;fromPage=event-dashboard-url" xr:uid="{C364B11A-D0FB-488E-B1AA-F588089BFC8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId197"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId198"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24355A87-A154-4464-9BB9-FE2BC03ADAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C95732-A442-4ABC-8986-8B84A665C4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="546">
   <si>
     <t>source</t>
   </si>
@@ -1651,6 +1651,18 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/4746?reportId=158802&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_158919</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=158919&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_158943</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=158943&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2590,10 +2602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A198" sqref="A198"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6565,6 +6577,46 @@
         <v>118</v>
       </c>
       <c r="F198" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D199" s="5">
+        <v>44950</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D200" s="5">
+        <v>44951</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F200" s="7" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6768,8 +6820,10 @@
     <hyperlink ref="B196" r:id="rId195" location="/in-review/4746?reportId=158700&amp;fromPage=event-dashboard-url" xr:uid="{E5DCE41E-24A4-4BC0-AE46-606FE35169ED}"/>
     <hyperlink ref="B197" r:id="rId196" location="/in-review/3521?reportId=158741&amp;fromPage=event-dashboard-url" xr:uid="{3B57E87C-F4F3-4D88-A4ED-41189A4BD912}"/>
     <hyperlink ref="B198" r:id="rId197" location="/in-review/4746?reportId=158802&amp;fromPage=event-dashboard-url" xr:uid="{C364B11A-D0FB-488E-B1AA-F588089BFC8C}"/>
+    <hyperlink ref="B199" r:id="rId198" location="/in-review/3521?reportId=158919&amp;fromPage=event-dashboard-url" xr:uid="{B891685B-805E-4B66-9F7E-F7CC3F1B3F68}"/>
+    <hyperlink ref="B200" r:id="rId199" location="/in-review/4746?reportId=158943&amp;fromPage=event-dashboard-url" xr:uid="{90BA76BD-1973-451D-B947-88856B7FA921}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId198"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId200"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C95732-A442-4ABC-8986-8B84A665C4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75AACE51-A0B3-432D-9AD3-645C8C1569E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="551">
   <si>
     <t>source</t>
   </si>
@@ -1663,6 +1663,21 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/4746?reportId=158943&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_159088</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=159088&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_159117</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3449?reportId=159117&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>epidemiological situation in the United States of America remains unchanged since the last report</t>
   </si>
 </sst>
 </file>
@@ -2602,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6618,6 +6633,46 @@
       </c>
       <c r="F200" s="7" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D201" s="5">
+        <v>44958</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D202" s="5">
+        <v>44959</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F202" s="7" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -6822,8 +6877,10 @@
     <hyperlink ref="B198" r:id="rId197" location="/in-review/4746?reportId=158802&amp;fromPage=event-dashboard-url" xr:uid="{C364B11A-D0FB-488E-B1AA-F588089BFC8C}"/>
     <hyperlink ref="B199" r:id="rId198" location="/in-review/3521?reportId=158919&amp;fromPage=event-dashboard-url" xr:uid="{B891685B-805E-4B66-9F7E-F7CC3F1B3F68}"/>
     <hyperlink ref="B200" r:id="rId199" location="/in-review/4746?reportId=158943&amp;fromPage=event-dashboard-url" xr:uid="{90BA76BD-1973-451D-B947-88856B7FA921}"/>
+    <hyperlink ref="B201" r:id="rId200" location="/in-review/3521?reportId=159088&amp;fromPage=event-dashboard-url" xr:uid="{9099920D-B3AF-4A09-8734-E4CC7B114DFD}"/>
+    <hyperlink ref="B202" r:id="rId201" location="/in-review/3449?reportId=159117&amp;fromPage=event-dashboard-url" xr:uid="{512D22E4-D396-4D0F-9047-3E1FE7349304}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId200"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId202"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75AACE51-A0B3-432D-9AD3-645C8C1569E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{080A4671-D3D5-4416-908F-CB468E45B417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="553">
   <si>
     <t>source</t>
   </si>
@@ -1678,6 +1678,12 @@
   </si>
   <si>
     <t>epidemiological situation in the United States of America remains unchanged since the last report</t>
+  </si>
+  <si>
+    <t>FUR_159226</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=159226&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2617,23 +2623,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.36328125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2653,7 +2659,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2673,7 +2679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2693,7 +2699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2753,7 +2759,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2793,7 +2799,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2813,7 +2819,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2873,7 +2879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -3053,7 +3059,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -3073,7 +3079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -3093,7 +3099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -3113,7 +3119,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -3153,7 +3159,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -3173,7 +3179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3213,7 +3219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -3233,7 +3239,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
@@ -3273,7 +3279,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -3293,7 +3299,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -3313,7 +3319,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
@@ -3333,7 +3339,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -3393,7 +3399,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -3433,7 +3439,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -3453,7 +3459,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
@@ -3473,7 +3479,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
@@ -3513,7 +3519,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -3533,7 +3539,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -3573,7 +3579,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -3613,7 +3619,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
@@ -3653,7 +3659,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3673,7 +3679,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3693,7 +3699,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>70</v>
       </c>
@@ -3713,7 +3719,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
@@ -3733,7 +3739,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
@@ -3753,7 +3759,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -3773,7 +3779,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -3793,7 +3799,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
@@ -3813,7 +3819,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>78</v>
       </c>
@@ -3833,7 +3839,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
@@ -3853,7 +3859,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>80</v>
       </c>
@@ -3873,7 +3879,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>86</v>
       </c>
@@ -3933,7 +3939,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>87</v>
       </c>
@@ -3953,7 +3959,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>88</v>
       </c>
@@ -3973,7 +3979,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>90</v>
       </c>
@@ -3993,7 +3999,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>93</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
@@ -4033,7 +4039,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>96</v>
       </c>
@@ -4053,7 +4059,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
@@ -4073,7 +4079,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
@@ -4093,7 +4099,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>101</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
@@ -4133,7 +4139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>104</v>
       </c>
@@ -4153,7 +4159,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
@@ -4173,7 +4179,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
@@ -4193,7 +4199,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
@@ -4213,7 +4219,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -4233,7 +4239,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
@@ -4253,7 +4259,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -4273,7 +4279,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -4293,7 +4299,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
@@ -4313,7 +4319,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
@@ -4333,7 +4339,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>199</v>
       </c>
@@ -4353,7 +4359,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>279</v>
       </c>
@@ -4373,7 +4379,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>117</v>
       </c>
@@ -4393,7 +4399,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -4413,7 +4419,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -4433,7 +4439,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>121</v>
       </c>
@@ -4453,7 +4459,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>122</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>123</v>
       </c>
@@ -4493,7 +4499,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>357</v>
       </c>
@@ -4513,7 +4519,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
@@ -4533,7 +4539,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>125</v>
       </c>
@@ -4553,7 +4559,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>126</v>
       </c>
@@ -4573,7 +4579,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>127</v>
       </c>
@@ -4593,7 +4599,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>128</v>
       </c>
@@ -4613,7 +4619,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>129</v>
       </c>
@@ -4633,7 +4639,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>130</v>
       </c>
@@ -4653,7 +4659,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>131</v>
       </c>
@@ -4673,7 +4679,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>132</v>
       </c>
@@ -4693,7 +4699,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>133</v>
       </c>
@@ -4713,7 +4719,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>134</v>
       </c>
@@ -4733,7 +4739,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>135</v>
       </c>
@@ -4753,7 +4759,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>136</v>
       </c>
@@ -4773,7 +4779,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>137</v>
       </c>
@@ -4793,7 +4799,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>138</v>
       </c>
@@ -4813,7 +4819,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>139</v>
       </c>
@@ -4833,7 +4839,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
@@ -4853,7 +4859,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>141</v>
       </c>
@@ -4873,7 +4879,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>142</v>
       </c>
@@ -4893,7 +4899,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>143</v>
       </c>
@@ -4913,7 +4919,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>144</v>
       </c>
@@ -4933,7 +4939,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>145</v>
       </c>
@@ -4953,7 +4959,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>146</v>
       </c>
@@ -4973,7 +4979,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>147</v>
       </c>
@@ -4993,7 +4999,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>148</v>
       </c>
@@ -5013,7 +5019,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>149</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>150</v>
       </c>
@@ -5053,7 +5059,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>151</v>
       </c>
@@ -5073,7 +5079,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>152</v>
       </c>
@@ -5093,7 +5099,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>153</v>
       </c>
@@ -5113,7 +5119,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>154</v>
       </c>
@@ -5133,7 +5139,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>155</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>156</v>
       </c>
@@ -5173,7 +5179,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>157</v>
       </c>
@@ -5193,7 +5199,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>158</v>
       </c>
@@ -5213,7 +5219,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>159</v>
       </c>
@@ -5233,7 +5239,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>160</v>
       </c>
@@ -5253,7 +5259,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>161</v>
       </c>
@@ -5273,7 +5279,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>162</v>
       </c>
@@ -5293,7 +5299,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>163</v>
       </c>
@@ -5313,7 +5319,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>164</v>
       </c>
@@ -5333,7 +5339,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>165</v>
       </c>
@@ -5353,7 +5359,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>166</v>
       </c>
@@ -5373,7 +5379,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>167</v>
       </c>
@@ -5393,7 +5399,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>168</v>
       </c>
@@ -5413,7 +5419,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>169</v>
       </c>
@@ -5433,7 +5439,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>170</v>
       </c>
@@ -5453,7 +5459,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>171</v>
       </c>
@@ -5473,7 +5479,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>172</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -5513,7 +5519,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>174</v>
       </c>
@@ -5533,7 +5539,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>175</v>
       </c>
@@ -5553,7 +5559,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>176</v>
       </c>
@@ -5573,7 +5579,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>177</v>
       </c>
@@ -5593,7 +5599,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>178</v>
       </c>
@@ -5613,7 +5619,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>179</v>
       </c>
@@ -5633,7 +5639,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>180</v>
       </c>
@@ -5653,7 +5659,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>181</v>
       </c>
@@ -5673,7 +5679,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>182</v>
       </c>
@@ -5693,7 +5699,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>183</v>
       </c>
@@ -5713,7 +5719,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>184</v>
       </c>
@@ -5733,7 +5739,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>185</v>
       </c>
@@ -5753,7 +5759,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>186</v>
       </c>
@@ -5773,7 +5779,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>187</v>
       </c>
@@ -5793,7 +5799,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>188</v>
       </c>
@@ -5813,7 +5819,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>189</v>
       </c>
@@ -5833,7 +5839,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -5853,7 +5859,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>191</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>192</v>
       </c>
@@ -5893,7 +5899,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>193</v>
       </c>
@@ -5913,7 +5919,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>194</v>
       </c>
@@ -5933,7 +5939,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>332</v>
       </c>
@@ -5953,7 +5959,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>195</v>
       </c>
@@ -5973,7 +5979,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>196</v>
       </c>
@@ -5993,7 +5999,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>201</v>
       </c>
@@ -6013,7 +6019,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>202</v>
       </c>
@@ -6034,7 +6040,7 @@
       </c>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>203</v>
       </c>
@@ -6055,7 +6061,7 @@
       </c>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>258</v>
       </c>
@@ -6075,7 +6081,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>259</v>
       </c>
@@ -6095,7 +6101,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>260</v>
       </c>
@@ -6115,7 +6121,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>280</v>
       </c>
@@ -6135,7 +6141,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>308</v>
       </c>
@@ -6155,7 +6161,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>309</v>
       </c>
@@ -6175,7 +6181,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>310</v>
       </c>
@@ -6195,7 +6201,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>311</v>
       </c>
@@ -6215,7 +6221,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>313</v>
       </c>
@@ -6235,7 +6241,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>314</v>
       </c>
@@ -6255,7 +6261,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>316</v>
       </c>
@@ -6275,7 +6281,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>317</v>
       </c>
@@ -6295,7 +6301,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6315,7 +6321,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>321</v>
       </c>
@@ -6335,7 +6341,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>513</v>
       </c>
@@ -6355,7 +6361,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>516</v>
       </c>
@@ -6375,7 +6381,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>517</v>
       </c>
@@ -6395,7 +6401,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>521</v>
       </c>
@@ -6415,7 +6421,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>524</v>
       </c>
@@ -6435,7 +6441,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>526</v>
       </c>
@@ -6455,7 +6461,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>528</v>
       </c>
@@ -6475,7 +6481,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>532</v>
       </c>
@@ -6495,7 +6501,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>530</v>
       </c>
@@ -6515,7 +6521,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>534</v>
       </c>
@@ -6535,7 +6541,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>536</v>
       </c>
@@ -6555,7 +6561,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>538</v>
       </c>
@@ -6575,7 +6581,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>540</v>
       </c>
@@ -6595,7 +6601,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>542</v>
       </c>
@@ -6615,7 +6621,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>544</v>
       </c>
@@ -6635,7 +6641,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>546</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>548</v>
       </c>
@@ -6673,6 +6679,26 @@
       </c>
       <c r="F202" s="7" t="s">
         <v>550</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D203" s="5">
+        <v>44965</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -6879,8 +6905,9 @@
     <hyperlink ref="B200" r:id="rId199" location="/in-review/4746?reportId=158943&amp;fromPage=event-dashboard-url" xr:uid="{90BA76BD-1973-451D-B947-88856B7FA921}"/>
     <hyperlink ref="B201" r:id="rId200" location="/in-review/3521?reportId=159088&amp;fromPage=event-dashboard-url" xr:uid="{9099920D-B3AF-4A09-8734-E4CC7B114DFD}"/>
     <hyperlink ref="B202" r:id="rId201" location="/in-review/3449?reportId=159117&amp;fromPage=event-dashboard-url" xr:uid="{512D22E4-D396-4D0F-9047-3E1FE7349304}"/>
+    <hyperlink ref="B203" r:id="rId202" location="/in-review/4746?reportId=159226&amp;fromPage=event-dashboard-url" xr:uid="{4A8BF71E-7D24-49E2-82BA-6DFF43FD63E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId202"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId203"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{080A4671-D3D5-4416-908F-CB468E45B417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75AE5822-38D3-45A9-B15D-0554D2ADF4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="557">
   <si>
     <t>source</t>
   </si>
@@ -1684,6 +1684,18 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/4746?reportId=159226&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_159322</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=159322&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_159354</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=159354&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2623,10 +2635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6699,6 +6711,46 @@
       </c>
       <c r="F203" s="7" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D204" s="5">
+        <v>44972</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D205" s="5">
+        <v>44973</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -6906,8 +6958,10 @@
     <hyperlink ref="B201" r:id="rId200" location="/in-review/3521?reportId=159088&amp;fromPage=event-dashboard-url" xr:uid="{9099920D-B3AF-4A09-8734-E4CC7B114DFD}"/>
     <hyperlink ref="B202" r:id="rId201" location="/in-review/3449?reportId=159117&amp;fromPage=event-dashboard-url" xr:uid="{512D22E4-D396-4D0F-9047-3E1FE7349304}"/>
     <hyperlink ref="B203" r:id="rId202" location="/in-review/4746?reportId=159226&amp;fromPage=event-dashboard-url" xr:uid="{4A8BF71E-7D24-49E2-82BA-6DFF43FD63E2}"/>
+    <hyperlink ref="B204" r:id="rId203" location="/in-review/4746?reportId=159322&amp;fromPage=event-dashboard-url" xr:uid="{C29446ED-F2A6-412D-A0D5-7F0BCCF4C7FB}"/>
+    <hyperlink ref="B205" r:id="rId204" location="/in-review/3521?reportId=159354&amp;fromPage=event-dashboard-url" xr:uid="{82C409FB-64B3-41EA-BF81-7E80CA6EE787}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId203"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId205"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75AE5822-38D3-45A9-B15D-0554D2ADF4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C98577-4CC7-48C4-911E-ABE149168E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="559">
   <si>
     <t>source</t>
   </si>
@@ -1696,6 +1696,12 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/3521?reportId=159354&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_159445</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=159445&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2635,23 +2641,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2711,7 +2717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -2751,7 +2757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2771,7 +2777,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2851,7 +2857,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2871,7 +2877,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2891,7 +2897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3011,7 +3017,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -3031,7 +3037,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -3051,7 +3057,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -3071,7 +3077,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -3091,7 +3097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -3111,7 +3117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -3131,7 +3137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -3151,7 +3157,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -3171,7 +3177,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -3251,7 +3257,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
@@ -3291,7 +3297,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -3331,7 +3337,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
@@ -3351,7 +3357,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -3411,7 +3417,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -3431,7 +3437,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
@@ -3491,7 +3497,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -3511,7 +3517,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
@@ -3531,7 +3537,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -3551,7 +3557,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -3571,7 +3577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -3591,7 +3597,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -3611,7 +3617,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -3631,7 +3637,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
@@ -3671,7 +3677,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3691,7 +3697,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>70</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
@@ -3751,7 +3757,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
@@ -3771,7 +3777,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -3791,7 +3797,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -3811,7 +3817,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
@@ -3831,7 +3837,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>78</v>
       </c>
@@ -3851,7 +3857,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>80</v>
       </c>
@@ -3891,7 +3897,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -3931,7 +3937,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>86</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>87</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>88</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>90</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>93</v>
       </c>
@@ -4031,7 +4037,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>96</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
@@ -4091,7 +4097,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>101</v>
       </c>
@@ -4131,7 +4137,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
@@ -4151,7 +4157,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>104</v>
       </c>
@@ -4171,7 +4177,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
@@ -4191,7 +4197,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
@@ -4211,7 +4217,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
@@ -4231,7 +4237,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
@@ -4271,7 +4277,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -4291,7 +4297,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -4311,7 +4317,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
@@ -4331,7 +4337,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>199</v>
       </c>
@@ -4371,7 +4377,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>279</v>
       </c>
@@ -4391,7 +4397,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>117</v>
       </c>
@@ -4411,7 +4417,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -4431,7 +4437,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -4451,7 +4457,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>121</v>
       </c>
@@ -4471,7 +4477,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>122</v>
       </c>
@@ -4491,7 +4497,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>123</v>
       </c>
@@ -4511,7 +4517,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>357</v>
       </c>
@@ -4531,7 +4537,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
@@ -4551,7 +4557,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>125</v>
       </c>
@@ -4571,7 +4577,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>126</v>
       </c>
@@ -4591,7 +4597,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>127</v>
       </c>
@@ -4611,7 +4617,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>128</v>
       </c>
@@ -4631,7 +4637,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>129</v>
       </c>
@@ -4651,7 +4657,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>130</v>
       </c>
@@ -4671,7 +4677,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>131</v>
       </c>
@@ -4691,7 +4697,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>132</v>
       </c>
@@ -4711,7 +4717,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>133</v>
       </c>
@@ -4731,7 +4737,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>134</v>
       </c>
@@ -4751,7 +4757,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>135</v>
       </c>
@@ -4771,7 +4777,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>136</v>
       </c>
@@ -4791,7 +4797,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>137</v>
       </c>
@@ -4811,7 +4817,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>138</v>
       </c>
@@ -4831,7 +4837,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>139</v>
       </c>
@@ -4851,7 +4857,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
@@ -4871,7 +4877,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>141</v>
       </c>
@@ -4891,7 +4897,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>142</v>
       </c>
@@ -4911,7 +4917,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>143</v>
       </c>
@@ -4931,7 +4937,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>144</v>
       </c>
@@ -4951,7 +4957,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>145</v>
       </c>
@@ -4971,7 +4977,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>146</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>147</v>
       </c>
@@ -5011,7 +5017,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>148</v>
       </c>
@@ -5031,7 +5037,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>149</v>
       </c>
@@ -5051,7 +5057,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>150</v>
       </c>
@@ -5071,7 +5077,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>151</v>
       </c>
@@ -5091,7 +5097,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>152</v>
       </c>
@@ -5111,7 +5117,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>153</v>
       </c>
@@ -5131,7 +5137,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>154</v>
       </c>
@@ -5151,7 +5157,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>155</v>
       </c>
@@ -5171,7 +5177,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>156</v>
       </c>
@@ -5191,7 +5197,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>157</v>
       </c>
@@ -5211,7 +5217,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>158</v>
       </c>
@@ -5231,7 +5237,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>159</v>
       </c>
@@ -5251,7 +5257,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>160</v>
       </c>
@@ -5271,7 +5277,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>161</v>
       </c>
@@ -5291,7 +5297,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>162</v>
       </c>
@@ -5311,7 +5317,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>163</v>
       </c>
@@ -5331,7 +5337,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>164</v>
       </c>
@@ -5351,7 +5357,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>165</v>
       </c>
@@ -5371,7 +5377,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>166</v>
       </c>
@@ -5391,7 +5397,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>167</v>
       </c>
@@ -5411,7 +5417,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>168</v>
       </c>
@@ -5431,7 +5437,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>169</v>
       </c>
@@ -5451,7 +5457,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>170</v>
       </c>
@@ -5471,7 +5477,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>171</v>
       </c>
@@ -5491,7 +5497,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>172</v>
       </c>
@@ -5511,7 +5517,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -5531,7 +5537,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>174</v>
       </c>
@@ -5551,7 +5557,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>175</v>
       </c>
@@ -5571,7 +5577,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>176</v>
       </c>
@@ -5591,7 +5597,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>177</v>
       </c>
@@ -5611,7 +5617,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>178</v>
       </c>
@@ -5631,7 +5637,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>179</v>
       </c>
@@ -5651,7 +5657,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>180</v>
       </c>
@@ -5671,7 +5677,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>181</v>
       </c>
@@ -5691,7 +5697,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>182</v>
       </c>
@@ -5711,7 +5717,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>183</v>
       </c>
@@ -5731,7 +5737,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>184</v>
       </c>
@@ -5751,7 +5757,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>185</v>
       </c>
@@ -5771,7 +5777,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>186</v>
       </c>
@@ -5791,7 +5797,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
         <v>187</v>
       </c>
@@ -5811,7 +5817,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>188</v>
       </c>
@@ -5831,7 +5837,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>189</v>
       </c>
@@ -5851,7 +5857,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -5871,7 +5877,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>191</v>
       </c>
@@ -5891,7 +5897,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>192</v>
       </c>
@@ -5911,7 +5917,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>193</v>
       </c>
@@ -5931,7 +5937,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
         <v>194</v>
       </c>
@@ -5951,7 +5957,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>332</v>
       </c>
@@ -5971,7 +5977,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>195</v>
       </c>
@@ -5991,7 +5997,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>196</v>
       </c>
@@ -6011,7 +6017,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>201</v>
       </c>
@@ -6031,7 +6037,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>202</v>
       </c>
@@ -6052,7 +6058,7 @@
       </c>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>203</v>
       </c>
@@ -6073,7 +6079,7 @@
       </c>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>258</v>
       </c>
@@ -6093,7 +6099,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>259</v>
       </c>
@@ -6113,7 +6119,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>260</v>
       </c>
@@ -6133,7 +6139,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>280</v>
       </c>
@@ -6153,7 +6159,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>308</v>
       </c>
@@ -6173,7 +6179,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>309</v>
       </c>
@@ -6193,7 +6199,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>310</v>
       </c>
@@ -6213,7 +6219,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>311</v>
       </c>
@@ -6233,7 +6239,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>313</v>
       </c>
@@ -6253,7 +6259,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>314</v>
       </c>
@@ -6273,7 +6279,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>316</v>
       </c>
@@ -6293,7 +6299,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>317</v>
       </c>
@@ -6313,7 +6319,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6333,7 +6339,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>321</v>
       </c>
@@ -6353,7 +6359,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>513</v>
       </c>
@@ -6373,7 +6379,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>516</v>
       </c>
@@ -6393,7 +6399,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>517</v>
       </c>
@@ -6413,7 +6419,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>521</v>
       </c>
@@ -6433,7 +6439,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>524</v>
       </c>
@@ -6453,7 +6459,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>526</v>
       </c>
@@ -6473,7 +6479,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>528</v>
       </c>
@@ -6493,7 +6499,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>532</v>
       </c>
@@ -6513,7 +6519,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>530</v>
       </c>
@@ -6533,7 +6539,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>534</v>
       </c>
@@ -6553,7 +6559,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>536</v>
       </c>
@@ -6573,7 +6579,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>538</v>
       </c>
@@ -6593,7 +6599,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>540</v>
       </c>
@@ -6613,7 +6619,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>542</v>
       </c>
@@ -6633,7 +6639,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>544</v>
       </c>
@@ -6653,7 +6659,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>546</v>
       </c>
@@ -6673,7 +6679,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>548</v>
       </c>
@@ -6693,7 +6699,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>551</v>
       </c>
@@ -6713,7 +6719,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>553</v>
       </c>
@@ -6733,7 +6739,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>555</v>
       </c>
@@ -6751,6 +6757,26 @@
       </c>
       <c r="F205" s="7" t="s">
         <v>515</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D206" s="5">
+        <v>44979</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F206" s="7" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -6960,8 +6986,9 @@
     <hyperlink ref="B203" r:id="rId202" location="/in-review/4746?reportId=159226&amp;fromPage=event-dashboard-url" xr:uid="{4A8BF71E-7D24-49E2-82BA-6DFF43FD63E2}"/>
     <hyperlink ref="B204" r:id="rId203" location="/in-review/4746?reportId=159322&amp;fromPage=event-dashboard-url" xr:uid="{C29446ED-F2A6-412D-A0D5-7F0BCCF4C7FB}"/>
     <hyperlink ref="B205" r:id="rId204" location="/in-review/3521?reportId=159354&amp;fromPage=event-dashboard-url" xr:uid="{82C409FB-64B3-41EA-BF81-7E80CA6EE787}"/>
+    <hyperlink ref="B206" r:id="rId205" location="/in-review/4746?reportId=159445&amp;fromPage=event-dashboard-url" xr:uid="{A204A838-8F2D-44E9-BE3C-FA3F895BDAA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId205"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId206"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C98577-4CC7-48C4-911E-ABE149168E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12D3D577-F074-4299-BA66-714CC5D7E048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="563">
   <si>
     <t>source</t>
   </si>
@@ -1702,6 +1702,18 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/4746?reportId=159445&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_159555</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=159555&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_159566</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=159566&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2641,23 +2653,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206"/>
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.36328125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2677,7 +2689,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2697,7 +2709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2717,7 +2729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2737,7 +2749,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -2757,7 +2769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2777,7 +2789,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2837,7 +2849,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2877,7 +2889,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2897,7 +2909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -2917,7 +2929,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2937,7 +2949,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2957,7 +2969,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -2977,7 +2989,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -2997,7 +3009,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3017,7 +3029,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -3037,7 +3049,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -3057,7 +3069,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -3077,7 +3089,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -3097,7 +3109,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -3117,7 +3129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -3137,7 +3149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -3157,7 +3169,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -3177,7 +3189,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -3197,7 +3209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -3217,7 +3229,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3237,7 +3249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -3257,7 +3269,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
@@ -3277,7 +3289,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
@@ -3297,7 +3309,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -3317,7 +3329,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -3337,7 +3349,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
@@ -3357,7 +3369,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
@@ -3377,7 +3389,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -3397,7 +3409,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -3417,7 +3429,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -3437,7 +3449,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -3457,7 +3469,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -3477,7 +3489,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
@@ -3497,7 +3509,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -3517,7 +3529,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
@@ -3537,7 +3549,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -3557,7 +3569,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -3577,7 +3589,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -3597,7 +3609,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -3617,7 +3629,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -3637,7 +3649,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
@@ -3657,7 +3669,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
@@ -3677,7 +3689,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3697,7 +3709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3717,7 +3729,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>70</v>
       </c>
@@ -3737,7 +3749,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
@@ -3757,7 +3769,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
@@ -3777,7 +3789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -3797,7 +3809,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -3817,7 +3829,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
@@ -3837,7 +3849,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>78</v>
       </c>
@@ -3857,7 +3869,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
@@ -3877,7 +3889,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>80</v>
       </c>
@@ -3897,7 +3909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
@@ -3917,7 +3929,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -3937,7 +3949,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>86</v>
       </c>
@@ -3957,7 +3969,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>87</v>
       </c>
@@ -3977,7 +3989,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>88</v>
       </c>
@@ -3997,7 +4009,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>90</v>
       </c>
@@ -4017,7 +4029,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>93</v>
       </c>
@@ -4037,7 +4049,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
@@ -4057,7 +4069,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>96</v>
       </c>
@@ -4077,7 +4089,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
@@ -4097,7 +4109,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
@@ -4117,7 +4129,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>101</v>
       </c>
@@ -4137,7 +4149,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
@@ -4157,7 +4169,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>104</v>
       </c>
@@ -4177,7 +4189,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
@@ -4197,7 +4209,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
@@ -4217,7 +4229,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
@@ -4237,7 +4249,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -4257,7 +4269,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
@@ -4277,7 +4289,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -4297,7 +4309,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -4317,7 +4329,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
@@ -4337,7 +4349,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
@@ -4357,7 +4369,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>199</v>
       </c>
@@ -4377,7 +4389,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>279</v>
       </c>
@@ -4397,7 +4409,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>117</v>
       </c>
@@ -4417,7 +4429,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -4437,7 +4449,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -4457,7 +4469,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>121</v>
       </c>
@@ -4477,7 +4489,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>122</v>
       </c>
@@ -4497,7 +4509,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>123</v>
       </c>
@@ -4517,7 +4529,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>357</v>
       </c>
@@ -4537,7 +4549,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
@@ -4557,7 +4569,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>125</v>
       </c>
@@ -4577,7 +4589,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>126</v>
       </c>
@@ -4597,7 +4609,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>127</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>128</v>
       </c>
@@ -4637,7 +4649,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>129</v>
       </c>
@@ -4657,7 +4669,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>130</v>
       </c>
@@ -4677,7 +4689,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>131</v>
       </c>
@@ -4697,7 +4709,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>132</v>
       </c>
@@ -4717,7 +4729,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>133</v>
       </c>
@@ -4737,7 +4749,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>134</v>
       </c>
@@ -4757,7 +4769,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>135</v>
       </c>
@@ -4777,7 +4789,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>136</v>
       </c>
@@ -4797,7 +4809,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>137</v>
       </c>
@@ -4817,7 +4829,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>138</v>
       </c>
@@ -4837,7 +4849,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>139</v>
       </c>
@@ -4857,7 +4869,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
@@ -4877,7 +4889,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>141</v>
       </c>
@@ -4897,7 +4909,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>142</v>
       </c>
@@ -4917,7 +4929,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>143</v>
       </c>
@@ -4937,7 +4949,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>144</v>
       </c>
@@ -4957,7 +4969,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>145</v>
       </c>
@@ -4977,7 +4989,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>146</v>
       </c>
@@ -4997,7 +5009,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>147</v>
       </c>
@@ -5017,7 +5029,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>148</v>
       </c>
@@ -5037,7 +5049,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>149</v>
       </c>
@@ -5057,7 +5069,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>150</v>
       </c>
@@ -5077,7 +5089,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>151</v>
       </c>
@@ -5097,7 +5109,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>152</v>
       </c>
@@ -5117,7 +5129,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>153</v>
       </c>
@@ -5137,7 +5149,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>154</v>
       </c>
@@ -5157,7 +5169,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>155</v>
       </c>
@@ -5177,7 +5189,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>156</v>
       </c>
@@ -5197,7 +5209,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>157</v>
       </c>
@@ -5217,7 +5229,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>158</v>
       </c>
@@ -5237,7 +5249,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>159</v>
       </c>
@@ -5257,7 +5269,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>160</v>
       </c>
@@ -5277,7 +5289,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>161</v>
       </c>
@@ -5297,7 +5309,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>162</v>
       </c>
@@ -5317,7 +5329,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>163</v>
       </c>
@@ -5337,7 +5349,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>164</v>
       </c>
@@ -5357,7 +5369,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>165</v>
       </c>
@@ -5377,7 +5389,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>166</v>
       </c>
@@ -5397,7 +5409,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>167</v>
       </c>
@@ -5417,7 +5429,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>168</v>
       </c>
@@ -5437,7 +5449,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>169</v>
       </c>
@@ -5457,7 +5469,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>170</v>
       </c>
@@ -5477,7 +5489,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>171</v>
       </c>
@@ -5497,7 +5509,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>172</v>
       </c>
@@ -5517,7 +5529,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -5537,7 +5549,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>174</v>
       </c>
@@ -5557,7 +5569,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>175</v>
       </c>
@@ -5577,7 +5589,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>176</v>
       </c>
@@ -5597,7 +5609,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>177</v>
       </c>
@@ -5617,7 +5629,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>178</v>
       </c>
@@ -5637,7 +5649,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>179</v>
       </c>
@@ -5657,7 +5669,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>180</v>
       </c>
@@ -5677,7 +5689,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>181</v>
       </c>
@@ -5697,7 +5709,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>182</v>
       </c>
@@ -5717,7 +5729,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>183</v>
       </c>
@@ -5737,7 +5749,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>184</v>
       </c>
@@ -5757,7 +5769,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>185</v>
       </c>
@@ -5777,7 +5789,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>186</v>
       </c>
@@ -5797,7 +5809,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>187</v>
       </c>
@@ -5817,7 +5829,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>188</v>
       </c>
@@ -5837,7 +5849,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>189</v>
       </c>
@@ -5857,7 +5869,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -5877,7 +5889,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>191</v>
       </c>
@@ -5897,7 +5909,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>192</v>
       </c>
@@ -5917,7 +5929,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>193</v>
       </c>
@@ -5937,7 +5949,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>194</v>
       </c>
@@ -5957,7 +5969,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>332</v>
       </c>
@@ -5977,7 +5989,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>195</v>
       </c>
@@ -5997,7 +6009,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>196</v>
       </c>
@@ -6017,7 +6029,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>201</v>
       </c>
@@ -6037,7 +6049,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>202</v>
       </c>
@@ -6058,7 +6070,7 @@
       </c>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>203</v>
       </c>
@@ -6079,7 +6091,7 @@
       </c>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>258</v>
       </c>
@@ -6099,7 +6111,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>259</v>
       </c>
@@ -6119,7 +6131,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>260</v>
       </c>
@@ -6139,7 +6151,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>280</v>
       </c>
@@ -6159,7 +6171,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>308</v>
       </c>
@@ -6179,7 +6191,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>309</v>
       </c>
@@ -6199,7 +6211,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>310</v>
       </c>
@@ -6219,7 +6231,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>311</v>
       </c>
@@ -6239,7 +6251,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>313</v>
       </c>
@@ -6259,7 +6271,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>314</v>
       </c>
@@ -6279,7 +6291,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>316</v>
       </c>
@@ -6299,7 +6311,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>317</v>
       </c>
@@ -6319,7 +6331,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6339,7 +6351,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>321</v>
       </c>
@@ -6359,7 +6371,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>513</v>
       </c>
@@ -6379,7 +6391,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>516</v>
       </c>
@@ -6399,7 +6411,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>517</v>
       </c>
@@ -6419,7 +6431,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>521</v>
       </c>
@@ -6439,7 +6451,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>524</v>
       </c>
@@ -6459,7 +6471,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>526</v>
       </c>
@@ -6479,7 +6491,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>528</v>
       </c>
@@ -6499,7 +6511,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>532</v>
       </c>
@@ -6519,7 +6531,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>530</v>
       </c>
@@ -6539,7 +6551,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>534</v>
       </c>
@@ -6559,7 +6571,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>536</v>
       </c>
@@ -6579,7 +6591,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>538</v>
       </c>
@@ -6599,7 +6611,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>540</v>
       </c>
@@ -6619,7 +6631,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>542</v>
       </c>
@@ -6639,7 +6651,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>544</v>
       </c>
@@ -6659,7 +6671,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>546</v>
       </c>
@@ -6679,7 +6691,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>548</v>
       </c>
@@ -6699,7 +6711,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>551</v>
       </c>
@@ -6719,7 +6731,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>553</v>
       </c>
@@ -6739,7 +6751,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>555</v>
       </c>
@@ -6759,7 +6771,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>557</v>
       </c>
@@ -6777,6 +6789,46 @@
       </c>
       <c r="F206" s="7" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D207" s="5">
+        <v>44986</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D208" s="5">
+        <v>44986</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -6987,8 +7039,10 @@
     <hyperlink ref="B204" r:id="rId203" location="/in-review/4746?reportId=159322&amp;fromPage=event-dashboard-url" xr:uid="{C29446ED-F2A6-412D-A0D5-7F0BCCF4C7FB}"/>
     <hyperlink ref="B205" r:id="rId204" location="/in-review/3521?reportId=159354&amp;fromPage=event-dashboard-url" xr:uid="{82C409FB-64B3-41EA-BF81-7E80CA6EE787}"/>
     <hyperlink ref="B206" r:id="rId205" location="/in-review/4746?reportId=159445&amp;fromPage=event-dashboard-url" xr:uid="{A204A838-8F2D-44E9-BE3C-FA3F895BDAA8}"/>
+    <hyperlink ref="B207" r:id="rId206" location="/in-review/4746?reportId=159555&amp;fromPage=event-dashboard-url" xr:uid="{3DEF51C9-692B-4D85-8500-7D8949EBA5D5}"/>
+    <hyperlink ref="B208" r:id="rId207" location="/in-review/3521?reportId=159566&amp;fromPage=event-dashboard-url" xr:uid="{9ED7D8DF-19CC-4ACD-83CC-16043BB4CC27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId206"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId208"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12D3D577-F074-4299-BA66-714CC5D7E048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89877DBE-EE7E-46D4-B0A9-657D1930DFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="567">
   <si>
     <t>source</t>
   </si>
@@ -1714,6 +1714,18 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/3521?reportId=159566&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_159720</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=159720&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_159737</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=159737&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2653,10 +2665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6828,6 +6840,46 @@
         <v>118</v>
       </c>
       <c r="F208" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D209" s="5">
+        <v>44993</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F209" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D210" s="5">
+        <v>44994</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F210" s="7" t="s">
         <v>515</v>
       </c>
     </row>
@@ -7041,8 +7093,10 @@
     <hyperlink ref="B206" r:id="rId205" location="/in-review/4746?reportId=159445&amp;fromPage=event-dashboard-url" xr:uid="{A204A838-8F2D-44E9-BE3C-FA3F895BDAA8}"/>
     <hyperlink ref="B207" r:id="rId206" location="/in-review/4746?reportId=159555&amp;fromPage=event-dashboard-url" xr:uid="{3DEF51C9-692B-4D85-8500-7D8949EBA5D5}"/>
     <hyperlink ref="B208" r:id="rId207" location="/in-review/3521?reportId=159566&amp;fromPage=event-dashboard-url" xr:uid="{9ED7D8DF-19CC-4ACD-83CC-16043BB4CC27}"/>
+    <hyperlink ref="B209" r:id="rId208" location="/in-review/4746?reportId=159720&amp;fromPage=event-dashboard-url" xr:uid="{6D9253D7-336E-47DF-ADE3-F9DFE80E2226}"/>
+    <hyperlink ref="B210" r:id="rId209" location="/in-review/3521?reportId=159737&amp;fromPage=event-dashboard-url" xr:uid="{0637548E-7525-4CAD-ABC0-CDA63823CD9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId208"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId210"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89877DBE-EE7E-46D4-B0A9-657D1930DFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1ACD6F7-509D-4B25-B7F9-1BF47C885804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="571">
   <si>
     <t>source</t>
   </si>
@@ -1726,6 +1726,18 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/3521?reportId=159737&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_159816</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=159816&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_159853</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=159853&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2665,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210"/>
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6881,6 +6893,46 @@
       </c>
       <c r="F210" s="7" t="s">
         <v>515</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D211" s="5">
+        <v>44998</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D212" s="5">
+        <v>45000</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -7095,8 +7147,10 @@
     <hyperlink ref="B208" r:id="rId207" location="/in-review/3521?reportId=159566&amp;fromPage=event-dashboard-url" xr:uid="{9ED7D8DF-19CC-4ACD-83CC-16043BB4CC27}"/>
     <hyperlink ref="B209" r:id="rId208" location="/in-review/4746?reportId=159720&amp;fromPage=event-dashboard-url" xr:uid="{6D9253D7-336E-47DF-ADE3-F9DFE80E2226}"/>
     <hyperlink ref="B210" r:id="rId209" location="/in-review/3521?reportId=159737&amp;fromPage=event-dashboard-url" xr:uid="{0637548E-7525-4CAD-ABC0-CDA63823CD9C}"/>
+    <hyperlink ref="B211" r:id="rId210" location="/in-review/3521?reportId=159816&amp;fromPage=event-dashboard-url" xr:uid="{659E3904-5EA3-4B05-8E4D-76EE8700C0D3}"/>
+    <hyperlink ref="B212" r:id="rId211" location="/in-review/4746?reportId=159853&amp;fromPage=event-dashboard-url" xr:uid="{FD85CBB1-08D3-4A4F-B507-AC8F2BDA4B62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId210"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId212"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1ACD6F7-509D-4B25-B7F9-1BF47C885804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01C5E5EA-1A9A-4A5A-8532-D7130A8A48B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="575">
   <si>
     <t>source</t>
   </si>
@@ -1738,6 +1738,18 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/4746?reportId=159853&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_160020</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=160020&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_160046</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=160046&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2677,23 +2689,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2713,7 +2725,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2733,7 +2745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2753,7 +2765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2773,7 +2785,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -2793,7 +2805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2813,7 +2825,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2833,7 +2845,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2853,7 +2865,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2873,7 +2885,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2893,7 +2905,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2913,7 +2925,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2933,7 +2945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -2953,7 +2965,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2973,7 +2985,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2993,7 +3005,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -3013,7 +3025,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -3033,7 +3045,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3053,7 +3065,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -3073,7 +3085,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -3093,7 +3105,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -3113,7 +3125,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -3133,7 +3145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -3153,7 +3165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -3173,7 +3185,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -3193,7 +3205,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -3213,7 +3225,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -3233,7 +3245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -3253,7 +3265,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3273,7 +3285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -3293,7 +3305,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
@@ -3313,7 +3325,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
@@ -3333,7 +3345,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -3353,7 +3365,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -3373,7 +3385,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
@@ -3393,7 +3405,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
@@ -3413,7 +3425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -3433,7 +3445,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -3453,7 +3465,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -3473,7 +3485,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -3493,7 +3505,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -3513,7 +3525,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
@@ -3533,7 +3545,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -3553,7 +3565,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
@@ -3573,7 +3585,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -3593,7 +3605,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -3613,7 +3625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -3633,7 +3645,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -3653,7 +3665,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -3673,7 +3685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
@@ -3693,7 +3705,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
@@ -3713,7 +3725,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3733,7 +3745,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3753,7 +3765,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>70</v>
       </c>
@@ -3773,7 +3785,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
@@ -3793,7 +3805,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
@@ -3813,7 +3825,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -3833,7 +3845,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -3853,7 +3865,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
@@ -3873,7 +3885,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>78</v>
       </c>
@@ -3893,7 +3905,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
@@ -3913,7 +3925,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>80</v>
       </c>
@@ -3933,7 +3945,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
@@ -3953,7 +3965,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -3973,7 +3985,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>86</v>
       </c>
@@ -3993,7 +4005,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>87</v>
       </c>
@@ -4013,7 +4025,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>88</v>
       </c>
@@ -4033,7 +4045,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>90</v>
       </c>
@@ -4053,7 +4065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>93</v>
       </c>
@@ -4073,7 +4085,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
@@ -4093,7 +4105,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>96</v>
       </c>
@@ -4113,7 +4125,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
@@ -4133,7 +4145,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
@@ -4153,7 +4165,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>101</v>
       </c>
@@ -4173,7 +4185,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
@@ -4193,7 +4205,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>104</v>
       </c>
@@ -4213,7 +4225,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
@@ -4233,7 +4245,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
@@ -4253,7 +4265,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
@@ -4273,7 +4285,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -4293,7 +4305,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
@@ -4313,7 +4325,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -4333,7 +4345,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -4353,7 +4365,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
@@ -4373,7 +4385,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
@@ -4393,7 +4405,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>199</v>
       </c>
@@ -4413,7 +4425,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>279</v>
       </c>
@@ -4433,7 +4445,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>117</v>
       </c>
@@ -4453,7 +4465,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -4473,7 +4485,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -4493,7 +4505,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>121</v>
       </c>
@@ -4513,7 +4525,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>122</v>
       </c>
@@ -4533,7 +4545,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>123</v>
       </c>
@@ -4553,7 +4565,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>357</v>
       </c>
@@ -4573,7 +4585,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
@@ -4593,7 +4605,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>125</v>
       </c>
@@ -4613,7 +4625,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>126</v>
       </c>
@@ -4633,7 +4645,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>127</v>
       </c>
@@ -4653,7 +4665,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>128</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>129</v>
       </c>
@@ -4693,7 +4705,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>130</v>
       </c>
@@ -4713,7 +4725,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>131</v>
       </c>
@@ -4733,7 +4745,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>132</v>
       </c>
@@ -4753,7 +4765,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>133</v>
       </c>
@@ -4773,7 +4785,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>134</v>
       </c>
@@ -4793,7 +4805,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>135</v>
       </c>
@@ -4813,7 +4825,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>136</v>
       </c>
@@ -4833,7 +4845,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>137</v>
       </c>
@@ -4853,7 +4865,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>138</v>
       </c>
@@ -4873,7 +4885,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>139</v>
       </c>
@@ -4893,7 +4905,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
@@ -4913,7 +4925,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>141</v>
       </c>
@@ -4933,7 +4945,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>142</v>
       </c>
@@ -4953,7 +4965,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>143</v>
       </c>
@@ -4973,7 +4985,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>144</v>
       </c>
@@ -4993,7 +5005,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>145</v>
       </c>
@@ -5013,7 +5025,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>146</v>
       </c>
@@ -5033,7 +5045,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>147</v>
       </c>
@@ -5053,7 +5065,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>148</v>
       </c>
@@ -5073,7 +5085,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>149</v>
       </c>
@@ -5093,7 +5105,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>150</v>
       </c>
@@ -5113,7 +5125,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>151</v>
       </c>
@@ -5133,7 +5145,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>152</v>
       </c>
@@ -5153,7 +5165,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>153</v>
       </c>
@@ -5173,7 +5185,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>154</v>
       </c>
@@ -5193,7 +5205,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>155</v>
       </c>
@@ -5213,7 +5225,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>156</v>
       </c>
@@ -5233,7 +5245,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>157</v>
       </c>
@@ -5253,7 +5265,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>158</v>
       </c>
@@ -5273,7 +5285,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>159</v>
       </c>
@@ -5293,7 +5305,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>160</v>
       </c>
@@ -5313,7 +5325,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>161</v>
       </c>
@@ -5333,7 +5345,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>162</v>
       </c>
@@ -5353,7 +5365,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>163</v>
       </c>
@@ -5373,7 +5385,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>164</v>
       </c>
@@ -5393,7 +5405,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>165</v>
       </c>
@@ -5413,7 +5425,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>166</v>
       </c>
@@ -5433,7 +5445,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>167</v>
       </c>
@@ -5453,7 +5465,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>168</v>
       </c>
@@ -5473,7 +5485,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>169</v>
       </c>
@@ -5493,7 +5505,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>170</v>
       </c>
@@ -5513,7 +5525,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>171</v>
       </c>
@@ -5533,7 +5545,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>172</v>
       </c>
@@ -5553,7 +5565,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -5573,7 +5585,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>174</v>
       </c>
@@ -5593,7 +5605,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>175</v>
       </c>
@@ -5613,7 +5625,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>176</v>
       </c>
@@ -5633,7 +5645,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>177</v>
       </c>
@@ -5653,7 +5665,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>178</v>
       </c>
@@ -5673,7 +5685,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>179</v>
       </c>
@@ -5693,7 +5705,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>180</v>
       </c>
@@ -5713,7 +5725,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>181</v>
       </c>
@@ -5733,7 +5745,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>182</v>
       </c>
@@ -5753,7 +5765,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>183</v>
       </c>
@@ -5773,7 +5785,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>184</v>
       </c>
@@ -5793,7 +5805,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>185</v>
       </c>
@@ -5813,7 +5825,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>186</v>
       </c>
@@ -5833,7 +5845,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
         <v>187</v>
       </c>
@@ -5853,7 +5865,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>188</v>
       </c>
@@ -5873,7 +5885,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>189</v>
       </c>
@@ -5893,7 +5905,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -5913,7 +5925,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>191</v>
       </c>
@@ -5933,7 +5945,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>192</v>
       </c>
@@ -5953,7 +5965,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>193</v>
       </c>
@@ -5973,7 +5985,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
         <v>194</v>
       </c>
@@ -5993,7 +6005,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>332</v>
       </c>
@@ -6013,7 +6025,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>195</v>
       </c>
@@ -6033,7 +6045,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>196</v>
       </c>
@@ -6053,7 +6065,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>201</v>
       </c>
@@ -6073,7 +6085,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>202</v>
       </c>
@@ -6094,7 +6106,7 @@
       </c>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>203</v>
       </c>
@@ -6115,7 +6127,7 @@
       </c>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>258</v>
       </c>
@@ -6135,7 +6147,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>259</v>
       </c>
@@ -6155,7 +6167,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>260</v>
       </c>
@@ -6175,7 +6187,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>280</v>
       </c>
@@ -6195,7 +6207,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>308</v>
       </c>
@@ -6215,7 +6227,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>309</v>
       </c>
@@ -6235,7 +6247,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>310</v>
       </c>
@@ -6255,7 +6267,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>311</v>
       </c>
@@ -6275,7 +6287,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>313</v>
       </c>
@@ -6295,7 +6307,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>314</v>
       </c>
@@ -6315,7 +6327,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>316</v>
       </c>
@@ -6335,7 +6347,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>317</v>
       </c>
@@ -6355,7 +6367,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6375,7 +6387,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>321</v>
       </c>
@@ -6395,7 +6407,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>513</v>
       </c>
@@ -6415,7 +6427,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>516</v>
       </c>
@@ -6435,7 +6447,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>517</v>
       </c>
@@ -6455,7 +6467,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>521</v>
       </c>
@@ -6475,7 +6487,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>524</v>
       </c>
@@ -6495,7 +6507,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>526</v>
       </c>
@@ -6515,7 +6527,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>528</v>
       </c>
@@ -6535,7 +6547,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>532</v>
       </c>
@@ -6555,7 +6567,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>530</v>
       </c>
@@ -6575,7 +6587,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>534</v>
       </c>
@@ -6595,7 +6607,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>536</v>
       </c>
@@ -6615,7 +6627,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>538</v>
       </c>
@@ -6635,7 +6647,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>540</v>
       </c>
@@ -6655,7 +6667,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>542</v>
       </c>
@@ -6675,7 +6687,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>544</v>
       </c>
@@ -6695,7 +6707,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>546</v>
       </c>
@@ -6715,7 +6727,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>548</v>
       </c>
@@ -6735,7 +6747,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>551</v>
       </c>
@@ -6755,7 +6767,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>553</v>
       </c>
@@ -6775,7 +6787,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>555</v>
       </c>
@@ -6795,7 +6807,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>557</v>
       </c>
@@ -6815,7 +6827,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>559</v>
       </c>
@@ -6835,7 +6847,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>561</v>
       </c>
@@ -6855,7 +6867,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>563</v>
       </c>
@@ -6875,7 +6887,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>565</v>
       </c>
@@ -6895,7 +6907,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>567</v>
       </c>
@@ -6915,7 +6927,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>569</v>
       </c>
@@ -6933,6 +6945,46 @@
       </c>
       <c r="F212" s="7" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D213" s="5">
+        <v>45007</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F213" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D214" s="5">
+        <v>45008</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F214" s="7" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -7149,8 +7201,10 @@
     <hyperlink ref="B210" r:id="rId209" location="/in-review/3521?reportId=159737&amp;fromPage=event-dashboard-url" xr:uid="{0637548E-7525-4CAD-ABC0-CDA63823CD9C}"/>
     <hyperlink ref="B211" r:id="rId210" location="/in-review/3521?reportId=159816&amp;fromPage=event-dashboard-url" xr:uid="{659E3904-5EA3-4B05-8E4D-76EE8700C0D3}"/>
     <hyperlink ref="B212" r:id="rId211" location="/in-review/4746?reportId=159853&amp;fromPage=event-dashboard-url" xr:uid="{FD85CBB1-08D3-4A4F-B507-AC8F2BDA4B62}"/>
+    <hyperlink ref="B213" r:id="rId212" location="/in-review/4746?reportId=160020&amp;fromPage=event-dashboard-url" xr:uid="{EB2B78AA-7D8F-4028-9CA7-A8AD59B47C5C}"/>
+    <hyperlink ref="B214" r:id="rId213" location="/in-review/3521?reportId=160046&amp;fromPage=event-dashboard-url" xr:uid="{E555D203-EAA4-428F-AD4F-D63D45B63589}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId212"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId214"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01C5E5EA-1A9A-4A5A-8532-D7130A8A48B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA8CB24-8DE1-4F37-8BA8-C529B0E095C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="579">
   <si>
     <t>source</t>
   </si>
@@ -1750,6 +1750,18 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/3521?reportId=160046&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_160163</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=160163&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_160199</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=160199&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2689,23 +2701,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.36328125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2725,7 +2737,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2765,7 +2777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2785,7 +2797,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -2805,7 +2817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2825,7 +2837,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2845,7 +2857,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2865,7 +2877,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2885,7 +2897,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2905,7 +2917,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2925,7 +2937,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2945,7 +2957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -2965,7 +2977,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2985,7 +2997,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -3005,7 +3017,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -3025,7 +3037,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -3045,7 +3057,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3065,7 +3077,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -3085,7 +3097,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -3105,7 +3117,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -3125,7 +3137,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -3145,7 +3157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -3165,7 +3177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -3185,7 +3197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -3205,7 +3217,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -3225,7 +3237,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -3245,7 +3257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -3265,7 +3277,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3285,7 +3297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -3305,7 +3317,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
@@ -3325,7 +3337,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
@@ -3345,7 +3357,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -3365,7 +3377,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -3385,7 +3397,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
@@ -3405,7 +3417,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
@@ -3425,7 +3437,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -3445,7 +3457,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -3465,7 +3477,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -3485,7 +3497,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -3505,7 +3517,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -3525,7 +3537,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
@@ -3545,7 +3557,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -3565,7 +3577,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
@@ -3585,7 +3597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -3605,7 +3617,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -3625,7 +3637,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -3645,7 +3657,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -3665,7 +3677,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -3685,7 +3697,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
@@ -3705,7 +3717,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
@@ -3725,7 +3737,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3745,7 +3757,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3765,7 +3777,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>70</v>
       </c>
@@ -3785,7 +3797,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
@@ -3805,7 +3817,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
@@ -3825,7 +3837,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -3845,7 +3857,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -3865,7 +3877,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
@@ -3885,7 +3897,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>78</v>
       </c>
@@ -3905,7 +3917,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
@@ -3925,7 +3937,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>80</v>
       </c>
@@ -3945,7 +3957,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
@@ -3965,7 +3977,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -3985,7 +3997,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>86</v>
       </c>
@@ -4005,7 +4017,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>87</v>
       </c>
@@ -4025,7 +4037,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>88</v>
       </c>
@@ -4045,7 +4057,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>90</v>
       </c>
@@ -4065,7 +4077,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>93</v>
       </c>
@@ -4085,7 +4097,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
@@ -4105,7 +4117,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>96</v>
       </c>
@@ -4125,7 +4137,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
@@ -4145,7 +4157,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
@@ -4165,7 +4177,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>101</v>
       </c>
@@ -4185,7 +4197,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
@@ -4205,7 +4217,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>104</v>
       </c>
@@ -4225,7 +4237,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
@@ -4245,7 +4257,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
@@ -4265,7 +4277,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
@@ -4285,7 +4297,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -4305,7 +4317,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
@@ -4325,7 +4337,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -4345,7 +4357,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -4365,7 +4377,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
@@ -4385,7 +4397,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
@@ -4405,7 +4417,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>199</v>
       </c>
@@ -4425,7 +4437,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>279</v>
       </c>
@@ -4445,7 +4457,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>117</v>
       </c>
@@ -4465,7 +4477,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -4485,7 +4497,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -4505,7 +4517,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>121</v>
       </c>
@@ -4525,7 +4537,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>122</v>
       </c>
@@ -4545,7 +4557,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>123</v>
       </c>
@@ -4565,7 +4577,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>357</v>
       </c>
@@ -4585,7 +4597,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
@@ -4605,7 +4617,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>125</v>
       </c>
@@ -4625,7 +4637,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>126</v>
       </c>
@@ -4645,7 +4657,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>127</v>
       </c>
@@ -4665,7 +4677,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>128</v>
       </c>
@@ -4685,7 +4697,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>129</v>
       </c>
@@ -4705,7 +4717,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>130</v>
       </c>
@@ -4725,7 +4737,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>131</v>
       </c>
@@ -4745,7 +4757,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>132</v>
       </c>
@@ -4765,7 +4777,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>133</v>
       </c>
@@ -4785,7 +4797,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>134</v>
       </c>
@@ -4805,7 +4817,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>135</v>
       </c>
@@ -4825,7 +4837,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>136</v>
       </c>
@@ -4845,7 +4857,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>137</v>
       </c>
@@ -4865,7 +4877,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>138</v>
       </c>
@@ -4885,7 +4897,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>139</v>
       </c>
@@ -4905,7 +4917,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
@@ -4925,7 +4937,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>141</v>
       </c>
@@ -4945,7 +4957,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>142</v>
       </c>
@@ -4965,7 +4977,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>143</v>
       </c>
@@ -4985,7 +4997,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>144</v>
       </c>
@@ -5005,7 +5017,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>145</v>
       </c>
@@ -5025,7 +5037,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>146</v>
       </c>
@@ -5045,7 +5057,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>147</v>
       </c>
@@ -5065,7 +5077,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>148</v>
       </c>
@@ -5085,7 +5097,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>149</v>
       </c>
@@ -5105,7 +5117,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>150</v>
       </c>
@@ -5125,7 +5137,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>151</v>
       </c>
@@ -5145,7 +5157,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>152</v>
       </c>
@@ -5165,7 +5177,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>153</v>
       </c>
@@ -5185,7 +5197,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>154</v>
       </c>
@@ -5205,7 +5217,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>155</v>
       </c>
@@ -5225,7 +5237,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>156</v>
       </c>
@@ -5245,7 +5257,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>157</v>
       </c>
@@ -5265,7 +5277,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>158</v>
       </c>
@@ -5285,7 +5297,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>159</v>
       </c>
@@ -5305,7 +5317,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>160</v>
       </c>
@@ -5325,7 +5337,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>161</v>
       </c>
@@ -5345,7 +5357,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>162</v>
       </c>
@@ -5365,7 +5377,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>163</v>
       </c>
@@ -5385,7 +5397,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>164</v>
       </c>
@@ -5405,7 +5417,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>165</v>
       </c>
@@ -5425,7 +5437,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>166</v>
       </c>
@@ -5445,7 +5457,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>167</v>
       </c>
@@ -5465,7 +5477,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>168</v>
       </c>
@@ -5485,7 +5497,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>169</v>
       </c>
@@ -5505,7 +5517,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>170</v>
       </c>
@@ -5525,7 +5537,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>171</v>
       </c>
@@ -5545,7 +5557,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>172</v>
       </c>
@@ -5565,7 +5577,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -5585,7 +5597,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>174</v>
       </c>
@@ -5605,7 +5617,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>175</v>
       </c>
@@ -5625,7 +5637,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>176</v>
       </c>
@@ -5645,7 +5657,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>177</v>
       </c>
@@ -5665,7 +5677,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>178</v>
       </c>
@@ -5685,7 +5697,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>179</v>
       </c>
@@ -5705,7 +5717,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>180</v>
       </c>
@@ -5725,7 +5737,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>181</v>
       </c>
@@ -5745,7 +5757,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>182</v>
       </c>
@@ -5765,7 +5777,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>183</v>
       </c>
@@ -5785,7 +5797,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>184</v>
       </c>
@@ -5805,7 +5817,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>185</v>
       </c>
@@ -5825,7 +5837,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>186</v>
       </c>
@@ -5845,7 +5857,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>187</v>
       </c>
@@ -5865,7 +5877,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>188</v>
       </c>
@@ -5885,7 +5897,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>189</v>
       </c>
@@ -5905,7 +5917,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -5925,7 +5937,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>191</v>
       </c>
@@ -5945,7 +5957,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>192</v>
       </c>
@@ -5965,7 +5977,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>193</v>
       </c>
@@ -5985,7 +5997,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>194</v>
       </c>
@@ -6005,7 +6017,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>332</v>
       </c>
@@ -6025,7 +6037,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>195</v>
       </c>
@@ -6045,7 +6057,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>196</v>
       </c>
@@ -6065,7 +6077,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>201</v>
       </c>
@@ -6085,7 +6097,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>202</v>
       </c>
@@ -6106,7 +6118,7 @@
       </c>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>203</v>
       </c>
@@ -6127,7 +6139,7 @@
       </c>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>258</v>
       </c>
@@ -6147,7 +6159,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>259</v>
       </c>
@@ -6167,7 +6179,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>260</v>
       </c>
@@ -6187,7 +6199,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>280</v>
       </c>
@@ -6207,7 +6219,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>308</v>
       </c>
@@ -6227,7 +6239,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>309</v>
       </c>
@@ -6247,7 +6259,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>310</v>
       </c>
@@ -6267,7 +6279,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>311</v>
       </c>
@@ -6287,7 +6299,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>313</v>
       </c>
@@ -6307,7 +6319,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>314</v>
       </c>
@@ -6327,7 +6339,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>316</v>
       </c>
@@ -6347,7 +6359,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>317</v>
       </c>
@@ -6367,7 +6379,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6387,7 +6399,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>321</v>
       </c>
@@ -6407,7 +6419,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>513</v>
       </c>
@@ -6427,7 +6439,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>516</v>
       </c>
@@ -6447,7 +6459,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>517</v>
       </c>
@@ -6467,7 +6479,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>521</v>
       </c>
@@ -6487,7 +6499,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>524</v>
       </c>
@@ -6507,7 +6519,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>526</v>
       </c>
@@ -6527,7 +6539,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>528</v>
       </c>
@@ -6547,7 +6559,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>532</v>
       </c>
@@ -6567,7 +6579,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>530</v>
       </c>
@@ -6587,7 +6599,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>534</v>
       </c>
@@ -6607,7 +6619,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>536</v>
       </c>
@@ -6627,7 +6639,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>538</v>
       </c>
@@ -6647,7 +6659,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>540</v>
       </c>
@@ -6667,7 +6679,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>542</v>
       </c>
@@ -6687,7 +6699,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>544</v>
       </c>
@@ -6707,7 +6719,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>546</v>
       </c>
@@ -6727,7 +6739,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>548</v>
       </c>
@@ -6747,7 +6759,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>551</v>
       </c>
@@ -6767,7 +6779,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>553</v>
       </c>
@@ -6787,7 +6799,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>555</v>
       </c>
@@ -6807,7 +6819,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>557</v>
       </c>
@@ -6827,7 +6839,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>559</v>
       </c>
@@ -6847,7 +6859,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>561</v>
       </c>
@@ -6867,7 +6879,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>563</v>
       </c>
@@ -6887,7 +6899,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>565</v>
       </c>
@@ -6907,7 +6919,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>567</v>
       </c>
@@ -6927,7 +6939,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>569</v>
       </c>
@@ -6947,7 +6959,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>571</v>
       </c>
@@ -6967,7 +6979,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>573</v>
       </c>
@@ -6984,6 +6996,46 @@
         <v>118</v>
       </c>
       <c r="F214" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D215" s="5">
+        <v>45014</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D216" s="5">
+        <v>45015</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F216" s="7" t="s">
         <v>515</v>
       </c>
     </row>
@@ -7203,8 +7255,10 @@
     <hyperlink ref="B212" r:id="rId211" location="/in-review/4746?reportId=159853&amp;fromPage=event-dashboard-url" xr:uid="{FD85CBB1-08D3-4A4F-B507-AC8F2BDA4B62}"/>
     <hyperlink ref="B213" r:id="rId212" location="/in-review/4746?reportId=160020&amp;fromPage=event-dashboard-url" xr:uid="{EB2B78AA-7D8F-4028-9CA7-A8AD59B47C5C}"/>
     <hyperlink ref="B214" r:id="rId213" location="/in-review/3521?reportId=160046&amp;fromPage=event-dashboard-url" xr:uid="{E555D203-EAA4-428F-AD4F-D63D45B63589}"/>
+    <hyperlink ref="B215" r:id="rId214" location="/in-review/4746?reportId=160163&amp;fromPage=event-dashboard-url" xr:uid="{6D35EDCE-2417-4B6D-A114-86DC3317EABE}"/>
+    <hyperlink ref="B216" r:id="rId215" location="/in-review/3521?reportId=160199&amp;fromPage=event-dashboard-url" xr:uid="{574686EA-DBE9-4D89-B1B4-7683D0DE9636}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId214"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId216"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA8CB24-8DE1-4F37-8BA8-C529B0E095C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A20BE01-E5FF-463E-82B2-573C23832D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="581">
   <si>
     <t>source</t>
   </si>
@@ -1762,6 +1762,12 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/3521?reportId=160199&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_160321</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=160321&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2701,23 +2707,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2737,7 +2743,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2757,7 +2763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2777,7 +2783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2797,7 +2803,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -2817,7 +2823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2837,7 +2843,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2877,7 +2883,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2897,7 +2903,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2937,7 +2943,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2997,7 +3003,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -3057,7 +3063,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3077,7 +3083,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -3117,7 +3123,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -3137,7 +3143,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -3157,7 +3163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -3177,7 +3183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -3217,7 +3223,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -3237,7 +3243,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -3317,7 +3323,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
@@ -3337,7 +3343,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
@@ -3357,7 +3363,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -3377,7 +3383,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -3397,7 +3403,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
@@ -3417,7 +3423,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -3477,7 +3483,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -3497,7 +3503,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -3517,7 +3523,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -3537,7 +3543,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
@@ -3557,7 +3563,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -3577,7 +3583,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
@@ -3597,7 +3603,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -3637,7 +3643,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -3657,7 +3663,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -3677,7 +3683,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -3697,7 +3703,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
@@ -3717,7 +3723,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
@@ -3737,7 +3743,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3757,7 +3763,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3777,7 +3783,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>70</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
@@ -3817,7 +3823,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
@@ -3837,7 +3843,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -3857,7 +3863,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -3877,7 +3883,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>78</v>
       </c>
@@ -3917,7 +3923,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
@@ -3937,7 +3943,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>80</v>
       </c>
@@ -3957,7 +3963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
@@ -3977,7 +3983,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -3997,7 +4003,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>86</v>
       </c>
@@ -4017,7 +4023,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>87</v>
       </c>
@@ -4037,7 +4043,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>88</v>
       </c>
@@ -4057,7 +4063,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>90</v>
       </c>
@@ -4077,7 +4083,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>93</v>
       </c>
@@ -4097,7 +4103,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
@@ -4117,7 +4123,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>96</v>
       </c>
@@ -4137,7 +4143,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
@@ -4157,7 +4163,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
@@ -4177,7 +4183,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>101</v>
       </c>
@@ -4197,7 +4203,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
@@ -4217,7 +4223,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>104</v>
       </c>
@@ -4237,7 +4243,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
@@ -4257,7 +4263,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
@@ -4277,7 +4283,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
@@ -4297,7 +4303,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -4317,7 +4323,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
@@ -4337,7 +4343,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -4357,7 +4363,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -4377,7 +4383,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
@@ -4397,7 +4403,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
@@ -4417,7 +4423,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>199</v>
       </c>
@@ -4437,7 +4443,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>279</v>
       </c>
@@ -4457,7 +4463,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>117</v>
       </c>
@@ -4477,7 +4483,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -4497,7 +4503,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -4517,7 +4523,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>121</v>
       </c>
@@ -4537,7 +4543,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>122</v>
       </c>
@@ -4557,7 +4563,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>123</v>
       </c>
@@ -4577,7 +4583,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>357</v>
       </c>
@@ -4597,7 +4603,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
@@ -4617,7 +4623,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>125</v>
       </c>
@@ -4637,7 +4643,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>126</v>
       </c>
@@ -4657,7 +4663,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>127</v>
       </c>
@@ -4677,7 +4683,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>128</v>
       </c>
@@ -4697,7 +4703,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>129</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>130</v>
       </c>
@@ -4737,7 +4743,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>131</v>
       </c>
@@ -4757,7 +4763,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>132</v>
       </c>
@@ -4777,7 +4783,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>133</v>
       </c>
@@ -4797,7 +4803,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>134</v>
       </c>
@@ -4817,7 +4823,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>135</v>
       </c>
@@ -4837,7 +4843,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>136</v>
       </c>
@@ -4857,7 +4863,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>137</v>
       </c>
@@ -4877,7 +4883,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>138</v>
       </c>
@@ -4897,7 +4903,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>139</v>
       </c>
@@ -4917,7 +4923,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
@@ -4937,7 +4943,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>141</v>
       </c>
@@ -4957,7 +4963,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>142</v>
       </c>
@@ -4977,7 +4983,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>143</v>
       </c>
@@ -4997,7 +5003,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>144</v>
       </c>
@@ -5017,7 +5023,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>145</v>
       </c>
@@ -5037,7 +5043,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>146</v>
       </c>
@@ -5057,7 +5063,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>147</v>
       </c>
@@ -5077,7 +5083,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>148</v>
       </c>
@@ -5097,7 +5103,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>149</v>
       </c>
@@ -5117,7 +5123,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>150</v>
       </c>
@@ -5137,7 +5143,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>151</v>
       </c>
@@ -5157,7 +5163,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>152</v>
       </c>
@@ -5177,7 +5183,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>153</v>
       </c>
@@ -5197,7 +5203,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>154</v>
       </c>
@@ -5217,7 +5223,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>155</v>
       </c>
@@ -5237,7 +5243,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>156</v>
       </c>
@@ -5257,7 +5263,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>157</v>
       </c>
@@ -5277,7 +5283,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>158</v>
       </c>
@@ -5297,7 +5303,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>159</v>
       </c>
@@ -5317,7 +5323,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>160</v>
       </c>
@@ -5337,7 +5343,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>161</v>
       </c>
@@ -5357,7 +5363,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>162</v>
       </c>
@@ -5377,7 +5383,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>163</v>
       </c>
@@ -5397,7 +5403,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>164</v>
       </c>
@@ -5417,7 +5423,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>165</v>
       </c>
@@ -5437,7 +5443,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>166</v>
       </c>
@@ -5457,7 +5463,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>167</v>
       </c>
@@ -5477,7 +5483,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>168</v>
       </c>
@@ -5497,7 +5503,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>169</v>
       </c>
@@ -5517,7 +5523,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>170</v>
       </c>
@@ -5537,7 +5543,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>171</v>
       </c>
@@ -5557,7 +5563,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>172</v>
       </c>
@@ -5577,7 +5583,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -5597,7 +5603,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>174</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>175</v>
       </c>
@@ -5637,7 +5643,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>176</v>
       </c>
@@ -5657,7 +5663,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>177</v>
       </c>
@@ -5677,7 +5683,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>178</v>
       </c>
@@ -5697,7 +5703,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>179</v>
       </c>
@@ -5717,7 +5723,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>180</v>
       </c>
@@ -5737,7 +5743,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>181</v>
       </c>
@@ -5757,7 +5763,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>182</v>
       </c>
@@ -5777,7 +5783,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>183</v>
       </c>
@@ -5797,7 +5803,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>184</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>185</v>
       </c>
@@ -5837,7 +5843,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>186</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
         <v>187</v>
       </c>
@@ -5877,7 +5883,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>188</v>
       </c>
@@ -5897,7 +5903,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>189</v>
       </c>
@@ -5917,7 +5923,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -5937,7 +5943,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>191</v>
       </c>
@@ -5957,7 +5963,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>192</v>
       </c>
@@ -5977,7 +5983,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>193</v>
       </c>
@@ -5997,7 +6003,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
         <v>194</v>
       </c>
@@ -6017,7 +6023,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>332</v>
       </c>
@@ -6037,7 +6043,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>195</v>
       </c>
@@ -6057,7 +6063,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>196</v>
       </c>
@@ -6077,7 +6083,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>201</v>
       </c>
@@ -6097,7 +6103,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>202</v>
       </c>
@@ -6118,7 +6124,7 @@
       </c>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>203</v>
       </c>
@@ -6139,7 +6145,7 @@
       </c>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>258</v>
       </c>
@@ -6159,7 +6165,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>259</v>
       </c>
@@ -6179,7 +6185,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>260</v>
       </c>
@@ -6199,7 +6205,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>280</v>
       </c>
@@ -6219,7 +6225,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>308</v>
       </c>
@@ -6239,7 +6245,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>309</v>
       </c>
@@ -6259,7 +6265,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>310</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>311</v>
       </c>
@@ -6299,7 +6305,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>313</v>
       </c>
@@ -6319,7 +6325,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>314</v>
       </c>
@@ -6339,7 +6345,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>316</v>
       </c>
@@ -6359,7 +6365,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>317</v>
       </c>
@@ -6379,7 +6385,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6399,7 +6405,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>321</v>
       </c>
@@ -6419,7 +6425,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>513</v>
       </c>
@@ -6439,7 +6445,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>516</v>
       </c>
@@ -6459,7 +6465,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>517</v>
       </c>
@@ -6479,7 +6485,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>521</v>
       </c>
@@ -6499,7 +6505,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>524</v>
       </c>
@@ -6519,7 +6525,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>526</v>
       </c>
@@ -6539,7 +6545,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>528</v>
       </c>
@@ -6559,7 +6565,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>532</v>
       </c>
@@ -6579,7 +6585,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>530</v>
       </c>
@@ -6599,7 +6605,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>534</v>
       </c>
@@ -6619,7 +6625,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>536</v>
       </c>
@@ -6639,7 +6645,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>538</v>
       </c>
@@ -6659,7 +6665,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>540</v>
       </c>
@@ -6679,7 +6685,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>542</v>
       </c>
@@ -6699,7 +6705,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>544</v>
       </c>
@@ -6719,7 +6725,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>546</v>
       </c>
@@ -6739,7 +6745,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>548</v>
       </c>
@@ -6759,7 +6765,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>551</v>
       </c>
@@ -6779,7 +6785,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>553</v>
       </c>
@@ -6799,7 +6805,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>555</v>
       </c>
@@ -6819,7 +6825,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>557</v>
       </c>
@@ -6839,7 +6845,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>559</v>
       </c>
@@ -6859,7 +6865,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>561</v>
       </c>
@@ -6879,7 +6885,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>563</v>
       </c>
@@ -6899,7 +6905,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>565</v>
       </c>
@@ -6919,7 +6925,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>567</v>
       </c>
@@ -6939,7 +6945,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>569</v>
       </c>
@@ -6959,7 +6965,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>571</v>
       </c>
@@ -6979,7 +6985,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>573</v>
       </c>
@@ -6999,7 +7005,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>575</v>
       </c>
@@ -7019,7 +7025,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>577</v>
       </c>
@@ -7037,6 +7043,26 @@
       </c>
       <c r="F216" s="7" t="s">
         <v>515</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D217" s="5">
+        <v>45021</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F217" s="7" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -7257,8 +7283,9 @@
     <hyperlink ref="B214" r:id="rId213" location="/in-review/3521?reportId=160046&amp;fromPage=event-dashboard-url" xr:uid="{E555D203-EAA4-428F-AD4F-D63D45B63589}"/>
     <hyperlink ref="B215" r:id="rId214" location="/in-review/4746?reportId=160163&amp;fromPage=event-dashboard-url" xr:uid="{6D35EDCE-2417-4B6D-A114-86DC3317EABE}"/>
     <hyperlink ref="B216" r:id="rId215" location="/in-review/3521?reportId=160199&amp;fromPage=event-dashboard-url" xr:uid="{574686EA-DBE9-4D89-B1B4-7683D0DE9636}"/>
+    <hyperlink ref="B217" r:id="rId216" location="/in-review/4746?reportId=160321&amp;fromPage=event-dashboard-url" xr:uid="{F1C83CB8-A857-445C-9947-3D4F3B5BB88B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId216"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId217"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A20BE01-E5FF-463E-82B2-573C23832D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42BC729-1435-40E5-9319-C0FE22297AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="583">
   <si>
     <t>source</t>
   </si>
@@ -1768,6 +1768,12 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/4746?reportId=160321&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_160444</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=160444&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2707,10 +2713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G217"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+      <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7063,6 +7069,26 @@
       </c>
       <c r="F217" s="7" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D218" s="5">
+        <v>45030</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F218" s="7" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -7284,8 +7310,9 @@
     <hyperlink ref="B215" r:id="rId214" location="/in-review/4746?reportId=160163&amp;fromPage=event-dashboard-url" xr:uid="{6D35EDCE-2417-4B6D-A114-86DC3317EABE}"/>
     <hyperlink ref="B216" r:id="rId215" location="/in-review/3521?reportId=160199&amp;fromPage=event-dashboard-url" xr:uid="{574686EA-DBE9-4D89-B1B4-7683D0DE9636}"/>
     <hyperlink ref="B217" r:id="rId216" location="/in-review/4746?reportId=160321&amp;fromPage=event-dashboard-url" xr:uid="{F1C83CB8-A857-445C-9947-3D4F3B5BB88B}"/>
+    <hyperlink ref="B218" r:id="rId217" location="/in-review/3521?reportId=160444&amp;fromPage=event-dashboard-url" xr:uid="{AC7EDE21-9CED-4F4D-9436-F661EF6B35D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId217"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId218"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42BC729-1435-40E5-9319-C0FE22297AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B8CE842-577A-44EB-99FE-99BE4BE78B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="585">
   <si>
     <t>source</t>
   </si>
@@ -1774,6 +1774,12 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/3521?reportId=160444&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_160518</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=160518&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2713,23 +2719,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218"/>
+      <selection activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.36328125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2769,7 +2775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2809,7 +2815,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -2829,7 +2835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2849,7 +2855,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2869,7 +2875,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2909,7 +2915,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2969,7 +2975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -2989,7 +2995,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -3009,7 +3015,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -3049,7 +3055,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3089,7 +3095,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -3109,7 +3115,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -3129,7 +3135,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -3149,7 +3155,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -3189,7 +3195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -3229,7 +3235,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -3249,7 +3255,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -3269,7 +3275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3309,7 +3315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
@@ -3349,7 +3355,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
@@ -3369,7 +3375,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -3389,7 +3395,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -3409,7 +3415,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
@@ -3449,7 +3455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -3469,7 +3475,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -3489,7 +3495,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -3509,7 +3515,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -3529,7 +3535,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -3549,7 +3555,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
@@ -3569,7 +3575,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -3589,7 +3595,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
@@ -3609,7 +3615,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -3629,7 +3635,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -3669,7 +3675,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -3689,7 +3695,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -3709,7 +3715,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
@@ -3729,7 +3735,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
@@ -3749,7 +3755,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3789,7 +3795,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>70</v>
       </c>
@@ -3809,7 +3815,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
@@ -3829,7 +3835,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
@@ -3849,7 +3855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -3869,7 +3875,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -3889,7 +3895,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
@@ -3909,7 +3915,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>78</v>
       </c>
@@ -3929,7 +3935,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
@@ -3949,7 +3955,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>80</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
@@ -3989,7 +3995,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -4009,7 +4015,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>86</v>
       </c>
@@ -4029,7 +4035,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>87</v>
       </c>
@@ -4049,7 +4055,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>88</v>
       </c>
@@ -4069,7 +4075,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>90</v>
       </c>
@@ -4089,7 +4095,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>93</v>
       </c>
@@ -4109,7 +4115,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
@@ -4129,7 +4135,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>96</v>
       </c>
@@ -4149,7 +4155,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
@@ -4169,7 +4175,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
@@ -4189,7 +4195,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>101</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
@@ -4229,7 +4235,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>104</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
@@ -4269,7 +4275,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
@@ -4289,7 +4295,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
@@ -4309,7 +4315,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -4329,7 +4335,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
@@ -4349,7 +4355,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -4369,7 +4375,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -4389,7 +4395,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
@@ -4409,7 +4415,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
@@ -4429,7 +4435,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>199</v>
       </c>
@@ -4449,7 +4455,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>279</v>
       </c>
@@ -4469,7 +4475,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>117</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -4509,7 +4515,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -4529,7 +4535,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>121</v>
       </c>
@@ -4549,7 +4555,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>122</v>
       </c>
@@ -4569,7 +4575,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>123</v>
       </c>
@@ -4589,7 +4595,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>357</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
@@ -4629,7 +4635,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>125</v>
       </c>
@@ -4649,7 +4655,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>126</v>
       </c>
@@ -4669,7 +4675,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>127</v>
       </c>
@@ -4689,7 +4695,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>128</v>
       </c>
@@ -4709,7 +4715,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>129</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>130</v>
       </c>
@@ -4749,7 +4755,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>131</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>132</v>
       </c>
@@ -4789,7 +4795,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>133</v>
       </c>
@@ -4809,7 +4815,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>134</v>
       </c>
@@ -4829,7 +4835,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>135</v>
       </c>
@@ -4849,7 +4855,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>136</v>
       </c>
@@ -4869,7 +4875,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>137</v>
       </c>
@@ -4889,7 +4895,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>138</v>
       </c>
@@ -4909,7 +4915,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>139</v>
       </c>
@@ -4929,7 +4935,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>141</v>
       </c>
@@ -4969,7 +4975,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>142</v>
       </c>
@@ -4989,7 +4995,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>143</v>
       </c>
@@ -5009,7 +5015,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>144</v>
       </c>
@@ -5029,7 +5035,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>145</v>
       </c>
@@ -5049,7 +5055,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>146</v>
       </c>
@@ -5069,7 +5075,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>147</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>148</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>149</v>
       </c>
@@ -5129,7 +5135,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>150</v>
       </c>
@@ -5149,7 +5155,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>151</v>
       </c>
@@ -5169,7 +5175,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>152</v>
       </c>
@@ -5189,7 +5195,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>153</v>
       </c>
@@ -5209,7 +5215,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>154</v>
       </c>
@@ -5229,7 +5235,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>155</v>
       </c>
@@ -5249,7 +5255,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>156</v>
       </c>
@@ -5269,7 +5275,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>157</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>158</v>
       </c>
@@ -5309,7 +5315,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>159</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>160</v>
       </c>
@@ -5349,7 +5355,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>161</v>
       </c>
@@ -5369,7 +5375,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>162</v>
       </c>
@@ -5389,7 +5395,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>163</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>164</v>
       </c>
@@ -5429,7 +5435,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>165</v>
       </c>
@@ -5449,7 +5455,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>166</v>
       </c>
@@ -5469,7 +5475,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>167</v>
       </c>
@@ -5489,7 +5495,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>168</v>
       </c>
@@ -5509,7 +5515,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>169</v>
       </c>
@@ -5529,7 +5535,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>170</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>171</v>
       </c>
@@ -5569,7 +5575,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>172</v>
       </c>
@@ -5589,7 +5595,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -5609,7 +5615,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>174</v>
       </c>
@@ -5629,7 +5635,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>175</v>
       </c>
@@ -5649,7 +5655,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>176</v>
       </c>
@@ -5669,7 +5675,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>177</v>
       </c>
@@ -5689,7 +5695,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>178</v>
       </c>
@@ -5709,7 +5715,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>179</v>
       </c>
@@ -5729,7 +5735,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>180</v>
       </c>
@@ -5749,7 +5755,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>181</v>
       </c>
@@ -5769,7 +5775,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>182</v>
       </c>
@@ -5789,7 +5795,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>183</v>
       </c>
@@ -5809,7 +5815,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>184</v>
       </c>
@@ -5829,7 +5835,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>185</v>
       </c>
@@ -5849,7 +5855,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>186</v>
       </c>
@@ -5869,7 +5875,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>187</v>
       </c>
@@ -5889,7 +5895,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>188</v>
       </c>
@@ -5909,7 +5915,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>189</v>
       </c>
@@ -5929,7 +5935,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -5949,7 +5955,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>191</v>
       </c>
@@ -5969,7 +5975,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>192</v>
       </c>
@@ -5989,7 +5995,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>193</v>
       </c>
@@ -6009,7 +6015,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>194</v>
       </c>
@@ -6029,7 +6035,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>332</v>
       </c>
@@ -6049,7 +6055,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>195</v>
       </c>
@@ -6069,7 +6075,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>196</v>
       </c>
@@ -6089,7 +6095,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>201</v>
       </c>
@@ -6109,7 +6115,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>202</v>
       </c>
@@ -6130,7 +6136,7 @@
       </c>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>203</v>
       </c>
@@ -6151,7 +6157,7 @@
       </c>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>258</v>
       </c>
@@ -6171,7 +6177,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>259</v>
       </c>
@@ -6191,7 +6197,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>260</v>
       </c>
@@ -6211,7 +6217,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>280</v>
       </c>
@@ -6231,7 +6237,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>308</v>
       </c>
@@ -6251,7 +6257,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>309</v>
       </c>
@@ -6271,7 +6277,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>310</v>
       </c>
@@ -6291,7 +6297,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>311</v>
       </c>
@@ -6311,7 +6317,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>313</v>
       </c>
@@ -6331,7 +6337,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>314</v>
       </c>
@@ -6351,7 +6357,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>316</v>
       </c>
@@ -6371,7 +6377,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>317</v>
       </c>
@@ -6391,7 +6397,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6411,7 +6417,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>321</v>
       </c>
@@ -6431,7 +6437,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>513</v>
       </c>
@@ -6451,7 +6457,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>516</v>
       </c>
@@ -6471,7 +6477,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>517</v>
       </c>
@@ -6491,7 +6497,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>521</v>
       </c>
@@ -6511,7 +6517,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>524</v>
       </c>
@@ -6531,7 +6537,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>526</v>
       </c>
@@ -6551,7 +6557,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>528</v>
       </c>
@@ -6571,7 +6577,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>532</v>
       </c>
@@ -6591,7 +6597,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>530</v>
       </c>
@@ -6611,7 +6617,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>534</v>
       </c>
@@ -6631,7 +6637,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>536</v>
       </c>
@@ -6651,7 +6657,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>538</v>
       </c>
@@ -6671,7 +6677,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>540</v>
       </c>
@@ -6691,7 +6697,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>542</v>
       </c>
@@ -6711,7 +6717,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>544</v>
       </c>
@@ -6731,7 +6737,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>546</v>
       </c>
@@ -6751,7 +6757,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>548</v>
       </c>
@@ -6771,7 +6777,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>551</v>
       </c>
@@ -6791,7 +6797,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>553</v>
       </c>
@@ -6811,7 +6817,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>555</v>
       </c>
@@ -6831,7 +6837,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>557</v>
       </c>
@@ -6851,7 +6857,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>559</v>
       </c>
@@ -6871,7 +6877,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>561</v>
       </c>
@@ -6891,7 +6897,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>563</v>
       </c>
@@ -6911,7 +6917,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>565</v>
       </c>
@@ -6931,7 +6937,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>567</v>
       </c>
@@ -6951,7 +6957,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>569</v>
       </c>
@@ -6971,7 +6977,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>571</v>
       </c>
@@ -6991,7 +6997,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>573</v>
       </c>
@@ -7011,7 +7017,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>575</v>
       </c>
@@ -7031,7 +7037,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>577</v>
       </c>
@@ -7051,7 +7057,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>579</v>
       </c>
@@ -7071,7 +7077,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>581</v>
       </c>
@@ -7089,6 +7095,26 @@
       </c>
       <c r="F218" s="7" t="s">
         <v>515</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D219" s="5">
+        <v>45035</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F219" s="7" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -7311,8 +7337,9 @@
     <hyperlink ref="B216" r:id="rId215" location="/in-review/3521?reportId=160199&amp;fromPage=event-dashboard-url" xr:uid="{574686EA-DBE9-4D89-B1B4-7683D0DE9636}"/>
     <hyperlink ref="B217" r:id="rId216" location="/in-review/4746?reportId=160321&amp;fromPage=event-dashboard-url" xr:uid="{F1C83CB8-A857-445C-9947-3D4F3B5BB88B}"/>
     <hyperlink ref="B218" r:id="rId217" location="/in-review/3521?reportId=160444&amp;fromPage=event-dashboard-url" xr:uid="{AC7EDE21-9CED-4F4D-9436-F661EF6B35D2}"/>
+    <hyperlink ref="B219" r:id="rId218" location="/in-review/4746?reportId=160518&amp;fromPage=event-dashboard-url" xr:uid="{3438BE94-13DE-4AE8-8AB5-C4951F3C09A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId218"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId219"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B8CE842-577A-44EB-99FE-99BE4BE78B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97287AC5-00B9-4588-8BDF-0E233AFFC712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="588">
   <si>
     <t>source</t>
   </si>
@@ -1780,6 +1780,15 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/4746?reportId=160518&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_160615</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3521?reportId=160615&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>final report from Switzerland that the event is reaolved</t>
   </si>
 </sst>
 </file>
@@ -2719,10 +2728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G219"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,6 +7124,26 @@
       </c>
       <c r="F219" s="7" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D220" s="5">
+        <v>45041</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -7338,8 +7367,9 @@
     <hyperlink ref="B217" r:id="rId216" location="/in-review/4746?reportId=160321&amp;fromPage=event-dashboard-url" xr:uid="{F1C83CB8-A857-445C-9947-3D4F3B5BB88B}"/>
     <hyperlink ref="B218" r:id="rId217" location="/in-review/3521?reportId=160444&amp;fromPage=event-dashboard-url" xr:uid="{AC7EDE21-9CED-4F4D-9436-F661EF6B35D2}"/>
     <hyperlink ref="B219" r:id="rId218" location="/in-review/4746?reportId=160518&amp;fromPage=event-dashboard-url" xr:uid="{3438BE94-13DE-4AE8-8AB5-C4951F3C09A1}"/>
+    <hyperlink ref="B220" r:id="rId219" location="/in-review/3521?reportId=160615&amp;fromPage=event-dashboard-url" xr:uid="{A0154469-4EDE-4EC3-9A10-2EA2EFE2B6DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId219"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId220"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97287AC5-00B9-4588-8BDF-0E233AFFC712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A06835-EAE3-4AF6-B31E-4760798B41B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2375,15 +2375,15 @@
     <cellStyle name="40% - Accent5" xfId="32" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="35" builtinId="51" customBuiltin="1"/>
     <cellStyle name="60% - Accent1" xfId="44" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="60% - Accent2" xfId="45" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="60% - Accent3" xfId="46" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="60% - Accent4" xfId="47" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="60% - Accent5" xfId="48" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="60% - Accent6" xfId="49" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - Accent6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
@@ -2405,7 +2405,7 @@
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="43" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Neutral 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -7158,216 +7158,216 @@
     <hyperlink ref="B103" r:id="rId7" location="/in-review/3613?reportId=149442&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="B106" r:id="rId8" location="/in-review/3613?reportId=149648&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
     <hyperlink ref="B166" r:id="rId9" location="/in-review/3613?reportId=154092&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B125" r:id="rId10" location="/in-review/3420?reportId=151000&amp;fromPage=event-dashboard-url" xr:uid="{94318574-0D85-4958-A7A1-FAE348CAFF78}"/>
-    <hyperlink ref="B173" r:id="rId11" location="/in-review/3420?reportId=154561&amp;fromPage=event-dashboard-url" xr:uid="{3944B8E2-F8F2-474C-8FD9-202CEBFA97ED}"/>
-    <hyperlink ref="B179" r:id="rId12" location="/in-review/3420?reportId=155000&amp;fromPage=event-dashboard-url" xr:uid="{CAA079EF-A722-4592-A104-1B82DBBEB1E1}"/>
-    <hyperlink ref="B183" r:id="rId13" location="/in-review/3420?reportId=155203&amp;fromPage=event-dashboard-url" xr:uid="{C8145102-C1B1-43DC-8C87-BAFBCBA96B7E}"/>
-    <hyperlink ref="B111" r:id="rId14" location="/in-review/3445?reportId=150130&amp;fromPage=event-dashboard-url" xr:uid="{77A76893-B1C3-445F-A573-622678BEE456}"/>
-    <hyperlink ref="B100" r:id="rId15" location="/in-review/3539?reportId=149292&amp;fromPage=event-dashboard-url" xr:uid="{3882CB78-7F1B-4AF1-9927-D24D1843451C}"/>
-    <hyperlink ref="B148" r:id="rId16" location="/in-review/3539?reportId=152722&amp;fromPage=event-dashboard-url" xr:uid="{CB2194F2-8241-4C68-ADBB-A66BF2FC7357}"/>
-    <hyperlink ref="B151" r:id="rId17" location="/in-review/3777?reportId=152841&amp;fromPage=event-dashboard-url" xr:uid="{183F6BED-2546-4792-8A27-31265A381FF7}"/>
-    <hyperlink ref="B88" r:id="rId18" location="/in-review/3201?reportId=17860&amp;fromPage=event-dashboard-url" xr:uid="{4E0F1071-ABD8-4267-87C6-ED10E501B717}"/>
-    <hyperlink ref="B149" r:id="rId19" location="/in-review/4058?reportId=152726&amp;fromPage=event-dashboard-url" xr:uid="{6268B64E-CE58-4D8E-99AD-27A5F8ED9310}"/>
-    <hyperlink ref="B130" r:id="rId20" location="/in-review/3833?reportId=151484&amp;fromPage=event-dashboard-url" xr:uid="{E17AE071-7225-4326-B72C-8BBB789C0665}"/>
-    <hyperlink ref="B104" r:id="rId21" location="/in-review/3500?reportId=149554&amp;fromPage=event-dashboard-url" xr:uid="{973C442F-233E-4809-A459-9E5A85DDA8F0}"/>
-    <hyperlink ref="B105" r:id="rId22" location="/in-review/3515?reportId=149561&amp;fromPage=event-dashboard-url" xr:uid="{7E67A437-1440-4480-884A-730AB6CCFB05}"/>
-    <hyperlink ref="B181" r:id="rId23" location="/in-review/3876?reportId=155041&amp;fromPage=event-dashboard-url" xr:uid="{33789346-0639-4343-ADBE-AFE674DCF7EC}"/>
-    <hyperlink ref="B174" r:id="rId24" location="/in-review/4024?reportId=154496&amp;fromPage=event-dashboard-url" xr:uid="{C4A18F54-326B-480C-8859-3230A52B8650}"/>
-    <hyperlink ref="B132" r:id="rId25" location="/in-review/3899?reportId=151613&amp;fromPage=event-dashboard-url" xr:uid="{6803547D-06FF-41FC-8C79-8347EDBAF624}"/>
-    <hyperlink ref="B134" r:id="rId26" location="/in-review/3899?reportId=151684&amp;fromPage=event-dashboard-url" xr:uid="{34989DB5-0DB1-4E16-82F4-D3D747D69274}"/>
-    <hyperlink ref="B160" r:id="rId27" location="/in-review/3899?reportId=153270&amp;fromPage=event-dashboard-url" xr:uid="{CC5806DF-913B-4BF9-A226-8A57236C3C31}"/>
-    <hyperlink ref="B101" r:id="rId28" location="/in-review/3521?reportId=149306&amp;fromPage=event-dashboard-url" xr:uid="{48C6DFEB-7AC9-46B2-8B14-E73BA75C6EBA}"/>
-    <hyperlink ref="B121" r:id="rId29" location="/in-review/3708?reportId=150717&amp;fromPage=event-dashboard-url" xr:uid="{936145AD-23E6-486B-9483-4B04356A473E}"/>
-    <hyperlink ref="B114" r:id="rId30" location="/in-review/3716?reportId=150216&amp;fromPage=event-dashboard-url" xr:uid="{2D204E2E-03BC-425C-B07B-16723A9EB026}"/>
-    <hyperlink ref="B94" r:id="rId31" location="/in-review/3430?reportId=19471&amp;fromPage=event-dashboard-url" xr:uid="{8DF92D5E-33C2-45E5-B253-1C902E765FFC}"/>
-    <hyperlink ref="B102" r:id="rId32" location="/in-review/3430?reportId=149157&amp;fromPage=event-dashboard-url" xr:uid="{E34F6C9B-32A8-4311-8F0B-48DB0395427C}"/>
-    <hyperlink ref="B118" r:id="rId33" location="/in-review/3430?reportId=150509&amp;fromPage=event-dashboard-url" xr:uid="{0D8A6E39-DFFB-4395-A33B-2BF74FFC37CF}"/>
-    <hyperlink ref="B138" r:id="rId34" location="/in-review/3430?reportId=151460&amp;fromPage=event-dashboard-url" xr:uid="{39CF8E22-6CB1-4537-B432-622766C1A6E1}"/>
-    <hyperlink ref="B89" r:id="rId35" location="/in-review/3253?reportId=18342&amp;fromPage=event-dashboard-url" xr:uid="{164D6C37-4F22-4293-89CF-BBD0D9E86F83}"/>
-    <hyperlink ref="B90" r:id="rId36" location="/in-review/3403?reportId=19210&amp;fromPage=event-dashboard-url" xr:uid="{90C02F58-5E74-4DAF-B88A-4404F7C8CA3D}"/>
-    <hyperlink ref="B91" r:id="rId37" location="/in-review/3403?reportId=19402&amp;fromPage=event-dashboard-url" xr:uid="{8CD9F056-B91D-4714-81F7-855438EB368D}"/>
-    <hyperlink ref="B95" r:id="rId38" location="/in-review/3403?reportId=19548&amp;fromPage=event-dashboard-url" xr:uid="{1D52E8D0-CC96-4166-A5F8-0E1F7F0E7EDB}"/>
-    <hyperlink ref="B96" r:id="rId39" location="/in-review/3403?reportId=19663&amp;fromPage=event-dashboard-url" xr:uid="{C00098AE-A7B6-4376-8BA1-4A43E8DB039C}"/>
-    <hyperlink ref="B97" r:id="rId40" location="/in-review/3403?reportId=19739&amp;fromPage=event-dashboard-url" xr:uid="{96BE46C2-7F00-46A3-9F16-19E399042CD2}"/>
-    <hyperlink ref="B98" r:id="rId41" location="/in-review/3537?reportId=19986&amp;fromPage=event-dashboard-url" xr:uid="{E2BE8811-E6BF-46A4-8E32-4934051CD45F}"/>
-    <hyperlink ref="B162" r:id="rId42" location="/in-review/4265?reportId=153887&amp;fromPage=event-dashboard-url" xr:uid="{37A4341E-CD5A-4EC5-B390-6F57CCEFA275}"/>
-    <hyperlink ref="B165" r:id="rId43" location="/in-review/4265?reportId=154029&amp;fromPage=event-dashboard-url" xr:uid="{1048D2D8-EE69-4CBF-9F2B-01E548B7B067}"/>
-    <hyperlink ref="B164" r:id="rId44" location="/in-review/4299?reportId=154082&amp;fromPage=event-dashboard-url" xr:uid="{EB461368-589B-4C15-AAD9-5F66ECD0152E}"/>
-    <hyperlink ref="B107" r:id="rId45" location="/in-review/3687?reportId=149834&amp;fromPage=event-dashboard-url" xr:uid="{244D25DD-CF35-4242-976F-E9A2B3F400AE}"/>
-    <hyperlink ref="B108" r:id="rId46" location="/in-review/3687?reportId=149901&amp;fromPage=event-dashboard-url" xr:uid="{01FF73B4-3C1A-465D-9430-AF474C90E8AA}"/>
-    <hyperlink ref="B109" r:id="rId47" location="/in-review/3687?reportId=149988&amp;fromPage=event-dashboard-url" xr:uid="{3B161940-9B28-4A73-9730-7D4286F6D0EF}"/>
-    <hyperlink ref="B110" r:id="rId48" location="/in-review/3687?reportId=150050&amp;fromPage=event-dashboard-url" xr:uid="{BD231A98-077F-408B-96C7-F243C8157858}"/>
-    <hyperlink ref="B112" r:id="rId49" location="/in-review/3687?reportId=150133&amp;fromPage=event-dashboard-url" xr:uid="{2307DF82-CB1A-471F-ADD3-4CB35C87190E}"/>
-    <hyperlink ref="B113" r:id="rId50" location="/in-review/3687?reportId=150201&amp;fromPage=event-dashboard-url" xr:uid="{12C0D087-622D-46CE-A38E-99661252D099}"/>
-    <hyperlink ref="B115" r:id="rId51" location="/in-review/3687?reportId=150293&amp;fromPage=event-dashboard-url" xr:uid="{F613633F-0105-4B0B-A98A-BBFEFFA8187F}"/>
-    <hyperlink ref="B116" r:id="rId52" location="/in-review/3687?reportId=150393&amp;fromPage=event-dashboard-url" xr:uid="{9E2D40B0-EAF6-474C-A904-C4CACBE763AB}"/>
-    <hyperlink ref="B117" r:id="rId53" location="/in-review/3687?reportId=150474&amp;fromPage=event-dashboard-url" xr:uid="{2BCA6427-115E-4360-9F90-5DF8AC9776B4}"/>
-    <hyperlink ref="B119" r:id="rId54" location="/in-review/3687?reportId=150579&amp;fromPage=event-dashboard-url" xr:uid="{7BBE37F1-1CA7-4204-A5B0-46A87CF39DA9}"/>
-    <hyperlink ref="B120" r:id="rId55" location="/in-review/3687?reportId=150693&amp;fromPage=event-dashboard-url" xr:uid="{79EB1E4D-7414-413E-BA87-ED3BD67FD0E9}"/>
-    <hyperlink ref="B122" r:id="rId56" location="/in-review/3687?reportId=150783&amp;fromPage=event-dashboard-url" xr:uid="{016D6F36-5A12-45F9-907B-079B7DB0AA1B}"/>
-    <hyperlink ref="B123" r:id="rId57" location="/in-review/3687?reportId=150888&amp;fromPage=event-dashboard-url" xr:uid="{AD50DEFF-A466-4A84-BE12-60C5AA1A35B4}"/>
-    <hyperlink ref="B124" r:id="rId58" location="/in-review/3687?reportId=150980&amp;fromPage=event-dashboard-url" xr:uid="{05179D6B-6BB4-4CC5-B3EA-91A1C224A3B8}"/>
-    <hyperlink ref="B126" r:id="rId59" location="/in-review/3687?reportId=151069&amp;fromPage=event-dashboard-url" xr:uid="{F90F3781-D094-4585-9E29-AA29D027AA20}"/>
-    <hyperlink ref="B127" r:id="rId60" location="/in-review/3687?reportId=151207&amp;fromPage=event-dashboard-url" xr:uid="{3B159711-598E-4205-A788-4F12AF028399}"/>
-    <hyperlink ref="B128" r:id="rId61" location="/in-review/3687?reportId=151337&amp;fromPage=event-dashboard-url" xr:uid="{364F0447-B0CE-40CC-8242-1C05FAB80FE9}"/>
-    <hyperlink ref="B129" r:id="rId62" location="/in-review/3687?reportId=151441&amp;fromPage=event-dashboard-url" xr:uid="{432FB8D8-9733-4567-B878-277EE9F2CA93}"/>
-    <hyperlink ref="B131" r:id="rId63" location="/in-review/3687?reportId=151545&amp;fromPage=event-dashboard-url" xr:uid="{845390EB-26C5-425A-BA3A-8E51E38D8DEB}"/>
-    <hyperlink ref="B133" r:id="rId64" location="/in-review/3687?reportId=151657&amp;fromPage=event-dashboard-url" xr:uid="{D5D1E235-37AF-4564-A2B9-7A68AD168C18}"/>
-    <hyperlink ref="B135" r:id="rId65" location="/in-review/3899?reportId=151754&amp;fromPage=event-dashboard-url" xr:uid="{4A3174BA-2844-40AB-9C5B-714F740B2F3B}"/>
-    <hyperlink ref="B136" r:id="rId66" location="/in-review/3899?reportId=151852&amp;fromPage=event-dashboard-url" xr:uid="{31F073A0-8F83-4FF1-B221-2ECC2E035AA8}"/>
-    <hyperlink ref="B137" r:id="rId67" location="/in-review/3899?reportId=151924&amp;fromPage=event-dashboard-url" xr:uid="{7DEED426-CFFA-4755-9B03-15E6D8F950F6}"/>
-    <hyperlink ref="B139" r:id="rId68" location="/in-review/3899?reportId=152030&amp;fromPage=event-dashboard-url" xr:uid="{893BB74E-8D31-4675-BBB1-0BC52A92F8B1}"/>
-    <hyperlink ref="B140" r:id="rId69" location="/in-review/3899?reportId=152112&amp;fromPage=event-dashboard-url" xr:uid="{2E073DC1-188C-4375-9A7B-56BEC2B1EB23}"/>
-    <hyperlink ref="B141" r:id="rId70" location="/in-review/3899?reportId=15220=&amp;fromPage=event-dashboard-url" xr:uid="{BBEB91BD-17C0-4248-86F9-CC4E8935776E}"/>
-    <hyperlink ref="B142" r:id="rId71" location="/in-review/3899?reportId=152283&amp;fromPage=event-dashboard-url" xr:uid="{2212D8D0-A266-4369-AB43-7B140DD99B3F}"/>
-    <hyperlink ref="B143" r:id="rId72" location="/in-review/3899?reportId=152384&amp;fromPage=event-dashboard-url" xr:uid="{F81A4A77-5FB7-4AD0-8507-B6348C855B58}"/>
-    <hyperlink ref="B144" r:id="rId73" location="/in-review/3899?reportId=152471&amp;fromPage=event-dashboard-url" xr:uid="{02D094E0-18D2-41A3-B92C-6417A3FF6A63}"/>
-    <hyperlink ref="B145" r:id="rId74" location="/in-review/3899?reportId=152564&amp;fromPage=event-dashboard-url" xr:uid="{6FC4CB38-AD70-40A4-BC86-0708FFC9DDB4}"/>
-    <hyperlink ref="B146" r:id="rId75" location="/in-review/3899?reportId=152663&amp;fromPage=event-dashboard-url" xr:uid="{2BB6D7BC-6522-4618-ADEB-D245739A6C40}"/>
-    <hyperlink ref="B150" r:id="rId76" location="/in-review/3899?reportId=152819&amp;fromPage=event-dashboard-url" xr:uid="{EF947F60-5CB8-400D-889C-736A9B5BFA68}"/>
-    <hyperlink ref="B153" r:id="rId77" location="/in-review/3899?reportId=152934&amp;fromPage=event-dashboard-url" xr:uid="{AF8DF8DC-FEE6-44A0-9C5F-4ED4AD2EBC1B}"/>
-    <hyperlink ref="B154" r:id="rId78" location="/in-review/3899?reportId=153057&amp;fromPage=event-dashboard-url" xr:uid="{FF14D995-DB25-4152-881A-8EB1A3633917}"/>
-    <hyperlink ref="B155" r:id="rId79" location="/in-review/3899?reportId=153190&amp;fromPage=event-dashboard-url" xr:uid="{F1533060-FED6-495D-A0AA-68F2A879D991}"/>
-    <hyperlink ref="B156" r:id="rId80" location="/in-review/3899?reportId=153243&amp;fromPage=event-dashboard-url" xr:uid="{B8338866-A16A-44DA-81CF-924A24CD20B6}"/>
-    <hyperlink ref="B157" r:id="rId81" location="/in-review/3899?reportId=153419&amp;fromPage=event-dashboard-url" xr:uid="{10F20633-CBD6-49CF-A992-C7FCF51230E9}"/>
-    <hyperlink ref="B158" r:id="rId82" location="/in-review/3899?reportId=153548&amp;fromPage=event-dashboard-url" xr:uid="{47B9AD9C-C66D-4609-B09A-703114B1A23B}"/>
-    <hyperlink ref="B159" r:id="rId83" location="/in-review/3899?reportId=153685&amp;fromPage=event-dashboard-url" xr:uid="{021AD9D2-DB2F-4090-95E2-B39151BD99E7}"/>
-    <hyperlink ref="B161" r:id="rId84" location="/in-review/3899?reportId=153801&amp;fromPage=event-dashboard-url" xr:uid="{CBB22508-787F-4B34-8EF6-33D3B6A979F4}"/>
-    <hyperlink ref="B163" r:id="rId85" location="/in-review/3899?reportId=153949&amp;fromPage=event-dashboard-url" xr:uid="{60BA0320-B746-44A3-96EE-53590DA7F62F}"/>
-    <hyperlink ref="B167" r:id="rId86" location="/in-review/3899?reportId=154111&amp;fromPage=event-dashboard-url" xr:uid="{EC863E1B-A72B-4EC9-9141-70EC015D30EC}"/>
-    <hyperlink ref="B168" r:id="rId87" location="/in-review/3899?reportId=154224&amp;fromPage=event-dashboard-url" xr:uid="{A407761F-B8A1-46F8-AA32-2AE9F0370282}"/>
-    <hyperlink ref="B169" r:id="rId88" location="/in-review/3899?reportId=154365&amp;fromPage=event-dashboard-url" xr:uid="{7D3FA463-6569-40FF-86C5-139BD07CE79B}"/>
-    <hyperlink ref="B171" r:id="rId89" location="/in-review/3899?reportId=154457&amp;fromPage=event-dashboard-url" xr:uid="{835123CA-745E-4979-8E4F-4666BE3AE2E6}"/>
-    <hyperlink ref="B172" r:id="rId90" location="/in-review/3899?reportId=154535&amp;fromPage=event-dashboard-url" xr:uid="{FEDBD389-8B13-4CB7-B6F7-76DADDC12E40}"/>
-    <hyperlink ref="B175" r:id="rId91" location="/in-review/3899?reportId=154642&amp;fromPage=event-dashboard-url" xr:uid="{C450AC90-6478-46E9-85C8-8A1B6FFA993A}"/>
-    <hyperlink ref="B176" r:id="rId92" location="/in-review/3899?reportId=154758&amp;fromPage=event-dashboard-url" xr:uid="{589CED32-6286-4A5F-89AC-22BBB5D6ACC0}"/>
-    <hyperlink ref="B177" r:id="rId93" location="/in-review/3899?reportId=154873&amp;fromPage=event-dashboard-url" xr:uid="{1FDE3951-5E79-4D55-AC3B-017C9457EC4A}"/>
-    <hyperlink ref="B178" r:id="rId94" location="/in-review/3899?reportId=154980&amp;fromPage=event-dashboard-url" xr:uid="{BA251DAC-E465-42AF-B9CA-F009F30C572D}"/>
-    <hyperlink ref="B180" r:id="rId95" location="/in-review/3899?reportId=155048&amp;fromPage=event-dashboard-url" xr:uid="{619E744D-F6A0-44B4-8CA3-DB40FF1D00AF}"/>
-    <hyperlink ref="B182" r:id="rId96" location="/in-review/3899?reportId=155123&amp;fromPage=event-dashboard-url" xr:uid="{272DEC0A-3DF5-416E-AD9C-9D28E39E80B4}"/>
-    <hyperlink ref="B184" r:id="rId97" location="/in-review/3899?reportId=155212&amp;fromPage=event-dashboard-url" xr:uid="{38FAFD5A-3E20-465E-AF97-33D50EDB977F}"/>
-    <hyperlink ref="B185" r:id="rId98" location="/in-review/3664?reportId=156963&amp;fromPage=event-dashboard-url" xr:uid="{E1442CC0-D1EF-4F9D-862B-4D451F967055}"/>
-    <hyperlink ref="B2" r:id="rId99" xr:uid="{4B94CA87-F688-4213-BE66-75055FB940A5}"/>
-    <hyperlink ref="B3" r:id="rId100" xr:uid="{81C99B77-09A1-4AAA-8C1E-91C82F7BC49F}"/>
-    <hyperlink ref="B4" r:id="rId101" xr:uid="{8490ACF5-B0D7-455D-AD0C-6A818A0C4B27}"/>
-    <hyperlink ref="B5" r:id="rId102" xr:uid="{92B7E52B-1543-473A-B824-9640C2C8009F}"/>
-    <hyperlink ref="B6" r:id="rId103" xr:uid="{7C164B6D-C90C-49CC-8DB9-97EC84068E88}"/>
-    <hyperlink ref="B7" r:id="rId104" xr:uid="{C9716511-64B5-4F19-BBF1-6EE1AECC490E}"/>
-    <hyperlink ref="B8" r:id="rId105" xr:uid="{30F8A050-D262-4E9E-98A7-E666F6E90814}"/>
-    <hyperlink ref="B9" r:id="rId106" xr:uid="{5249F174-70A9-478C-9C1E-7BCBCF03BB6A}"/>
-    <hyperlink ref="B10" r:id="rId107" xr:uid="{900365B1-78E7-478A-B373-30DED894FCAE}"/>
-    <hyperlink ref="B11" r:id="rId108" xr:uid="{40E3E80D-9DDB-4A99-8C7C-93469A586B1B}"/>
-    <hyperlink ref="B12" r:id="rId109" xr:uid="{EAE76E29-C58C-43C9-A8B6-022A6735ABA7}"/>
-    <hyperlink ref="B13" r:id="rId110" xr:uid="{914A9E79-B215-4C73-8505-064F685650CE}"/>
-    <hyperlink ref="B14" r:id="rId111" xr:uid="{5ABB1A96-351C-4CBD-B019-97F04E6EDDA4}"/>
-    <hyperlink ref="B15" r:id="rId112" xr:uid="{6F7311C9-618B-4D7E-8505-EE77B04F3962}"/>
-    <hyperlink ref="B16" r:id="rId113" xr:uid="{E3AC84E0-5993-4F96-9763-8C95480DBA7A}"/>
-    <hyperlink ref="B17" r:id="rId114" xr:uid="{D4FEFB6F-0A89-4A20-B872-EAC79D6186AA}"/>
-    <hyperlink ref="B18" r:id="rId115" xr:uid="{32B8ED9C-E197-4347-BD53-4D4BDD1E4D40}"/>
-    <hyperlink ref="B19" r:id="rId116" xr:uid="{4E6DF419-4E20-433B-A4AF-30E4A1402D02}"/>
-    <hyperlink ref="B20" r:id="rId117" xr:uid="{5D0180D1-FCB7-49E1-B372-576173B4FBB9}"/>
-    <hyperlink ref="B21" r:id="rId118" xr:uid="{8AE1D924-93CF-4923-87CC-8D749166C05A}"/>
-    <hyperlink ref="B22" r:id="rId119" xr:uid="{0FB058DE-94B1-4EE1-8CAC-2075841BFF1D}"/>
-    <hyperlink ref="B23" r:id="rId120" xr:uid="{C0E90612-0FFE-4CC3-A895-1EA7772AB808}"/>
-    <hyperlink ref="B24" r:id="rId121" xr:uid="{7B195BCE-2F62-4E6E-8081-26EF6404C146}"/>
-    <hyperlink ref="B25" r:id="rId122" xr:uid="{FD5EC05E-5768-46B2-8F16-E645BDB09FA5}"/>
-    <hyperlink ref="B26" r:id="rId123" xr:uid="{C70B09F2-B60D-4187-94CA-975146E55F10}"/>
-    <hyperlink ref="B27" r:id="rId124" xr:uid="{85DC1276-03AB-4B39-A1CC-81DB37DD61CD}"/>
-    <hyperlink ref="B28" r:id="rId125" xr:uid="{CE153777-ED9C-4F8C-80CB-AE7370029C7A}"/>
-    <hyperlink ref="B29" r:id="rId126" xr:uid="{3C676A29-B06C-4C2C-8626-1692CFE42AA3}"/>
-    <hyperlink ref="B30" r:id="rId127" xr:uid="{9CDB25C6-FE13-46AA-8030-F316D50CC4C1}"/>
-    <hyperlink ref="B31" r:id="rId128" xr:uid="{82EA5A60-DEDE-472F-8996-7DC535BEF4CC}"/>
-    <hyperlink ref="B32" r:id="rId129" xr:uid="{C74154B3-F3E4-45D0-B0DE-54391E22E3BA}"/>
-    <hyperlink ref="B33" r:id="rId130" xr:uid="{0C762BA3-C69A-4B8E-9AD7-9DD72223FC62}"/>
-    <hyperlink ref="B34" r:id="rId131" xr:uid="{A7A8BA4E-ED8E-43E2-BC31-830C30C5CD44}"/>
-    <hyperlink ref="B35" r:id="rId132" xr:uid="{DE83B9F6-9B81-4B79-878E-C056C0481DFD}"/>
-    <hyperlink ref="B36" r:id="rId133" xr:uid="{A1003C47-834E-4EE9-9C02-A303791C6059}"/>
-    <hyperlink ref="B37" r:id="rId134" xr:uid="{4C86B630-5EC9-4016-9680-4EFD1843058A}"/>
-    <hyperlink ref="B38" r:id="rId135" xr:uid="{76CC6CFE-6849-4AA3-92EC-DA2B056DD759}"/>
-    <hyperlink ref="B39" r:id="rId136" xr:uid="{96699B3C-2CB9-40BC-B004-BA914C366BB8}"/>
-    <hyperlink ref="B40" r:id="rId137" xr:uid="{7759DF4E-4148-433A-BDBB-91F97E18CF5F}"/>
-    <hyperlink ref="B41" r:id="rId138" xr:uid="{1F7C5F3B-C4D1-432B-A09D-EE2473314460}"/>
-    <hyperlink ref="B42" r:id="rId139" xr:uid="{62C55F1C-BE1B-4B35-AB6F-FBCEF3F1178E}"/>
-    <hyperlink ref="B43" r:id="rId140" xr:uid="{60D027CC-76D1-4835-B19B-EEB35EC8DE22}"/>
-    <hyperlink ref="B44" r:id="rId141" xr:uid="{A859B8E4-DAB2-4756-AEAC-5DB1A3CD7D38}"/>
-    <hyperlink ref="B45" r:id="rId142" xr:uid="{CF60CB76-65AC-4B20-B266-F2C213483E4C}"/>
-    <hyperlink ref="B46" r:id="rId143" xr:uid="{924923FB-519A-42C4-8A45-1006769954CD}"/>
-    <hyperlink ref="B47" r:id="rId144" xr:uid="{E1F2D50A-8CB3-425A-A6BA-D39A49AA6DA3}"/>
-    <hyperlink ref="B48" r:id="rId145" xr:uid="{E4A1F53E-DE5A-4D40-A9E5-1652564593BA}"/>
-    <hyperlink ref="B49" r:id="rId146" xr:uid="{F8EDFA45-C3A0-49D7-9FB4-07CBCE1507F6}"/>
-    <hyperlink ref="B50" r:id="rId147" xr:uid="{4EFD2B53-CE91-4AA8-90C2-8D2454CABFE0}"/>
-    <hyperlink ref="B51" r:id="rId148" xr:uid="{8945547B-532F-4872-8294-4E6125A1BECF}"/>
-    <hyperlink ref="B52" r:id="rId149" xr:uid="{50456D5E-C349-4AFC-B1FD-26BDEA52FC15}"/>
-    <hyperlink ref="B53" r:id="rId150" xr:uid="{5ADEF286-9CC8-465C-9349-6F27DED0EA78}"/>
-    <hyperlink ref="B54" r:id="rId151" xr:uid="{5BD791C2-138D-4537-9C5E-7852797E7CAD}"/>
-    <hyperlink ref="B55" r:id="rId152" xr:uid="{F83410DA-3A08-49BA-A21A-B85D2F455E64}"/>
-    <hyperlink ref="B56" r:id="rId153" xr:uid="{A9D93FBD-92A2-4AE7-A061-6CF48B920E76}"/>
-    <hyperlink ref="B57" r:id="rId154" xr:uid="{FDB1DF48-FBD6-4C26-AB37-C10870D324F3}"/>
-    <hyperlink ref="B58" r:id="rId155" xr:uid="{BF0B46C1-6BBF-4DCF-B2D9-54E47E343AB0}"/>
-    <hyperlink ref="B59" r:id="rId156" xr:uid="{22862BBC-BFBC-412D-BB46-E03898419FED}"/>
-    <hyperlink ref="B60" r:id="rId157" xr:uid="{F79E173C-5103-48F1-8E29-483BF00DEBAA}"/>
-    <hyperlink ref="B61" r:id="rId158" xr:uid="{0FED1602-0254-4BB2-AF37-E1D8C1500D0A}"/>
-    <hyperlink ref="B62" r:id="rId159" xr:uid="{CBA57564-206B-44EC-B2E0-7FB16FEB3BB4}"/>
-    <hyperlink ref="B63" r:id="rId160" xr:uid="{42E6BC17-FBD3-4EEE-BB07-923A04DA6C11}"/>
-    <hyperlink ref="B64" r:id="rId161" xr:uid="{A0025AFF-49A2-447F-9970-368A2ECE0645}"/>
-    <hyperlink ref="B65" r:id="rId162" xr:uid="{AB6A51BE-BC9A-4531-ACB3-30233FAA66D2}"/>
-    <hyperlink ref="B66" r:id="rId163" xr:uid="{B489544F-4514-4B90-914C-464FDF82ED8E}"/>
-    <hyperlink ref="B67" r:id="rId164" xr:uid="{C9B385A8-580F-4244-A22C-A4D716E99C05}"/>
-    <hyperlink ref="B68" r:id="rId165" xr:uid="{848FD946-078E-4E7C-B840-6EF18377B9A5}"/>
-    <hyperlink ref="B69" r:id="rId166" xr:uid="{04761EC9-5B95-46FC-AED7-80BACDB6B6C3}"/>
-    <hyperlink ref="B70" r:id="rId167" xr:uid="{C6349B51-D2C1-4FD6-9D87-2150EAC946EC}"/>
-    <hyperlink ref="B71" r:id="rId168" xr:uid="{6B22BB3A-8F8E-463A-A081-86DC7D2E9AAE}"/>
-    <hyperlink ref="B72" r:id="rId169" xr:uid="{56FB15BB-C8F2-41F6-94FB-35A763927C7B}"/>
-    <hyperlink ref="B73" r:id="rId170" xr:uid="{0FD3252B-19E2-4B43-B49E-2998D58FD287}"/>
-    <hyperlink ref="B74" r:id="rId171" xr:uid="{0E2E51EC-672A-4419-ADF5-FFD973B07E50}"/>
-    <hyperlink ref="B75" r:id="rId172" xr:uid="{993752C5-A37A-42D6-BA17-AC10605B7A4F}"/>
-    <hyperlink ref="B76" r:id="rId173" xr:uid="{CA3013D5-EE12-428E-AE7C-062486AF233D}"/>
-    <hyperlink ref="B77" r:id="rId174" xr:uid="{B2E2DCCB-29A3-4A6E-8945-4522B685DC2C}"/>
-    <hyperlink ref="B78" r:id="rId175" xr:uid="{D8CD4D11-B59B-402E-8851-03966FC96D61}"/>
-    <hyperlink ref="B79" r:id="rId176" xr:uid="{8433F1D6-DD64-4B80-83F3-0ABDE256040D}"/>
-    <hyperlink ref="B80" r:id="rId177" xr:uid="{25630D71-B077-4B15-9BA4-387186F9ECE4}"/>
-    <hyperlink ref="B81" r:id="rId178" xr:uid="{A2678D4F-DAE8-4AB1-A618-086F952AC422}"/>
-    <hyperlink ref="B82" r:id="rId179" xr:uid="{F815E78B-8F76-4CE8-8C09-C5673D0A877E}"/>
-    <hyperlink ref="B83" r:id="rId180" xr:uid="{145FD8AD-13B8-4321-8A9E-78D95B4617E7}"/>
-    <hyperlink ref="B84" r:id="rId181" xr:uid="{4CE5C007-AF14-43A0-87E1-0A89F3892841}"/>
-    <hyperlink ref="B85" r:id="rId182" xr:uid="{736FFAA4-BE38-4DAE-98FA-3999A358B1E9}"/>
-    <hyperlink ref="B86" r:id="rId183" xr:uid="{0D34927E-6B0A-4A26-9171-9E1880AB8143}"/>
-    <hyperlink ref="B87" r:id="rId184" xr:uid="{A397A851-2DAF-4DB1-A7AA-143A9AF40B93}"/>
-    <hyperlink ref="B186" r:id="rId185" location="/in-review/3521?reportId=157958&amp;fromPage=event-dashboard-url" xr:uid="{5C12E835-A696-4810-858C-614894B296D9}"/>
-    <hyperlink ref="B188" r:id="rId186" location="/in-review/4746?reportId=158187&amp;fromPage=event-dashboard-url" xr:uid="{90F98A14-48FF-49CA-B0B7-460B163C54B5}"/>
-    <hyperlink ref="B187" r:id="rId187" location="/in-review/3521?reportId=158134&amp;fromPage=event-dashboard-url" xr:uid="{7871D89E-7447-472A-B645-61B8EDAF47F3}"/>
-    <hyperlink ref="B189" r:id="rId188" location="/in-review/3586?reportId=158243&amp;fromPage=event-dashboard-url" xr:uid="{855388DB-D328-41B5-8E91-E428873F2C37}"/>
-    <hyperlink ref="B190" r:id="rId189" location="/in-review/4746?reportId=158267&amp;fromPage=event-dashboard-url" xr:uid="{B5242A48-DD9F-4521-B88C-8DD987DD9DB9}"/>
-    <hyperlink ref="B191" r:id="rId190" location="/in-review/4746?reportId=158378&amp;fromPage=event-dashboard-url" xr:uid="{FFE4F7FD-BBD3-49C8-B552-502AC5F6C7B7}"/>
-    <hyperlink ref="B192" r:id="rId191" location="/in-review/4746?reportId=158456&amp;fromPage=event-dashboard-url" xr:uid="{483F7028-727E-4635-9863-454CB81CEE32}"/>
-    <hyperlink ref="B194" r:id="rId192" location="/in-review/4746?reportId=158580&amp;fromPage=event-dashboard-url" xr:uid="{F7B19C22-5921-48D3-B766-C8257B0FCC83}"/>
-    <hyperlink ref="B193" r:id="rId193" location="/in-review/3521?reportId=158513&amp;fromPage=event-dashboard-url" xr:uid="{F95DFF1A-DC6F-4028-8B97-BB26BA25B230}"/>
-    <hyperlink ref="B195" r:id="rId194" location="/in-review/3521?reportId=158622&amp;fromPage=event-dashboard-url" xr:uid="{7716F31A-42E8-458C-B5F8-625001BE6214}"/>
-    <hyperlink ref="B196" r:id="rId195" location="/in-review/4746?reportId=158700&amp;fromPage=event-dashboard-url" xr:uid="{E5DCE41E-24A4-4BC0-AE46-606FE35169ED}"/>
-    <hyperlink ref="B197" r:id="rId196" location="/in-review/3521?reportId=158741&amp;fromPage=event-dashboard-url" xr:uid="{3B57E87C-F4F3-4D88-A4ED-41189A4BD912}"/>
-    <hyperlink ref="B198" r:id="rId197" location="/in-review/4746?reportId=158802&amp;fromPage=event-dashboard-url" xr:uid="{C364B11A-D0FB-488E-B1AA-F588089BFC8C}"/>
-    <hyperlink ref="B199" r:id="rId198" location="/in-review/3521?reportId=158919&amp;fromPage=event-dashboard-url" xr:uid="{B891685B-805E-4B66-9F7E-F7CC3F1B3F68}"/>
-    <hyperlink ref="B200" r:id="rId199" location="/in-review/4746?reportId=158943&amp;fromPage=event-dashboard-url" xr:uid="{90BA76BD-1973-451D-B947-88856B7FA921}"/>
-    <hyperlink ref="B201" r:id="rId200" location="/in-review/3521?reportId=159088&amp;fromPage=event-dashboard-url" xr:uid="{9099920D-B3AF-4A09-8734-E4CC7B114DFD}"/>
-    <hyperlink ref="B202" r:id="rId201" location="/in-review/3449?reportId=159117&amp;fromPage=event-dashboard-url" xr:uid="{512D22E4-D396-4D0F-9047-3E1FE7349304}"/>
-    <hyperlink ref="B203" r:id="rId202" location="/in-review/4746?reportId=159226&amp;fromPage=event-dashboard-url" xr:uid="{4A8BF71E-7D24-49E2-82BA-6DFF43FD63E2}"/>
-    <hyperlink ref="B204" r:id="rId203" location="/in-review/4746?reportId=159322&amp;fromPage=event-dashboard-url" xr:uid="{C29446ED-F2A6-412D-A0D5-7F0BCCF4C7FB}"/>
-    <hyperlink ref="B205" r:id="rId204" location="/in-review/3521?reportId=159354&amp;fromPage=event-dashboard-url" xr:uid="{82C409FB-64B3-41EA-BF81-7E80CA6EE787}"/>
-    <hyperlink ref="B206" r:id="rId205" location="/in-review/4746?reportId=159445&amp;fromPage=event-dashboard-url" xr:uid="{A204A838-8F2D-44E9-BE3C-FA3F895BDAA8}"/>
-    <hyperlink ref="B207" r:id="rId206" location="/in-review/4746?reportId=159555&amp;fromPage=event-dashboard-url" xr:uid="{3DEF51C9-692B-4D85-8500-7D8949EBA5D5}"/>
-    <hyperlink ref="B208" r:id="rId207" location="/in-review/3521?reportId=159566&amp;fromPage=event-dashboard-url" xr:uid="{9ED7D8DF-19CC-4ACD-83CC-16043BB4CC27}"/>
-    <hyperlink ref="B209" r:id="rId208" location="/in-review/4746?reportId=159720&amp;fromPage=event-dashboard-url" xr:uid="{6D9253D7-336E-47DF-ADE3-F9DFE80E2226}"/>
-    <hyperlink ref="B210" r:id="rId209" location="/in-review/3521?reportId=159737&amp;fromPage=event-dashboard-url" xr:uid="{0637548E-7525-4CAD-ABC0-CDA63823CD9C}"/>
-    <hyperlink ref="B211" r:id="rId210" location="/in-review/3521?reportId=159816&amp;fromPage=event-dashboard-url" xr:uid="{659E3904-5EA3-4B05-8E4D-76EE8700C0D3}"/>
-    <hyperlink ref="B212" r:id="rId211" location="/in-review/4746?reportId=159853&amp;fromPage=event-dashboard-url" xr:uid="{FD85CBB1-08D3-4A4F-B507-AC8F2BDA4B62}"/>
-    <hyperlink ref="B213" r:id="rId212" location="/in-review/4746?reportId=160020&amp;fromPage=event-dashboard-url" xr:uid="{EB2B78AA-7D8F-4028-9CA7-A8AD59B47C5C}"/>
-    <hyperlink ref="B214" r:id="rId213" location="/in-review/3521?reportId=160046&amp;fromPage=event-dashboard-url" xr:uid="{E555D203-EAA4-428F-AD4F-D63D45B63589}"/>
-    <hyperlink ref="B215" r:id="rId214" location="/in-review/4746?reportId=160163&amp;fromPage=event-dashboard-url" xr:uid="{6D35EDCE-2417-4B6D-A114-86DC3317EABE}"/>
-    <hyperlink ref="B216" r:id="rId215" location="/in-review/3521?reportId=160199&amp;fromPage=event-dashboard-url" xr:uid="{574686EA-DBE9-4D89-B1B4-7683D0DE9636}"/>
-    <hyperlink ref="B217" r:id="rId216" location="/in-review/4746?reportId=160321&amp;fromPage=event-dashboard-url" xr:uid="{F1C83CB8-A857-445C-9947-3D4F3B5BB88B}"/>
-    <hyperlink ref="B218" r:id="rId217" location="/in-review/3521?reportId=160444&amp;fromPage=event-dashboard-url" xr:uid="{AC7EDE21-9CED-4F4D-9436-F661EF6B35D2}"/>
-    <hyperlink ref="B219" r:id="rId218" location="/in-review/4746?reportId=160518&amp;fromPage=event-dashboard-url" xr:uid="{3438BE94-13DE-4AE8-8AB5-C4951F3C09A1}"/>
-    <hyperlink ref="B220" r:id="rId219" location="/in-review/3521?reportId=160615&amp;fromPage=event-dashboard-url" xr:uid="{A0154469-4EDE-4EC3-9A10-2EA2EFE2B6DD}"/>
+    <hyperlink ref="B125" r:id="rId10" location="/in-review/3420?reportId=151000&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B173" r:id="rId11" location="/in-review/3420?reportId=154561&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B179" r:id="rId12" location="/in-review/3420?reportId=155000&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B183" r:id="rId13" location="/in-review/3420?reportId=155203&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B111" r:id="rId14" location="/in-review/3445?reportId=150130&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B100" r:id="rId15" location="/in-review/3539?reportId=149292&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B148" r:id="rId16" location="/in-review/3539?reportId=152722&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B151" r:id="rId17" location="/in-review/3777?reportId=152841&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B88" r:id="rId18" location="/in-review/3201?reportId=17860&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B149" r:id="rId19" location="/in-review/4058?reportId=152726&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B130" r:id="rId20" location="/in-review/3833?reportId=151484&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B104" r:id="rId21" location="/in-review/3500?reportId=149554&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="B105" r:id="rId22" location="/in-review/3515?reportId=149561&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B181" r:id="rId23" location="/in-review/3876?reportId=155041&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B174" r:id="rId24" location="/in-review/4024?reportId=154496&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B132" r:id="rId25" location="/in-review/3899?reportId=151613&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B134" r:id="rId26" location="/in-review/3899?reportId=151684&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B160" r:id="rId27" location="/in-review/3899?reportId=153270&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B101" r:id="rId28" location="/in-review/3521?reportId=149306&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B121" r:id="rId29" location="/in-review/3708?reportId=150717&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B114" r:id="rId30" location="/in-review/3716?reportId=150216&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B94" r:id="rId31" location="/in-review/3430?reportId=19471&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="B102" r:id="rId32" location="/in-review/3430?reportId=149157&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B118" r:id="rId33" location="/in-review/3430?reportId=150509&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B138" r:id="rId34" location="/in-review/3430?reportId=151460&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B89" r:id="rId35" location="/in-review/3253?reportId=18342&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B90" r:id="rId36" location="/in-review/3403?reportId=19210&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B91" r:id="rId37" location="/in-review/3403?reportId=19402&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B95" r:id="rId38" location="/in-review/3403?reportId=19548&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B96" r:id="rId39" location="/in-review/3403?reportId=19663&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B97" r:id="rId40" location="/in-review/3403?reportId=19739&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B98" r:id="rId41" location="/in-review/3537?reportId=19986&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B162" r:id="rId42" location="/in-review/4265?reportId=153887&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="B165" r:id="rId43" location="/in-review/4265?reportId=154029&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B164" r:id="rId44" location="/in-review/4299?reportId=154082&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B107" r:id="rId45" location="/in-review/3687?reportId=149834&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B108" r:id="rId46" location="/in-review/3687?reportId=149901&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B109" r:id="rId47" location="/in-review/3687?reportId=149988&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B110" r:id="rId48" location="/in-review/3687?reportId=150050&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B112" r:id="rId49" location="/in-review/3687?reportId=150133&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B113" r:id="rId50" location="/in-review/3687?reportId=150201&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B115" r:id="rId51" location="/in-review/3687?reportId=150293&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B116" r:id="rId52" location="/in-review/3687?reportId=150393&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B117" r:id="rId53" location="/in-review/3687?reportId=150474&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B119" r:id="rId54" location="/in-review/3687?reportId=150579&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B120" r:id="rId55" location="/in-review/3687?reportId=150693&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B122" r:id="rId56" location="/in-review/3687?reportId=150783&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B123" r:id="rId57" location="/in-review/3687?reportId=150888&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B124" r:id="rId58" location="/in-review/3687?reportId=150980&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B126" r:id="rId59" location="/in-review/3687?reportId=151069&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B127" r:id="rId60" location="/in-review/3687?reportId=151207&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B128" r:id="rId61" location="/in-review/3687?reportId=151337&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B129" r:id="rId62" location="/in-review/3687?reportId=151441&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="B131" r:id="rId63" location="/in-review/3687?reportId=151545&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="B133" r:id="rId64" location="/in-review/3687?reportId=151657&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="B135" r:id="rId65" location="/in-review/3899?reportId=151754&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="B136" r:id="rId66" location="/in-review/3899?reportId=151852&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="B137" r:id="rId67" location="/in-review/3899?reportId=151924&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="B139" r:id="rId68" location="/in-review/3899?reportId=152030&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="B140" r:id="rId69" location="/in-review/3899?reportId=152112&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="B141" r:id="rId70" location="/in-review/3899?reportId=15220=&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="B142" r:id="rId71" location="/in-review/3899?reportId=152283&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="B143" r:id="rId72" location="/in-review/3899?reportId=152384&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="B144" r:id="rId73" location="/in-review/3899?reportId=152471&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="B145" r:id="rId74" location="/in-review/3899?reportId=152564&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="B146" r:id="rId75" location="/in-review/3899?reportId=152663&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="B150" r:id="rId76" location="/in-review/3899?reportId=152819&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="B153" r:id="rId77" location="/in-review/3899?reportId=152934&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="B154" r:id="rId78" location="/in-review/3899?reportId=153057&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="B155" r:id="rId79" location="/in-review/3899?reportId=153190&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="B156" r:id="rId80" location="/in-review/3899?reportId=153243&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="B157" r:id="rId81" location="/in-review/3899?reportId=153419&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="B158" r:id="rId82" location="/in-review/3899?reportId=153548&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="B159" r:id="rId83" location="/in-review/3899?reportId=153685&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="B161" r:id="rId84" location="/in-review/3899?reportId=153801&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="B163" r:id="rId85" location="/in-review/3899?reportId=153949&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="B167" r:id="rId86" location="/in-review/3899?reportId=154111&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="B168" r:id="rId87" location="/in-review/3899?reportId=154224&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="B169" r:id="rId88" location="/in-review/3899?reportId=154365&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="B171" r:id="rId89" location="/in-review/3899?reportId=154457&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="B172" r:id="rId90" location="/in-review/3899?reportId=154535&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="B175" r:id="rId91" location="/in-review/3899?reportId=154642&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="B176" r:id="rId92" location="/in-review/3899?reportId=154758&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="B177" r:id="rId93" location="/in-review/3899?reportId=154873&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="B178" r:id="rId94" location="/in-review/3899?reportId=154980&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="B180" r:id="rId95" location="/in-review/3899?reportId=155048&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="B182" r:id="rId96" location="/in-review/3899?reportId=155123&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="B184" r:id="rId97" location="/in-review/3899?reportId=155212&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="B185" r:id="rId98" location="/in-review/3664?reportId=156963&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="B2" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="B3" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="B4" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="B5" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="B6" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="B7" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="B8" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="B9" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="B10" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="B11" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="B12" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="B13" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="B14" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="B15" r:id="rId112" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="B16" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="B17" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="B18" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="B19" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="B20" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="B21" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="B22" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="B23" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="B24" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="B25" r:id="rId122" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="B26" r:id="rId123" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="B27" r:id="rId124" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="B28" r:id="rId125" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="B29" r:id="rId126" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="B30" r:id="rId127" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="B31" r:id="rId128" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="B32" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="B33" r:id="rId130" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="B34" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="B35" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="B36" r:id="rId133" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="B37" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="B38" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="B39" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="B40" r:id="rId137" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="B41" r:id="rId138" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="B42" r:id="rId139" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="B43" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="B44" r:id="rId141" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="B45" r:id="rId142" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="B46" r:id="rId143" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="B47" r:id="rId144" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="B48" r:id="rId145" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="B49" r:id="rId146" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="B50" r:id="rId147" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="B51" r:id="rId148" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="B52" r:id="rId149" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
+    <hyperlink ref="B53" r:id="rId150" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
+    <hyperlink ref="B54" r:id="rId151" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
+    <hyperlink ref="B55" r:id="rId152" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
+    <hyperlink ref="B56" r:id="rId153" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
+    <hyperlink ref="B57" r:id="rId154" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
+    <hyperlink ref="B58" r:id="rId155" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
+    <hyperlink ref="B59" r:id="rId156" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
+    <hyperlink ref="B60" r:id="rId157" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
+    <hyperlink ref="B61" r:id="rId158" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
+    <hyperlink ref="B62" r:id="rId159" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
+    <hyperlink ref="B63" r:id="rId160" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
+    <hyperlink ref="B64" r:id="rId161" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
+    <hyperlink ref="B65" r:id="rId162" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
+    <hyperlink ref="B66" r:id="rId163" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
+    <hyperlink ref="B67" r:id="rId164" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
+    <hyperlink ref="B68" r:id="rId165" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
+    <hyperlink ref="B69" r:id="rId166" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
+    <hyperlink ref="B70" r:id="rId167" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="B71" r:id="rId168" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
+    <hyperlink ref="B72" r:id="rId169" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
+    <hyperlink ref="B73" r:id="rId170" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
+    <hyperlink ref="B74" r:id="rId171" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
+    <hyperlink ref="B75" r:id="rId172" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
+    <hyperlink ref="B76" r:id="rId173" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
+    <hyperlink ref="B77" r:id="rId174" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
+    <hyperlink ref="B78" r:id="rId175" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
+    <hyperlink ref="B79" r:id="rId176" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
+    <hyperlink ref="B80" r:id="rId177" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
+    <hyperlink ref="B81" r:id="rId178" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
+    <hyperlink ref="B82" r:id="rId179" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
+    <hyperlink ref="B83" r:id="rId180" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
+    <hyperlink ref="B84" r:id="rId181" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
+    <hyperlink ref="B85" r:id="rId182" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
+    <hyperlink ref="B86" r:id="rId183" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
+    <hyperlink ref="B87" r:id="rId184" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
+    <hyperlink ref="B186" r:id="rId185" location="/in-review/3521?reportId=157958&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
+    <hyperlink ref="B188" r:id="rId186" location="/in-review/4746?reportId=158187&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
+    <hyperlink ref="B187" r:id="rId187" location="/in-review/3521?reportId=158134&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
+    <hyperlink ref="B189" r:id="rId188" location="/in-review/3586?reportId=158243&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
+    <hyperlink ref="B190" r:id="rId189" location="/in-review/4746?reportId=158267&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
+    <hyperlink ref="B191" r:id="rId190" location="/in-review/4746?reportId=158378&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
+    <hyperlink ref="B192" r:id="rId191" location="/in-review/4746?reportId=158456&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
+    <hyperlink ref="B194" r:id="rId192" location="/in-review/4746?reportId=158580&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
+    <hyperlink ref="B193" r:id="rId193" location="/in-review/3521?reportId=158513&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
+    <hyperlink ref="B195" r:id="rId194" location="/in-review/3521?reportId=158622&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
+    <hyperlink ref="B196" r:id="rId195" location="/in-review/4746?reportId=158700&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
+    <hyperlink ref="B197" r:id="rId196" location="/in-review/3521?reportId=158741&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
+    <hyperlink ref="B198" r:id="rId197" location="/in-review/4746?reportId=158802&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
+    <hyperlink ref="B199" r:id="rId198" location="/in-review/3521?reportId=158919&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
+    <hyperlink ref="B200" r:id="rId199" location="/in-review/4746?reportId=158943&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
+    <hyperlink ref="B201" r:id="rId200" location="/in-review/3521?reportId=159088&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
+    <hyperlink ref="B202" r:id="rId201" location="/in-review/3449?reportId=159117&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
+    <hyperlink ref="B203" r:id="rId202" location="/in-review/4746?reportId=159226&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
+    <hyperlink ref="B204" r:id="rId203" location="/in-review/4746?reportId=159322&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
+    <hyperlink ref="B205" r:id="rId204" location="/in-review/3521?reportId=159354&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
+    <hyperlink ref="B206" r:id="rId205" location="/in-review/4746?reportId=159445&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
+    <hyperlink ref="B207" r:id="rId206" location="/in-review/4746?reportId=159555&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
+    <hyperlink ref="B208" r:id="rId207" location="/in-review/3521?reportId=159566&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
+    <hyperlink ref="B209" r:id="rId208" location="/in-review/4746?reportId=159720&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
+    <hyperlink ref="B210" r:id="rId209" location="/in-review/3521?reportId=159737&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
+    <hyperlink ref="B211" r:id="rId210" location="/in-review/3521?reportId=159816&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
+    <hyperlink ref="B212" r:id="rId211" location="/in-review/4746?reportId=159853&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
+    <hyperlink ref="B213" r:id="rId212" location="/in-review/4746?reportId=160020&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
+    <hyperlink ref="B214" r:id="rId213" location="/in-review/3521?reportId=160046&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
+    <hyperlink ref="B215" r:id="rId214" location="/in-review/4746?reportId=160163&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
+    <hyperlink ref="B216" r:id="rId215" location="/in-review/3521?reportId=160199&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
+    <hyperlink ref="B217" r:id="rId216" location="/in-review/4746?reportId=160321&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
+    <hyperlink ref="B218" r:id="rId217" location="/in-review/3521?reportId=160444&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
+    <hyperlink ref="B219" r:id="rId218" location="/in-review/4746?reportId=160518&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
+    <hyperlink ref="B220" r:id="rId219" location="/in-review/3521?reportId=160615&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId220"/>

--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A06835-EAE3-4AF6-B31E-4760798B41B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D082E70E-B561-4168-BFFB-5E862FDE3EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="2790" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="590">
   <si>
     <t>source</t>
   </si>
@@ -1789,6 +1789,12 @@
   </si>
   <si>
     <t>final report from Switzerland that the event is reaolved</t>
+  </si>
+  <si>
+    <t>FUR_160805</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=160805&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2728,10 +2734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A183" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220"/>
+      <selection activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7144,6 +7150,26 @@
       </c>
       <c r="F220" s="1" t="s">
         <v>587</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D221" s="5">
+        <v>45056</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -7368,8 +7394,9 @@
     <hyperlink ref="B218" r:id="rId217" location="/in-review/3521?reportId=160444&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
     <hyperlink ref="B219" r:id="rId218" location="/in-review/4746?reportId=160518&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
     <hyperlink ref="B220" r:id="rId219" location="/in-review/3521?reportId=160615&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
+    <hyperlink ref="B221" r:id="rId220" location="/in-review/4746?reportId=160805&amp;fromPage=event-dashboard-url" xr:uid="{A4EB6306-27C6-4CB3-8792-8136119EB61D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId220"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId221"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D082E70E-B561-4168-BFFB-5E862FDE3EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE5E7824-E9D1-4663-8D15-8C25A3B7A1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="2790" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="599">
   <si>
     <t>source</t>
   </si>
@@ -1795,6 +1795,33 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/4746?reportId=160805&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_160942</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3441?reportId=160942&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>final report from Greece that the event is reaolved</t>
+  </si>
+  <si>
+    <t>FUR_160934</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=160934&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_161047</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=161047&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_161174</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=161174&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2734,10 +2761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7169,6 +7196,86 @@
         <v>118</v>
       </c>
       <c r="F221" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D222" s="5">
+        <v>45063</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D223" s="5">
+        <v>45063</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D224" s="5">
+        <v>45070</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D225" s="5">
+        <v>45077</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F225" s="7" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7395,8 +7502,12 @@
     <hyperlink ref="B219" r:id="rId218" location="/in-review/4746?reportId=160518&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
     <hyperlink ref="B220" r:id="rId219" location="/in-review/3521?reportId=160615&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
     <hyperlink ref="B221" r:id="rId220" location="/in-review/4746?reportId=160805&amp;fromPage=event-dashboard-url" xr:uid="{A4EB6306-27C6-4CB3-8792-8136119EB61D}"/>
+    <hyperlink ref="B222" r:id="rId221" location="/in-review/3441?reportId=160942&amp;fromPage=event-dashboard-url" xr:uid="{FB7B1CEB-1988-4ED9-A7C3-E879495B0A4B}"/>
+    <hyperlink ref="B223" r:id="rId222" location="/in-review/4746?reportId=160934&amp;fromPage=event-dashboard-url" xr:uid="{39247B53-05FC-4848-B52F-67789D5847B5}"/>
+    <hyperlink ref="B224" r:id="rId223" location="/in-review/4746?reportId=161047&amp;fromPage=event-dashboard-url" xr:uid="{B380894E-2257-437D-AEA4-BC50011EF0FE}"/>
+    <hyperlink ref="B225" r:id="rId224" location="/in-review/4746?reportId=161174&amp;fromPage=event-dashboard-url" xr:uid="{52021645-E93A-48B4-8E05-191C0D2E7DB3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId221"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId225"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE5E7824-E9D1-4663-8D15-8C25A3B7A1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9BC6C21-7530-4CC5-89BA-37C472031070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="607">
   <si>
     <t>source</t>
   </si>
@@ -1788,9 +1788,6 @@
     <t>https://wahis.woah.org/#/in-review/3521?reportId=160615&amp;fromPage=event-dashboard-url</t>
   </si>
   <si>
-    <t>final report from Switzerland that the event is reaolved</t>
-  </si>
-  <si>
     <t>FUR_160805</t>
   </si>
   <si>
@@ -1803,9 +1800,6 @@
     <t>https://wahis.woah.org/#/in-review/3441?reportId=160942&amp;fromPage=event-dashboard-url</t>
   </si>
   <si>
-    <t>final report from Greece that the event is reaolved</t>
-  </si>
-  <si>
     <t>FUR_160934</t>
   </si>
   <si>
@@ -1822,6 +1816,36 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/4746?reportId=161174&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_161276</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=161276&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_161355</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=161355&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_161451</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=161451&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_161567</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=161567&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>final report from Switzerland that the event is resolved</t>
+  </si>
+  <si>
+    <t>final report from Greece that the event is resolved</t>
   </si>
 </sst>
 </file>
@@ -2761,23 +2785,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G225"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2797,7 +2821,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2817,7 +2841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2837,7 +2861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2857,7 +2881,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -2877,7 +2901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2897,7 +2921,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2917,7 +2941,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2937,7 +2961,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2957,7 +2981,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2977,7 +3001,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2997,7 +3021,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3017,7 +3041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -3037,7 +3061,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -3057,7 +3081,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -3077,7 +3101,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -3097,7 +3121,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -3117,7 +3141,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3137,7 +3161,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -3157,7 +3181,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -3177,7 +3201,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -3197,7 +3221,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -3217,7 +3241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -3237,7 +3261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -3257,7 +3281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -3277,7 +3301,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -3297,7 +3321,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -3317,7 +3341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -3337,7 +3361,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3357,7 +3381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -3377,7 +3401,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
@@ -3397,7 +3421,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
@@ -3417,7 +3441,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -3437,7 +3461,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -3457,7 +3481,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
@@ -3477,7 +3501,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
@@ -3497,7 +3521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -3517,7 +3541,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -3537,7 +3561,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -3557,7 +3581,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -3577,7 +3601,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -3597,7 +3621,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
@@ -3617,7 +3641,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -3637,7 +3661,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
@@ -3657,7 +3681,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -3677,7 +3701,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -3697,7 +3721,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -3717,7 +3741,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -3737,7 +3761,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -3757,7 +3781,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
@@ -3777,7 +3801,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
@@ -3797,7 +3821,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3817,7 +3841,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3837,7 +3861,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>70</v>
       </c>
@@ -3857,7 +3881,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
@@ -3877,7 +3901,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
@@ -3897,7 +3921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -3917,7 +3941,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -3937,7 +3961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
@@ -3957,7 +3981,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>78</v>
       </c>
@@ -3977,7 +4001,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
@@ -3997,7 +4021,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>80</v>
       </c>
@@ -4017,7 +4041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
@@ -4037,7 +4061,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -4057,7 +4081,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>86</v>
       </c>
@@ -4077,7 +4101,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>87</v>
       </c>
@@ -4097,7 +4121,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>88</v>
       </c>
@@ -4117,7 +4141,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>90</v>
       </c>
@@ -4137,7 +4161,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>93</v>
       </c>
@@ -4157,7 +4181,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
@@ -4177,7 +4201,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>96</v>
       </c>
@@ -4197,7 +4221,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
@@ -4217,7 +4241,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
@@ -4237,7 +4261,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>101</v>
       </c>
@@ -4257,7 +4281,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
@@ -4277,7 +4301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>104</v>
       </c>
@@ -4297,7 +4321,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
@@ -4317,7 +4341,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
@@ -4337,7 +4361,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
@@ -4357,7 +4381,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -4377,7 +4401,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
@@ -4397,7 +4421,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -4417,7 +4441,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -4437,7 +4461,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
@@ -4457,7 +4481,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
@@ -4477,7 +4501,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>199</v>
       </c>
@@ -4497,7 +4521,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>279</v>
       </c>
@@ -4517,7 +4541,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>117</v>
       </c>
@@ -4537,7 +4561,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -4557,7 +4581,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -4577,7 +4601,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>121</v>
       </c>
@@ -4597,7 +4621,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>122</v>
       </c>
@@ -4617,7 +4641,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>123</v>
       </c>
@@ -4637,7 +4661,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>357</v>
       </c>
@@ -4657,7 +4681,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
@@ -4677,7 +4701,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>125</v>
       </c>
@@ -4697,7 +4721,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>126</v>
       </c>
@@ -4717,7 +4741,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>127</v>
       </c>
@@ -4737,7 +4761,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>128</v>
       </c>
@@ -4757,7 +4781,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>129</v>
       </c>
@@ -4777,7 +4801,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>130</v>
       </c>
@@ -4797,7 +4821,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>131</v>
       </c>
@@ -4817,7 +4841,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>132</v>
       </c>
@@ -4837,7 +4861,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>133</v>
       </c>
@@ -4857,7 +4881,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>134</v>
       </c>
@@ -4877,7 +4901,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>135</v>
       </c>
@@ -4897,7 +4921,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>136</v>
       </c>
@@ -4917,7 +4941,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>137</v>
       </c>
@@ -4937,7 +4961,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>138</v>
       </c>
@@ -4957,7 +4981,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>139</v>
       </c>
@@ -4977,7 +5001,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
@@ -4997,7 +5021,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>141</v>
       </c>
@@ -5017,7 +5041,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>142</v>
       </c>
@@ -5037,7 +5061,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>143</v>
       </c>
@@ -5057,7 +5081,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>144</v>
       </c>
@@ -5077,7 +5101,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>145</v>
       </c>
@@ -5097,7 +5121,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>146</v>
       </c>
@@ -5117,7 +5141,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>147</v>
       </c>
@@ -5137,7 +5161,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>148</v>
       </c>
@@ -5157,7 +5181,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>149</v>
       </c>
@@ -5177,7 +5201,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>150</v>
       </c>
@@ -5197,7 +5221,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>151</v>
       </c>
@@ -5217,7 +5241,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>152</v>
       </c>
@@ -5237,7 +5261,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>153</v>
       </c>
@@ -5257,7 +5281,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>154</v>
       </c>
@@ -5277,7 +5301,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>155</v>
       </c>
@@ -5297,7 +5321,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>156</v>
       </c>
@@ -5317,7 +5341,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>157</v>
       </c>
@@ -5337,7 +5361,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>158</v>
       </c>
@@ -5357,7 +5381,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>159</v>
       </c>
@@ -5377,7 +5401,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>160</v>
       </c>
@@ -5397,7 +5421,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>161</v>
       </c>
@@ -5417,7 +5441,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>162</v>
       </c>
@@ -5437,7 +5461,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>163</v>
       </c>
@@ -5457,7 +5481,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>164</v>
       </c>
@@ -5477,7 +5501,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>165</v>
       </c>
@@ -5497,7 +5521,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>166</v>
       </c>
@@ -5517,7 +5541,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>167</v>
       </c>
@@ -5537,7 +5561,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>168</v>
       </c>
@@ -5557,7 +5581,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>169</v>
       </c>
@@ -5577,7 +5601,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>170</v>
       </c>
@@ -5597,7 +5621,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>171</v>
       </c>
@@ -5617,7 +5641,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>172</v>
       </c>
@@ -5637,7 +5661,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -5657,7 +5681,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>174</v>
       </c>
@@ -5677,7 +5701,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>175</v>
       </c>
@@ -5697,7 +5721,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>176</v>
       </c>
@@ -5717,7 +5741,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>177</v>
       </c>
@@ -5737,7 +5761,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>178</v>
       </c>
@@ -5757,7 +5781,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>179</v>
       </c>
@@ -5777,7 +5801,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>180</v>
       </c>
@@ -5797,7 +5821,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>181</v>
       </c>
@@ -5817,7 +5841,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>182</v>
       </c>
@@ -5837,7 +5861,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>183</v>
       </c>
@@ -5857,7 +5881,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>184</v>
       </c>
@@ -5877,7 +5901,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>185</v>
       </c>
@@ -5897,7 +5921,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>186</v>
       </c>
@@ -5917,7 +5941,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
         <v>187</v>
       </c>
@@ -5937,7 +5961,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>188</v>
       </c>
@@ -5957,7 +5981,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>189</v>
       </c>
@@ -5977,7 +6001,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -5997,7 +6021,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>191</v>
       </c>
@@ -6017,7 +6041,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>192</v>
       </c>
@@ -6037,7 +6061,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>193</v>
       </c>
@@ -6057,7 +6081,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
         <v>194</v>
       </c>
@@ -6077,7 +6101,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>332</v>
       </c>
@@ -6097,7 +6121,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>195</v>
       </c>
@@ -6117,7 +6141,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>196</v>
       </c>
@@ -6137,7 +6161,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>201</v>
       </c>
@@ -6157,7 +6181,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>202</v>
       </c>
@@ -6178,7 +6202,7 @@
       </c>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>203</v>
       </c>
@@ -6199,7 +6223,7 @@
       </c>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>258</v>
       </c>
@@ -6219,7 +6243,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>259</v>
       </c>
@@ -6239,7 +6263,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>260</v>
       </c>
@@ -6259,7 +6283,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>280</v>
       </c>
@@ -6279,7 +6303,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>308</v>
       </c>
@@ -6299,7 +6323,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>309</v>
       </c>
@@ -6319,7 +6343,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>310</v>
       </c>
@@ -6339,7 +6363,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>311</v>
       </c>
@@ -6359,7 +6383,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>313</v>
       </c>
@@ -6379,7 +6403,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>314</v>
       </c>
@@ -6399,7 +6423,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>316</v>
       </c>
@@ -6419,7 +6443,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>317</v>
       </c>
@@ -6439,7 +6463,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6459,7 +6483,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>321</v>
       </c>
@@ -6479,7 +6503,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>513</v>
       </c>
@@ -6499,7 +6523,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>516</v>
       </c>
@@ -6519,7 +6543,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>517</v>
       </c>
@@ -6539,7 +6563,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>521</v>
       </c>
@@ -6559,7 +6583,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>524</v>
       </c>
@@ -6579,7 +6603,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>526</v>
       </c>
@@ -6599,7 +6623,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>528</v>
       </c>
@@ -6619,7 +6643,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>532</v>
       </c>
@@ -6639,7 +6663,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>530</v>
       </c>
@@ -6659,7 +6683,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>534</v>
       </c>
@@ -6679,7 +6703,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>536</v>
       </c>
@@ -6699,7 +6723,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>538</v>
       </c>
@@ -6719,7 +6743,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>540</v>
       </c>
@@ -6739,7 +6763,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>542</v>
       </c>
@@ -6759,7 +6783,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>544</v>
       </c>
@@ -6779,7 +6803,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>546</v>
       </c>
@@ -6799,7 +6823,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>548</v>
       </c>
@@ -6819,7 +6843,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>551</v>
       </c>
@@ -6839,7 +6863,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>553</v>
       </c>
@@ -6859,7 +6883,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>555</v>
       </c>
@@ -6879,7 +6903,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>557</v>
       </c>
@@ -6899,7 +6923,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>559</v>
       </c>
@@ -6919,7 +6943,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>561</v>
       </c>
@@ -6939,7 +6963,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>563</v>
       </c>
@@ -6959,7 +6983,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>565</v>
       </c>
@@ -6979,7 +7003,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>567</v>
       </c>
@@ -6999,7 +7023,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>569</v>
       </c>
@@ -7019,7 +7043,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>571</v>
       </c>
@@ -7039,7 +7063,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>573</v>
       </c>
@@ -7059,7 +7083,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>575</v>
       </c>
@@ -7079,7 +7103,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>577</v>
       </c>
@@ -7099,7 +7123,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>579</v>
       </c>
@@ -7119,7 +7143,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>581</v>
       </c>
@@ -7139,7 +7163,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>583</v>
       </c>
@@ -7159,7 +7183,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>585</v>
       </c>
@@ -7176,15 +7200,15 @@
         <v>263</v>
       </c>
       <c r="F220" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221" s="3" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="3" t="s">
+      <c r="B221" s="9" t="s">
         <v>588</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>589</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>320</v>
@@ -7199,12 +7223,12 @@
         <v>518</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B222" s="9" t="s">
         <v>590</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>591</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>320</v>
@@ -7216,15 +7240,15 @@
         <v>263</v>
       </c>
       <c r="F222" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B223" s="9" t="s">
         <v>592</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>594</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>320</v>
@@ -7239,12 +7263,12 @@
         <v>518</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>320</v>
@@ -7259,12 +7283,12 @@
         <v>518</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>320</v>
@@ -7276,6 +7300,86 @@
         <v>118</v>
       </c>
       <c r="F225" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D226" s="5">
+        <v>45084</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D227" s="5">
+        <v>45091</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D228" s="5">
+        <v>45098</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D229" s="5">
+        <v>45105</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F229" s="7" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7501,13 +7605,17 @@
     <hyperlink ref="B218" r:id="rId217" location="/in-review/3521?reportId=160444&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
     <hyperlink ref="B219" r:id="rId218" location="/in-review/4746?reportId=160518&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
     <hyperlink ref="B220" r:id="rId219" location="/in-review/3521?reportId=160615&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
-    <hyperlink ref="B221" r:id="rId220" location="/in-review/4746?reportId=160805&amp;fromPage=event-dashboard-url" xr:uid="{A4EB6306-27C6-4CB3-8792-8136119EB61D}"/>
-    <hyperlink ref="B222" r:id="rId221" location="/in-review/3441?reportId=160942&amp;fromPage=event-dashboard-url" xr:uid="{FB7B1CEB-1988-4ED9-A7C3-E879495B0A4B}"/>
-    <hyperlink ref="B223" r:id="rId222" location="/in-review/4746?reportId=160934&amp;fromPage=event-dashboard-url" xr:uid="{39247B53-05FC-4848-B52F-67789D5847B5}"/>
-    <hyperlink ref="B224" r:id="rId223" location="/in-review/4746?reportId=161047&amp;fromPage=event-dashboard-url" xr:uid="{B380894E-2257-437D-AEA4-BC50011EF0FE}"/>
-    <hyperlink ref="B225" r:id="rId224" location="/in-review/4746?reportId=161174&amp;fromPage=event-dashboard-url" xr:uid="{52021645-E93A-48B4-8E05-191C0D2E7DB3}"/>
+    <hyperlink ref="B221" r:id="rId220" location="/in-review/4746?reportId=160805&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
+    <hyperlink ref="B222" r:id="rId221" location="/in-review/3441?reportId=160942&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
+    <hyperlink ref="B223" r:id="rId222" location="/in-review/4746?reportId=160934&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
+    <hyperlink ref="B224" r:id="rId223" location="/in-review/4746?reportId=161047&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
+    <hyperlink ref="B225" r:id="rId224" location="/in-review/4746?reportId=161174&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
+    <hyperlink ref="B226" r:id="rId225" location="/in-review/4746?reportId=161276&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
+    <hyperlink ref="B227" r:id="rId226" location="/in-review/4746?reportId=161355&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
+    <hyperlink ref="B228" r:id="rId227" location="/in-review/4746?reportId=161451&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
+    <hyperlink ref="B229" r:id="rId228" location="/in-review/4746?reportId=161567&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId225"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId229"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9BC6C21-7530-4CC5-89BA-37C472031070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9B013BC-5CC0-4782-AA0F-756EA9170D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="615">
   <si>
     <t>source</t>
   </si>
@@ -1846,6 +1846,30 @@
   </si>
   <si>
     <t>final report from Greece that the event is resolved</t>
+  </si>
+  <si>
+    <t>FUR_161671</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=161671&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_161792</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=161792&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_161892</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=161892&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_162008</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=162008&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2785,10 +2809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G233"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A229" sqref="A229"/>
+      <selection activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7380,6 +7404,86 @@
         <v>118</v>
       </c>
       <c r="F229" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D230" s="5">
+        <v>45112</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D231" s="5">
+        <v>45119</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F231" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D232" s="5">
+        <v>45126</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F232" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D233" s="5">
+        <v>45133</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F233" s="7" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7614,8 +7718,12 @@
     <hyperlink ref="B227" r:id="rId226" location="/in-review/4746?reportId=161355&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
     <hyperlink ref="B228" r:id="rId227" location="/in-review/4746?reportId=161451&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
     <hyperlink ref="B229" r:id="rId228" location="/in-review/4746?reportId=161567&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
+    <hyperlink ref="B230" r:id="rId229" location="/in-review/4746?reportId=161671&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
+    <hyperlink ref="B231" r:id="rId230" location="/in-review/4746?reportId=161792&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
+    <hyperlink ref="B232" r:id="rId231" location="/in-review/4746?reportId=161892&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
+    <hyperlink ref="B233" r:id="rId232" location="/in-review/4746?reportId=162008&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId229"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId233"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa\Desktop\sars-ani\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa.VMUDOMAIN\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9B013BC-5CC0-4782-AA0F-756EA9170D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B20088FB-CF70-4410-9B4B-AE3BDFE0D21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="632">
   <si>
     <t>source</t>
   </si>
@@ -1870,6 +1870,57 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/4746?reportId=162008&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_162445</t>
+  </si>
+  <si>
+    <t>final report from Poland that 152675 is resolved</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4124?reportId=162445&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_162447</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3777?reportId=162447&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>final report from Poland that 150438 is resolved</t>
+  </si>
+  <si>
+    <t>FUR_162448</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4159?reportId=162448&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>final report from Poland that 152842 is resolved</t>
+  </si>
+  <si>
+    <t>FUR_162240</t>
+  </si>
+  <si>
+    <t>FUR_162326</t>
+  </si>
+  <si>
+    <t>FUR_162437</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=162240&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=162326&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=162437&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_162544</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=162544&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2809,10 +2860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:G240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7484,6 +7535,146 @@
         <v>118</v>
       </c>
       <c r="F233" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D234" s="5">
+        <v>45147</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F234" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D235" s="5">
+        <v>45154</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F235" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D236" s="5">
+        <v>45161</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D237" s="5">
+        <v>45162</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D238" s="5">
+        <v>45162</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D239" s="5">
+        <v>45162</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D240" s="5">
+        <v>45168</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F240" s="7" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7722,8 +7913,15 @@
     <hyperlink ref="B231" r:id="rId230" location="/in-review/4746?reportId=161792&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
     <hyperlink ref="B232" r:id="rId231" location="/in-review/4746?reportId=161892&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
     <hyperlink ref="B233" r:id="rId232" location="/in-review/4746?reportId=162008&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
+    <hyperlink ref="B237" r:id="rId233" location="/in-review/4124?reportId=162445&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
+    <hyperlink ref="B238" r:id="rId234" location="/in-review/3777?reportId=162447&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
+    <hyperlink ref="B239" r:id="rId235" location="/in-review/4159?reportId=162448&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
+    <hyperlink ref="B234" r:id="rId236" location="/in-review/4746?reportId=162240&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
+    <hyperlink ref="B235" r:id="rId237" location="/in-review/4746?reportId=162326&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
+    <hyperlink ref="B236" r:id="rId238" location="/in-review/4746?reportId=162437&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
+    <hyperlink ref="B240" r:id="rId239" location="/in-review/4746?reportId=162544&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId233"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId240"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa.VMUDOMAIN\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B20088FB-CF70-4410-9B4B-AE3BDFE0D21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD658B32-AB47-4ACE-B5FA-D0BBAA278389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="647">
   <si>
     <t>source</t>
   </si>
@@ -1921,6 +1921,51 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/4746?reportId=162544&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_163089</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=163089&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_163232</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=163232&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_163389</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=163389&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_163544</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4746?reportId=163544&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_163226</t>
+  </si>
+  <si>
+    <t>update without new cases</t>
+  </si>
+  <si>
+    <t>final report from Brazil that the event is resolved</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3350?reportId=163226&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_163133</t>
+  </si>
+  <si>
+    <t>final report from USA that the event is resolved</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/3174?reportId=163133&amp;fromPage=event-dashboard-url</t>
   </si>
 </sst>
 </file>
@@ -2860,23 +2905,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2896,7 +2941,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2916,7 +2961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2936,7 +2981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2956,7 +3001,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -2976,7 +3021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2996,7 +3041,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -3016,7 +3061,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -3036,7 +3081,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -3056,7 +3101,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -3076,7 +3121,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -3096,7 +3141,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3116,7 +3161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -3136,7 +3181,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -3156,7 +3201,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -3176,7 +3221,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -3196,7 +3241,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -3216,7 +3261,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3236,7 +3281,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -3256,7 +3301,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -3276,7 +3321,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -3296,7 +3341,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -3316,7 +3361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -3336,7 +3381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -3356,7 +3401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -3376,7 +3421,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -3396,7 +3441,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -3416,7 +3461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -3436,7 +3481,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3456,7 +3501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -3476,7 +3521,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
@@ -3496,7 +3541,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
@@ -3516,7 +3561,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -3536,7 +3581,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -3556,7 +3601,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
@@ -3576,7 +3621,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
@@ -3596,7 +3641,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -3616,7 +3661,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -3636,7 +3681,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -3656,7 +3701,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -3676,7 +3721,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -3696,7 +3741,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
@@ -3716,7 +3761,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -3736,7 +3781,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
@@ -3756,7 +3801,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -3776,7 +3821,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -3796,7 +3841,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -3816,7 +3861,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -3836,7 +3881,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -3856,7 +3901,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
@@ -3876,7 +3921,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
@@ -3896,7 +3941,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3916,7 +3961,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3936,7 +3981,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>70</v>
       </c>
@@ -3956,7 +4001,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
@@ -3976,7 +4021,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
@@ -3996,7 +4041,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -4016,7 +4061,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -4036,7 +4081,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
@@ -4056,7 +4101,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>78</v>
       </c>
@@ -4076,7 +4121,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
@@ -4096,7 +4141,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>80</v>
       </c>
@@ -4116,7 +4161,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
@@ -4136,7 +4181,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -4156,7 +4201,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>86</v>
       </c>
@@ -4176,7 +4221,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>87</v>
       </c>
@@ -4196,7 +4241,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>88</v>
       </c>
@@ -4216,7 +4261,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>90</v>
       </c>
@@ -4236,7 +4281,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>93</v>
       </c>
@@ -4256,7 +4301,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
@@ -4276,7 +4321,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>96</v>
       </c>
@@ -4296,7 +4341,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
@@ -4316,7 +4361,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
@@ -4336,7 +4381,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>101</v>
       </c>
@@ -4356,7 +4401,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
@@ -4376,7 +4421,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>104</v>
       </c>
@@ -4396,7 +4441,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
@@ -4416,7 +4461,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
@@ -4436,7 +4481,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
@@ -4456,7 +4501,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -4476,7 +4521,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
@@ -4496,7 +4541,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -4516,7 +4561,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -4536,7 +4581,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
@@ -4556,7 +4601,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
@@ -4576,7 +4621,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>199</v>
       </c>
@@ -4596,7 +4641,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>279</v>
       </c>
@@ -4616,7 +4661,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>117</v>
       </c>
@@ -4636,7 +4681,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -4656,7 +4701,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -4676,7 +4721,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>121</v>
       </c>
@@ -4696,7 +4741,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>122</v>
       </c>
@@ -4716,7 +4761,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>123</v>
       </c>
@@ -4736,7 +4781,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>357</v>
       </c>
@@ -4756,7 +4801,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
@@ -4776,7 +4821,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>125</v>
       </c>
@@ -4796,7 +4841,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>126</v>
       </c>
@@ -4816,7 +4861,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>127</v>
       </c>
@@ -4836,7 +4881,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>128</v>
       </c>
@@ -4856,7 +4901,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>129</v>
       </c>
@@ -4876,7 +4921,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>130</v>
       </c>
@@ -4896,7 +4941,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>131</v>
       </c>
@@ -4916,7 +4961,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>132</v>
       </c>
@@ -4936,7 +4981,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>133</v>
       </c>
@@ -4956,7 +5001,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>134</v>
       </c>
@@ -4976,7 +5021,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>135</v>
       </c>
@@ -4996,7 +5041,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>136</v>
       </c>
@@ -5016,7 +5061,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>137</v>
       </c>
@@ -5036,7 +5081,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>138</v>
       </c>
@@ -5056,7 +5101,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>139</v>
       </c>
@@ -5076,7 +5121,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
@@ -5096,7 +5141,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>141</v>
       </c>
@@ -5116,7 +5161,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>142</v>
       </c>
@@ -5136,7 +5181,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>143</v>
       </c>
@@ -5156,7 +5201,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>144</v>
       </c>
@@ -5176,7 +5221,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>145</v>
       </c>
@@ -5196,7 +5241,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>146</v>
       </c>
@@ -5216,7 +5261,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>147</v>
       </c>
@@ -5236,7 +5281,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>148</v>
       </c>
@@ -5256,7 +5301,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>149</v>
       </c>
@@ -5276,7 +5321,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>150</v>
       </c>
@@ -5296,7 +5341,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>151</v>
       </c>
@@ -5316,7 +5361,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>152</v>
       </c>
@@ -5336,7 +5381,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>153</v>
       </c>
@@ -5356,7 +5401,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>154</v>
       </c>
@@ -5376,7 +5421,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>155</v>
       </c>
@@ -5396,7 +5441,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>156</v>
       </c>
@@ -5416,7 +5461,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>157</v>
       </c>
@@ -5436,7 +5481,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>158</v>
       </c>
@@ -5456,7 +5501,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>159</v>
       </c>
@@ -5476,7 +5521,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>160</v>
       </c>
@@ -5496,7 +5541,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>161</v>
       </c>
@@ -5516,7 +5561,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>162</v>
       </c>
@@ -5536,7 +5581,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>163</v>
       </c>
@@ -5556,7 +5601,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>164</v>
       </c>
@@ -5576,7 +5621,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>165</v>
       </c>
@@ -5596,7 +5641,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>166</v>
       </c>
@@ -5616,7 +5661,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>167</v>
       </c>
@@ -5636,7 +5681,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>168</v>
       </c>
@@ -5656,7 +5701,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>169</v>
       </c>
@@ -5676,7 +5721,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>170</v>
       </c>
@@ -5696,7 +5741,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>171</v>
       </c>
@@ -5716,7 +5761,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>172</v>
       </c>
@@ -5736,7 +5781,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -5756,7 +5801,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>174</v>
       </c>
@@ -5776,7 +5821,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>175</v>
       </c>
@@ -5796,7 +5841,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>176</v>
       </c>
@@ -5816,7 +5861,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>177</v>
       </c>
@@ -5836,7 +5881,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>178</v>
       </c>
@@ -5856,7 +5901,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>179</v>
       </c>
@@ -5876,7 +5921,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>180</v>
       </c>
@@ -5896,7 +5941,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>181</v>
       </c>
@@ -5916,7 +5961,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>182</v>
       </c>
@@ -5936,7 +5981,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>183</v>
       </c>
@@ -5956,7 +6001,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>184</v>
       </c>
@@ -5976,7 +6021,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>185</v>
       </c>
@@ -5996,7 +6041,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>186</v>
       </c>
@@ -6016,7 +6061,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>187</v>
       </c>
@@ -6036,7 +6081,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>188</v>
       </c>
@@ -6056,7 +6101,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>189</v>
       </c>
@@ -6076,7 +6121,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -6096,7 +6141,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>191</v>
       </c>
@@ -6116,7 +6161,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>192</v>
       </c>
@@ -6136,7 +6181,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>193</v>
       </c>
@@ -6156,7 +6201,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>194</v>
       </c>
@@ -6176,7 +6221,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>332</v>
       </c>
@@ -6196,7 +6241,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>195</v>
       </c>
@@ -6216,7 +6261,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>196</v>
       </c>
@@ -6236,7 +6281,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>201</v>
       </c>
@@ -6256,7 +6301,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>202</v>
       </c>
@@ -6277,7 +6322,7 @@
       </c>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>203</v>
       </c>
@@ -6298,7 +6343,7 @@
       </c>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>258</v>
       </c>
@@ -6318,7 +6363,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>259</v>
       </c>
@@ -6338,7 +6383,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>260</v>
       </c>
@@ -6358,7 +6403,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>280</v>
       </c>
@@ -6378,7 +6423,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>308</v>
       </c>
@@ -6398,7 +6443,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>309</v>
       </c>
@@ -6418,7 +6463,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>310</v>
       </c>
@@ -6438,7 +6483,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>311</v>
       </c>
@@ -6458,7 +6503,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>313</v>
       </c>
@@ -6478,7 +6523,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>314</v>
       </c>
@@ -6498,7 +6543,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>316</v>
       </c>
@@ -6518,7 +6563,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>317</v>
       </c>
@@ -6538,7 +6583,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6558,7 +6603,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>321</v>
       </c>
@@ -6578,7 +6623,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>513</v>
       </c>
@@ -6598,7 +6643,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>516</v>
       </c>
@@ -6618,7 +6663,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>517</v>
       </c>
@@ -6638,7 +6683,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>521</v>
       </c>
@@ -6658,7 +6703,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>524</v>
       </c>
@@ -6678,7 +6723,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>526</v>
       </c>
@@ -6698,7 +6743,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>528</v>
       </c>
@@ -6718,7 +6763,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>532</v>
       </c>
@@ -6738,7 +6783,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>530</v>
       </c>
@@ -6758,7 +6803,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>534</v>
       </c>
@@ -6778,7 +6823,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>536</v>
       </c>
@@ -6798,7 +6843,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>538</v>
       </c>
@@ -6818,7 +6863,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>540</v>
       </c>
@@ -6838,7 +6883,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>542</v>
       </c>
@@ -6858,7 +6903,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>544</v>
       </c>
@@ -6878,7 +6923,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>546</v>
       </c>
@@ -6898,7 +6943,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>548</v>
       </c>
@@ -6918,7 +6963,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>551</v>
       </c>
@@ -6938,7 +6983,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>553</v>
       </c>
@@ -6958,7 +7003,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>555</v>
       </c>
@@ -6978,7 +7023,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>557</v>
       </c>
@@ -6998,7 +7043,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>559</v>
       </c>
@@ -7018,7 +7063,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>561</v>
       </c>
@@ -7038,7 +7083,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>563</v>
       </c>
@@ -7058,7 +7103,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>565</v>
       </c>
@@ -7078,7 +7123,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>567</v>
       </c>
@@ -7098,7 +7143,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>569</v>
       </c>
@@ -7118,7 +7163,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>571</v>
       </c>
@@ -7138,7 +7183,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>573</v>
       </c>
@@ -7158,7 +7203,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>575</v>
       </c>
@@ -7178,7 +7223,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>577</v>
       </c>
@@ -7198,7 +7243,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>579</v>
       </c>
@@ -7218,7 +7263,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>581</v>
       </c>
@@ -7238,7 +7283,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>583</v>
       </c>
@@ -7258,7 +7303,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>585</v>
       </c>
@@ -7278,7 +7323,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>587</v>
       </c>
@@ -7298,7 +7343,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>589</v>
       </c>
@@ -7318,7 +7363,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>591</v>
       </c>
@@ -7338,7 +7383,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>593</v>
       </c>
@@ -7358,7 +7403,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>595</v>
       </c>
@@ -7378,7 +7423,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>597</v>
       </c>
@@ -7398,7 +7443,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>599</v>
       </c>
@@ -7418,7 +7463,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>601</v>
       </c>
@@ -7438,7 +7483,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>603</v>
       </c>
@@ -7458,7 +7503,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>607</v>
       </c>
@@ -7478,7 +7523,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>609</v>
       </c>
@@ -7498,7 +7543,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>611</v>
       </c>
@@ -7518,7 +7563,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>613</v>
       </c>
@@ -7538,7 +7583,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>624</v>
       </c>
@@ -7558,7 +7603,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>625</v>
       </c>
@@ -7578,7 +7623,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>626</v>
       </c>
@@ -7598,7 +7643,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>615</v>
       </c>
@@ -7618,7 +7663,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>618</v>
       </c>
@@ -7638,7 +7683,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>621</v>
       </c>
@@ -7658,7 +7703,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>630</v>
       </c>
@@ -7676,6 +7721,126 @@
       </c>
       <c r="F240" s="7" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D241" s="5">
+        <v>45203</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D242" s="5">
+        <v>45210</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D243" s="5">
+        <v>45217</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F243" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D244" s="5">
+        <v>45224</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F244" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D245" s="5">
+        <v>45210</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D246" s="5">
+        <v>45204</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -7920,8 +8085,14 @@
     <hyperlink ref="B235" r:id="rId237" location="/in-review/4746?reportId=162326&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
     <hyperlink ref="B236" r:id="rId238" location="/in-review/4746?reportId=162437&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
     <hyperlink ref="B240" r:id="rId239" location="/in-review/4746?reportId=162544&amp;fromPage=event-dashboard-url" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
+    <hyperlink ref="B241" r:id="rId240" location="/in-review/4746?reportId=163089&amp;fromPage=event-dashboard-url" xr:uid="{51163B05-28A9-45E8-BC78-4933422E6B19}"/>
+    <hyperlink ref="B242" r:id="rId241" location="/in-review/4746?reportId=163232&amp;fromPage=event-dashboard-url" xr:uid="{81FD0283-1EB4-4352-944F-04FB077D8957}"/>
+    <hyperlink ref="B243" r:id="rId242" location="/in-review/4746?reportId=163389&amp;fromPage=event-dashboard-url" xr:uid="{C552350C-2B7C-4138-A9F7-EB42ED299288}"/>
+    <hyperlink ref="B244" r:id="rId243" location="/in-review/4746?reportId=163544&amp;fromPage=event-dashboard-url" xr:uid="{5E228513-A303-42B3-9E4B-FC40CB83880D}"/>
+    <hyperlink ref="B245" r:id="rId244" location="/in-review/3350?reportId=163226&amp;fromPage=event-dashboard-url" xr:uid="{6CDAC553-E15A-4F0B-B1B8-974E31C75760}"/>
+    <hyperlink ref="B246" r:id="rId245" location="/in-review/3174?reportId=163133&amp;fromPage=event-dashboard-url" xr:uid="{DE19BDAB-5486-4BE1-9C1D-587045A37E46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId240"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId246"/>
 </worksheet>
 </file>
--- a/sars_ani_excluded_rep.xlsx
+++ b/sars_ani_excluded_rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desvarsa.VMUDOMAIN\Desktop\sars-ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD658B32-AB47-4ACE-B5FA-D0BBAA278389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81F448C8-4AD0-4F10-874F-582F24A11FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="19190" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excluded" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="653">
   <si>
     <t>source</t>
   </si>
@@ -1966,6 +1966,24 @@
   </si>
   <si>
     <t>https://wahis.woah.org/#/in-review/3174?reportId=163133&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>FUR_164981</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/4099?reportId=164981&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>final report from Croatia that the event is resolved</t>
+  </si>
+  <si>
+    <t>FUR_164116</t>
+  </si>
+  <si>
+    <t>https://wahis.woah.org/#/in-review/5293?reportId=164116&amp;fromPage=event-dashboard-url</t>
+  </si>
+  <si>
+    <t>epidemiological situation in Bulgaria remains unchanged since the last report</t>
   </si>
 </sst>
 </file>
@@ -2905,23 +2923,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G246"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+      <selection activeCell="F249" sqref="F249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2941,7 +2959,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2961,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2981,7 +2999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -3001,7 +3019,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -3021,7 +3039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -3041,7 +3059,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -3061,7 +3079,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -3081,7 +3099,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -3101,7 +3119,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -3121,7 +3139,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -3141,7 +3159,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3161,7 +3179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -3181,7 +3199,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -3201,7 +3219,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -3221,7 +3239,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -3241,7 +3259,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -3261,7 +3279,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3281,7 +3299,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -3301,7 +3319,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -3321,7 +3339,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -3341,7 +3359,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -3361,7 +3379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -3381,7 +3399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -3401,7 +3419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -3421,7 +3439,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -3441,7 +3459,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -3461,7 +3479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -3481,7 +3499,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3501,7 +3519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -3521,7 +3539,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
@@ -3541,7 +3559,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
@@ -3561,7 +3579,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -3581,7 +3599,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -3601,7 +3619,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
@@ -3621,7 +3639,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
@@ -3641,7 +3659,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -3661,7 +3679,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -3681,7 +3699,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -3701,7 +3719,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -3721,7 +3739,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -3741,7 +3759,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
@@ -3761,7 +3779,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -3781,7 +3799,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
@@ -3801,7 +3819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -3821,7 +3839,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -3841,7 +3859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -3861,7 +3879,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -3881,7 +3899,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -3901,7 +3919,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
@@ -3921,7 +3939,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
@@ -3941,7 +3959,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3961,7 +3979,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3981,7 +3999,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>70</v>
       </c>
@@ -4001,7 +4019,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>1</v>
       </c>
@@ -4021,7 +4039,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
@@ -4041,7 +4059,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -4061,7 +4079,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -4081,7 +4099,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
@@ -4101,7 +4119,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>78</v>
       </c>
@@ -4121,7 +4139,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
@@ -4141,7 +4159,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>80</v>
       </c>
@@ -4161,7 +4179,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
@@ -4181,7 +4199,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -4201,7 +4219,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>86</v>
       </c>
@@ -4221,7 +4239,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>87</v>
       </c>
@@ -4241,7 +4259,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>88</v>
       </c>
@@ -4261,7 +4279,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>90</v>
       </c>
@@ -4281,7 +4299,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>93</v>
       </c>
@@ -4301,7 +4319,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
@@ -4321,7 +4339,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>96</v>
       </c>
@@ -4341,7 +4359,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
@@ -4361,7 +4379,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
@@ -4381,7 +4399,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>101</v>
       </c>
@@ -4401,7 +4419,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
@@ -4421,7 +4439,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>104</v>
       </c>
@@ -4441,7 +4459,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
@@ -4461,7 +4479,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
@@ -4481,7 +4499,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
@@ -4501,7 +4519,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -4521,7 +4539,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
@@ -4541,7 +4559,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -4561,7 +4579,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -4581,7 +4599,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
@@ -4601,7 +4619,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
@@ -4621,7 +4639,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>199</v>
       </c>
@@ -4641,7 +4659,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>279</v>
       </c>
@@ -4661,7 +4679,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>117</v>
       </c>
@@ -4681,7 +4699,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -4701,7 +4719,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -4721,7 +4739,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
